--- a/Liste des évolutions.xlsx
+++ b/Liste des évolutions.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://arcelormittal-my.sharepoint.com/personal/u049298_arcelormittal_es1/Documents/1_Administratif/Perso/projetWebRPG/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard\Desktop\CESI\PYTHON\projetWebRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="358" documentId="8_{535D38EE-B244-4780-AED4-3C048858F5B9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{28B41C0F-E72A-4B4A-9BAB-E1438CC077AE}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" xr2:uid="{A052D7F7-200B-4224-AA67-DF3328173750}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385"/>
   </bookViews>
   <sheets>
     <sheet name="Evolutions" sheetId="1" r:id="rId1"/>
@@ -18,7 +17,7 @@
     <sheet name="Info Lvl" sheetId="2" r:id="rId3"/>
     <sheet name="Feuil2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -294,12 +293,15 @@
   </si>
   <si>
     <t>compétence physique(exemple charge)</t>
+  </si>
+  <si>
+    <t>En prod</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -335,7 +337,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -363,26 +365,41 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="24">
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -422,7 +439,6 @@
         <sz val="8"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <fill>
@@ -434,6 +450,22 @@
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -443,7 +475,76 @@
         <sz val="8"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -458,7 +559,6 @@
         <sz val="8"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -473,113 +573,9 @@
         <sz val="8"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -598,49 +594,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{41EA5FFA-96C2-45C4-87CA-8EF6AB511A6E}" name="Tableau1" displayName="Tableau1" ref="B2:H30" totalsRowShown="0" headerRowDxfId="23" dataDxfId="7">
-  <autoFilter ref="B2:H30" xr:uid="{ADA84220-FEF1-46FA-9353-9845D6B908FE}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B2:H30" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="B2:H30"/>
   <sortState ref="B3:H30">
     <sortCondition ref="D2:D30"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{6F977295-2A95-40BB-9B94-B45C44CCCDEB}" name="Fonctionnalité" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{C3F52030-6F97-4647-9D36-56316EB9BD9C}" name="Desciption" dataDxfId="13"/>
-    <tableColumn id="5" xr3:uid="{49FDEFAF-8B03-4311-B6DF-A372DE808374}" name="Priorité" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{A9B9A0AF-8B1D-484C-BCB4-57DAA69E8A95}" name="Etat" dataDxfId="11"/>
-    <tableColumn id="6" xr3:uid="{FFAA8598-EDC4-4157-915A-B5B13604D9F9}" name="Date début" dataDxfId="10"/>
-    <tableColumn id="7" xr3:uid="{B01C389B-049F-4EB0-A94C-332BCF0446E4}" name="Date fin" dataDxfId="9"/>
-    <tableColumn id="9" xr3:uid="{6B7733ED-E352-443B-92AE-AF3CF27AB38F}" name="Dev" dataDxfId="8"/>
+    <tableColumn id="1" name="Fonctionnalité" dataDxfId="21"/>
+    <tableColumn id="2" name="Desciption" dataDxfId="20"/>
+    <tableColumn id="5" name="Priorité" dataDxfId="19"/>
+    <tableColumn id="3" name="Etat" dataDxfId="18"/>
+    <tableColumn id="6" name="Date début" dataDxfId="17"/>
+    <tableColumn id="7" name="Date fin" dataDxfId="16"/>
+    <tableColumn id="9" name="Dev" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9A44EE58-74AC-429A-8FBF-7A4CE010128F}" name="Tableau4" displayName="Tableau4" ref="B2:F6" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
-  <autoFilter ref="B2:F6" xr:uid="{401C3DD0-F4A8-423D-B51E-509C04CC771D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="B2:F6" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B2:F6"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{6C24FCBB-593C-4671-A2C4-C927412F9E83}" name="Bug" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{62CCA482-5A5A-4C29-9B42-3E63D51F682C}" name="Cause"/>
-    <tableColumn id="3" xr3:uid="{536B966E-FEDE-4471-8306-2F1E1D542526}" name="Etat" dataDxfId="4"/>
-    <tableColumn id="4" xr3:uid="{AAEC5031-52E7-4586-BC76-97FB6A70BDC1}" name="Date report" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{6CDB48B8-325E-48F5-AD68-C75D2C896F41}" name="Date closure" dataDxfId="2"/>
+    <tableColumn id="1" name="Bug" dataDxfId="12"/>
+    <tableColumn id="2" name="Cause"/>
+    <tableColumn id="3" name="Etat" dataDxfId="11"/>
+    <tableColumn id="4" name="Date report" dataDxfId="10"/>
+    <tableColumn id="5" name="Date closure" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{DB772001-B0A9-40D9-9B9C-72ED5D0AFE0C}" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="22">
-  <autoFilter ref="B2:D32" xr:uid="{F853BE75-B3ED-4974-BFBA-4568633A9E79}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="B2:D32"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D01CFAEC-04FF-40BF-A086-0A8645C9259C}" name="LVL" dataDxfId="21">
+    <tableColumn id="1" name="LVL" dataDxfId="7">
       <calculatedColumnFormula>B2+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{8BBA4156-57BD-4F3C-A78C-C648A621F52D}" name="Xp avant le niveau suivant" dataDxfId="20">
+    <tableColumn id="2" name="Xp avant le niveau suivant" dataDxfId="6">
       <calculatedColumnFormula>$C$3+B2*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{42F1C891-9983-429A-A3C3-6FF1B9B6A278}" name="XP depuis le début du jeu" dataDxfId="19">
+    <tableColumn id="3" name="XP depuis le début du jeu" dataDxfId="5">
       <calculatedColumnFormula>C3+D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -649,12 +645,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{C3B9FDDD-0B79-44FC-A2CA-BC4DE9DA8644}" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
-  <autoFilter ref="H2:J3" xr:uid="{D8BF23CC-243B-4C23-AC1B-183899852105}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="H2:J3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{A7161BCA-A8C1-48DC-B6F2-0BA2A1EF7E1E}" name="lvl actuelle" dataDxfId="16"/>
-    <tableColumn id="2" xr3:uid="{BBFD8630-2B34-45EA-9885-76BE11B222E7}" name="xp actuelle" dataDxfId="15"/>
-    <tableColumn id="3" xr3:uid="{9162B359-A327-45E2-9CC1-ABE51195BEC1}" name="up ou pas ?" dataDxfId="14">
+    <tableColumn id="1" name="lvl actuelle" dataDxfId="2"/>
+    <tableColumn id="2" name="xp actuelle" dataDxfId="1"/>
+    <tableColumn id="3" name="up ou pas ?" dataDxfId="0">
       <calculatedColumnFormula>IF(Tableau3[xp actuelle]&gt;=100+10*(Tableau3[lvl actuelle]-1),"Oui","Non")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -958,11 +954,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5644FFC1-9C62-4CC1-8A1D-5DD5328F5C12}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1031,10 +1027,14 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="F4" s="11">
+        <v>43863</v>
+      </c>
+      <c r="G4" s="11">
+        <v>43863</v>
+      </c>
       <c r="H4" s="7" t="s">
         <v>15</v>
       </c>
@@ -1066,7 +1066,9 @@
       <c r="D6" s="7">
         <v>1</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="7" t="s">
@@ -1103,7 +1105,9 @@
       <c r="D8" s="7">
         <v>1</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="7"/>
@@ -1482,7 +1486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2DD9C30-3811-4B83-8E3D-54C33354DE57}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1550,7 +1554,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ADE394F6-28BC-4CAA-B44B-BC3D6CFFFD2C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J1401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6137,7 +6141,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF11D46-F7A4-4E88-A41D-D53FFE064777}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6210,9 +6214,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6419,27 +6426,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6464,9 +6459,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Liste des évolutions.xlsx
+++ b/Liste des évolutions.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard\Desktop\CESI\PYTHON\projetWebRPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u049298\Desktop\PYTHON_DJANGO\projetWebRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8C6DE0-00C1-493F-A428-CFA3AF2F6940}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evolutions" sheetId="1" r:id="rId1"/>
@@ -17,7 +18,7 @@
     <sheet name="Info Lvl" sheetId="2" r:id="rId3"/>
     <sheet name="Feuil2" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -226,9 +227,6 @@
     <t>Descendre le taux de drop des legendaires a 1/100</t>
   </si>
   <si>
-    <t>Les rareté des equipement dans l'équipement</t>
-  </si>
-  <si>
     <t>quand on boit une potion ne pas dépaser son PV MAX</t>
   </si>
   <si>
@@ -253,9 +251,6 @@
     <t>Date closure</t>
   </si>
   <si>
-    <t>Ecrire les les noms des slots dans le modal</t>
-  </si>
-  <si>
     <t>Cause</t>
   </si>
   <si>
@@ -296,12 +291,21 @@
   </si>
   <si>
     <t>En prod</t>
+  </si>
+  <si>
+    <t>Ecrire les les noms des slots dans l'inventaire</t>
+  </si>
+  <si>
+    <t>DevMerge</t>
+  </si>
+  <si>
+    <t>NassimDev</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -594,49 +598,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B2:H30" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
-  <autoFilter ref="B2:H30"/>
-  <sortState ref="B3:H30">
-    <sortCondition ref="D2:D30"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="B2:H29" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="B2:H29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="B3:H29">
+    <sortCondition ref="D2:D29"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" name="Fonctionnalité" dataDxfId="21"/>
-    <tableColumn id="2" name="Desciption" dataDxfId="20"/>
-    <tableColumn id="5" name="Priorité" dataDxfId="19"/>
-    <tableColumn id="3" name="Etat" dataDxfId="18"/>
-    <tableColumn id="6" name="Date début" dataDxfId="17"/>
-    <tableColumn id="7" name="Date fin" dataDxfId="16"/>
-    <tableColumn id="9" name="Dev" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fonctionnalité" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Desciption" dataDxfId="20"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Priorité" dataDxfId="19"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Etat" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date début" dataDxfId="17"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Date fin" dataDxfId="16"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dev" dataDxfId="15"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="B2:F6" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="B2:F6"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:F6" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="B2:F6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Bug" dataDxfId="12"/>
-    <tableColumn id="2" name="Cause"/>
-    <tableColumn id="3" name="Etat" dataDxfId="11"/>
-    <tableColumn id="4" name="Date report" dataDxfId="10"/>
-    <tableColumn id="5" name="Date closure" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bug" dataDxfId="12"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cause"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Etat" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Date report" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Date closure" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="8">
-  <autoFilter ref="B2:D32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="8">
+  <autoFilter ref="B2:D32" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="LVL" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="LVL" dataDxfId="7">
       <calculatedColumnFormula>B2+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" name="Xp avant le niveau suivant" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Xp avant le niveau suivant" dataDxfId="6">
       <calculatedColumnFormula>$C$3+B2*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" name="XP depuis le début du jeu" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="XP depuis le début du jeu" dataDxfId="5">
       <calculatedColumnFormula>C3+D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -645,12 +649,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
-  <autoFilter ref="H2:J3"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="H2:J3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="lvl actuelle" dataDxfId="2"/>
-    <tableColumn id="2" name="xp actuelle" dataDxfId="1"/>
-    <tableColumn id="3" name="up ou pas ?" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="lvl actuelle" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="xp actuelle" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="up ou pas ?" dataDxfId="0">
       <calculatedColumnFormula>IF(Tableau3[xp actuelle]&gt;=100+10*(Tableau3[lvl actuelle]-1),"Oui","Non")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -954,11 +958,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:M30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B2:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1027,7 +1031,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F4" s="11">
         <v>43863</v>
@@ -1067,10 +1071,14 @@
         <v>1</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="F6" s="11">
+        <v>43863</v>
+      </c>
+      <c r="G6" s="11">
+        <v>43863</v>
+      </c>
       <c r="H6" s="7" t="s">
         <v>15</v>
       </c>
@@ -1100,17 +1108,23 @@
         <v>53</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D8" s="7">
         <v>1</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="F8" s="11">
+        <v>43864</v>
+      </c>
+      <c r="G8" s="11">
+        <v>43864</v>
+      </c>
+      <c r="H8" s="7" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="9" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B9" s="6" t="s">
@@ -1125,8 +1139,8 @@
       <c r="E9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
       <c r="H9" s="7" t="s">
         <v>10</v>
       </c>
@@ -1140,26 +1154,38 @@
         <v>2</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="F10" s="11">
+        <v>43864</v>
+      </c>
+      <c r="G10" s="11">
+        <v>43864</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="6" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="C11" s="6"/>
       <c r="D11" s="7">
         <v>2</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
+        <v>87</v>
+      </c>
+      <c r="F11" s="11">
+        <v>43864</v>
+      </c>
+      <c r="G11" s="11">
+        <v>43864</v>
+      </c>
+      <c r="H11" s="7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="12" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
@@ -1182,7 +1208,7 @@
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>55</v>
@@ -1202,7 +1228,7 @@
         <v>58</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
@@ -1282,25 +1308,29 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B19" s="6" t="s">
-        <v>64</v>
-      </c>
-      <c r="C19" s="6"/>
+        <v>28</v>
+      </c>
+      <c r="C19" s="6" t="s">
+        <v>29</v>
+      </c>
       <c r="D19" s="7">
-        <v>3</v>
-      </c>
-      <c r="E19" s="7"/>
+        <v>4</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
     </row>
     <row r="20" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B20" s="6" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D20" s="7">
         <v>4</v>
@@ -1310,33 +1340,33 @@
       </c>
       <c r="F20" s="7"/>
       <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-    </row>
-    <row r="21" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="H20" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B21" s="6" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D21" s="7">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="7"/>
       <c r="G21" s="7"/>
-      <c r="H21" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="H21" s="7"/>
+    </row>
+    <row r="22" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B22" s="6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22" s="7">
         <v>5</v>
@@ -1348,18 +1378,18 @@
       <c r="G22" s="7"/>
       <c r="H22" s="7"/>
     </row>
-    <row r="23" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D23" s="7">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7"/>
       <c r="G23" s="7"/>
@@ -1367,27 +1397,27 @@
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="6" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D24" s="7">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F24" s="7"/>
       <c r="G24" s="7"/>
       <c r="H24" s="7"/>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B25" s="6" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D25" s="7">
         <v>7</v>
@@ -1399,15 +1429,15 @@
       <c r="G25" s="7"/>
       <c r="H25" s="7"/>
     </row>
-    <row r="26" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="6" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="D26" s="7">
-        <v>7</v>
+        <v>1000</v>
       </c>
       <c r="E26" s="7" t="s">
         <v>9</v>
@@ -1418,10 +1448,10 @@
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="6" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D27" s="7">
         <v>1000</v>
@@ -1435,14 +1465,10 @@
     </row>
     <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>42</v>
-      </c>
-      <c r="D28" s="7">
-        <v>1000</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="7"/>
       <c r="E28" s="7" t="s">
         <v>9</v>
       </c>
@@ -1450,9 +1476,9 @@
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B29" s="6" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="C29" s="6"/>
       <c r="D29" s="7"/>
@@ -1462,19 +1488,6 @@
       <c r="F29" s="7"/>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
-    </row>
-    <row r="30" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B30" s="6" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="H30" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1486,11 +1499,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1506,19 +1519,19 @@
   <sheetData>
     <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>71</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>72</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.2">
@@ -1529,10 +1542,10 @@
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="10" t="s">
         <v>66</v>
-      </c>
-      <c r="C4" s="10" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="5" spans="2:6" ht="33.75" x14ac:dyDescent="0.2">
@@ -1554,7 +1567,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:J1401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6141,7 +6154,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6156,55 +6169,55 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.2">
       <c r="C2" t="s">
+        <v>76</v>
+      </c>
+      <c r="D2" t="s">
         <v>78</v>
       </c>
-      <c r="D2" t="s">
-        <v>80</v>
-      </c>
       <c r="E2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D3" t="s">
         <v>79</v>
       </c>
-      <c r="D3" t="s">
-        <v>81</v>
-      </c>
       <c r="E3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="4" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C4" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>75</v>
+      </c>
+      <c r="C5" t="s">
         <v>77</v>
       </c>
-      <c r="C5" t="s">
-        <v>79</v>
-      </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>
@@ -6214,12 +6227,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6426,15 +6436,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6459,18 +6481,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Liste des évolutions.xlsx
+++ b/Liste des évolutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u049298\Desktop\PYTHON_DJANGO\projetWebRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E8C6DE0-00C1-493F-A428-CFA3AF2F6940}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECB0270-F648-4321-B1C6-BD28AF5F9768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -300,13 +300,16 @@
   </si>
   <si>
     <t>NassimDev</t>
+  </si>
+  <si>
+    <t>En cours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -316,6 +319,13 @@
     </font>
     <font>
       <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -341,20 +351,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -362,7 +365,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -372,11 +374,282 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="24">
+  <dxfs count="25">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <color auto="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -405,185 +678,6 @@
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -598,49 +692,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="B2:H29" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="B2:H29" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
   <autoFilter ref="B2:H29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B3:H29">
     <sortCondition ref="D2:D29"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fonctionnalité" dataDxfId="21"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Desciption" dataDxfId="20"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Priorité" dataDxfId="19"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Etat" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date début" dataDxfId="17"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Date fin" dataDxfId="16"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dev" dataDxfId="15"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fonctionnalité" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Desciption" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Priorité" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Etat" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date début" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Date fin" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dev" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:F6" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
-  <autoFilter ref="B2:F6" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:F7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
+  <autoFilter ref="B2:F7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bug" dataDxfId="12"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cause"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Etat" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Date report" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Date closure" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bug" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cause" dataDxfId="14"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Etat" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Date report" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Date closure" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="24">
   <autoFilter ref="B2:D32" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="LVL" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="LVL" dataDxfId="23">
       <calculatedColumnFormula>B2+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Xp avant le niveau suivant" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Xp avant le niveau suivant" dataDxfId="22">
       <calculatedColumnFormula>$C$3+B2*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="XP depuis le début du jeu" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="XP depuis le début du jeu" dataDxfId="21">
       <calculatedColumnFormula>C3+D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -649,12 +743,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
   <autoFilter ref="H2:J3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="lvl actuelle" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="xp actuelle" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="up ou pas ?" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="lvl actuelle" dataDxfId="18"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="xp actuelle" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="up ou pas ?" dataDxfId="16">
       <calculatedColumnFormula>IF(Tableau3[xp actuelle]&gt;=100+10*(Tableau3[lvl actuelle]-1),"Oui","Non")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -962,532 +1056,540 @@
   <dimension ref="B2:M29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="1"/>
-    <col min="2" max="2" width="47.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="57.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.1640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="2.6640625" style="1"/>
+    <col min="1" max="1" width="2.6640625" style="10"/>
+    <col min="2" max="2" width="47.83203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="57.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.6640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" style="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="10.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.1640625" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="2.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="F2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="G2" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="11" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B3" s="6" t="s">
+    <row r="3" spans="2:13" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="4">
         <v>1</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7" t="s">
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:13" ht="78.75" x14ac:dyDescent="0.2">
-      <c r="B4" s="6" t="s">
+    <row r="4" spans="2:13" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="7">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="F4" s="11">
+      <c r="F4" s="7">
         <v>43863</v>
       </c>
-      <c r="G4" s="11">
+      <c r="G4" s="7">
         <v>43863</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B5" s="6" t="s">
+    <row r="5" spans="2:13" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C5" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="7" t="s">
+      <c r="E5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7" t="s">
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="6" t="s">
+    <row r="6" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="7">
+      <c r="C6" s="3"/>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="E6" s="7" t="s">
+      <c r="E6" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F6" s="11">
+      <c r="F6" s="7">
         <v>43863</v>
       </c>
-      <c r="G6" s="11">
+      <c r="G6" s="7">
         <v>43863</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="H6" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B7" s="6" t="s">
+    <row r="7" spans="2:13" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>1</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7" t="s">
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="M7" s="5"/>
-    </row>
-    <row r="8" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B8" s="6" t="s">
+      <c r="M7" s="12"/>
+    </row>
+    <row r="8" spans="2:13" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="C8" s="6" t="s">
+      <c r="C8" s="3" t="s">
         <v>68</v>
       </c>
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>1</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="F8" s="11">
+      <c r="F8" s="7">
         <v>43864</v>
       </c>
-      <c r="G8" s="11">
+      <c r="G8" s="7">
         <v>43864</v>
       </c>
-      <c r="H8" s="7" t="s">
+      <c r="H8" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B9" s="6" t="s">
+    <row r="9" spans="2:13" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>1</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="6" t="s">
+    <row r="10" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7">
+      <c r="C10" s="3"/>
+      <c r="D10" s="4">
         <v>2</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="11">
+      <c r="F10" s="7">
         <v>43864</v>
       </c>
-      <c r="G10" s="11">
+      <c r="G10" s="7">
         <v>43864</v>
       </c>
-      <c r="H10" s="7" t="s">
+      <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B11" s="6" t="s">
+    <row r="11" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="C11" s="6"/>
-      <c r="D11" s="7">
+      <c r="C11" s="3"/>
+      <c r="D11" s="4">
         <v>2</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F11" s="11">
+      <c r="F11" s="7">
         <v>43864</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="7">
         <v>43864</v>
       </c>
-      <c r="H11" s="7" t="s">
+      <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="B12" s="6" t="s">
+    <row r="12" spans="2:13" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C12" s="6" t="s">
+      <c r="C12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>2</v>
       </c>
-      <c r="E12" s="7" t="s">
+      <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="7" t="s">
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="6" t="s">
+    <row r="13" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="3" t="s">
         <v>67</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>2</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="6" t="s">
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="3" t="s">
         <v>58</v>
       </c>
-      <c r="C14" s="6" t="s">
+      <c r="C14" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>2</v>
       </c>
-      <c r="E14" s="7" t="s">
+      <c r="E14" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="7"/>
-    </row>
-    <row r="15" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
-      <c r="B15" s="6" t="s">
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="2:13" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>2</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="6" t="s">
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="7">
+      <c r="C16" s="3"/>
+      <c r="D16" s="4">
         <v>2</v>
       </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B17" s="6" t="s">
+      <c r="E16" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7">
+        <v>43864</v>
+      </c>
+      <c r="G16" s="7">
+        <v>43864</v>
+      </c>
+      <c r="H16" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C17" s="6" t="s">
+      <c r="C17" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="D17" s="7">
+      <c r="D17" s="4">
         <v>2</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="7" t="s">
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="45" x14ac:dyDescent="0.2">
-      <c r="B18" s="6" t="s">
+    <row r="18" spans="2:8" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="7">
+      <c r="D18" s="4">
         <v>3</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="7" t="s">
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B19" s="6" t="s">
+    <row r="19" spans="2:8" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="C19" s="6" t="s">
+      <c r="C19" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="D19" s="7">
+      <c r="D19" s="4">
         <v>4</v>
       </c>
-      <c r="E19" s="7" t="s">
+      <c r="E19" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="7"/>
-    </row>
-    <row r="20" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B20" s="6" t="s">
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="2:8" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="D20" s="7">
+      <c r="D20" s="4">
         <v>4</v>
       </c>
-      <c r="E20" s="7" t="s">
+      <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7" t="s">
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B21" s="6" t="s">
+    <row r="21" spans="2:8" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="7">
+      <c r="D21" s="4">
         <v>5</v>
       </c>
-      <c r="E21" s="7" t="s">
+      <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="7"/>
-    </row>
-    <row r="22" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="6" t="s">
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="D22" s="7">
+      <c r="D22" s="4">
         <v>5</v>
       </c>
-      <c r="E22" s="7" t="s">
+      <c r="E22" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="7"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="6" t="s">
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="D23" s="7">
+      <c r="D23" s="4">
         <v>6</v>
       </c>
-      <c r="E23" s="7" t="s">
+      <c r="E23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="7"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="6" t="s">
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="7">
+      <c r="D24" s="4">
         <v>7</v>
       </c>
-      <c r="E24" s="7" t="s">
+      <c r="E24" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="7"/>
-    </row>
-    <row r="25" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="6" t="s">
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="2:8" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="D25" s="7">
+      <c r="D25" s="4">
         <v>7</v>
       </c>
-      <c r="E25" s="7" t="s">
+      <c r="E25" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="7"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="6" t="s">
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B26" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="D26" s="7">
+      <c r="D26" s="4">
         <v>1000</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="7"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="6" t="s">
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="7">
+      <c r="D27" s="4">
         <v>1000</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="E27" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="7"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="6" t="s">
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7" t="s">
+      <c r="C28" s="3"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="7"/>
-    </row>
-    <row r="29" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="6" t="s">
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="2:8" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B29" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7" t="s">
+      <c r="C29" s="3"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="7"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1500,24 +1602,24 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:F6"/>
+  <dimension ref="B2:F7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="8"/>
     <col min="2" max="2" width="31.33203125" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" style="8" customWidth="1"/>
-    <col min="4" max="4" width="6.83203125" style="8" customWidth="1"/>
+    <col min="4" max="4" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="8" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" style="8" customWidth="1"/>
     <col min="7" max="16384" width="2.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>69</v>
       </c>
@@ -1534,34 +1636,43 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B3" s="9" t="s">
+    <row r="3" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="9"/>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
-      <c r="B4" s="10" t="s">
+      <c r="C3" s="5"/>
+    </row>
+    <row r="4" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="5" spans="2:6" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="10" t="s">
+    <row r="5" spans="2:6" s="8" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="B5" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.2">
-      <c r="B6" s="10" t="s">
+    <row r="6" spans="2:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="B6" s="6" t="s">
         <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>89</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1576,4570 +1687,4570 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="3"/>
-    <col min="2" max="2" width="6.5" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.83203125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="24.6640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="2.6640625" style="3"/>
-    <col min="8" max="9" width="12.5" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.83203125" style="3" customWidth="1"/>
-    <col min="11" max="16384" width="2.6640625" style="3"/>
+    <col min="1" max="1" width="2.6640625" style="1"/>
+    <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.83203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="2.6640625" style="1"/>
+    <col min="8" max="9" width="12.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.83203125" style="1" customWidth="1"/>
+    <col min="11" max="16384" width="2.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="J2" s="3" t="s">
+      <c r="J2" s="1" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="1">
         <v>100</v>
       </c>
-      <c r="D3" s="3">
+      <c r="D3" s="1">
         <f>C3</f>
         <v>100</v>
       </c>
-      <c r="H3" s="3">
+      <c r="H3" s="1">
         <v>2</v>
       </c>
-      <c r="I3" s="3">
+      <c r="I3" s="1">
         <v>110</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="J3" s="1" t="str">
         <f>IF(Tableau3[xp actuelle]&gt;=100+10*(Tableau3[lvl actuelle]-1),"Oui","Non")</f>
         <v>Oui</v>
       </c>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B4" s="4">
+      <c r="B4" s="2">
         <f>B3+1</f>
         <v>2</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="1">
         <f t="shared" ref="C4:C32" si="0">$C$3+B3*10</f>
         <v>110</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="1">
         <f t="shared" ref="D4:D32" si="1">C4+D3</f>
         <v>210</v>
       </c>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B5" s="4">
+      <c r="B5" s="2">
         <f t="shared" ref="B5:B26" si="2">B4+1</f>
         <v>3</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="1">
         <f t="shared" si="0"/>
         <v>120</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="1">
         <f t="shared" si="1"/>
         <v>330</v>
       </c>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="4">
+      <c r="B6" s="2">
         <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="1">
         <f t="shared" si="0"/>
         <v>130</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="1">
         <f t="shared" si="1"/>
         <v>460</v>
       </c>
     </row>
     <row r="7" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B7" s="4">
+      <c r="B7" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="1">
         <f t="shared" si="0"/>
         <v>140</v>
       </c>
-      <c r="D7" s="3">
+      <c r="D7" s="1">
         <f t="shared" si="1"/>
         <v>600</v>
       </c>
     </row>
     <row r="8" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B8" s="4">
+      <c r="B8" s="2">
         <f t="shared" si="2"/>
         <v>6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="1">
         <f t="shared" si="0"/>
         <v>150</v>
       </c>
-      <c r="D8" s="3">
+      <c r="D8" s="1">
         <f t="shared" si="1"/>
         <v>750</v>
       </c>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="4">
+      <c r="B9" s="2">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="1">
         <f t="shared" si="0"/>
         <v>160</v>
       </c>
-      <c r="D9" s="3">
+      <c r="D9" s="1">
         <f t="shared" si="1"/>
         <v>910</v>
       </c>
     </row>
     <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="4">
+      <c r="B10" s="2">
         <f t="shared" si="2"/>
         <v>8</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="1">
         <f t="shared" si="0"/>
         <v>170</v>
       </c>
-      <c r="D10" s="3">
+      <c r="D10" s="1">
         <f t="shared" si="1"/>
         <v>1080</v>
       </c>
     </row>
     <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="4">
+      <c r="B11" s="2">
         <f t="shared" si="2"/>
         <v>9</v>
       </c>
-      <c r="C11" s="3">
+      <c r="C11" s="1">
         <f t="shared" si="0"/>
         <v>180</v>
       </c>
-      <c r="D11" s="3">
+      <c r="D11" s="1">
         <f t="shared" si="1"/>
         <v>1260</v>
       </c>
     </row>
     <row r="12" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="4">
+      <c r="B12" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="C12" s="3">
+      <c r="C12" s="1">
         <f t="shared" si="0"/>
         <v>190</v>
       </c>
-      <c r="D12" s="3">
+      <c r="D12" s="1">
         <f t="shared" si="1"/>
         <v>1450</v>
       </c>
     </row>
     <row r="13" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="4">
+      <c r="B13" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="1">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="1">
         <f t="shared" si="1"/>
         <v>1650</v>
       </c>
     </row>
     <row r="14" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="4">
+      <c r="B14" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
       </c>
-      <c r="C14" s="3">
+      <c r="C14" s="1">
         <f t="shared" si="0"/>
         <v>210</v>
       </c>
-      <c r="D14" s="3">
+      <c r="D14" s="1">
         <f t="shared" si="1"/>
         <v>1860</v>
       </c>
     </row>
     <row r="15" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B15" s="4">
+      <c r="B15" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
       </c>
-      <c r="C15" s="3">
+      <c r="C15" s="1">
         <f t="shared" si="0"/>
         <v>220</v>
       </c>
-      <c r="D15" s="3">
+      <c r="D15" s="1">
         <f t="shared" si="1"/>
         <v>2080</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B16" s="4">
+      <c r="B16" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
       </c>
-      <c r="C16" s="3">
+      <c r="C16" s="1">
         <f t="shared" si="0"/>
         <v>230</v>
       </c>
-      <c r="D16" s="3">
+      <c r="D16" s="1">
         <f t="shared" si="1"/>
         <v>2310</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B17" s="4">
+      <c r="B17" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="1">
         <f t="shared" si="0"/>
         <v>240</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="1">
         <f t="shared" si="1"/>
         <v>2550</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B18" s="4">
+      <c r="B18" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="1">
         <f t="shared" si="0"/>
         <v>250</v>
       </c>
-      <c r="D18" s="3">
+      <c r="D18" s="1">
         <f t="shared" si="1"/>
         <v>2800</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B19" s="4">
+      <c r="B19" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
       </c>
-      <c r="C19" s="3">
+      <c r="C19" s="1">
         <f t="shared" si="0"/>
         <v>260</v>
       </c>
-      <c r="D19" s="3">
+      <c r="D19" s="1">
         <f t="shared" si="1"/>
         <v>3060</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B20" s="4">
+      <c r="B20" s="2">
         <f t="shared" si="2"/>
         <v>18</v>
       </c>
-      <c r="C20" s="3">
+      <c r="C20" s="1">
         <f t="shared" si="0"/>
         <v>270</v>
       </c>
-      <c r="D20" s="3">
+      <c r="D20" s="1">
         <f t="shared" si="1"/>
         <v>3330</v>
       </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B21" s="4">
+      <c r="B21" s="2">
         <f t="shared" si="2"/>
         <v>19</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="1">
         <f t="shared" si="0"/>
         <v>280</v>
       </c>
-      <c r="D21" s="3">
+      <c r="D21" s="1">
         <f t="shared" si="1"/>
         <v>3610</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B22" s="4">
+      <c r="B22" s="2">
         <f t="shared" si="2"/>
         <v>20</v>
       </c>
-      <c r="C22" s="3">
+      <c r="C22" s="1">
         <f t="shared" si="0"/>
         <v>290</v>
       </c>
-      <c r="D22" s="3">
+      <c r="D22" s="1">
         <f t="shared" si="1"/>
         <v>3900</v>
       </c>
     </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B23" s="4">
+      <c r="B23" s="2">
         <f t="shared" si="2"/>
         <v>21</v>
       </c>
-      <c r="C23" s="3">
+      <c r="C23" s="1">
         <f t="shared" si="0"/>
         <v>300</v>
       </c>
-      <c r="D23" s="3">
+      <c r="D23" s="1">
         <f t="shared" si="1"/>
         <v>4200</v>
       </c>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B24" s="4">
+      <c r="B24" s="2">
         <f t="shared" si="2"/>
         <v>22</v>
       </c>
-      <c r="C24" s="3">
+      <c r="C24" s="1">
         <f t="shared" si="0"/>
         <v>310</v>
       </c>
-      <c r="D24" s="3">
+      <c r="D24" s="1">
         <f t="shared" si="1"/>
         <v>4510</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B25" s="4">
+      <c r="B25" s="2">
         <f t="shared" si="2"/>
         <v>23</v>
       </c>
-      <c r="C25" s="3">
+      <c r="C25" s="1">
         <f t="shared" si="0"/>
         <v>320</v>
       </c>
-      <c r="D25" s="3">
+      <c r="D25" s="1">
         <f t="shared" si="1"/>
         <v>4830</v>
       </c>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B26" s="4">
+      <c r="B26" s="2">
         <f t="shared" si="2"/>
         <v>24</v>
       </c>
-      <c r="C26" s="3">
+      <c r="C26" s="1">
         <f t="shared" si="0"/>
         <v>330</v>
       </c>
-      <c r="D26" s="3">
+      <c r="D26" s="1">
         <f t="shared" si="1"/>
         <v>5160</v>
       </c>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B27" s="4">
+      <c r="B27" s="2">
         <f t="shared" ref="B27:B32" si="3">B26+1</f>
         <v>25</v>
       </c>
-      <c r="C27" s="3">
+      <c r="C27" s="1">
         <f t="shared" si="0"/>
         <v>340</v>
       </c>
-      <c r="D27" s="3">
+      <c r="D27" s="1">
         <f t="shared" si="1"/>
         <v>5500</v>
       </c>
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B28" s="4">
+      <c r="B28" s="2">
         <f t="shared" si="3"/>
         <v>26</v>
       </c>
-      <c r="C28" s="3">
+      <c r="C28" s="1">
         <f t="shared" si="0"/>
         <v>350</v>
       </c>
-      <c r="D28" s="3">
+      <c r="D28" s="1">
         <f t="shared" si="1"/>
         <v>5850</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B29" s="4">
+      <c r="B29" s="2">
         <f t="shared" si="3"/>
         <v>27</v>
       </c>
-      <c r="C29" s="3">
+      <c r="C29" s="1">
         <f t="shared" si="0"/>
         <v>360</v>
       </c>
-      <c r="D29" s="3">
+      <c r="D29" s="1">
         <f t="shared" si="1"/>
         <v>6210</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B30" s="4">
+      <c r="B30" s="2">
         <f t="shared" si="3"/>
         <v>28</v>
       </c>
-      <c r="C30" s="3">
+      <c r="C30" s="1">
         <f t="shared" si="0"/>
         <v>370</v>
       </c>
-      <c r="D30" s="3">
+      <c r="D30" s="1">
         <f t="shared" si="1"/>
         <v>6580</v>
       </c>
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B31" s="4">
+      <c r="B31" s="2">
         <f t="shared" si="3"/>
         <v>29</v>
       </c>
-      <c r="C31" s="3">
+      <c r="C31" s="1">
         <f t="shared" si="0"/>
         <v>380</v>
       </c>
-      <c r="D31" s="3">
+      <c r="D31" s="1">
         <f t="shared" si="1"/>
         <v>6960</v>
       </c>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.2">
-      <c r="B32" s="4">
+      <c r="B32" s="2">
         <f t="shared" si="3"/>
         <v>30</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <f t="shared" si="0"/>
         <v>390</v>
       </c>
-      <c r="D32" s="3">
+      <c r="D32" s="1">
         <f t="shared" si="1"/>
         <v>7350</v>
       </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B33" s="4"/>
+      <c r="B33" s="2"/>
     </row>
     <row r="34" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B34" s="4"/>
+      <c r="B34" s="2"/>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B35" s="4"/>
+      <c r="B35" s="2"/>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B36" s="4"/>
+      <c r="B36" s="2"/>
     </row>
     <row r="37" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B37" s="4"/>
+      <c r="B37" s="2"/>
     </row>
     <row r="38" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B38" s="4"/>
+      <c r="B38" s="2"/>
     </row>
     <row r="39" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B39" s="4"/>
+      <c r="B39" s="2"/>
     </row>
     <row r="40" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B40" s="4"/>
+      <c r="B40" s="2"/>
     </row>
     <row r="41" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B41" s="4"/>
+      <c r="B41" s="2"/>
     </row>
     <row r="42" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B42" s="4"/>
+      <c r="B42" s="2"/>
     </row>
     <row r="43" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B43" s="4"/>
+      <c r="B43" s="2"/>
     </row>
     <row r="44" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B44" s="4"/>
+      <c r="B44" s="2"/>
     </row>
     <row r="45" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B45" s="4"/>
+      <c r="B45" s="2"/>
     </row>
     <row r="46" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B46" s="4"/>
+      <c r="B46" s="2"/>
     </row>
     <row r="47" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B47" s="4"/>
+      <c r="B47" s="2"/>
     </row>
     <row r="48" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B48" s="4"/>
+      <c r="B48" s="2"/>
     </row>
     <row r="49" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B49" s="4"/>
+      <c r="B49" s="2"/>
     </row>
     <row r="50" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B50" s="4"/>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B51" s="4"/>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B52" s="4"/>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B53" s="4"/>
+      <c r="B53" s="2"/>
     </row>
     <row r="54" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B54" s="4"/>
+      <c r="B54" s="2"/>
     </row>
     <row r="55" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B55" s="4"/>
+      <c r="B55" s="2"/>
     </row>
     <row r="56" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B56" s="4"/>
+      <c r="B56" s="2"/>
     </row>
     <row r="57" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B57" s="4"/>
+      <c r="B57" s="2"/>
     </row>
     <row r="58" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B58" s="4"/>
+      <c r="B58" s="2"/>
     </row>
     <row r="59" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B59" s="4"/>
+      <c r="B59" s="2"/>
     </row>
     <row r="60" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B60" s="4"/>
+      <c r="B60" s="2"/>
     </row>
     <row r="61" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B61" s="4"/>
+      <c r="B61" s="2"/>
     </row>
     <row r="62" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B62" s="4"/>
+      <c r="B62" s="2"/>
     </row>
     <row r="63" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B63" s="4"/>
+      <c r="B63" s="2"/>
     </row>
     <row r="64" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B64" s="4"/>
+      <c r="B64" s="2"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B65" s="4"/>
+      <c r="B65" s="2"/>
     </row>
     <row r="66" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B66" s="4"/>
+      <c r="B66" s="2"/>
     </row>
     <row r="67" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B67" s="4"/>
+      <c r="B67" s="2"/>
     </row>
     <row r="68" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B68" s="4"/>
+      <c r="B68" s="2"/>
     </row>
     <row r="69" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B69" s="4"/>
+      <c r="B69" s="2"/>
     </row>
     <row r="70" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B70" s="4"/>
+      <c r="B70" s="2"/>
     </row>
     <row r="71" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B71" s="4"/>
+      <c r="B71" s="2"/>
     </row>
     <row r="72" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B72" s="4"/>
+      <c r="B72" s="2"/>
     </row>
     <row r="73" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B73" s="4"/>
+      <c r="B73" s="2"/>
     </row>
     <row r="74" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B74" s="4"/>
+      <c r="B74" s="2"/>
     </row>
     <row r="75" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B75" s="4"/>
+      <c r="B75" s="2"/>
     </row>
     <row r="76" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B76" s="4"/>
+      <c r="B76" s="2"/>
     </row>
     <row r="77" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B77" s="4"/>
+      <c r="B77" s="2"/>
     </row>
     <row r="78" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B78" s="4"/>
+      <c r="B78" s="2"/>
     </row>
     <row r="79" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B79" s="4"/>
+      <c r="B79" s="2"/>
     </row>
     <row r="80" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B80" s="4"/>
+      <c r="B80" s="2"/>
     </row>
     <row r="81" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B81" s="4"/>
+      <c r="B81" s="2"/>
     </row>
     <row r="82" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B82" s="4"/>
+      <c r="B82" s="2"/>
     </row>
     <row r="83" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B83" s="4"/>
+      <c r="B83" s="2"/>
     </row>
     <row r="84" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B84" s="4"/>
+      <c r="B84" s="2"/>
     </row>
     <row r="85" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B85" s="4"/>
+      <c r="B85" s="2"/>
     </row>
     <row r="86" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B86" s="4"/>
+      <c r="B86" s="2"/>
     </row>
     <row r="87" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B87" s="4"/>
+      <c r="B87" s="2"/>
     </row>
     <row r="88" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B88" s="4"/>
+      <c r="B88" s="2"/>
     </row>
     <row r="89" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B89" s="4"/>
+      <c r="B89" s="2"/>
     </row>
     <row r="90" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B90" s="4"/>
+      <c r="B90" s="2"/>
     </row>
     <row r="91" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B91" s="4"/>
+      <c r="B91" s="2"/>
     </row>
     <row r="92" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B92" s="4"/>
+      <c r="B92" s="2"/>
     </row>
     <row r="93" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B93" s="4"/>
+      <c r="B93" s="2"/>
     </row>
     <row r="94" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B94" s="4"/>
+      <c r="B94" s="2"/>
     </row>
     <row r="95" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B95" s="4"/>
+      <c r="B95" s="2"/>
     </row>
     <row r="96" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B96" s="4"/>
+      <c r="B96" s="2"/>
     </row>
     <row r="97" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B97" s="4"/>
+      <c r="B97" s="2"/>
     </row>
     <row r="98" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B98" s="4"/>
+      <c r="B98" s="2"/>
     </row>
     <row r="99" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B99" s="4"/>
+      <c r="B99" s="2"/>
     </row>
     <row r="100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B100" s="4"/>
+      <c r="B100" s="2"/>
     </row>
     <row r="101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B101" s="4"/>
+      <c r="B101" s="2"/>
     </row>
     <row r="102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B102" s="4"/>
+      <c r="B102" s="2"/>
     </row>
     <row r="103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B103" s="4"/>
+      <c r="B103" s="2"/>
     </row>
     <row r="104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B104" s="4"/>
+      <c r="B104" s="2"/>
     </row>
     <row r="105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B105" s="4"/>
+      <c r="B105" s="2"/>
     </row>
     <row r="106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B106" s="4"/>
+      <c r="B106" s="2"/>
     </row>
     <row r="107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B107" s="4"/>
+      <c r="B107" s="2"/>
     </row>
     <row r="108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B108" s="4"/>
+      <c r="B108" s="2"/>
     </row>
     <row r="109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B109" s="4"/>
+      <c r="B109" s="2"/>
     </row>
     <row r="110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B110" s="4"/>
+      <c r="B110" s="2"/>
     </row>
     <row r="111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B111" s="4"/>
+      <c r="B111" s="2"/>
     </row>
     <row r="112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B112" s="4"/>
+      <c r="B112" s="2"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B113" s="4"/>
+      <c r="B113" s="2"/>
     </row>
     <row r="114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B114" s="4"/>
+      <c r="B114" s="2"/>
     </row>
     <row r="115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B115" s="4"/>
+      <c r="B115" s="2"/>
     </row>
     <row r="116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B116" s="4"/>
+      <c r="B116" s="2"/>
     </row>
     <row r="117" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B117" s="4"/>
+      <c r="B117" s="2"/>
     </row>
     <row r="118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B118" s="4"/>
+      <c r="B118" s="2"/>
     </row>
     <row r="119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B119" s="4"/>
+      <c r="B119" s="2"/>
     </row>
     <row r="120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B120" s="4"/>
+      <c r="B120" s="2"/>
     </row>
     <row r="121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B121" s="4"/>
+      <c r="B121" s="2"/>
     </row>
     <row r="122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B122" s="4"/>
+      <c r="B122" s="2"/>
     </row>
     <row r="123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B123" s="4"/>
+      <c r="B123" s="2"/>
     </row>
     <row r="124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B124" s="4"/>
+      <c r="B124" s="2"/>
     </row>
     <row r="125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B125" s="4"/>
+      <c r="B125" s="2"/>
     </row>
     <row r="126" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B126" s="4"/>
+      <c r="B126" s="2"/>
     </row>
     <row r="127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B127" s="4"/>
+      <c r="B127" s="2"/>
     </row>
     <row r="128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B128" s="4"/>
+      <c r="B128" s="2"/>
     </row>
     <row r="129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B129" s="4"/>
+      <c r="B129" s="2"/>
     </row>
     <row r="130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B130" s="4"/>
+      <c r="B130" s="2"/>
     </row>
     <row r="131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B131" s="4"/>
+      <c r="B131" s="2"/>
     </row>
     <row r="132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B132" s="4"/>
+      <c r="B132" s="2"/>
     </row>
     <row r="133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B133" s="4"/>
+      <c r="B133" s="2"/>
     </row>
     <row r="134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B134" s="4"/>
+      <c r="B134" s="2"/>
     </row>
     <row r="135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B135" s="4"/>
+      <c r="B135" s="2"/>
     </row>
     <row r="136" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B136" s="4"/>
+      <c r="B136" s="2"/>
     </row>
     <row r="137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B137" s="4"/>
+      <c r="B137" s="2"/>
     </row>
     <row r="138" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B138" s="4"/>
+      <c r="B138" s="2"/>
     </row>
     <row r="139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B139" s="4"/>
+      <c r="B139" s="2"/>
     </row>
     <row r="140" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B140" s="4"/>
+      <c r="B140" s="2"/>
     </row>
     <row r="141" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B141" s="4"/>
+      <c r="B141" s="2"/>
     </row>
     <row r="142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B142" s="4"/>
+      <c r="B142" s="2"/>
     </row>
     <row r="143" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B143" s="4"/>
+      <c r="B143" s="2"/>
     </row>
     <row r="144" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B144" s="4"/>
+      <c r="B144" s="2"/>
     </row>
     <row r="145" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B145" s="4"/>
+      <c r="B145" s="2"/>
     </row>
     <row r="146" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B146" s="4"/>
+      <c r="B146" s="2"/>
     </row>
     <row r="147" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B147" s="4"/>
+      <c r="B147" s="2"/>
     </row>
     <row r="148" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B148" s="4"/>
+      <c r="B148" s="2"/>
     </row>
     <row r="149" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B149" s="4"/>
+      <c r="B149" s="2"/>
     </row>
     <row r="150" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B150" s="4"/>
+      <c r="B150" s="2"/>
     </row>
     <row r="151" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B151" s="4"/>
+      <c r="B151" s="2"/>
     </row>
     <row r="152" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B152" s="4"/>
+      <c r="B152" s="2"/>
     </row>
     <row r="153" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B153" s="4"/>
+      <c r="B153" s="2"/>
     </row>
     <row r="154" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B154" s="4"/>
+      <c r="B154" s="2"/>
     </row>
     <row r="155" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B155" s="4"/>
+      <c r="B155" s="2"/>
     </row>
     <row r="156" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B156" s="4"/>
+      <c r="B156" s="2"/>
     </row>
     <row r="157" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B157" s="4"/>
+      <c r="B157" s="2"/>
     </row>
     <row r="158" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B158" s="4"/>
+      <c r="B158" s="2"/>
     </row>
     <row r="159" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B159" s="4"/>
+      <c r="B159" s="2"/>
     </row>
     <row r="160" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B160" s="4"/>
+      <c r="B160" s="2"/>
     </row>
     <row r="161" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B161" s="4"/>
+      <c r="B161" s="2"/>
     </row>
     <row r="162" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B162" s="4"/>
+      <c r="B162" s="2"/>
     </row>
     <row r="163" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B163" s="4"/>
+      <c r="B163" s="2"/>
     </row>
     <row r="164" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B164" s="4"/>
+      <c r="B164" s="2"/>
     </row>
     <row r="165" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B165" s="4"/>
+      <c r="B165" s="2"/>
     </row>
     <row r="166" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B166" s="4"/>
+      <c r="B166" s="2"/>
     </row>
     <row r="167" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B167" s="4"/>
+      <c r="B167" s="2"/>
     </row>
     <row r="168" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B168" s="4"/>
+      <c r="B168" s="2"/>
     </row>
     <row r="169" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B169" s="4"/>
+      <c r="B169" s="2"/>
     </row>
     <row r="170" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B170" s="4"/>
+      <c r="B170" s="2"/>
     </row>
     <row r="171" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B171" s="4"/>
+      <c r="B171" s="2"/>
     </row>
     <row r="172" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B172" s="4"/>
+      <c r="B172" s="2"/>
     </row>
     <row r="173" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B173" s="4"/>
+      <c r="B173" s="2"/>
     </row>
     <row r="174" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B174" s="4"/>
+      <c r="B174" s="2"/>
     </row>
     <row r="175" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B175" s="4"/>
+      <c r="B175" s="2"/>
     </row>
     <row r="176" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B176" s="4"/>
+      <c r="B176" s="2"/>
     </row>
     <row r="177" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B177" s="4"/>
+      <c r="B177" s="2"/>
     </row>
     <row r="178" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B178" s="4"/>
+      <c r="B178" s="2"/>
     </row>
     <row r="179" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B179" s="4"/>
+      <c r="B179" s="2"/>
     </row>
     <row r="180" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B180" s="4"/>
+      <c r="B180" s="2"/>
     </row>
     <row r="181" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B181" s="4"/>
+      <c r="B181" s="2"/>
     </row>
     <row r="182" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B182" s="4"/>
+      <c r="B182" s="2"/>
     </row>
     <row r="183" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B183" s="4"/>
+      <c r="B183" s="2"/>
     </row>
     <row r="184" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B184" s="4"/>
+      <c r="B184" s="2"/>
     </row>
     <row r="185" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B185" s="4"/>
+      <c r="B185" s="2"/>
     </row>
     <row r="186" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B186" s="4"/>
+      <c r="B186" s="2"/>
     </row>
     <row r="187" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B187" s="4"/>
+      <c r="B187" s="2"/>
     </row>
     <row r="188" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B188" s="4"/>
+      <c r="B188" s="2"/>
     </row>
     <row r="189" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B189" s="4"/>
+      <c r="B189" s="2"/>
     </row>
     <row r="190" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B190" s="4"/>
+      <c r="B190" s="2"/>
     </row>
     <row r="191" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B191" s="4"/>
+      <c r="B191" s="2"/>
     </row>
     <row r="192" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B192" s="4"/>
+      <c r="B192" s="2"/>
     </row>
     <row r="193" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B193" s="4"/>
+      <c r="B193" s="2"/>
     </row>
     <row r="194" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B194" s="4"/>
+      <c r="B194" s="2"/>
     </row>
     <row r="195" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B195" s="4"/>
+      <c r="B195" s="2"/>
     </row>
     <row r="196" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B196" s="4"/>
+      <c r="B196" s="2"/>
     </row>
     <row r="197" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B197" s="4"/>
+      <c r="B197" s="2"/>
     </row>
     <row r="198" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B198" s="4"/>
+      <c r="B198" s="2"/>
     </row>
     <row r="199" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B199" s="4"/>
+      <c r="B199" s="2"/>
     </row>
     <row r="200" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B200" s="4"/>
+      <c r="B200" s="2"/>
     </row>
     <row r="201" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B201" s="4"/>
+      <c r="B201" s="2"/>
     </row>
     <row r="202" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B202" s="4"/>
+      <c r="B202" s="2"/>
     </row>
     <row r="203" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B203" s="4"/>
+      <c r="B203" s="2"/>
     </row>
     <row r="204" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B204" s="4"/>
+      <c r="B204" s="2"/>
     </row>
     <row r="205" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B205" s="4"/>
+      <c r="B205" s="2"/>
     </row>
     <row r="206" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B206" s="4"/>
+      <c r="B206" s="2"/>
     </row>
     <row r="207" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B207" s="4"/>
+      <c r="B207" s="2"/>
     </row>
     <row r="208" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B208" s="4"/>
+      <c r="B208" s="2"/>
     </row>
     <row r="209" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B209" s="4"/>
+      <c r="B209" s="2"/>
     </row>
     <row r="210" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B210" s="4"/>
+      <c r="B210" s="2"/>
     </row>
     <row r="211" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B211" s="4"/>
+      <c r="B211" s="2"/>
     </row>
     <row r="212" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B212" s="4"/>
+      <c r="B212" s="2"/>
     </row>
     <row r="213" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B213" s="4"/>
+      <c r="B213" s="2"/>
     </row>
     <row r="214" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B214" s="4"/>
+      <c r="B214" s="2"/>
     </row>
     <row r="215" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B215" s="4"/>
+      <c r="B215" s="2"/>
     </row>
     <row r="216" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B216" s="4"/>
+      <c r="B216" s="2"/>
     </row>
     <row r="217" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B217" s="4"/>
+      <c r="B217" s="2"/>
     </row>
     <row r="218" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B218" s="4"/>
+      <c r="B218" s="2"/>
     </row>
     <row r="219" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B219" s="4"/>
+      <c r="B219" s="2"/>
     </row>
     <row r="220" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B220" s="4"/>
+      <c r="B220" s="2"/>
     </row>
     <row r="221" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B221" s="4"/>
+      <c r="B221" s="2"/>
     </row>
     <row r="222" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B222" s="4"/>
+      <c r="B222" s="2"/>
     </row>
     <row r="223" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B223" s="4"/>
+      <c r="B223" s="2"/>
     </row>
     <row r="224" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B224" s="4"/>
+      <c r="B224" s="2"/>
     </row>
     <row r="225" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B225" s="4"/>
+      <c r="B225" s="2"/>
     </row>
     <row r="226" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B226" s="4"/>
+      <c r="B226" s="2"/>
     </row>
     <row r="227" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B227" s="4"/>
+      <c r="B227" s="2"/>
     </row>
     <row r="228" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B228" s="4"/>
+      <c r="B228" s="2"/>
     </row>
     <row r="229" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B229" s="4"/>
+      <c r="B229" s="2"/>
     </row>
     <row r="230" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B230" s="4"/>
+      <c r="B230" s="2"/>
     </row>
     <row r="231" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B231" s="4"/>
+      <c r="B231" s="2"/>
     </row>
     <row r="232" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B232" s="4"/>
+      <c r="B232" s="2"/>
     </row>
     <row r="233" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B233" s="4"/>
+      <c r="B233" s="2"/>
     </row>
     <row r="234" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B234" s="4"/>
+      <c r="B234" s="2"/>
     </row>
     <row r="235" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B235" s="4"/>
+      <c r="B235" s="2"/>
     </row>
     <row r="236" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B236" s="4"/>
+      <c r="B236" s="2"/>
     </row>
     <row r="237" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B237" s="4"/>
+      <c r="B237" s="2"/>
     </row>
     <row r="238" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B238" s="4"/>
+      <c r="B238" s="2"/>
     </row>
     <row r="239" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B239" s="4"/>
+      <c r="B239" s="2"/>
     </row>
     <row r="240" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B240" s="4"/>
+      <c r="B240" s="2"/>
     </row>
     <row r="241" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B241" s="4"/>
+      <c r="B241" s="2"/>
     </row>
     <row r="242" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B242" s="4"/>
+      <c r="B242" s="2"/>
     </row>
     <row r="243" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B243" s="4"/>
+      <c r="B243" s="2"/>
     </row>
     <row r="244" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B244" s="4"/>
+      <c r="B244" s="2"/>
     </row>
     <row r="245" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B245" s="4"/>
+      <c r="B245" s="2"/>
     </row>
     <row r="246" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B246" s="4"/>
+      <c r="B246" s="2"/>
     </row>
     <row r="247" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B247" s="4"/>
+      <c r="B247" s="2"/>
     </row>
     <row r="248" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B248" s="4"/>
+      <c r="B248" s="2"/>
     </row>
     <row r="249" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B249" s="4"/>
+      <c r="B249" s="2"/>
     </row>
     <row r="250" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B250" s="4"/>
+      <c r="B250" s="2"/>
     </row>
     <row r="251" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B251" s="4"/>
+      <c r="B251" s="2"/>
     </row>
     <row r="252" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B252" s="4"/>
+      <c r="B252" s="2"/>
     </row>
     <row r="253" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B253" s="4"/>
+      <c r="B253" s="2"/>
     </row>
     <row r="254" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B254" s="4"/>
+      <c r="B254" s="2"/>
     </row>
     <row r="255" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B255" s="4"/>
+      <c r="B255" s="2"/>
     </row>
     <row r="256" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B256" s="4"/>
+      <c r="B256" s="2"/>
     </row>
     <row r="257" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B257" s="4"/>
+      <c r="B257" s="2"/>
     </row>
     <row r="258" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B258" s="4"/>
+      <c r="B258" s="2"/>
     </row>
     <row r="259" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B259" s="4"/>
+      <c r="B259" s="2"/>
     </row>
     <row r="260" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B260" s="4"/>
+      <c r="B260" s="2"/>
     </row>
     <row r="261" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B261" s="4"/>
+      <c r="B261" s="2"/>
     </row>
     <row r="262" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B262" s="4"/>
+      <c r="B262" s="2"/>
     </row>
     <row r="263" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B263" s="4"/>
+      <c r="B263" s="2"/>
     </row>
     <row r="264" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B264" s="4"/>
+      <c r="B264" s="2"/>
     </row>
     <row r="265" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B265" s="4"/>
+      <c r="B265" s="2"/>
     </row>
     <row r="266" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B266" s="4"/>
+      <c r="B266" s="2"/>
     </row>
     <row r="267" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B267" s="4"/>
+      <c r="B267" s="2"/>
     </row>
     <row r="268" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B268" s="4"/>
+      <c r="B268" s="2"/>
     </row>
     <row r="269" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B269" s="4"/>
+      <c r="B269" s="2"/>
     </row>
     <row r="270" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B270" s="4"/>
+      <c r="B270" s="2"/>
     </row>
     <row r="271" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B271" s="4"/>
+      <c r="B271" s="2"/>
     </row>
     <row r="272" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B272" s="4"/>
+      <c r="B272" s="2"/>
     </row>
     <row r="273" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B273" s="4"/>
+      <c r="B273" s="2"/>
     </row>
     <row r="274" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B274" s="4"/>
+      <c r="B274" s="2"/>
     </row>
     <row r="275" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B275" s="4"/>
+      <c r="B275" s="2"/>
     </row>
     <row r="276" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B276" s="4"/>
+      <c r="B276" s="2"/>
     </row>
     <row r="277" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B277" s="4"/>
+      <c r="B277" s="2"/>
     </row>
     <row r="278" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B278" s="4"/>
+      <c r="B278" s="2"/>
     </row>
     <row r="279" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B279" s="4"/>
+      <c r="B279" s="2"/>
     </row>
     <row r="280" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B280" s="4"/>
+      <c r="B280" s="2"/>
     </row>
     <row r="281" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B281" s="4"/>
+      <c r="B281" s="2"/>
     </row>
     <row r="282" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B282" s="4"/>
+      <c r="B282" s="2"/>
     </row>
     <row r="283" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B283" s="4"/>
+      <c r="B283" s="2"/>
     </row>
     <row r="284" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B284" s="4"/>
+      <c r="B284" s="2"/>
     </row>
     <row r="285" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B285" s="4"/>
+      <c r="B285" s="2"/>
     </row>
     <row r="286" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B286" s="4"/>
+      <c r="B286" s="2"/>
     </row>
     <row r="287" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B287" s="4"/>
+      <c r="B287" s="2"/>
     </row>
     <row r="288" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B288" s="4"/>
+      <c r="B288" s="2"/>
     </row>
     <row r="289" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B289" s="4"/>
+      <c r="B289" s="2"/>
     </row>
     <row r="290" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B290" s="4"/>
+      <c r="B290" s="2"/>
     </row>
     <row r="291" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B291" s="4"/>
+      <c r="B291" s="2"/>
     </row>
     <row r="292" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B292" s="4"/>
+      <c r="B292" s="2"/>
     </row>
     <row r="293" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B293" s="4"/>
+      <c r="B293" s="2"/>
     </row>
     <row r="294" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B294" s="4"/>
+      <c r="B294" s="2"/>
     </row>
     <row r="295" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B295" s="4"/>
+      <c r="B295" s="2"/>
     </row>
     <row r="296" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B296" s="4"/>
+      <c r="B296" s="2"/>
     </row>
     <row r="297" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B297" s="4"/>
+      <c r="B297" s="2"/>
     </row>
     <row r="298" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B298" s="4"/>
+      <c r="B298" s="2"/>
     </row>
     <row r="299" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B299" s="4"/>
+      <c r="B299" s="2"/>
     </row>
     <row r="300" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B300" s="4"/>
+      <c r="B300" s="2"/>
     </row>
     <row r="301" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B301" s="4"/>
+      <c r="B301" s="2"/>
     </row>
     <row r="302" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B302" s="4"/>
+      <c r="B302" s="2"/>
     </row>
     <row r="303" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B303" s="4"/>
+      <c r="B303" s="2"/>
     </row>
     <row r="304" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B304" s="4"/>
+      <c r="B304" s="2"/>
     </row>
     <row r="305" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B305" s="4"/>
+      <c r="B305" s="2"/>
     </row>
     <row r="306" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B306" s="4"/>
+      <c r="B306" s="2"/>
     </row>
     <row r="307" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B307" s="4"/>
+      <c r="B307" s="2"/>
     </row>
     <row r="308" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B308" s="4"/>
+      <c r="B308" s="2"/>
     </row>
     <row r="309" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B309" s="4"/>
+      <c r="B309" s="2"/>
     </row>
     <row r="310" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B310" s="4"/>
+      <c r="B310" s="2"/>
     </row>
     <row r="311" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B311" s="4"/>
+      <c r="B311" s="2"/>
     </row>
     <row r="312" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B312" s="4"/>
+      <c r="B312" s="2"/>
     </row>
     <row r="313" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B313" s="4"/>
+      <c r="B313" s="2"/>
     </row>
     <row r="314" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B314" s="4"/>
+      <c r="B314" s="2"/>
     </row>
     <row r="315" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B315" s="4"/>
+      <c r="B315" s="2"/>
     </row>
     <row r="316" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B316" s="4"/>
+      <c r="B316" s="2"/>
     </row>
     <row r="317" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B317" s="4"/>
+      <c r="B317" s="2"/>
     </row>
     <row r="318" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B318" s="4"/>
+      <c r="B318" s="2"/>
     </row>
     <row r="319" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B319" s="4"/>
+      <c r="B319" s="2"/>
     </row>
     <row r="320" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B320" s="4"/>
+      <c r="B320" s="2"/>
     </row>
     <row r="321" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B321" s="4"/>
+      <c r="B321" s="2"/>
     </row>
     <row r="322" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B322" s="4"/>
+      <c r="B322" s="2"/>
     </row>
     <row r="323" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B323" s="4"/>
+      <c r="B323" s="2"/>
     </row>
     <row r="324" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B324" s="4"/>
+      <c r="B324" s="2"/>
     </row>
     <row r="325" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B325" s="4"/>
+      <c r="B325" s="2"/>
     </row>
     <row r="326" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B326" s="4"/>
+      <c r="B326" s="2"/>
     </row>
     <row r="327" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B327" s="4"/>
+      <c r="B327" s="2"/>
     </row>
     <row r="328" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B328" s="4"/>
+      <c r="B328" s="2"/>
     </row>
     <row r="329" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B329" s="4"/>
+      <c r="B329" s="2"/>
     </row>
     <row r="330" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B330" s="4"/>
+      <c r="B330" s="2"/>
     </row>
     <row r="331" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B331" s="4"/>
+      <c r="B331" s="2"/>
     </row>
     <row r="332" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B332" s="4"/>
+      <c r="B332" s="2"/>
     </row>
     <row r="333" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B333" s="4"/>
+      <c r="B333" s="2"/>
     </row>
     <row r="334" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B334" s="4"/>
+      <c r="B334" s="2"/>
     </row>
     <row r="335" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B335" s="4"/>
+      <c r="B335" s="2"/>
     </row>
     <row r="336" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B336" s="4"/>
+      <c r="B336" s="2"/>
     </row>
     <row r="337" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B337" s="4"/>
+      <c r="B337" s="2"/>
     </row>
     <row r="338" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B338" s="4"/>
+      <c r="B338" s="2"/>
     </row>
     <row r="339" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B339" s="4"/>
+      <c r="B339" s="2"/>
     </row>
     <row r="340" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B340" s="4"/>
+      <c r="B340" s="2"/>
     </row>
     <row r="341" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B341" s="4"/>
+      <c r="B341" s="2"/>
     </row>
     <row r="342" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B342" s="4"/>
+      <c r="B342" s="2"/>
     </row>
     <row r="343" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B343" s="4"/>
+      <c r="B343" s="2"/>
     </row>
     <row r="344" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B344" s="4"/>
+      <c r="B344" s="2"/>
     </row>
     <row r="345" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B345" s="4"/>
+      <c r="B345" s="2"/>
     </row>
     <row r="346" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B346" s="4"/>
+      <c r="B346" s="2"/>
     </row>
     <row r="347" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B347" s="4"/>
+      <c r="B347" s="2"/>
     </row>
     <row r="348" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B348" s="4"/>
+      <c r="B348" s="2"/>
     </row>
     <row r="349" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B349" s="4"/>
+      <c r="B349" s="2"/>
     </row>
     <row r="350" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B350" s="4"/>
+      <c r="B350" s="2"/>
     </row>
     <row r="351" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B351" s="4"/>
+      <c r="B351" s="2"/>
     </row>
     <row r="352" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B352" s="4"/>
+      <c r="B352" s="2"/>
     </row>
     <row r="353" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B353" s="4"/>
+      <c r="B353" s="2"/>
     </row>
     <row r="354" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B354" s="4"/>
+      <c r="B354" s="2"/>
     </row>
     <row r="355" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B355" s="4"/>
+      <c r="B355" s="2"/>
     </row>
     <row r="356" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B356" s="4"/>
+      <c r="B356" s="2"/>
     </row>
     <row r="357" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B357" s="4"/>
+      <c r="B357" s="2"/>
     </row>
     <row r="358" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B358" s="4"/>
+      <c r="B358" s="2"/>
     </row>
     <row r="359" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B359" s="4"/>
+      <c r="B359" s="2"/>
     </row>
     <row r="360" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B360" s="4"/>
+      <c r="B360" s="2"/>
     </row>
     <row r="361" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B361" s="4"/>
+      <c r="B361" s="2"/>
     </row>
     <row r="362" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B362" s="4"/>
+      <c r="B362" s="2"/>
     </row>
     <row r="363" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B363" s="4"/>
+      <c r="B363" s="2"/>
     </row>
     <row r="364" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B364" s="4"/>
+      <c r="B364" s="2"/>
     </row>
     <row r="365" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B365" s="4"/>
+      <c r="B365" s="2"/>
     </row>
     <row r="366" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B366" s="4"/>
+      <c r="B366" s="2"/>
     </row>
     <row r="367" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B367" s="4"/>
+      <c r="B367" s="2"/>
     </row>
     <row r="368" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B368" s="4"/>
+      <c r="B368" s="2"/>
     </row>
     <row r="369" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B369" s="4"/>
+      <c r="B369" s="2"/>
     </row>
     <row r="370" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B370" s="4"/>
+      <c r="B370" s="2"/>
     </row>
     <row r="371" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B371" s="4"/>
+      <c r="B371" s="2"/>
     </row>
     <row r="372" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B372" s="4"/>
+      <c r="B372" s="2"/>
     </row>
     <row r="373" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B373" s="4"/>
+      <c r="B373" s="2"/>
     </row>
     <row r="374" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B374" s="4"/>
+      <c r="B374" s="2"/>
     </row>
     <row r="375" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B375" s="4"/>
+      <c r="B375" s="2"/>
     </row>
     <row r="376" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B376" s="4"/>
+      <c r="B376" s="2"/>
     </row>
     <row r="377" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B377" s="4"/>
+      <c r="B377" s="2"/>
     </row>
     <row r="378" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B378" s="4"/>
+      <c r="B378" s="2"/>
     </row>
     <row r="379" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B379" s="4"/>
+      <c r="B379" s="2"/>
     </row>
     <row r="380" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B380" s="4"/>
+      <c r="B380" s="2"/>
     </row>
     <row r="381" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B381" s="4"/>
+      <c r="B381" s="2"/>
     </row>
     <row r="382" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B382" s="4"/>
+      <c r="B382" s="2"/>
     </row>
     <row r="383" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B383" s="4"/>
+      <c r="B383" s="2"/>
     </row>
     <row r="384" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B384" s="4"/>
+      <c r="B384" s="2"/>
     </row>
     <row r="385" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B385" s="4"/>
+      <c r="B385" s="2"/>
     </row>
     <row r="386" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B386" s="4"/>
+      <c r="B386" s="2"/>
     </row>
     <row r="387" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B387" s="4"/>
+      <c r="B387" s="2"/>
     </row>
     <row r="388" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B388" s="4"/>
+      <c r="B388" s="2"/>
     </row>
     <row r="389" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B389" s="4"/>
+      <c r="B389" s="2"/>
     </row>
     <row r="390" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B390" s="4"/>
+      <c r="B390" s="2"/>
     </row>
     <row r="391" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B391" s="4"/>
+      <c r="B391" s="2"/>
     </row>
     <row r="392" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B392" s="4"/>
+      <c r="B392" s="2"/>
     </row>
     <row r="393" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B393" s="4"/>
+      <c r="B393" s="2"/>
     </row>
     <row r="394" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B394" s="4"/>
+      <c r="B394" s="2"/>
     </row>
     <row r="395" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B395" s="4"/>
+      <c r="B395" s="2"/>
     </row>
     <row r="396" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B396" s="4"/>
+      <c r="B396" s="2"/>
     </row>
     <row r="397" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B397" s="4"/>
+      <c r="B397" s="2"/>
     </row>
     <row r="398" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B398" s="4"/>
+      <c r="B398" s="2"/>
     </row>
     <row r="399" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B399" s="4"/>
+      <c r="B399" s="2"/>
     </row>
     <row r="400" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B400" s="4"/>
+      <c r="B400" s="2"/>
     </row>
     <row r="401" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B401" s="4"/>
+      <c r="B401" s="2"/>
     </row>
     <row r="402" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B402" s="4"/>
+      <c r="B402" s="2"/>
     </row>
     <row r="403" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B403" s="4"/>
+      <c r="B403" s="2"/>
     </row>
     <row r="404" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B404" s="4"/>
+      <c r="B404" s="2"/>
     </row>
     <row r="405" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B405" s="4"/>
+      <c r="B405" s="2"/>
     </row>
     <row r="406" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B406" s="4"/>
+      <c r="B406" s="2"/>
     </row>
     <row r="407" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B407" s="4"/>
+      <c r="B407" s="2"/>
     </row>
     <row r="408" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B408" s="4"/>
+      <c r="B408" s="2"/>
     </row>
     <row r="409" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B409" s="4"/>
+      <c r="B409" s="2"/>
     </row>
     <row r="410" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B410" s="4"/>
+      <c r="B410" s="2"/>
     </row>
     <row r="411" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B411" s="4"/>
+      <c r="B411" s="2"/>
     </row>
     <row r="412" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B412" s="4"/>
+      <c r="B412" s="2"/>
     </row>
     <row r="413" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B413" s="4"/>
+      <c r="B413" s="2"/>
     </row>
     <row r="414" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B414" s="4"/>
+      <c r="B414" s="2"/>
     </row>
     <row r="415" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B415" s="4"/>
+      <c r="B415" s="2"/>
     </row>
     <row r="416" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B416" s="4"/>
+      <c r="B416" s="2"/>
     </row>
     <row r="417" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B417" s="4"/>
+      <c r="B417" s="2"/>
     </row>
     <row r="418" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B418" s="4"/>
+      <c r="B418" s="2"/>
     </row>
     <row r="419" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B419" s="4"/>
+      <c r="B419" s="2"/>
     </row>
     <row r="420" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B420" s="4"/>
+      <c r="B420" s="2"/>
     </row>
     <row r="421" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B421" s="4"/>
+      <c r="B421" s="2"/>
     </row>
     <row r="422" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B422" s="4"/>
+      <c r="B422" s="2"/>
     </row>
     <row r="423" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B423" s="4"/>
+      <c r="B423" s="2"/>
     </row>
     <row r="424" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B424" s="4"/>
+      <c r="B424" s="2"/>
     </row>
     <row r="425" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B425" s="4"/>
+      <c r="B425" s="2"/>
     </row>
     <row r="426" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B426" s="4"/>
+      <c r="B426" s="2"/>
     </row>
     <row r="427" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B427" s="4"/>
+      <c r="B427" s="2"/>
     </row>
     <row r="428" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B428" s="4"/>
+      <c r="B428" s="2"/>
     </row>
     <row r="429" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B429" s="4"/>
+      <c r="B429" s="2"/>
     </row>
     <row r="430" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B430" s="4"/>
+      <c r="B430" s="2"/>
     </row>
     <row r="431" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B431" s="4"/>
+      <c r="B431" s="2"/>
     </row>
     <row r="432" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B432" s="4"/>
+      <c r="B432" s="2"/>
     </row>
     <row r="433" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B433" s="4"/>
+      <c r="B433" s="2"/>
     </row>
     <row r="434" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B434" s="4"/>
+      <c r="B434" s="2"/>
     </row>
     <row r="435" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B435" s="4"/>
+      <c r="B435" s="2"/>
     </row>
     <row r="436" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B436" s="4"/>
+      <c r="B436" s="2"/>
     </row>
     <row r="437" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B437" s="4"/>
+      <c r="B437" s="2"/>
     </row>
     <row r="438" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B438" s="4"/>
+      <c r="B438" s="2"/>
     </row>
     <row r="439" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B439" s="4"/>
+      <c r="B439" s="2"/>
     </row>
     <row r="440" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B440" s="4"/>
+      <c r="B440" s="2"/>
     </row>
     <row r="441" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B441" s="4"/>
+      <c r="B441" s="2"/>
     </row>
     <row r="442" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B442" s="4"/>
+      <c r="B442" s="2"/>
     </row>
     <row r="443" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B443" s="4"/>
+      <c r="B443" s="2"/>
     </row>
     <row r="444" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B444" s="4"/>
+      <c r="B444" s="2"/>
     </row>
     <row r="445" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B445" s="4"/>
+      <c r="B445" s="2"/>
     </row>
     <row r="446" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B446" s="4"/>
+      <c r="B446" s="2"/>
     </row>
     <row r="447" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B447" s="4"/>
+      <c r="B447" s="2"/>
     </row>
     <row r="448" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B448" s="4"/>
+      <c r="B448" s="2"/>
     </row>
     <row r="449" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B449" s="4"/>
+      <c r="B449" s="2"/>
     </row>
     <row r="450" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B450" s="4"/>
+      <c r="B450" s="2"/>
     </row>
     <row r="451" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B451" s="4"/>
+      <c r="B451" s="2"/>
     </row>
     <row r="452" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B452" s="4"/>
+      <c r="B452" s="2"/>
     </row>
     <row r="453" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B453" s="4"/>
+      <c r="B453" s="2"/>
     </row>
     <row r="454" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B454" s="4"/>
+      <c r="B454" s="2"/>
     </row>
     <row r="455" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B455" s="4"/>
+      <c r="B455" s="2"/>
     </row>
     <row r="456" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B456" s="4"/>
+      <c r="B456" s="2"/>
     </row>
     <row r="457" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B457" s="4"/>
+      <c r="B457" s="2"/>
     </row>
     <row r="458" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B458" s="4"/>
+      <c r="B458" s="2"/>
     </row>
     <row r="459" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B459" s="4"/>
+      <c r="B459" s="2"/>
     </row>
     <row r="460" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B460" s="4"/>
+      <c r="B460" s="2"/>
     </row>
     <row r="461" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B461" s="4"/>
+      <c r="B461" s="2"/>
     </row>
     <row r="462" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B462" s="4"/>
+      <c r="B462" s="2"/>
     </row>
     <row r="463" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B463" s="4"/>
+      <c r="B463" s="2"/>
     </row>
     <row r="464" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B464" s="4"/>
+      <c r="B464" s="2"/>
     </row>
     <row r="465" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B465" s="4"/>
+      <c r="B465" s="2"/>
     </row>
     <row r="466" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B466" s="4"/>
+      <c r="B466" s="2"/>
     </row>
     <row r="467" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B467" s="4"/>
+      <c r="B467" s="2"/>
     </row>
     <row r="468" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B468" s="4"/>
+      <c r="B468" s="2"/>
     </row>
     <row r="469" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B469" s="4"/>
+      <c r="B469" s="2"/>
     </row>
     <row r="470" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B470" s="4"/>
+      <c r="B470" s="2"/>
     </row>
     <row r="471" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B471" s="4"/>
+      <c r="B471" s="2"/>
     </row>
     <row r="472" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B472" s="4"/>
+      <c r="B472" s="2"/>
     </row>
     <row r="473" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B473" s="4"/>
+      <c r="B473" s="2"/>
     </row>
     <row r="474" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B474" s="4"/>
+      <c r="B474" s="2"/>
     </row>
     <row r="475" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B475" s="4"/>
+      <c r="B475" s="2"/>
     </row>
     <row r="476" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B476" s="4"/>
+      <c r="B476" s="2"/>
     </row>
     <row r="477" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B477" s="4"/>
+      <c r="B477" s="2"/>
     </row>
     <row r="478" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B478" s="4"/>
+      <c r="B478" s="2"/>
     </row>
     <row r="479" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B479" s="4"/>
+      <c r="B479" s="2"/>
     </row>
     <row r="480" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B480" s="4"/>
+      <c r="B480" s="2"/>
     </row>
     <row r="481" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B481" s="4"/>
+      <c r="B481" s="2"/>
     </row>
     <row r="482" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B482" s="4"/>
+      <c r="B482" s="2"/>
     </row>
     <row r="483" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B483" s="4"/>
+      <c r="B483" s="2"/>
     </row>
     <row r="484" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B484" s="4"/>
+      <c r="B484" s="2"/>
     </row>
     <row r="485" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B485" s="4"/>
+      <c r="B485" s="2"/>
     </row>
     <row r="486" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B486" s="4"/>
+      <c r="B486" s="2"/>
     </row>
     <row r="487" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B487" s="4"/>
+      <c r="B487" s="2"/>
     </row>
     <row r="488" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B488" s="4"/>
+      <c r="B488" s="2"/>
     </row>
     <row r="489" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B489" s="4"/>
+      <c r="B489" s="2"/>
     </row>
     <row r="490" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B490" s="4"/>
+      <c r="B490" s="2"/>
     </row>
     <row r="491" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B491" s="4"/>
+      <c r="B491" s="2"/>
     </row>
     <row r="492" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B492" s="4"/>
+      <c r="B492" s="2"/>
     </row>
     <row r="493" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B493" s="4"/>
+      <c r="B493" s="2"/>
     </row>
     <row r="494" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B494" s="4"/>
+      <c r="B494" s="2"/>
     </row>
     <row r="495" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B495" s="4"/>
+      <c r="B495" s="2"/>
     </row>
     <row r="496" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B496" s="4"/>
+      <c r="B496" s="2"/>
     </row>
     <row r="497" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B497" s="4"/>
+      <c r="B497" s="2"/>
     </row>
     <row r="498" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B498" s="4"/>
+      <c r="B498" s="2"/>
     </row>
     <row r="499" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B499" s="4"/>
+      <c r="B499" s="2"/>
     </row>
     <row r="500" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B500" s="4"/>
+      <c r="B500" s="2"/>
     </row>
     <row r="501" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B501" s="4"/>
+      <c r="B501" s="2"/>
     </row>
     <row r="502" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B502" s="4"/>
+      <c r="B502" s="2"/>
     </row>
     <row r="503" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B503" s="4"/>
+      <c r="B503" s="2"/>
     </row>
     <row r="504" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B504" s="4"/>
+      <c r="B504" s="2"/>
     </row>
     <row r="505" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B505" s="4"/>
+      <c r="B505" s="2"/>
     </row>
     <row r="506" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B506" s="4"/>
+      <c r="B506" s="2"/>
     </row>
     <row r="507" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B507" s="4"/>
+      <c r="B507" s="2"/>
     </row>
     <row r="508" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B508" s="4"/>
+      <c r="B508" s="2"/>
     </row>
     <row r="509" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B509" s="4"/>
+      <c r="B509" s="2"/>
     </row>
     <row r="510" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B510" s="4"/>
+      <c r="B510" s="2"/>
     </row>
     <row r="511" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B511" s="4"/>
+      <c r="B511" s="2"/>
     </row>
     <row r="512" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B512" s="4"/>
+      <c r="B512" s="2"/>
     </row>
     <row r="513" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B513" s="4"/>
+      <c r="B513" s="2"/>
     </row>
     <row r="514" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B514" s="4"/>
+      <c r="B514" s="2"/>
     </row>
     <row r="515" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B515" s="4"/>
+      <c r="B515" s="2"/>
     </row>
     <row r="516" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B516" s="4"/>
+      <c r="B516" s="2"/>
     </row>
     <row r="517" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B517" s="4"/>
+      <c r="B517" s="2"/>
     </row>
     <row r="518" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B518" s="4"/>
+      <c r="B518" s="2"/>
     </row>
     <row r="519" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B519" s="4"/>
+      <c r="B519" s="2"/>
     </row>
     <row r="520" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B520" s="4"/>
+      <c r="B520" s="2"/>
     </row>
     <row r="521" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B521" s="4"/>
+      <c r="B521" s="2"/>
     </row>
     <row r="522" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B522" s="4"/>
+      <c r="B522" s="2"/>
     </row>
     <row r="523" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B523" s="4"/>
+      <c r="B523" s="2"/>
     </row>
     <row r="524" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B524" s="4"/>
+      <c r="B524" s="2"/>
     </row>
     <row r="525" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B525" s="4"/>
+      <c r="B525" s="2"/>
     </row>
     <row r="526" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B526" s="4"/>
+      <c r="B526" s="2"/>
     </row>
     <row r="527" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B527" s="4"/>
+      <c r="B527" s="2"/>
     </row>
     <row r="528" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B528" s="4"/>
+      <c r="B528" s="2"/>
     </row>
     <row r="529" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B529" s="4"/>
+      <c r="B529" s="2"/>
     </row>
     <row r="530" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B530" s="4"/>
+      <c r="B530" s="2"/>
     </row>
     <row r="531" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B531" s="4"/>
+      <c r="B531" s="2"/>
     </row>
     <row r="532" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B532" s="4"/>
+      <c r="B532" s="2"/>
     </row>
     <row r="533" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B533" s="4"/>
+      <c r="B533" s="2"/>
     </row>
     <row r="534" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B534" s="4"/>
+      <c r="B534" s="2"/>
     </row>
     <row r="535" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B535" s="4"/>
+      <c r="B535" s="2"/>
     </row>
     <row r="536" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B536" s="4"/>
+      <c r="B536" s="2"/>
     </row>
     <row r="537" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B537" s="4"/>
+      <c r="B537" s="2"/>
     </row>
     <row r="538" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B538" s="4"/>
+      <c r="B538" s="2"/>
     </row>
     <row r="539" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B539" s="4"/>
+      <c r="B539" s="2"/>
     </row>
     <row r="540" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B540" s="4"/>
+      <c r="B540" s="2"/>
     </row>
     <row r="541" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B541" s="4"/>
+      <c r="B541" s="2"/>
     </row>
     <row r="542" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B542" s="4"/>
+      <c r="B542" s="2"/>
     </row>
     <row r="543" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B543" s="4"/>
+      <c r="B543" s="2"/>
     </row>
     <row r="544" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B544" s="4"/>
+      <c r="B544" s="2"/>
     </row>
     <row r="545" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B545" s="4"/>
+      <c r="B545" s="2"/>
     </row>
     <row r="546" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B546" s="4"/>
+      <c r="B546" s="2"/>
     </row>
     <row r="547" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B547" s="4"/>
+      <c r="B547" s="2"/>
     </row>
     <row r="548" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B548" s="4"/>
+      <c r="B548" s="2"/>
     </row>
     <row r="549" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B549" s="4"/>
+      <c r="B549" s="2"/>
     </row>
     <row r="550" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B550" s="4"/>
+      <c r="B550" s="2"/>
     </row>
     <row r="551" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B551" s="4"/>
+      <c r="B551" s="2"/>
     </row>
     <row r="552" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B552" s="4"/>
+      <c r="B552" s="2"/>
     </row>
     <row r="553" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B553" s="4"/>
+      <c r="B553" s="2"/>
     </row>
     <row r="554" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B554" s="4"/>
+      <c r="B554" s="2"/>
     </row>
     <row r="555" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B555" s="4"/>
+      <c r="B555" s="2"/>
     </row>
     <row r="556" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B556" s="4"/>
+      <c r="B556" s="2"/>
     </row>
     <row r="557" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B557" s="4"/>
+      <c r="B557" s="2"/>
     </row>
     <row r="558" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B558" s="4"/>
+      <c r="B558" s="2"/>
     </row>
     <row r="559" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B559" s="4"/>
+      <c r="B559" s="2"/>
     </row>
     <row r="560" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B560" s="4"/>
+      <c r="B560" s="2"/>
     </row>
     <row r="561" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B561" s="4"/>
+      <c r="B561" s="2"/>
     </row>
     <row r="562" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B562" s="4"/>
+      <c r="B562" s="2"/>
     </row>
     <row r="563" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B563" s="4"/>
+      <c r="B563" s="2"/>
     </row>
     <row r="564" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B564" s="4"/>
+      <c r="B564" s="2"/>
     </row>
     <row r="565" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B565" s="4"/>
+      <c r="B565" s="2"/>
     </row>
     <row r="566" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B566" s="4"/>
+      <c r="B566" s="2"/>
     </row>
     <row r="567" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B567" s="4"/>
+      <c r="B567" s="2"/>
     </row>
     <row r="568" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B568" s="4"/>
+      <c r="B568" s="2"/>
     </row>
     <row r="569" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B569" s="4"/>
+      <c r="B569" s="2"/>
     </row>
     <row r="570" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B570" s="4"/>
+      <c r="B570" s="2"/>
     </row>
     <row r="571" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B571" s="4"/>
+      <c r="B571" s="2"/>
     </row>
     <row r="572" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B572" s="4"/>
+      <c r="B572" s="2"/>
     </row>
     <row r="573" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B573" s="4"/>
+      <c r="B573" s="2"/>
     </row>
     <row r="574" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B574" s="4"/>
+      <c r="B574" s="2"/>
     </row>
     <row r="575" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B575" s="4"/>
+      <c r="B575" s="2"/>
     </row>
     <row r="576" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B576" s="4"/>
+      <c r="B576" s="2"/>
     </row>
     <row r="577" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B577" s="4"/>
+      <c r="B577" s="2"/>
     </row>
     <row r="578" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B578" s="4"/>
+      <c r="B578" s="2"/>
     </row>
     <row r="579" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B579" s="4"/>
+      <c r="B579" s="2"/>
     </row>
     <row r="580" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B580" s="4"/>
+      <c r="B580" s="2"/>
     </row>
     <row r="581" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B581" s="4"/>
+      <c r="B581" s="2"/>
     </row>
     <row r="582" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B582" s="4"/>
+      <c r="B582" s="2"/>
     </row>
     <row r="583" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B583" s="4"/>
+      <c r="B583" s="2"/>
     </row>
     <row r="584" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B584" s="4"/>
+      <c r="B584" s="2"/>
     </row>
     <row r="585" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B585" s="4"/>
+      <c r="B585" s="2"/>
     </row>
     <row r="586" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B586" s="4"/>
+      <c r="B586" s="2"/>
     </row>
     <row r="587" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B587" s="4"/>
+      <c r="B587" s="2"/>
     </row>
     <row r="588" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B588" s="4"/>
+      <c r="B588" s="2"/>
     </row>
     <row r="589" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B589" s="4"/>
+      <c r="B589" s="2"/>
     </row>
     <row r="590" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B590" s="4"/>
+      <c r="B590" s="2"/>
     </row>
     <row r="591" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B591" s="4"/>
+      <c r="B591" s="2"/>
     </row>
     <row r="592" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B592" s="4"/>
+      <c r="B592" s="2"/>
     </row>
     <row r="593" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B593" s="4"/>
+      <c r="B593" s="2"/>
     </row>
     <row r="594" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B594" s="4"/>
+      <c r="B594" s="2"/>
     </row>
     <row r="595" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B595" s="4"/>
+      <c r="B595" s="2"/>
     </row>
     <row r="596" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B596" s="4"/>
+      <c r="B596" s="2"/>
     </row>
     <row r="597" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B597" s="4"/>
+      <c r="B597" s="2"/>
     </row>
     <row r="598" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B598" s="4"/>
+      <c r="B598" s="2"/>
     </row>
     <row r="599" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B599" s="4"/>
+      <c r="B599" s="2"/>
     </row>
     <row r="600" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B600" s="4"/>
+      <c r="B600" s="2"/>
     </row>
     <row r="601" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B601" s="4"/>
+      <c r="B601" s="2"/>
     </row>
     <row r="602" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B602" s="4"/>
+      <c r="B602" s="2"/>
     </row>
     <row r="603" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B603" s="4"/>
+      <c r="B603" s="2"/>
     </row>
     <row r="604" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B604" s="4"/>
+      <c r="B604" s="2"/>
     </row>
     <row r="605" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B605" s="4"/>
+      <c r="B605" s="2"/>
     </row>
     <row r="606" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B606" s="4"/>
+      <c r="B606" s="2"/>
     </row>
     <row r="607" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B607" s="4"/>
+      <c r="B607" s="2"/>
     </row>
     <row r="608" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B608" s="4"/>
+      <c r="B608" s="2"/>
     </row>
     <row r="609" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B609" s="4"/>
+      <c r="B609" s="2"/>
     </row>
     <row r="610" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B610" s="4"/>
+      <c r="B610" s="2"/>
     </row>
     <row r="611" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B611" s="4"/>
+      <c r="B611" s="2"/>
     </row>
     <row r="612" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B612" s="4"/>
+      <c r="B612" s="2"/>
     </row>
     <row r="613" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B613" s="4"/>
+      <c r="B613" s="2"/>
     </row>
     <row r="614" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B614" s="4"/>
+      <c r="B614" s="2"/>
     </row>
     <row r="615" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B615" s="4"/>
+      <c r="B615" s="2"/>
     </row>
     <row r="616" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B616" s="4"/>
+      <c r="B616" s="2"/>
     </row>
     <row r="617" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B617" s="4"/>
+      <c r="B617" s="2"/>
     </row>
     <row r="618" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B618" s="4"/>
+      <c r="B618" s="2"/>
     </row>
     <row r="619" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B619" s="4"/>
+      <c r="B619" s="2"/>
     </row>
     <row r="620" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B620" s="4"/>
+      <c r="B620" s="2"/>
     </row>
     <row r="621" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B621" s="4"/>
+      <c r="B621" s="2"/>
     </row>
     <row r="622" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B622" s="4"/>
+      <c r="B622" s="2"/>
     </row>
     <row r="623" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B623" s="4"/>
+      <c r="B623" s="2"/>
     </row>
     <row r="624" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B624" s="4"/>
+      <c r="B624" s="2"/>
     </row>
     <row r="625" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B625" s="4"/>
+      <c r="B625" s="2"/>
     </row>
     <row r="626" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B626" s="4"/>
+      <c r="B626" s="2"/>
     </row>
     <row r="627" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B627" s="4"/>
+      <c r="B627" s="2"/>
     </row>
     <row r="628" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B628" s="4"/>
+      <c r="B628" s="2"/>
     </row>
     <row r="629" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B629" s="4"/>
+      <c r="B629" s="2"/>
     </row>
     <row r="630" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B630" s="4"/>
+      <c r="B630" s="2"/>
     </row>
     <row r="631" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B631" s="4"/>
+      <c r="B631" s="2"/>
     </row>
     <row r="632" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B632" s="4"/>
+      <c r="B632" s="2"/>
     </row>
     <row r="633" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B633" s="4"/>
+      <c r="B633" s="2"/>
     </row>
     <row r="634" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B634" s="4"/>
+      <c r="B634" s="2"/>
     </row>
     <row r="635" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B635" s="4"/>
+      <c r="B635" s="2"/>
     </row>
     <row r="636" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B636" s="4"/>
+      <c r="B636" s="2"/>
     </row>
     <row r="637" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B637" s="4"/>
+      <c r="B637" s="2"/>
     </row>
     <row r="638" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B638" s="4"/>
+      <c r="B638" s="2"/>
     </row>
     <row r="639" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B639" s="4"/>
+      <c r="B639" s="2"/>
     </row>
     <row r="640" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B640" s="4"/>
+      <c r="B640" s="2"/>
     </row>
     <row r="641" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B641" s="4"/>
+      <c r="B641" s="2"/>
     </row>
     <row r="642" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B642" s="4"/>
+      <c r="B642" s="2"/>
     </row>
     <row r="643" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B643" s="4"/>
+      <c r="B643" s="2"/>
     </row>
     <row r="644" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B644" s="4"/>
+      <c r="B644" s="2"/>
     </row>
     <row r="645" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B645" s="4"/>
+      <c r="B645" s="2"/>
     </row>
     <row r="646" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B646" s="4"/>
+      <c r="B646" s="2"/>
     </row>
     <row r="647" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B647" s="4"/>
+      <c r="B647" s="2"/>
     </row>
     <row r="648" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B648" s="4"/>
+      <c r="B648" s="2"/>
     </row>
     <row r="649" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B649" s="4"/>
+      <c r="B649" s="2"/>
     </row>
     <row r="650" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B650" s="4"/>
+      <c r="B650" s="2"/>
     </row>
     <row r="651" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B651" s="4"/>
+      <c r="B651" s="2"/>
     </row>
     <row r="652" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B652" s="4"/>
+      <c r="B652" s="2"/>
     </row>
     <row r="653" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B653" s="4"/>
+      <c r="B653" s="2"/>
     </row>
     <row r="654" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B654" s="4"/>
+      <c r="B654" s="2"/>
     </row>
     <row r="655" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B655" s="4"/>
+      <c r="B655" s="2"/>
     </row>
     <row r="656" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B656" s="4"/>
+      <c r="B656" s="2"/>
     </row>
     <row r="657" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B657" s="4"/>
+      <c r="B657" s="2"/>
     </row>
     <row r="658" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B658" s="4"/>
+      <c r="B658" s="2"/>
     </row>
     <row r="659" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B659" s="4"/>
+      <c r="B659" s="2"/>
     </row>
     <row r="660" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B660" s="4"/>
+      <c r="B660" s="2"/>
     </row>
     <row r="661" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B661" s="4"/>
+      <c r="B661" s="2"/>
     </row>
     <row r="662" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B662" s="4"/>
+      <c r="B662" s="2"/>
     </row>
     <row r="663" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B663" s="4"/>
+      <c r="B663" s="2"/>
     </row>
     <row r="664" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B664" s="4"/>
+      <c r="B664" s="2"/>
     </row>
     <row r="665" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B665" s="4"/>
+      <c r="B665" s="2"/>
     </row>
     <row r="666" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B666" s="4"/>
+      <c r="B666" s="2"/>
     </row>
     <row r="667" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B667" s="4"/>
+      <c r="B667" s="2"/>
     </row>
     <row r="668" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B668" s="4"/>
+      <c r="B668" s="2"/>
     </row>
     <row r="669" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B669" s="4"/>
+      <c r="B669" s="2"/>
     </row>
     <row r="670" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B670" s="4"/>
+      <c r="B670" s="2"/>
     </row>
     <row r="671" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B671" s="4"/>
+      <c r="B671" s="2"/>
     </row>
     <row r="672" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B672" s="4"/>
+      <c r="B672" s="2"/>
     </row>
     <row r="673" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B673" s="4"/>
+      <c r="B673" s="2"/>
     </row>
     <row r="674" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B674" s="4"/>
+      <c r="B674" s="2"/>
     </row>
     <row r="675" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B675" s="4"/>
+      <c r="B675" s="2"/>
     </row>
     <row r="676" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B676" s="4"/>
+      <c r="B676" s="2"/>
     </row>
     <row r="677" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B677" s="4"/>
+      <c r="B677" s="2"/>
     </row>
     <row r="678" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B678" s="4"/>
+      <c r="B678" s="2"/>
     </row>
     <row r="679" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B679" s="4"/>
+      <c r="B679" s="2"/>
     </row>
     <row r="680" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B680" s="4"/>
+      <c r="B680" s="2"/>
     </row>
     <row r="681" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B681" s="4"/>
+      <c r="B681" s="2"/>
     </row>
     <row r="682" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B682" s="4"/>
+      <c r="B682" s="2"/>
     </row>
     <row r="683" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B683" s="4"/>
+      <c r="B683" s="2"/>
     </row>
     <row r="684" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B684" s="4"/>
+      <c r="B684" s="2"/>
     </row>
     <row r="685" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B685" s="4"/>
+      <c r="B685" s="2"/>
     </row>
     <row r="686" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B686" s="4"/>
+      <c r="B686" s="2"/>
     </row>
     <row r="687" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B687" s="4"/>
+      <c r="B687" s="2"/>
     </row>
     <row r="688" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B688" s="4"/>
+      <c r="B688" s="2"/>
     </row>
     <row r="689" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B689" s="4"/>
+      <c r="B689" s="2"/>
     </row>
     <row r="690" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B690" s="4"/>
+      <c r="B690" s="2"/>
     </row>
     <row r="691" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B691" s="4"/>
+      <c r="B691" s="2"/>
     </row>
     <row r="692" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B692" s="4"/>
+      <c r="B692" s="2"/>
     </row>
     <row r="693" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B693" s="4"/>
+      <c r="B693" s="2"/>
     </row>
     <row r="694" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B694" s="4"/>
+      <c r="B694" s="2"/>
     </row>
     <row r="695" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B695" s="4"/>
+      <c r="B695" s="2"/>
     </row>
     <row r="696" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B696" s="4"/>
+      <c r="B696" s="2"/>
     </row>
     <row r="697" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B697" s="4"/>
+      <c r="B697" s="2"/>
     </row>
     <row r="698" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B698" s="4"/>
+      <c r="B698" s="2"/>
     </row>
     <row r="699" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B699" s="4"/>
+      <c r="B699" s="2"/>
     </row>
     <row r="700" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B700" s="4"/>
+      <c r="B700" s="2"/>
     </row>
     <row r="701" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B701" s="4"/>
+      <c r="B701" s="2"/>
     </row>
     <row r="702" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B702" s="4"/>
+      <c r="B702" s="2"/>
     </row>
     <row r="703" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B703" s="4"/>
+      <c r="B703" s="2"/>
     </row>
     <row r="704" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B704" s="4"/>
+      <c r="B704" s="2"/>
     </row>
     <row r="705" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B705" s="4"/>
+      <c r="B705" s="2"/>
     </row>
     <row r="706" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B706" s="4"/>
+      <c r="B706" s="2"/>
     </row>
     <row r="707" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B707" s="4"/>
+      <c r="B707" s="2"/>
     </row>
     <row r="708" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B708" s="4"/>
+      <c r="B708" s="2"/>
     </row>
     <row r="709" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B709" s="4"/>
+      <c r="B709" s="2"/>
     </row>
     <row r="710" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B710" s="4"/>
+      <c r="B710" s="2"/>
     </row>
     <row r="711" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B711" s="4"/>
+      <c r="B711" s="2"/>
     </row>
     <row r="712" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B712" s="4"/>
+      <c r="B712" s="2"/>
     </row>
     <row r="713" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B713" s="4"/>
+      <c r="B713" s="2"/>
     </row>
     <row r="714" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B714" s="4"/>
+      <c r="B714" s="2"/>
     </row>
     <row r="715" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B715" s="4"/>
+      <c r="B715" s="2"/>
     </row>
     <row r="716" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B716" s="4"/>
+      <c r="B716" s="2"/>
     </row>
     <row r="717" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B717" s="4"/>
+      <c r="B717" s="2"/>
     </row>
     <row r="718" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B718" s="4"/>
+      <c r="B718" s="2"/>
     </row>
     <row r="719" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B719" s="4"/>
+      <c r="B719" s="2"/>
     </row>
     <row r="720" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B720" s="4"/>
+      <c r="B720" s="2"/>
     </row>
     <row r="721" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B721" s="4"/>
+      <c r="B721" s="2"/>
     </row>
     <row r="722" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B722" s="4"/>
+      <c r="B722" s="2"/>
     </row>
     <row r="723" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B723" s="4"/>
+      <c r="B723" s="2"/>
     </row>
     <row r="724" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B724" s="4"/>
+      <c r="B724" s="2"/>
     </row>
     <row r="725" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B725" s="4"/>
+      <c r="B725" s="2"/>
     </row>
     <row r="726" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B726" s="4"/>
+      <c r="B726" s="2"/>
     </row>
     <row r="727" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B727" s="4"/>
+      <c r="B727" s="2"/>
     </row>
     <row r="728" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B728" s="4"/>
+      <c r="B728" s="2"/>
     </row>
     <row r="729" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B729" s="4"/>
+      <c r="B729" s="2"/>
     </row>
     <row r="730" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B730" s="4"/>
+      <c r="B730" s="2"/>
     </row>
     <row r="731" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B731" s="4"/>
+      <c r="B731" s="2"/>
     </row>
     <row r="732" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B732" s="4"/>
+      <c r="B732" s="2"/>
     </row>
     <row r="733" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B733" s="4"/>
+      <c r="B733" s="2"/>
     </row>
     <row r="734" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B734" s="4"/>
+      <c r="B734" s="2"/>
     </row>
     <row r="735" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B735" s="4"/>
+      <c r="B735" s="2"/>
     </row>
     <row r="736" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B736" s="4"/>
+      <c r="B736" s="2"/>
     </row>
     <row r="737" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B737" s="4"/>
+      <c r="B737" s="2"/>
     </row>
     <row r="738" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B738" s="4"/>
+      <c r="B738" s="2"/>
     </row>
     <row r="739" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B739" s="4"/>
+      <c r="B739" s="2"/>
     </row>
     <row r="740" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B740" s="4"/>
+      <c r="B740" s="2"/>
     </row>
     <row r="741" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B741" s="4"/>
+      <c r="B741" s="2"/>
     </row>
     <row r="742" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B742" s="4"/>
+      <c r="B742" s="2"/>
     </row>
     <row r="743" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B743" s="4"/>
+      <c r="B743" s="2"/>
     </row>
     <row r="744" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B744" s="4"/>
+      <c r="B744" s="2"/>
     </row>
     <row r="745" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B745" s="4"/>
+      <c r="B745" s="2"/>
     </row>
     <row r="746" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B746" s="4"/>
+      <c r="B746" s="2"/>
     </row>
     <row r="747" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B747" s="4"/>
+      <c r="B747" s="2"/>
     </row>
     <row r="748" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B748" s="4"/>
+      <c r="B748" s="2"/>
     </row>
     <row r="749" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B749" s="4"/>
+      <c r="B749" s="2"/>
     </row>
     <row r="750" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B750" s="4"/>
+      <c r="B750" s="2"/>
     </row>
     <row r="751" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B751" s="4"/>
+      <c r="B751" s="2"/>
     </row>
     <row r="752" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B752" s="4"/>
+      <c r="B752" s="2"/>
     </row>
     <row r="753" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B753" s="4"/>
+      <c r="B753" s="2"/>
     </row>
     <row r="754" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B754" s="4"/>
+      <c r="B754" s="2"/>
     </row>
     <row r="755" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B755" s="4"/>
+      <c r="B755" s="2"/>
     </row>
     <row r="756" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B756" s="4"/>
+      <c r="B756" s="2"/>
     </row>
     <row r="757" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B757" s="4"/>
+      <c r="B757" s="2"/>
     </row>
     <row r="758" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B758" s="4"/>
+      <c r="B758" s="2"/>
     </row>
     <row r="759" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B759" s="4"/>
+      <c r="B759" s="2"/>
     </row>
     <row r="760" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B760" s="4"/>
+      <c r="B760" s="2"/>
     </row>
     <row r="761" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B761" s="4"/>
+      <c r="B761" s="2"/>
     </row>
     <row r="762" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B762" s="4"/>
+      <c r="B762" s="2"/>
     </row>
     <row r="763" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B763" s="4"/>
+      <c r="B763" s="2"/>
     </row>
     <row r="764" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B764" s="4"/>
+      <c r="B764" s="2"/>
     </row>
     <row r="765" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B765" s="4"/>
+      <c r="B765" s="2"/>
     </row>
     <row r="766" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B766" s="4"/>
+      <c r="B766" s="2"/>
     </row>
     <row r="767" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B767" s="4"/>
+      <c r="B767" s="2"/>
     </row>
     <row r="768" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B768" s="4"/>
+      <c r="B768" s="2"/>
     </row>
     <row r="769" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B769" s="4"/>
+      <c r="B769" s="2"/>
     </row>
     <row r="770" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B770" s="4"/>
+      <c r="B770" s="2"/>
     </row>
     <row r="771" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B771" s="4"/>
+      <c r="B771" s="2"/>
     </row>
     <row r="772" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B772" s="4"/>
+      <c r="B772" s="2"/>
     </row>
     <row r="773" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B773" s="4"/>
+      <c r="B773" s="2"/>
     </row>
     <row r="774" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B774" s="4"/>
+      <c r="B774" s="2"/>
     </row>
     <row r="775" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B775" s="4"/>
+      <c r="B775" s="2"/>
     </row>
     <row r="776" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B776" s="4"/>
+      <c r="B776" s="2"/>
     </row>
     <row r="777" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B777" s="4"/>
+      <c r="B777" s="2"/>
     </row>
     <row r="778" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B778" s="4"/>
+      <c r="B778" s="2"/>
     </row>
     <row r="779" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B779" s="4"/>
+      <c r="B779" s="2"/>
     </row>
     <row r="780" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B780" s="4"/>
+      <c r="B780" s="2"/>
     </row>
     <row r="781" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B781" s="4"/>
+      <c r="B781" s="2"/>
     </row>
     <row r="782" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B782" s="4"/>
+      <c r="B782" s="2"/>
     </row>
     <row r="783" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B783" s="4"/>
+      <c r="B783" s="2"/>
     </row>
     <row r="784" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B784" s="4"/>
+      <c r="B784" s="2"/>
     </row>
     <row r="785" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B785" s="4"/>
+      <c r="B785" s="2"/>
     </row>
     <row r="786" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B786" s="4"/>
+      <c r="B786" s="2"/>
     </row>
     <row r="787" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B787" s="4"/>
+      <c r="B787" s="2"/>
     </row>
     <row r="788" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B788" s="4"/>
+      <c r="B788" s="2"/>
     </row>
     <row r="789" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B789" s="4"/>
+      <c r="B789" s="2"/>
     </row>
     <row r="790" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B790" s="4"/>
+      <c r="B790" s="2"/>
     </row>
     <row r="791" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B791" s="4"/>
+      <c r="B791" s="2"/>
     </row>
     <row r="792" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B792" s="4"/>
+      <c r="B792" s="2"/>
     </row>
     <row r="793" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B793" s="4"/>
+      <c r="B793" s="2"/>
     </row>
     <row r="794" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B794" s="4"/>
+      <c r="B794" s="2"/>
     </row>
     <row r="795" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B795" s="4"/>
+      <c r="B795" s="2"/>
     </row>
     <row r="796" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B796" s="4"/>
+      <c r="B796" s="2"/>
     </row>
     <row r="797" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B797" s="4"/>
+      <c r="B797" s="2"/>
     </row>
     <row r="798" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B798" s="4"/>
+      <c r="B798" s="2"/>
     </row>
     <row r="799" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B799" s="4"/>
+      <c r="B799" s="2"/>
     </row>
     <row r="800" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B800" s="4"/>
+      <c r="B800" s="2"/>
     </row>
     <row r="801" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B801" s="4"/>
+      <c r="B801" s="2"/>
     </row>
     <row r="802" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B802" s="4"/>
+      <c r="B802" s="2"/>
     </row>
     <row r="803" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B803" s="4"/>
+      <c r="B803" s="2"/>
     </row>
     <row r="804" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B804" s="4"/>
+      <c r="B804" s="2"/>
     </row>
     <row r="805" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B805" s="4"/>
+      <c r="B805" s="2"/>
     </row>
     <row r="806" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B806" s="4"/>
+      <c r="B806" s="2"/>
     </row>
     <row r="807" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B807" s="4"/>
+      <c r="B807" s="2"/>
     </row>
     <row r="808" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B808" s="4"/>
+      <c r="B808" s="2"/>
     </row>
     <row r="809" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B809" s="4"/>
+      <c r="B809" s="2"/>
     </row>
     <row r="810" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B810" s="4"/>
+      <c r="B810" s="2"/>
     </row>
     <row r="811" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B811" s="4"/>
+      <c r="B811" s="2"/>
     </row>
     <row r="812" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B812" s="4"/>
+      <c r="B812" s="2"/>
     </row>
     <row r="813" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B813" s="4"/>
+      <c r="B813" s="2"/>
     </row>
     <row r="814" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B814" s="4"/>
+      <c r="B814" s="2"/>
     </row>
     <row r="815" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B815" s="4"/>
+      <c r="B815" s="2"/>
     </row>
     <row r="816" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B816" s="4"/>
+      <c r="B816" s="2"/>
     </row>
     <row r="817" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B817" s="4"/>
+      <c r="B817" s="2"/>
     </row>
     <row r="818" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B818" s="4"/>
+      <c r="B818" s="2"/>
     </row>
     <row r="819" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B819" s="4"/>
+      <c r="B819" s="2"/>
     </row>
     <row r="820" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B820" s="4"/>
+      <c r="B820" s="2"/>
     </row>
     <row r="821" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B821" s="4"/>
+      <c r="B821" s="2"/>
     </row>
     <row r="822" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B822" s="4"/>
+      <c r="B822" s="2"/>
     </row>
     <row r="823" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B823" s="4"/>
+      <c r="B823" s="2"/>
     </row>
     <row r="824" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B824" s="4"/>
+      <c r="B824" s="2"/>
     </row>
     <row r="825" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B825" s="4"/>
+      <c r="B825" s="2"/>
     </row>
     <row r="826" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B826" s="4"/>
+      <c r="B826" s="2"/>
     </row>
     <row r="827" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B827" s="4"/>
+      <c r="B827" s="2"/>
     </row>
     <row r="828" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B828" s="4"/>
+      <c r="B828" s="2"/>
     </row>
     <row r="829" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B829" s="4"/>
+      <c r="B829" s="2"/>
     </row>
     <row r="830" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B830" s="4"/>
+      <c r="B830" s="2"/>
     </row>
     <row r="831" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B831" s="4"/>
+      <c r="B831" s="2"/>
     </row>
     <row r="832" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B832" s="4"/>
+      <c r="B832" s="2"/>
     </row>
     <row r="833" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B833" s="4"/>
+      <c r="B833" s="2"/>
     </row>
     <row r="834" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B834" s="4"/>
+      <c r="B834" s="2"/>
     </row>
     <row r="835" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B835" s="4"/>
+      <c r="B835" s="2"/>
     </row>
     <row r="836" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B836" s="4"/>
+      <c r="B836" s="2"/>
     </row>
     <row r="837" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B837" s="4"/>
+      <c r="B837" s="2"/>
     </row>
     <row r="838" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B838" s="4"/>
+      <c r="B838" s="2"/>
     </row>
     <row r="839" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B839" s="4"/>
+      <c r="B839" s="2"/>
     </row>
     <row r="840" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B840" s="4"/>
+      <c r="B840" s="2"/>
     </row>
     <row r="841" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B841" s="4"/>
+      <c r="B841" s="2"/>
     </row>
     <row r="842" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B842" s="4"/>
+      <c r="B842" s="2"/>
     </row>
     <row r="843" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B843" s="4"/>
+      <c r="B843" s="2"/>
     </row>
     <row r="844" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B844" s="4"/>
+      <c r="B844" s="2"/>
     </row>
     <row r="845" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B845" s="4"/>
+      <c r="B845" s="2"/>
     </row>
     <row r="846" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B846" s="4"/>
+      <c r="B846" s="2"/>
     </row>
     <row r="847" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B847" s="4"/>
+      <c r="B847" s="2"/>
     </row>
     <row r="848" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B848" s="4"/>
+      <c r="B848" s="2"/>
     </row>
     <row r="849" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B849" s="4"/>
+      <c r="B849" s="2"/>
     </row>
     <row r="850" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B850" s="4"/>
+      <c r="B850" s="2"/>
     </row>
     <row r="851" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B851" s="4"/>
+      <c r="B851" s="2"/>
     </row>
     <row r="852" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B852" s="4"/>
+      <c r="B852" s="2"/>
     </row>
     <row r="853" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B853" s="4"/>
+      <c r="B853" s="2"/>
     </row>
     <row r="854" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B854" s="4"/>
+      <c r="B854" s="2"/>
     </row>
     <row r="855" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B855" s="4"/>
+      <c r="B855" s="2"/>
     </row>
     <row r="856" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B856" s="4"/>
+      <c r="B856" s="2"/>
     </row>
     <row r="857" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B857" s="4"/>
+      <c r="B857" s="2"/>
     </row>
     <row r="858" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B858" s="4"/>
+      <c r="B858" s="2"/>
     </row>
     <row r="859" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B859" s="4"/>
+      <c r="B859" s="2"/>
     </row>
     <row r="860" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B860" s="4"/>
+      <c r="B860" s="2"/>
     </row>
     <row r="861" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B861" s="4"/>
+      <c r="B861" s="2"/>
     </row>
     <row r="862" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B862" s="4"/>
+      <c r="B862" s="2"/>
     </row>
     <row r="863" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B863" s="4"/>
+      <c r="B863" s="2"/>
     </row>
     <row r="864" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B864" s="4"/>
+      <c r="B864" s="2"/>
     </row>
     <row r="865" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B865" s="4"/>
+      <c r="B865" s="2"/>
     </row>
     <row r="866" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B866" s="4"/>
+      <c r="B866" s="2"/>
     </row>
     <row r="867" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B867" s="4"/>
+      <c r="B867" s="2"/>
     </row>
     <row r="868" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B868" s="4"/>
+      <c r="B868" s="2"/>
     </row>
     <row r="869" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B869" s="4"/>
+      <c r="B869" s="2"/>
     </row>
     <row r="870" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B870" s="4"/>
+      <c r="B870" s="2"/>
     </row>
     <row r="871" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B871" s="4"/>
+      <c r="B871" s="2"/>
     </row>
     <row r="872" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B872" s="4"/>
+      <c r="B872" s="2"/>
     </row>
     <row r="873" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B873" s="4"/>
+      <c r="B873" s="2"/>
     </row>
     <row r="874" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B874" s="4"/>
+      <c r="B874" s="2"/>
     </row>
     <row r="875" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B875" s="4"/>
+      <c r="B875" s="2"/>
     </row>
     <row r="876" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B876" s="4"/>
+      <c r="B876" s="2"/>
     </row>
     <row r="877" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B877" s="4"/>
+      <c r="B877" s="2"/>
     </row>
     <row r="878" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B878" s="4"/>
+      <c r="B878" s="2"/>
     </row>
     <row r="879" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B879" s="4"/>
+      <c r="B879" s="2"/>
     </row>
     <row r="880" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B880" s="4"/>
+      <c r="B880" s="2"/>
     </row>
     <row r="881" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B881" s="4"/>
+      <c r="B881" s="2"/>
     </row>
     <row r="882" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B882" s="4"/>
+      <c r="B882" s="2"/>
     </row>
     <row r="883" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B883" s="4"/>
+      <c r="B883" s="2"/>
     </row>
     <row r="884" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B884" s="4"/>
+      <c r="B884" s="2"/>
     </row>
     <row r="885" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B885" s="4"/>
+      <c r="B885" s="2"/>
     </row>
     <row r="886" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B886" s="4"/>
+      <c r="B886" s="2"/>
     </row>
     <row r="887" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B887" s="4"/>
+      <c r="B887" s="2"/>
     </row>
     <row r="888" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B888" s="4"/>
+      <c r="B888" s="2"/>
     </row>
     <row r="889" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B889" s="4"/>
+      <c r="B889" s="2"/>
     </row>
     <row r="890" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B890" s="4"/>
+      <c r="B890" s="2"/>
     </row>
     <row r="891" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B891" s="4"/>
+      <c r="B891" s="2"/>
     </row>
     <row r="892" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B892" s="4"/>
+      <c r="B892" s="2"/>
     </row>
     <row r="893" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B893" s="4"/>
+      <c r="B893" s="2"/>
     </row>
     <row r="894" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B894" s="4"/>
+      <c r="B894" s="2"/>
     </row>
     <row r="895" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B895" s="4"/>
+      <c r="B895" s="2"/>
     </row>
     <row r="896" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B896" s="4"/>
+      <c r="B896" s="2"/>
     </row>
     <row r="897" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B897" s="4"/>
+      <c r="B897" s="2"/>
     </row>
     <row r="898" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B898" s="4"/>
+      <c r="B898" s="2"/>
     </row>
     <row r="899" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B899" s="4"/>
+      <c r="B899" s="2"/>
     </row>
     <row r="900" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B900" s="4"/>
+      <c r="B900" s="2"/>
     </row>
     <row r="901" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B901" s="4"/>
+      <c r="B901" s="2"/>
     </row>
     <row r="902" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B902" s="4"/>
+      <c r="B902" s="2"/>
     </row>
     <row r="903" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B903" s="4"/>
+      <c r="B903" s="2"/>
     </row>
     <row r="904" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B904" s="4"/>
+      <c r="B904" s="2"/>
     </row>
     <row r="905" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B905" s="4"/>
+      <c r="B905" s="2"/>
     </row>
     <row r="906" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B906" s="4"/>
+      <c r="B906" s="2"/>
     </row>
     <row r="907" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B907" s="4"/>
+      <c r="B907" s="2"/>
     </row>
     <row r="908" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B908" s="4"/>
+      <c r="B908" s="2"/>
     </row>
     <row r="909" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B909" s="4"/>
+      <c r="B909" s="2"/>
     </row>
     <row r="910" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B910" s="4"/>
+      <c r="B910" s="2"/>
     </row>
     <row r="911" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B911" s="4"/>
+      <c r="B911" s="2"/>
     </row>
     <row r="912" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B912" s="4"/>
+      <c r="B912" s="2"/>
     </row>
     <row r="913" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B913" s="4"/>
+      <c r="B913" s="2"/>
     </row>
     <row r="914" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B914" s="4"/>
+      <c r="B914" s="2"/>
     </row>
     <row r="915" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B915" s="4"/>
+      <c r="B915" s="2"/>
     </row>
     <row r="916" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B916" s="4"/>
+      <c r="B916" s="2"/>
     </row>
     <row r="917" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B917" s="4"/>
+      <c r="B917" s="2"/>
     </row>
     <row r="918" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B918" s="4"/>
+      <c r="B918" s="2"/>
     </row>
     <row r="919" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B919" s="4"/>
+      <c r="B919" s="2"/>
     </row>
     <row r="920" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B920" s="4"/>
+      <c r="B920" s="2"/>
     </row>
     <row r="921" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B921" s="4"/>
+      <c r="B921" s="2"/>
     </row>
     <row r="922" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B922" s="4"/>
+      <c r="B922" s="2"/>
     </row>
     <row r="923" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B923" s="4"/>
+      <c r="B923" s="2"/>
     </row>
     <row r="924" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B924" s="4"/>
+      <c r="B924" s="2"/>
     </row>
     <row r="925" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B925" s="4"/>
+      <c r="B925" s="2"/>
     </row>
     <row r="926" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B926" s="4"/>
+      <c r="B926" s="2"/>
     </row>
     <row r="927" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B927" s="4"/>
+      <c r="B927" s="2"/>
     </row>
     <row r="928" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B928" s="4"/>
+      <c r="B928" s="2"/>
     </row>
     <row r="929" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B929" s="4"/>
+      <c r="B929" s="2"/>
     </row>
     <row r="930" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B930" s="4"/>
+      <c r="B930" s="2"/>
     </row>
     <row r="931" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B931" s="4"/>
+      <c r="B931" s="2"/>
     </row>
     <row r="932" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B932" s="4"/>
+      <c r="B932" s="2"/>
     </row>
     <row r="933" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B933" s="4"/>
+      <c r="B933" s="2"/>
     </row>
     <row r="934" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B934" s="4"/>
+      <c r="B934" s="2"/>
     </row>
     <row r="935" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B935" s="4"/>
+      <c r="B935" s="2"/>
     </row>
     <row r="936" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B936" s="4"/>
+      <c r="B936" s="2"/>
     </row>
     <row r="937" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B937" s="4"/>
+      <c r="B937" s="2"/>
     </row>
     <row r="938" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B938" s="4"/>
+      <c r="B938" s="2"/>
     </row>
     <row r="939" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B939" s="4"/>
+      <c r="B939" s="2"/>
     </row>
     <row r="940" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B940" s="4"/>
+      <c r="B940" s="2"/>
     </row>
     <row r="941" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B941" s="4"/>
+      <c r="B941" s="2"/>
     </row>
     <row r="942" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B942" s="4"/>
+      <c r="B942" s="2"/>
     </row>
     <row r="943" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B943" s="4"/>
+      <c r="B943" s="2"/>
     </row>
     <row r="944" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B944" s="4"/>
+      <c r="B944" s="2"/>
     </row>
     <row r="945" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B945" s="4"/>
+      <c r="B945" s="2"/>
     </row>
     <row r="946" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B946" s="4"/>
+      <c r="B946" s="2"/>
     </row>
     <row r="947" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B947" s="4"/>
+      <c r="B947" s="2"/>
     </row>
     <row r="948" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B948" s="4"/>
+      <c r="B948" s="2"/>
     </row>
     <row r="949" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B949" s="4"/>
+      <c r="B949" s="2"/>
     </row>
     <row r="950" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B950" s="4"/>
+      <c r="B950" s="2"/>
     </row>
     <row r="951" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B951" s="4"/>
+      <c r="B951" s="2"/>
     </row>
     <row r="952" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B952" s="4"/>
+      <c r="B952" s="2"/>
     </row>
     <row r="953" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B953" s="4"/>
+      <c r="B953" s="2"/>
     </row>
     <row r="954" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B954" s="4"/>
+      <c r="B954" s="2"/>
     </row>
     <row r="955" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B955" s="4"/>
+      <c r="B955" s="2"/>
     </row>
     <row r="956" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B956" s="4"/>
+      <c r="B956" s="2"/>
     </row>
     <row r="957" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B957" s="4"/>
+      <c r="B957" s="2"/>
     </row>
     <row r="958" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B958" s="4"/>
+      <c r="B958" s="2"/>
     </row>
     <row r="959" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B959" s="4"/>
+      <c r="B959" s="2"/>
     </row>
     <row r="960" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B960" s="4"/>
+      <c r="B960" s="2"/>
     </row>
     <row r="961" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B961" s="4"/>
+      <c r="B961" s="2"/>
     </row>
     <row r="962" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B962" s="4"/>
+      <c r="B962" s="2"/>
     </row>
     <row r="963" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B963" s="4"/>
+      <c r="B963" s="2"/>
     </row>
     <row r="964" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B964" s="4"/>
+      <c r="B964" s="2"/>
     </row>
     <row r="965" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B965" s="4"/>
+      <c r="B965" s="2"/>
     </row>
     <row r="966" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B966" s="4"/>
+      <c r="B966" s="2"/>
     </row>
     <row r="967" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B967" s="4"/>
+      <c r="B967" s="2"/>
     </row>
     <row r="968" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B968" s="4"/>
+      <c r="B968" s="2"/>
     </row>
     <row r="969" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B969" s="4"/>
+      <c r="B969" s="2"/>
     </row>
     <row r="970" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B970" s="4"/>
+      <c r="B970" s="2"/>
     </row>
     <row r="971" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B971" s="4"/>
+      <c r="B971" s="2"/>
     </row>
     <row r="972" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B972" s="4"/>
+      <c r="B972" s="2"/>
     </row>
     <row r="973" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B973" s="4"/>
+      <c r="B973" s="2"/>
     </row>
     <row r="974" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B974" s="4"/>
+      <c r="B974" s="2"/>
     </row>
     <row r="975" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B975" s="4"/>
+      <c r="B975" s="2"/>
     </row>
     <row r="976" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B976" s="4"/>
+      <c r="B976" s="2"/>
     </row>
     <row r="977" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B977" s="4"/>
+      <c r="B977" s="2"/>
     </row>
     <row r="978" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B978" s="4"/>
+      <c r="B978" s="2"/>
     </row>
     <row r="979" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B979" s="4"/>
+      <c r="B979" s="2"/>
     </row>
     <row r="980" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B980" s="4"/>
+      <c r="B980" s="2"/>
     </row>
     <row r="981" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B981" s="4"/>
+      <c r="B981" s="2"/>
     </row>
     <row r="982" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B982" s="4"/>
+      <c r="B982" s="2"/>
     </row>
     <row r="983" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B983" s="4"/>
+      <c r="B983" s="2"/>
     </row>
     <row r="984" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B984" s="4"/>
+      <c r="B984" s="2"/>
     </row>
     <row r="985" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B985" s="4"/>
+      <c r="B985" s="2"/>
     </row>
     <row r="986" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B986" s="4"/>
+      <c r="B986" s="2"/>
     </row>
     <row r="987" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B987" s="4"/>
+      <c r="B987" s="2"/>
     </row>
     <row r="988" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B988" s="4"/>
+      <c r="B988" s="2"/>
     </row>
     <row r="989" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B989" s="4"/>
+      <c r="B989" s="2"/>
     </row>
     <row r="990" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B990" s="4"/>
+      <c r="B990" s="2"/>
     </row>
     <row r="991" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B991" s="4"/>
+      <c r="B991" s="2"/>
     </row>
     <row r="992" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B992" s="4"/>
+      <c r="B992" s="2"/>
     </row>
     <row r="993" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B993" s="4"/>
+      <c r="B993" s="2"/>
     </row>
     <row r="994" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B994" s="4"/>
+      <c r="B994" s="2"/>
     </row>
     <row r="995" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B995" s="4"/>
+      <c r="B995" s="2"/>
     </row>
     <row r="996" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B996" s="4"/>
+      <c r="B996" s="2"/>
     </row>
     <row r="997" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B997" s="4"/>
+      <c r="B997" s="2"/>
     </row>
     <row r="998" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B998" s="4"/>
+      <c r="B998" s="2"/>
     </row>
     <row r="999" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B999" s="4"/>
+      <c r="B999" s="2"/>
     </row>
     <row r="1000" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1000" s="4"/>
+      <c r="B1000" s="2"/>
     </row>
     <row r="1001" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1001" s="4"/>
+      <c r="B1001" s="2"/>
     </row>
     <row r="1002" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1002" s="4"/>
+      <c r="B1002" s="2"/>
     </row>
     <row r="1003" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1003" s="4"/>
+      <c r="B1003" s="2"/>
     </row>
     <row r="1004" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1004" s="4"/>
+      <c r="B1004" s="2"/>
     </row>
     <row r="1005" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1005" s="4"/>
+      <c r="B1005" s="2"/>
     </row>
     <row r="1006" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1006" s="4"/>
+      <c r="B1006" s="2"/>
     </row>
     <row r="1007" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1007" s="4"/>
+      <c r="B1007" s="2"/>
     </row>
     <row r="1008" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1008" s="4"/>
+      <c r="B1008" s="2"/>
     </row>
     <row r="1009" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1009" s="4"/>
+      <c r="B1009" s="2"/>
     </row>
     <row r="1010" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1010" s="4"/>
+      <c r="B1010" s="2"/>
     </row>
     <row r="1011" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1011" s="4"/>
+      <c r="B1011" s="2"/>
     </row>
     <row r="1012" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1012" s="4"/>
+      <c r="B1012" s="2"/>
     </row>
     <row r="1013" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1013" s="4"/>
+      <c r="B1013" s="2"/>
     </row>
     <row r="1014" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1014" s="4"/>
+      <c r="B1014" s="2"/>
     </row>
     <row r="1015" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1015" s="4"/>
+      <c r="B1015" s="2"/>
     </row>
     <row r="1016" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1016" s="4"/>
+      <c r="B1016" s="2"/>
     </row>
     <row r="1017" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1017" s="4"/>
+      <c r="B1017" s="2"/>
     </row>
     <row r="1018" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1018" s="4"/>
+      <c r="B1018" s="2"/>
     </row>
     <row r="1019" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1019" s="4"/>
+      <c r="B1019" s="2"/>
     </row>
     <row r="1020" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1020" s="4"/>
+      <c r="B1020" s="2"/>
     </row>
     <row r="1021" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1021" s="4"/>
+      <c r="B1021" s="2"/>
     </row>
     <row r="1022" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1022" s="4"/>
+      <c r="B1022" s="2"/>
     </row>
     <row r="1023" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1023" s="4"/>
+      <c r="B1023" s="2"/>
     </row>
     <row r="1024" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1024" s="4"/>
+      <c r="B1024" s="2"/>
     </row>
     <row r="1025" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1025" s="4"/>
+      <c r="B1025" s="2"/>
     </row>
     <row r="1026" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1026" s="4"/>
+      <c r="B1026" s="2"/>
     </row>
     <row r="1027" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1027" s="4"/>
+      <c r="B1027" s="2"/>
     </row>
     <row r="1028" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1028" s="4"/>
+      <c r="B1028" s="2"/>
     </row>
     <row r="1029" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1029" s="4"/>
+      <c r="B1029" s="2"/>
     </row>
     <row r="1030" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1030" s="4"/>
+      <c r="B1030" s="2"/>
     </row>
     <row r="1031" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1031" s="4"/>
+      <c r="B1031" s="2"/>
     </row>
     <row r="1032" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1032" s="4"/>
+      <c r="B1032" s="2"/>
     </row>
     <row r="1033" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1033" s="4"/>
+      <c r="B1033" s="2"/>
     </row>
     <row r="1034" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1034" s="4"/>
+      <c r="B1034" s="2"/>
     </row>
     <row r="1035" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1035" s="4"/>
+      <c r="B1035" s="2"/>
     </row>
     <row r="1036" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1036" s="4"/>
+      <c r="B1036" s="2"/>
     </row>
     <row r="1037" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1037" s="4"/>
+      <c r="B1037" s="2"/>
     </row>
     <row r="1038" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1038" s="4"/>
+      <c r="B1038" s="2"/>
     </row>
     <row r="1039" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1039" s="4"/>
+      <c r="B1039" s="2"/>
     </row>
     <row r="1040" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1040" s="4"/>
+      <c r="B1040" s="2"/>
     </row>
     <row r="1041" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1041" s="4"/>
+      <c r="B1041" s="2"/>
     </row>
     <row r="1042" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1042" s="4"/>
+      <c r="B1042" s="2"/>
     </row>
     <row r="1043" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1043" s="4"/>
+      <c r="B1043" s="2"/>
     </row>
     <row r="1044" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1044" s="4"/>
+      <c r="B1044" s="2"/>
     </row>
     <row r="1045" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1045" s="4"/>
+      <c r="B1045" s="2"/>
     </row>
     <row r="1046" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1046" s="4"/>
+      <c r="B1046" s="2"/>
     </row>
     <row r="1047" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1047" s="4"/>
+      <c r="B1047" s="2"/>
     </row>
     <row r="1048" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1048" s="4"/>
+      <c r="B1048" s="2"/>
     </row>
     <row r="1049" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1049" s="4"/>
+      <c r="B1049" s="2"/>
     </row>
     <row r="1050" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1050" s="4"/>
+      <c r="B1050" s="2"/>
     </row>
     <row r="1051" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1051" s="4"/>
+      <c r="B1051" s="2"/>
     </row>
     <row r="1052" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1052" s="4"/>
+      <c r="B1052" s="2"/>
     </row>
     <row r="1053" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1053" s="4"/>
+      <c r="B1053" s="2"/>
     </row>
     <row r="1054" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1054" s="4"/>
+      <c r="B1054" s="2"/>
     </row>
     <row r="1055" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1055" s="4"/>
+      <c r="B1055" s="2"/>
     </row>
     <row r="1056" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1056" s="4"/>
+      <c r="B1056" s="2"/>
     </row>
     <row r="1057" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1057" s="4"/>
+      <c r="B1057" s="2"/>
     </row>
     <row r="1058" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1058" s="4"/>
+      <c r="B1058" s="2"/>
     </row>
     <row r="1059" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1059" s="4"/>
+      <c r="B1059" s="2"/>
     </row>
     <row r="1060" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1060" s="4"/>
+      <c r="B1060" s="2"/>
     </row>
     <row r="1061" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1061" s="4"/>
+      <c r="B1061" s="2"/>
     </row>
     <row r="1062" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1062" s="4"/>
+      <c r="B1062" s="2"/>
     </row>
     <row r="1063" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1063" s="4"/>
+      <c r="B1063" s="2"/>
     </row>
     <row r="1064" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1064" s="4"/>
+      <c r="B1064" s="2"/>
     </row>
     <row r="1065" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1065" s="4"/>
+      <c r="B1065" s="2"/>
     </row>
     <row r="1066" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1066" s="4"/>
+      <c r="B1066" s="2"/>
     </row>
     <row r="1067" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1067" s="4"/>
+      <c r="B1067" s="2"/>
     </row>
     <row r="1068" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1068" s="4"/>
+      <c r="B1068" s="2"/>
     </row>
     <row r="1069" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1069" s="4"/>
+      <c r="B1069" s="2"/>
     </row>
     <row r="1070" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1070" s="4"/>
+      <c r="B1070" s="2"/>
     </row>
     <row r="1071" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1071" s="4"/>
+      <c r="B1071" s="2"/>
     </row>
     <row r="1072" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1072" s="4"/>
+      <c r="B1072" s="2"/>
     </row>
     <row r="1073" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1073" s="4"/>
+      <c r="B1073" s="2"/>
     </row>
     <row r="1074" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1074" s="4"/>
+      <c r="B1074" s="2"/>
     </row>
     <row r="1075" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1075" s="4"/>
+      <c r="B1075" s="2"/>
     </row>
     <row r="1076" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1076" s="4"/>
+      <c r="B1076" s="2"/>
     </row>
     <row r="1077" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1077" s="4"/>
+      <c r="B1077" s="2"/>
     </row>
     <row r="1078" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1078" s="4"/>
+      <c r="B1078" s="2"/>
     </row>
     <row r="1079" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1079" s="4"/>
+      <c r="B1079" s="2"/>
     </row>
     <row r="1080" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1080" s="4"/>
+      <c r="B1080" s="2"/>
     </row>
     <row r="1081" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1081" s="4"/>
+      <c r="B1081" s="2"/>
     </row>
     <row r="1082" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1082" s="4"/>
+      <c r="B1082" s="2"/>
     </row>
     <row r="1083" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1083" s="4"/>
+      <c r="B1083" s="2"/>
     </row>
     <row r="1084" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1084" s="4"/>
+      <c r="B1084" s="2"/>
     </row>
     <row r="1085" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1085" s="4"/>
+      <c r="B1085" s="2"/>
     </row>
     <row r="1086" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1086" s="4"/>
+      <c r="B1086" s="2"/>
     </row>
     <row r="1087" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1087" s="4"/>
+      <c r="B1087" s="2"/>
     </row>
     <row r="1088" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1088" s="4"/>
+      <c r="B1088" s="2"/>
     </row>
     <row r="1089" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1089" s="4"/>
+      <c r="B1089" s="2"/>
     </row>
     <row r="1090" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1090" s="4"/>
+      <c r="B1090" s="2"/>
     </row>
     <row r="1091" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1091" s="4"/>
+      <c r="B1091" s="2"/>
     </row>
     <row r="1092" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1092" s="4"/>
+      <c r="B1092" s="2"/>
     </row>
     <row r="1093" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1093" s="4"/>
+      <c r="B1093" s="2"/>
     </row>
     <row r="1094" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1094" s="4"/>
+      <c r="B1094" s="2"/>
     </row>
     <row r="1095" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1095" s="4"/>
+      <c r="B1095" s="2"/>
     </row>
     <row r="1096" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1096" s="4"/>
+      <c r="B1096" s="2"/>
     </row>
     <row r="1097" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1097" s="4"/>
+      <c r="B1097" s="2"/>
     </row>
     <row r="1098" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1098" s="4"/>
+      <c r="B1098" s="2"/>
     </row>
     <row r="1099" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1099" s="4"/>
+      <c r="B1099" s="2"/>
     </row>
     <row r="1100" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1100" s="4"/>
+      <c r="B1100" s="2"/>
     </row>
     <row r="1101" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1101" s="4"/>
+      <c r="B1101" s="2"/>
     </row>
     <row r="1102" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1102" s="4"/>
+      <c r="B1102" s="2"/>
     </row>
     <row r="1103" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1103" s="4"/>
+      <c r="B1103" s="2"/>
     </row>
     <row r="1104" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1104" s="4"/>
+      <c r="B1104" s="2"/>
     </row>
     <row r="1105" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1105" s="4"/>
+      <c r="B1105" s="2"/>
     </row>
     <row r="1106" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1106" s="4"/>
+      <c r="B1106" s="2"/>
     </row>
     <row r="1107" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1107" s="4"/>
+      <c r="B1107" s="2"/>
     </row>
     <row r="1108" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1108" s="4"/>
+      <c r="B1108" s="2"/>
     </row>
     <row r="1109" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1109" s="4"/>
+      <c r="B1109" s="2"/>
     </row>
     <row r="1110" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1110" s="4"/>
+      <c r="B1110" s="2"/>
     </row>
     <row r="1111" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1111" s="4"/>
+      <c r="B1111" s="2"/>
     </row>
     <row r="1112" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1112" s="4"/>
+      <c r="B1112" s="2"/>
     </row>
     <row r="1113" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1113" s="4"/>
+      <c r="B1113" s="2"/>
     </row>
     <row r="1114" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1114" s="4"/>
+      <c r="B1114" s="2"/>
     </row>
     <row r="1115" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1115" s="4"/>
+      <c r="B1115" s="2"/>
     </row>
     <row r="1116" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1116" s="4"/>
+      <c r="B1116" s="2"/>
     </row>
     <row r="1117" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1117" s="4"/>
+      <c r="B1117" s="2"/>
     </row>
     <row r="1118" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1118" s="4"/>
+      <c r="B1118" s="2"/>
     </row>
     <row r="1119" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1119" s="4"/>
+      <c r="B1119" s="2"/>
     </row>
     <row r="1120" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1120" s="4"/>
+      <c r="B1120" s="2"/>
     </row>
     <row r="1121" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1121" s="4"/>
+      <c r="B1121" s="2"/>
     </row>
     <row r="1122" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1122" s="4"/>
+      <c r="B1122" s="2"/>
     </row>
     <row r="1123" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1123" s="4"/>
+      <c r="B1123" s="2"/>
     </row>
     <row r="1124" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1124" s="4"/>
+      <c r="B1124" s="2"/>
     </row>
     <row r="1125" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1125" s="4"/>
+      <c r="B1125" s="2"/>
     </row>
     <row r="1126" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1126" s="4"/>
+      <c r="B1126" s="2"/>
     </row>
     <row r="1127" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1127" s="4"/>
+      <c r="B1127" s="2"/>
     </row>
     <row r="1128" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1128" s="4"/>
+      <c r="B1128" s="2"/>
     </row>
     <row r="1129" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1129" s="4"/>
+      <c r="B1129" s="2"/>
     </row>
     <row r="1130" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1130" s="4"/>
+      <c r="B1130" s="2"/>
     </row>
     <row r="1131" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1131" s="4"/>
+      <c r="B1131" s="2"/>
     </row>
     <row r="1132" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1132" s="4"/>
+      <c r="B1132" s="2"/>
     </row>
     <row r="1133" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1133" s="4"/>
+      <c r="B1133" s="2"/>
     </row>
     <row r="1134" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1134" s="4"/>
+      <c r="B1134" s="2"/>
     </row>
     <row r="1135" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1135" s="4"/>
+      <c r="B1135" s="2"/>
     </row>
     <row r="1136" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1136" s="4"/>
+      <c r="B1136" s="2"/>
     </row>
     <row r="1137" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1137" s="4"/>
+      <c r="B1137" s="2"/>
     </row>
     <row r="1138" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1138" s="4"/>
+      <c r="B1138" s="2"/>
     </row>
     <row r="1139" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1139" s="4"/>
+      <c r="B1139" s="2"/>
     </row>
     <row r="1140" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1140" s="4"/>
+      <c r="B1140" s="2"/>
     </row>
     <row r="1141" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1141" s="4"/>
+      <c r="B1141" s="2"/>
     </row>
     <row r="1142" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1142" s="4"/>
+      <c r="B1142" s="2"/>
     </row>
     <row r="1143" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1143" s="4"/>
+      <c r="B1143" s="2"/>
     </row>
     <row r="1144" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1144" s="4"/>
+      <c r="B1144" s="2"/>
     </row>
     <row r="1145" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1145" s="4"/>
+      <c r="B1145" s="2"/>
     </row>
     <row r="1146" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1146" s="4"/>
+      <c r="B1146" s="2"/>
     </row>
     <row r="1147" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1147" s="4"/>
+      <c r="B1147" s="2"/>
     </row>
     <row r="1148" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1148" s="4"/>
+      <c r="B1148" s="2"/>
     </row>
     <row r="1149" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1149" s="4"/>
+      <c r="B1149" s="2"/>
     </row>
     <row r="1150" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1150" s="4"/>
+      <c r="B1150" s="2"/>
     </row>
     <row r="1151" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1151" s="4"/>
+      <c r="B1151" s="2"/>
     </row>
     <row r="1152" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1152" s="4"/>
+      <c r="B1152" s="2"/>
     </row>
     <row r="1153" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1153" s="4"/>
+      <c r="B1153" s="2"/>
     </row>
     <row r="1154" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1154" s="4"/>
+      <c r="B1154" s="2"/>
     </row>
     <row r="1155" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1155" s="4"/>
+      <c r="B1155" s="2"/>
     </row>
     <row r="1156" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1156" s="4"/>
+      <c r="B1156" s="2"/>
     </row>
     <row r="1157" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1157" s="4"/>
+      <c r="B1157" s="2"/>
     </row>
     <row r="1158" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1158" s="4"/>
+      <c r="B1158" s="2"/>
     </row>
     <row r="1159" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1159" s="4"/>
+      <c r="B1159" s="2"/>
     </row>
     <row r="1160" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1160" s="4"/>
+      <c r="B1160" s="2"/>
     </row>
     <row r="1161" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1161" s="4"/>
+      <c r="B1161" s="2"/>
     </row>
     <row r="1162" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1162" s="4"/>
+      <c r="B1162" s="2"/>
     </row>
     <row r="1163" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1163" s="4"/>
+      <c r="B1163" s="2"/>
     </row>
     <row r="1164" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1164" s="4"/>
+      <c r="B1164" s="2"/>
     </row>
     <row r="1165" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1165" s="4"/>
+      <c r="B1165" s="2"/>
     </row>
     <row r="1166" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1166" s="4"/>
+      <c r="B1166" s="2"/>
     </row>
     <row r="1167" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1167" s="4"/>
+      <c r="B1167" s="2"/>
     </row>
     <row r="1168" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1168" s="4"/>
+      <c r="B1168" s="2"/>
     </row>
     <row r="1169" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1169" s="4"/>
+      <c r="B1169" s="2"/>
     </row>
     <row r="1170" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1170" s="4"/>
+      <c r="B1170" s="2"/>
     </row>
     <row r="1171" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1171" s="4"/>
+      <c r="B1171" s="2"/>
     </row>
     <row r="1172" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1172" s="4"/>
+      <c r="B1172" s="2"/>
     </row>
     <row r="1173" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1173" s="4"/>
+      <c r="B1173" s="2"/>
     </row>
     <row r="1174" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1174" s="4"/>
+      <c r="B1174" s="2"/>
     </row>
     <row r="1175" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1175" s="4"/>
+      <c r="B1175" s="2"/>
     </row>
     <row r="1176" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1176" s="4"/>
+      <c r="B1176" s="2"/>
     </row>
     <row r="1177" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1177" s="4"/>
+      <c r="B1177" s="2"/>
     </row>
     <row r="1178" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1178" s="4"/>
+      <c r="B1178" s="2"/>
     </row>
     <row r="1179" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1179" s="4"/>
+      <c r="B1179" s="2"/>
     </row>
     <row r="1180" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1180" s="4"/>
+      <c r="B1180" s="2"/>
     </row>
     <row r="1181" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1181" s="4"/>
+      <c r="B1181" s="2"/>
     </row>
     <row r="1182" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1182" s="4"/>
+      <c r="B1182" s="2"/>
     </row>
     <row r="1183" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1183" s="4"/>
+      <c r="B1183" s="2"/>
     </row>
     <row r="1184" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1184" s="4"/>
+      <c r="B1184" s="2"/>
     </row>
     <row r="1185" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1185" s="4"/>
+      <c r="B1185" s="2"/>
     </row>
     <row r="1186" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1186" s="4"/>
+      <c r="B1186" s="2"/>
     </row>
     <row r="1187" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1187" s="4"/>
+      <c r="B1187" s="2"/>
     </row>
     <row r="1188" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1188" s="4"/>
+      <c r="B1188" s="2"/>
     </row>
     <row r="1189" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1189" s="4"/>
+      <c r="B1189" s="2"/>
     </row>
     <row r="1190" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1190" s="4"/>
+      <c r="B1190" s="2"/>
     </row>
     <row r="1191" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1191" s="4"/>
+      <c r="B1191" s="2"/>
     </row>
     <row r="1192" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1192" s="4"/>
+      <c r="B1192" s="2"/>
     </row>
     <row r="1193" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1193" s="4"/>
+      <c r="B1193" s="2"/>
     </row>
     <row r="1194" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1194" s="4"/>
+      <c r="B1194" s="2"/>
     </row>
     <row r="1195" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1195" s="4"/>
+      <c r="B1195" s="2"/>
     </row>
     <row r="1196" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1196" s="4"/>
+      <c r="B1196" s="2"/>
     </row>
     <row r="1197" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1197" s="4"/>
+      <c r="B1197" s="2"/>
     </row>
     <row r="1198" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1198" s="4"/>
+      <c r="B1198" s="2"/>
     </row>
     <row r="1199" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1199" s="4"/>
+      <c r="B1199" s="2"/>
     </row>
     <row r="1200" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1200" s="4"/>
+      <c r="B1200" s="2"/>
     </row>
     <row r="1201" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1201" s="4"/>
+      <c r="B1201" s="2"/>
     </row>
     <row r="1202" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1202" s="4"/>
+      <c r="B1202" s="2"/>
     </row>
     <row r="1203" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1203" s="4"/>
+      <c r="B1203" s="2"/>
     </row>
     <row r="1204" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1204" s="4"/>
+      <c r="B1204" s="2"/>
     </row>
     <row r="1205" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1205" s="4"/>
+      <c r="B1205" s="2"/>
     </row>
     <row r="1206" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1206" s="4"/>
+      <c r="B1206" s="2"/>
     </row>
     <row r="1207" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1207" s="4"/>
+      <c r="B1207" s="2"/>
     </row>
     <row r="1208" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1208" s="4"/>
+      <c r="B1208" s="2"/>
     </row>
     <row r="1209" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1209" s="4"/>
+      <c r="B1209" s="2"/>
     </row>
     <row r="1210" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1210" s="4"/>
+      <c r="B1210" s="2"/>
     </row>
     <row r="1211" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1211" s="4"/>
+      <c r="B1211" s="2"/>
     </row>
     <row r="1212" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1212" s="4"/>
+      <c r="B1212" s="2"/>
     </row>
     <row r="1213" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1213" s="4"/>
+      <c r="B1213" s="2"/>
     </row>
     <row r="1214" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1214" s="4"/>
+      <c r="B1214" s="2"/>
     </row>
     <row r="1215" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1215" s="4"/>
+      <c r="B1215" s="2"/>
     </row>
     <row r="1216" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1216" s="4"/>
+      <c r="B1216" s="2"/>
     </row>
     <row r="1217" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1217" s="4"/>
+      <c r="B1217" s="2"/>
     </row>
     <row r="1218" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1218" s="4"/>
+      <c r="B1218" s="2"/>
     </row>
     <row r="1219" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1219" s="4"/>
+      <c r="B1219" s="2"/>
     </row>
     <row r="1220" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1220" s="4"/>
+      <c r="B1220" s="2"/>
     </row>
     <row r="1221" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1221" s="4"/>
+      <c r="B1221" s="2"/>
     </row>
     <row r="1222" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1222" s="4"/>
+      <c r="B1222" s="2"/>
     </row>
     <row r="1223" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1223" s="4"/>
+      <c r="B1223" s="2"/>
     </row>
     <row r="1224" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1224" s="4"/>
+      <c r="B1224" s="2"/>
     </row>
     <row r="1225" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1225" s="4"/>
+      <c r="B1225" s="2"/>
     </row>
     <row r="1226" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1226" s="4"/>
+      <c r="B1226" s="2"/>
     </row>
     <row r="1227" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1227" s="4"/>
+      <c r="B1227" s="2"/>
     </row>
     <row r="1228" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1228" s="4"/>
+      <c r="B1228" s="2"/>
     </row>
     <row r="1229" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1229" s="4"/>
+      <c r="B1229" s="2"/>
     </row>
     <row r="1230" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1230" s="4"/>
+      <c r="B1230" s="2"/>
     </row>
     <row r="1231" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1231" s="4"/>
+      <c r="B1231" s="2"/>
     </row>
     <row r="1232" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1232" s="4"/>
+      <c r="B1232" s="2"/>
     </row>
     <row r="1233" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1233" s="4"/>
+      <c r="B1233" s="2"/>
     </row>
     <row r="1234" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1234" s="4"/>
+      <c r="B1234" s="2"/>
     </row>
     <row r="1235" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1235" s="4"/>
+      <c r="B1235" s="2"/>
     </row>
     <row r="1236" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1236" s="4"/>
+      <c r="B1236" s="2"/>
     </row>
     <row r="1237" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1237" s="4"/>
+      <c r="B1237" s="2"/>
     </row>
     <row r="1238" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1238" s="4"/>
+      <c r="B1238" s="2"/>
     </row>
     <row r="1239" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1239" s="4"/>
+      <c r="B1239" s="2"/>
     </row>
     <row r="1240" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1240" s="4"/>
+      <c r="B1240" s="2"/>
     </row>
     <row r="1241" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1241" s="4"/>
+      <c r="B1241" s="2"/>
     </row>
     <row r="1242" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1242" s="4"/>
+      <c r="B1242" s="2"/>
     </row>
     <row r="1243" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1243" s="4"/>
+      <c r="B1243" s="2"/>
     </row>
     <row r="1244" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1244" s="4"/>
+      <c r="B1244" s="2"/>
     </row>
     <row r="1245" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1245" s="4"/>
+      <c r="B1245" s="2"/>
     </row>
     <row r="1246" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1246" s="4"/>
+      <c r="B1246" s="2"/>
     </row>
     <row r="1247" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1247" s="4"/>
+      <c r="B1247" s="2"/>
     </row>
     <row r="1248" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1248" s="4"/>
+      <c r="B1248" s="2"/>
     </row>
     <row r="1249" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1249" s="4"/>
+      <c r="B1249" s="2"/>
     </row>
     <row r="1250" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1250" s="4"/>
+      <c r="B1250" s="2"/>
     </row>
     <row r="1251" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1251" s="4"/>
+      <c r="B1251" s="2"/>
     </row>
     <row r="1252" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1252" s="4"/>
+      <c r="B1252" s="2"/>
     </row>
     <row r="1253" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1253" s="4"/>
+      <c r="B1253" s="2"/>
     </row>
     <row r="1254" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1254" s="4"/>
+      <c r="B1254" s="2"/>
     </row>
     <row r="1255" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1255" s="4"/>
+      <c r="B1255" s="2"/>
     </row>
     <row r="1256" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1256" s="4"/>
+      <c r="B1256" s="2"/>
     </row>
     <row r="1257" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1257" s="4"/>
+      <c r="B1257" s="2"/>
     </row>
     <row r="1258" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1258" s="4"/>
+      <c r="B1258" s="2"/>
     </row>
     <row r="1259" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1259" s="4"/>
+      <c r="B1259" s="2"/>
     </row>
     <row r="1260" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1260" s="4"/>
+      <c r="B1260" s="2"/>
     </row>
     <row r="1261" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1261" s="4"/>
+      <c r="B1261" s="2"/>
     </row>
     <row r="1262" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1262" s="4"/>
+      <c r="B1262" s="2"/>
     </row>
     <row r="1263" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1263" s="4"/>
+      <c r="B1263" s="2"/>
     </row>
     <row r="1264" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1264" s="4"/>
+      <c r="B1264" s="2"/>
     </row>
     <row r="1265" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1265" s="4"/>
+      <c r="B1265" s="2"/>
     </row>
     <row r="1266" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1266" s="4"/>
+      <c r="B1266" s="2"/>
     </row>
     <row r="1267" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1267" s="4"/>
+      <c r="B1267" s="2"/>
     </row>
     <row r="1268" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1268" s="4"/>
+      <c r="B1268" s="2"/>
     </row>
     <row r="1269" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1269" s="4"/>
+      <c r="B1269" s="2"/>
     </row>
     <row r="1270" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1270" s="4"/>
+      <c r="B1270" s="2"/>
     </row>
     <row r="1271" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1271" s="4"/>
+      <c r="B1271" s="2"/>
     </row>
     <row r="1272" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1272" s="4"/>
+      <c r="B1272" s="2"/>
     </row>
     <row r="1273" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1273" s="4"/>
+      <c r="B1273" s="2"/>
     </row>
     <row r="1274" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1274" s="4"/>
+      <c r="B1274" s="2"/>
     </row>
     <row r="1275" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1275" s="4"/>
+      <c r="B1275" s="2"/>
     </row>
     <row r="1276" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1276" s="4"/>
+      <c r="B1276" s="2"/>
     </row>
     <row r="1277" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1277" s="4"/>
+      <c r="B1277" s="2"/>
     </row>
     <row r="1278" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1278" s="4"/>
+      <c r="B1278" s="2"/>
     </row>
     <row r="1279" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1279" s="4"/>
+      <c r="B1279" s="2"/>
     </row>
     <row r="1280" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1280" s="4"/>
+      <c r="B1280" s="2"/>
     </row>
     <row r="1281" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1281" s="4"/>
+      <c r="B1281" s="2"/>
     </row>
     <row r="1282" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1282" s="4"/>
+      <c r="B1282" s="2"/>
     </row>
     <row r="1283" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1283" s="4"/>
+      <c r="B1283" s="2"/>
     </row>
     <row r="1284" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1284" s="4"/>
+      <c r="B1284" s="2"/>
     </row>
     <row r="1285" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1285" s="4"/>
+      <c r="B1285" s="2"/>
     </row>
     <row r="1286" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1286" s="4"/>
+      <c r="B1286" s="2"/>
     </row>
     <row r="1287" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1287" s="4"/>
+      <c r="B1287" s="2"/>
     </row>
     <row r="1288" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1288" s="4"/>
+      <c r="B1288" s="2"/>
     </row>
     <row r="1289" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1289" s="4"/>
+      <c r="B1289" s="2"/>
     </row>
     <row r="1290" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1290" s="4"/>
+      <c r="B1290" s="2"/>
     </row>
     <row r="1291" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1291" s="4"/>
+      <c r="B1291" s="2"/>
     </row>
     <row r="1292" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1292" s="4"/>
+      <c r="B1292" s="2"/>
     </row>
     <row r="1293" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1293" s="4"/>
+      <c r="B1293" s="2"/>
     </row>
     <row r="1294" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1294" s="4"/>
+      <c r="B1294" s="2"/>
     </row>
     <row r="1295" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1295" s="4"/>
+      <c r="B1295" s="2"/>
     </row>
     <row r="1296" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1296" s="4"/>
+      <c r="B1296" s="2"/>
     </row>
     <row r="1297" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1297" s="4"/>
+      <c r="B1297" s="2"/>
     </row>
     <row r="1298" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1298" s="4"/>
+      <c r="B1298" s="2"/>
     </row>
     <row r="1299" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1299" s="4"/>
+      <c r="B1299" s="2"/>
     </row>
     <row r="1300" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1300" s="4"/>
+      <c r="B1300" s="2"/>
     </row>
     <row r="1301" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1301" s="4"/>
+      <c r="B1301" s="2"/>
     </row>
     <row r="1302" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1302" s="4"/>
+      <c r="B1302" s="2"/>
     </row>
     <row r="1303" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1303" s="4"/>
+      <c r="B1303" s="2"/>
     </row>
     <row r="1304" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1304" s="4"/>
+      <c r="B1304" s="2"/>
     </row>
     <row r="1305" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1305" s="4"/>
+      <c r="B1305" s="2"/>
     </row>
     <row r="1306" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1306" s="4"/>
+      <c r="B1306" s="2"/>
     </row>
     <row r="1307" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1307" s="4"/>
+      <c r="B1307" s="2"/>
     </row>
     <row r="1308" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1308" s="4"/>
+      <c r="B1308" s="2"/>
     </row>
     <row r="1309" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1309" s="4"/>
+      <c r="B1309" s="2"/>
     </row>
     <row r="1310" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1310" s="4"/>
+      <c r="B1310" s="2"/>
     </row>
     <row r="1311" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1311" s="4"/>
+      <c r="B1311" s="2"/>
     </row>
     <row r="1312" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1312" s="4"/>
+      <c r="B1312" s="2"/>
     </row>
     <row r="1313" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1313" s="4"/>
+      <c r="B1313" s="2"/>
     </row>
     <row r="1314" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1314" s="4"/>
+      <c r="B1314" s="2"/>
     </row>
     <row r="1315" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1315" s="4"/>
+      <c r="B1315" s="2"/>
     </row>
     <row r="1316" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1316" s="4"/>
+      <c r="B1316" s="2"/>
     </row>
     <row r="1317" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1317" s="4"/>
+      <c r="B1317" s="2"/>
     </row>
     <row r="1318" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1318" s="4"/>
+      <c r="B1318" s="2"/>
     </row>
     <row r="1319" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1319" s="4"/>
+      <c r="B1319" s="2"/>
     </row>
     <row r="1320" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1320" s="4"/>
+      <c r="B1320" s="2"/>
     </row>
     <row r="1321" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1321" s="4"/>
+      <c r="B1321" s="2"/>
     </row>
     <row r="1322" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1322" s="4"/>
+      <c r="B1322" s="2"/>
     </row>
     <row r="1323" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1323" s="4"/>
+      <c r="B1323" s="2"/>
     </row>
     <row r="1324" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1324" s="4"/>
+      <c r="B1324" s="2"/>
     </row>
     <row r="1325" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1325" s="4"/>
+      <c r="B1325" s="2"/>
     </row>
     <row r="1326" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1326" s="4"/>
+      <c r="B1326" s="2"/>
     </row>
     <row r="1327" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1327" s="4"/>
+      <c r="B1327" s="2"/>
     </row>
     <row r="1328" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1328" s="4"/>
+      <c r="B1328" s="2"/>
     </row>
     <row r="1329" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1329" s="4"/>
+      <c r="B1329" s="2"/>
     </row>
     <row r="1330" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1330" s="4"/>
+      <c r="B1330" s="2"/>
     </row>
     <row r="1331" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1331" s="4"/>
+      <c r="B1331" s="2"/>
     </row>
     <row r="1332" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1332" s="4"/>
+      <c r="B1332" s="2"/>
     </row>
     <row r="1333" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1333" s="4"/>
+      <c r="B1333" s="2"/>
     </row>
     <row r="1334" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1334" s="4"/>
+      <c r="B1334" s="2"/>
     </row>
     <row r="1335" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1335" s="4"/>
+      <c r="B1335" s="2"/>
     </row>
     <row r="1336" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1336" s="4"/>
+      <c r="B1336" s="2"/>
     </row>
     <row r="1337" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1337" s="4"/>
+      <c r="B1337" s="2"/>
     </row>
     <row r="1338" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1338" s="4"/>
+      <c r="B1338" s="2"/>
     </row>
     <row r="1339" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1339" s="4"/>
+      <c r="B1339" s="2"/>
     </row>
     <row r="1340" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1340" s="4"/>
+      <c r="B1340" s="2"/>
     </row>
     <row r="1341" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1341" s="4"/>
+      <c r="B1341" s="2"/>
     </row>
     <row r="1342" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1342" s="4"/>
+      <c r="B1342" s="2"/>
     </row>
     <row r="1343" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1343" s="4"/>
+      <c r="B1343" s="2"/>
     </row>
     <row r="1344" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1344" s="4"/>
+      <c r="B1344" s="2"/>
     </row>
     <row r="1345" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1345" s="4"/>
+      <c r="B1345" s="2"/>
     </row>
     <row r="1346" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1346" s="4"/>
+      <c r="B1346" s="2"/>
     </row>
     <row r="1347" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1347" s="4"/>
+      <c r="B1347" s="2"/>
     </row>
     <row r="1348" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1348" s="4"/>
+      <c r="B1348" s="2"/>
     </row>
     <row r="1349" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1349" s="4"/>
+      <c r="B1349" s="2"/>
     </row>
     <row r="1350" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1350" s="4"/>
+      <c r="B1350" s="2"/>
     </row>
     <row r="1351" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1351" s="4"/>
+      <c r="B1351" s="2"/>
     </row>
     <row r="1352" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1352" s="4"/>
+      <c r="B1352" s="2"/>
     </row>
     <row r="1353" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1353" s="4"/>
+      <c r="B1353" s="2"/>
     </row>
     <row r="1354" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1354" s="4"/>
+      <c r="B1354" s="2"/>
     </row>
     <row r="1355" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1355" s="4"/>
+      <c r="B1355" s="2"/>
     </row>
     <row r="1356" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1356" s="4"/>
+      <c r="B1356" s="2"/>
     </row>
     <row r="1357" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1357" s="4"/>
+      <c r="B1357" s="2"/>
     </row>
     <row r="1358" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1358" s="4"/>
+      <c r="B1358" s="2"/>
     </row>
     <row r="1359" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1359" s="4"/>
+      <c r="B1359" s="2"/>
     </row>
     <row r="1360" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1360" s="4"/>
+      <c r="B1360" s="2"/>
     </row>
     <row r="1361" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1361" s="4"/>
+      <c r="B1361" s="2"/>
     </row>
     <row r="1362" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1362" s="4"/>
+      <c r="B1362" s="2"/>
     </row>
     <row r="1363" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1363" s="4"/>
+      <c r="B1363" s="2"/>
     </row>
     <row r="1364" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1364" s="4"/>
+      <c r="B1364" s="2"/>
     </row>
     <row r="1365" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1365" s="4"/>
+      <c r="B1365" s="2"/>
     </row>
     <row r="1366" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1366" s="4"/>
+      <c r="B1366" s="2"/>
     </row>
     <row r="1367" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1367" s="4"/>
+      <c r="B1367" s="2"/>
     </row>
     <row r="1368" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1368" s="4"/>
+      <c r="B1368" s="2"/>
     </row>
     <row r="1369" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1369" s="4"/>
+      <c r="B1369" s="2"/>
     </row>
     <row r="1370" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1370" s="4"/>
+      <c r="B1370" s="2"/>
     </row>
     <row r="1371" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1371" s="4"/>
+      <c r="B1371" s="2"/>
     </row>
     <row r="1372" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1372" s="4"/>
+      <c r="B1372" s="2"/>
     </row>
     <row r="1373" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1373" s="4"/>
+      <c r="B1373" s="2"/>
     </row>
     <row r="1374" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1374" s="4"/>
+      <c r="B1374" s="2"/>
     </row>
     <row r="1375" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1375" s="4"/>
+      <c r="B1375" s="2"/>
     </row>
     <row r="1376" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1376" s="4"/>
+      <c r="B1376" s="2"/>
     </row>
     <row r="1377" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1377" s="4"/>
+      <c r="B1377" s="2"/>
     </row>
     <row r="1378" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1378" s="4"/>
+      <c r="B1378" s="2"/>
     </row>
     <row r="1379" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1379" s="4"/>
+      <c r="B1379" s="2"/>
     </row>
     <row r="1380" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1380" s="4"/>
+      <c r="B1380" s="2"/>
     </row>
     <row r="1381" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1381" s="4"/>
+      <c r="B1381" s="2"/>
     </row>
     <row r="1382" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1382" s="4"/>
+      <c r="B1382" s="2"/>
     </row>
     <row r="1383" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1383" s="4"/>
+      <c r="B1383" s="2"/>
     </row>
     <row r="1384" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1384" s="4"/>
+      <c r="B1384" s="2"/>
     </row>
     <row r="1385" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1385" s="4"/>
+      <c r="B1385" s="2"/>
     </row>
     <row r="1386" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1386" s="4"/>
+      <c r="B1386" s="2"/>
     </row>
     <row r="1387" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1387" s="4"/>
+      <c r="B1387" s="2"/>
     </row>
     <row r="1388" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1388" s="4"/>
+      <c r="B1388" s="2"/>
     </row>
     <row r="1389" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1389" s="4"/>
+      <c r="B1389" s="2"/>
     </row>
     <row r="1390" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1390" s="4"/>
+      <c r="B1390" s="2"/>
     </row>
     <row r="1391" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1391" s="4"/>
+      <c r="B1391" s="2"/>
     </row>
     <row r="1392" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1392" s="4"/>
+      <c r="B1392" s="2"/>
     </row>
     <row r="1393" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1393" s="4"/>
+      <c r="B1393" s="2"/>
     </row>
     <row r="1394" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1394" s="4"/>
+      <c r="B1394" s="2"/>
     </row>
     <row r="1395" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1395" s="4"/>
+      <c r="B1395" s="2"/>
     </row>
     <row r="1396" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1396" s="4"/>
+      <c r="B1396" s="2"/>
     </row>
     <row r="1397" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1397" s="4"/>
+      <c r="B1397" s="2"/>
     </row>
     <row r="1398" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1398" s="4"/>
+      <c r="B1398" s="2"/>
     </row>
     <row r="1399" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1399" s="4"/>
+      <c r="B1399" s="2"/>
     </row>
     <row r="1400" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1400" s="4"/>
+      <c r="B1400" s="2"/>
     </row>
     <row r="1401" spans="2:2" x14ac:dyDescent="0.2">
-      <c r="B1401" s="4"/>
+      <c r="B1401" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6227,9 +6338,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6436,27 +6550,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6481,9 +6583,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Liste des évolutions.xlsx
+++ b/Liste des évolutions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u049298\Desktop\PYTHON_DJANGO\projetWebRPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y0652097\Desktop\CESIproject\PythonProject\projetWebRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2ECB0270-F648-4321-B1C6-BD28AF5F9768}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1728BDDE-7A7C-442C-9FEB-355320DC4986}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evolutions" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -302,14 +302,32 @@
     <t>NassimDev</t>
   </si>
   <si>
-    <t>En cours</t>
+    <t>Génération des enemies fait par rapport au carac brut du personnage</t>
+  </si>
+  <si>
+    <t>Cosed</t>
+  </si>
+  <si>
+    <t>modal item qui ne se vide pas surement a cause du spam</t>
+  </si>
+  <si>
+    <t>ecrire les les noms des slots</t>
+  </si>
+  <si>
+    <t>les rareté des equipement mis</t>
+  </si>
+  <si>
+    <t>ecrire dans la modal dans quel slot ira l'item</t>
+  </si>
+  <si>
+    <t>attendre la réponse json avant de remettre le bouton play round (faire comme next stage le suprimmer et a la fin le remettre)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -328,6 +346,17 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -351,7 +380,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -385,11 +414,44 @@
     <xf numFmtId="20" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="25">
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -398,11 +460,86 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -414,10 +551,32 @@
         <vertAlign val="baseline"/>
         <sz val="8"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
@@ -532,15 +691,12 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="8"/>
+        <color auto="1"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -551,132 +707,10 @@
         <vertAlign val="baseline"/>
         <sz val="8"/>
         <name val="Calibri"/>
+        <family val="2"/>
         <scheme val="minor"/>
       </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <color auto="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -692,49 +726,49 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="B2:H29" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="B2:H29" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
   <autoFilter ref="B2:H29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B3:H29">
     <sortCondition ref="D2:D29"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fonctionnalité" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Desciption" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Priorité" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Etat" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date début" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Date fin" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dev" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fonctionnalité" dataDxfId="22"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Desciption" dataDxfId="21"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Priorité" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Etat" dataDxfId="19"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date début" dataDxfId="18"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Date fin" dataDxfId="17"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dev" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:F7" totalsRowShown="0" headerRowDxfId="10" dataDxfId="9">
-  <autoFilter ref="B2:F7" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:F16" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
+  <autoFilter ref="B2:F16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bug" dataDxfId="15"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cause" dataDxfId="14"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Etat" dataDxfId="13"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Date report" dataDxfId="12"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Date closure" dataDxfId="11"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bug" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cause" dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Etat" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Date report" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Date closure" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B2:D32" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="LVL" dataDxfId="23">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="LVL" dataDxfId="7">
       <calculatedColumnFormula>B2+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Xp avant le niveau suivant" dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Xp avant le niveau suivant" dataDxfId="6">
       <calculatedColumnFormula>$C$3+B2*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="XP depuis le début du jeu" dataDxfId="21">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="XP depuis le début du jeu" dataDxfId="5">
       <calculatedColumnFormula>C3+D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -743,12 +777,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="20" dataDxfId="19">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="H2:J3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="lvl actuelle" dataDxfId="18"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="xp actuelle" dataDxfId="17"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="up ou pas ?" dataDxfId="16">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="lvl actuelle" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="xp actuelle" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="up ou pas ?" dataDxfId="0">
       <calculatedColumnFormula>IF(Tableau3[xp actuelle]&gt;=100+10*(Tableau3[lvl actuelle]-1),"Oui","Non")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -757,7 +791,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1055,11 +1089,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="10"/>
     <col min="2" max="2" width="47.83203125" style="10" bestFit="1" customWidth="1"/>
@@ -1072,7 +1106,7 @@
     <col min="9" max="16384" width="2.6640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B2" s="10" t="s">
         <v>0</v>
       </c>
@@ -1095,7 +1129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:13" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
         <v>45</v>
       </c>
@@ -1114,7 +1148,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:13" s="10" customFormat="1" ht="78.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:13" ht="78.75" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
         <v>16</v>
       </c>
@@ -1137,7 +1171,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="2:13" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
@@ -1156,7 +1190,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>63</v>
       </c>
@@ -1177,7 +1211,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="2:13" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -1197,7 +1231,7 @@
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>53</v>
       </c>
@@ -1220,7 +1254,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:13" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1239,7 +1273,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>59</v>
       </c>
@@ -1260,7 +1294,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
         <v>86</v>
       </c>
@@ -1281,7 +1315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:13" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" ht="67.5" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1300,7 +1334,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
         <v>67</v>
       </c>
@@ -1317,7 +1351,7 @@
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
     </row>
-    <row r="14" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
         <v>58</v>
       </c>
@@ -1334,7 +1368,7 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:13" s="10" customFormat="1" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
         <v>18</v>
       </c>
@@ -1351,7 +1385,7 @@
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
     </row>
-    <row r="16" spans="2:13" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
         <v>57</v>
       </c>
@@ -1372,7 +1406,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:8" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
         <v>20</v>
       </c>
@@ -1391,7 +1425,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:8" s="10" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:8" ht="45" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
         <v>24</v>
       </c>
@@ -1410,7 +1444,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:8" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
         <v>28</v>
       </c>
@@ -1427,7 +1461,7 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
         <v>26</v>
       </c>
@@ -1446,7 +1480,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="2:8" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
         <v>32</v>
       </c>
@@ -1463,7 +1497,7 @@
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
     </row>
-    <row r="22" spans="2:8" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B22" s="3" t="s">
         <v>30</v>
       </c>
@@ -1480,7 +1514,7 @@
       <c r="G22" s="4"/>
       <c r="H22" s="4"/>
     </row>
-    <row r="23" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B23" s="3" t="s">
         <v>34</v>
       </c>
@@ -1497,7 +1531,7 @@
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
     </row>
-    <row r="24" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B24" s="3" t="s">
         <v>37</v>
       </c>
@@ -1514,7 +1548,7 @@
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
     </row>
-    <row r="25" spans="2:8" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B25" s="3" t="s">
         <v>39</v>
       </c>
@@ -1531,7 +1565,7 @@
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
     </row>
-    <row r="26" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B26" s="3" t="s">
         <v>43</v>
       </c>
@@ -1548,7 +1582,7 @@
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
     </row>
-    <row r="27" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="3" t="s">
         <v>41</v>
       </c>
@@ -1565,7 +1599,7 @@
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
     </row>
-    <row r="28" spans="2:8" s="10" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B28" s="3" t="s">
         <v>56</v>
       </c>
@@ -1578,7 +1612,7 @@
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
     </row>
-    <row r="29" spans="2:8" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B29" s="3" t="s">
         <v>60</v>
       </c>
@@ -1602,16 +1636,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:F7"/>
+  <dimension ref="B2:F16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="8"/>
-    <col min="2" max="2" width="31.33203125" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="35.33203125" style="8" customWidth="1"/>
     <col min="3" max="3" width="31.33203125" style="8" customWidth="1"/>
     <col min="4" max="4" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="8" customWidth="1"/>
@@ -1619,7 +1653,7 @@
     <col min="7" max="16384" width="2.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>69</v>
       </c>
@@ -1636,36 +1670,169 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>54</v>
       </c>
       <c r="C3" s="5"/>
-    </row>
-    <row r="4" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="13">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" s="8" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="E4" s="13">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" s="8" customFormat="1" ht="45" x14ac:dyDescent="0.2">
+      <c r="E5" s="13">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" s="8" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="13">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E7" s="13">
+        <v>43860</v>
+      </c>
+      <c r="F7" s="13">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B8" s="14" t="s">
         <v>89</v>
+      </c>
+      <c r="C8" s="15"/>
+      <c r="D8" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" s="13">
+        <v>43860</v>
+      </c>
+      <c r="F8" s="13">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="13">
+        <v>43860</v>
+      </c>
+      <c r="F9" s="13">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B10" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="13">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B11" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E11" s="13">
+        <v>43860</v>
+      </c>
+      <c r="F11" s="13">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B12" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="13">
+        <v>43860</v>
+      </c>
+      <c r="F12" s="13">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="B13" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="13">
+        <v>43860</v>
+      </c>
+      <c r="F13" s="13">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B14" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="13">
+        <v>43860</v>
+      </c>
+      <c r="F14" s="13">
+        <v>43865</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="B15" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E15" s="13">
+        <v>43860</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B16" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="13">
+        <v>43860</v>
+      </c>
+      <c r="F16" s="13">
+        <v>43865</v>
       </c>
     </row>
   </sheetData>
@@ -1685,7 +1852,7 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1"/>
     <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
@@ -6272,7 +6439,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" bestFit="1" customWidth="1"/>
@@ -6338,12 +6505,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6550,15 +6714,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6583,18 +6759,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Liste des évolutions.xlsx
+++ b/Liste des évolutions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y0652097\Desktop\CESIproject\PythonProject\projetWebRPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u049298\Desktop\PYTHON_DJANGO\projetWebRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1728BDDE-7A7C-442C-9FEB-355320DC4986}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621DEDF4-1805-4FB0-A7C0-0550789DD78D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -791,7 +791,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1093,7 +1093,7 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="10"/>
     <col min="2" max="2" width="47.83203125" style="10" bestFit="1" customWidth="1"/>
@@ -1315,7 +1315,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1636,13 +1636,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:F16"/>
+  <dimension ref="B2:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="8"/>
     <col min="2" max="2" width="35.33203125" style="8" customWidth="1"/>
@@ -1698,7 +1698,7 @@
         <v>43860</v>
       </c>
     </row>
-    <row r="6" spans="2:6" ht="45" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:6" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>62</v>
       </c>
@@ -1833,6 +1833,11 @@
       </c>
       <c r="F16" s="13">
         <v>43865</v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E22" s="8">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1852,7 +1857,7 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1"/>
     <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
@@ -6439,7 +6444,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" bestFit="1" customWidth="1"/>
@@ -6505,9 +6510,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6714,27 +6722,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6759,9 +6755,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Liste des évolutions.xlsx
+++ b/Liste des évolutions.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u049298\Desktop\PYTHON_DJANGO\projetWebRPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y0652097\Desktop\CESIproject\PythonProject\projetWebRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{621DEDF4-1805-4FB0-A7C0-0550789DD78D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3D72F0-9722-446D-A4D3-E1A2C3BDF91A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -305,9 +305,6 @@
     <t>Génération des enemies fait par rapport au carac brut du personnage</t>
   </si>
   <si>
-    <t>Cosed</t>
-  </si>
-  <si>
     <t>modal item qui ne se vide pas surement a cause du spam</t>
   </si>
   <si>
@@ -321,6 +318,21 @@
   </si>
   <si>
     <t>attendre la réponse json avant de remettre le bouton play round (faire comme next stage le suprimmer et a la fin le remettre)</t>
+  </si>
+  <si>
+    <t>Closed</t>
+  </si>
+  <si>
+    <t>Abort</t>
+  </si>
+  <si>
+    <t>Commentary</t>
+  </si>
+  <si>
+    <t>Pas la peine finalement car on a régler autrement le probleme en resolvant les spam play round item et nextstage</t>
+  </si>
+  <si>
+    <t>On ne sait pas comment ai dû ce probleme mais il a du être resolu en même temps que le spam playRound dropItem</t>
   </si>
 </sst>
 </file>
@@ -380,7 +392,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -419,11 +431,57 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="8"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -451,24 +509,6 @@
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="8"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <font>
@@ -726,49 +766,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="B2:H29" totalsRowShown="0" headerRowDxfId="24" dataDxfId="23">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="B2:H29" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
   <autoFilter ref="B2:H29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B3:H29">
     <sortCondition ref="D2:D29"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fonctionnalité" dataDxfId="22"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Desciption" dataDxfId="21"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Priorité" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Etat" dataDxfId="19"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date début" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Date fin" dataDxfId="17"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dev" dataDxfId="16"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fonctionnalité" dataDxfId="23"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Desciption" dataDxfId="22"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Priorité" dataDxfId="21"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Etat" dataDxfId="20"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date début" dataDxfId="19"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Date fin" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dev" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:F16" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
-  <autoFilter ref="B2:F16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bug" dataDxfId="13"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cause" dataDxfId="12"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Etat" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Date report" dataDxfId="10"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Date closure" dataDxfId="9"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:G16" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="B2:G16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bug" dataDxfId="14"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cause" dataDxfId="13"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Etat" dataDxfId="12"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Date report" dataDxfId="11"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Date closure" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{B7D86D81-AA7C-449F-B13F-BFD0639F6955}" name="Commentary" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="10">
   <autoFilter ref="B2:D32" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="LVL" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="LVL" dataDxfId="9">
       <calculatedColumnFormula>B2+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Xp avant le niveau suivant" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Xp avant le niveau suivant" dataDxfId="8">
       <calculatedColumnFormula>$C$3+B2*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="XP depuis le début du jeu" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="XP depuis le début du jeu" dataDxfId="7">
       <calculatedColumnFormula>C3+D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -777,12 +818,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="H2:J3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="lvl actuelle" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="xp actuelle" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="up ou pas ?" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="lvl actuelle" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="xp actuelle" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="up ou pas ?" dataDxfId="2">
       <calculatedColumnFormula>IF(Tableau3[xp actuelle]&gt;=100+10*(Tableau3[lvl actuelle]-1),"Oui","Non")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -791,7 +832,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1093,7 +1134,7 @@
       <selection activeCell="O12" sqref="O12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="10"/>
     <col min="2" max="2" width="47.83203125" style="10" bestFit="1" customWidth="1"/>
@@ -1315,7 +1356,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" ht="67.5" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1636,13 +1677,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="B2:F22"/>
+  <dimension ref="B2:G16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="8"/>
     <col min="2" max="2" width="35.33203125" style="8" customWidth="1"/>
@@ -1650,10 +1691,11 @@
     <col min="4" max="4" width="7.6640625" style="8" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13" style="8" customWidth="1"/>
     <col min="6" max="6" width="13.83203125" style="8" customWidth="1"/>
-    <col min="7" max="16384" width="2.6640625" style="8"/>
+    <col min="7" max="7" width="45" style="8" customWidth="1"/>
+    <col min="8" max="16384" width="2.6640625" style="8"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
         <v>69</v>
       </c>
@@ -1669,8 +1711,11 @@
       <c r="F2" s="8" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G2" s="8" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="2:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B3" s="5" t="s">
         <v>54</v>
       </c>
@@ -1678,40 +1723,64 @@
       <c r="E3" s="13">
         <v>43860</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G3" s="18" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>66</v>
       </c>
+      <c r="D4" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="E4" s="13">
         <v>43860</v>
       </c>
-    </row>
-    <row r="5" spans="2:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="F4" s="13">
+        <v>43865</v>
+      </c>
+      <c r="G4" s="17"/>
+    </row>
+    <row r="5" spans="2:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
         <v>61</v>
       </c>
+      <c r="D5" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="E5" s="13">
         <v>43860</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="F5" s="13">
+        <v>43865</v>
+      </c>
+      <c r="G5" s="17"/>
+    </row>
+    <row r="6" spans="2:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
         <v>62</v>
       </c>
+      <c r="D6" s="8" t="s">
+        <v>95</v>
+      </c>
       <c r="E6" s="13">
         <v>43860</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="F6" s="13">
+        <v>43865</v>
+      </c>
+      <c r="G6" s="17"/>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B7" s="9" t="s">
         <v>53</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E7" s="13">
         <v>43860</v>
@@ -1719,14 +1788,15 @@
       <c r="F7" s="13">
         <v>43865</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="G7" s="17"/>
+    </row>
+    <row r="8" spans="2:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
         <v>89</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E8" s="13">
         <v>43860</v>
@@ -1734,13 +1804,14 @@
       <c r="F8" s="13">
         <v>43865</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G8" s="17"/>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E9" s="13">
         <v>43860</v>
@@ -1748,21 +1819,23 @@
       <c r="F9" s="13">
         <v>43865</v>
       </c>
-    </row>
-    <row r="10" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="G9" s="17"/>
+    </row>
+    <row r="10" spans="2:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E10" s="13">
         <v>43860</v>
       </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G10" s="17"/>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
         <v>58</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E11" s="13">
         <v>43860</v>
@@ -1770,13 +1843,14 @@
       <c r="F11" s="13">
         <v>43865</v>
       </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G11" s="17"/>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E12" s="13">
         <v>43860</v>
@@ -1784,13 +1858,14 @@
       <c r="F12" s="13">
         <v>43865</v>
       </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.2">
+      <c r="G12" s="17"/>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E13" s="13">
         <v>43860</v>
@@ -1798,13 +1873,14 @@
       <c r="F13" s="13">
         <v>43865</v>
       </c>
-    </row>
-    <row r="14" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="G13" s="17"/>
+    </row>
+    <row r="14" spans="2:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E14" s="13">
         <v>43860</v>
@@ -1812,21 +1888,31 @@
       <c r="F14" s="13">
         <v>43865</v>
       </c>
-    </row>
-    <row r="15" spans="2:6" ht="45" x14ac:dyDescent="0.2">
+      <c r="G14" s="17"/>
+    </row>
+    <row r="15" spans="2:7" ht="45" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>95</v>
+        <v>94</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>96</v>
       </c>
       <c r="E15" s="13">
         <v>43860</v>
       </c>
-    </row>
-    <row r="16" spans="2:6" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="F15" s="13">
+        <v>43866</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
         <v>63</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="E16" s="13">
         <v>43860</v>
@@ -1834,11 +1920,7 @@
       <c r="F16" s="13">
         <v>43865</v>
       </c>
-    </row>
-    <row r="22" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E22" s="8">
-        <v>0</v>
-      </c>
+      <c r="G16" s="17"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1857,7 +1939,7 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1"/>
     <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
@@ -6444,7 +6526,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" bestFit="1" customWidth="1"/>
@@ -6510,12 +6592,9 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6722,15 +6801,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6755,18 +6846,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Liste des évolutions.xlsx
+++ b/Liste des évolutions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y0652097\Desktop\CESIproject\PythonProject\projetWebRPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u049298\Desktop\PYTHON_DJANGO\projetWebRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3D72F0-9722-446D-A4D3-E1A2C3BDF91A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B1945-44B3-4786-800C-E3614E94836C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evolutions" sheetId="1" r:id="rId1"/>
@@ -446,6 +446,34 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -481,34 +509,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -792,24 +792,24 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cause" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Etat" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Date report" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Date closure" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{B7D86D81-AA7C-449F-B13F-BFD0639F6955}" name="Commentary" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Date closure" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{B7D86D81-AA7C-449F-B13F-BFD0639F6955}" name="Commentary" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B2:D32" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="LVL" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="LVL" dataDxfId="7">
       <calculatedColumnFormula>B2+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Xp avant le niveau suivant" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Xp avant le niveau suivant" dataDxfId="6">
       <calculatedColumnFormula>$C$3+B2*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="XP depuis le début du jeu" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="XP depuis le début du jeu" dataDxfId="5">
       <calculatedColumnFormula>C3+D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -818,12 +818,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="H2:J3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="lvl actuelle" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="xp actuelle" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="up ou pas ?" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="lvl actuelle" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="xp actuelle" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="up ou pas ?" dataDxfId="0">
       <calculatedColumnFormula>IF(Tableau3[xp actuelle]&gt;=100+10*(Tableau3[lvl actuelle]-1),"Oui","Non")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -832,7 +832,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1130,11 +1130,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="10"/>
     <col min="2" max="2" width="47.83203125" style="10" bestFit="1" customWidth="1"/>
@@ -1223,10 +1223,14 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="4"/>
-      <c r="G5" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="F5" s="7">
+        <v>43867</v>
+      </c>
+      <c r="G5" s="7">
+        <v>43867</v>
+      </c>
       <c r="H5" s="4" t="s">
         <v>15</v>
       </c>
@@ -1356,7 +1360,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
         <v>22</v>
       </c>
@@ -1679,11 +1683,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="8"/>
     <col min="2" max="2" width="35.33203125" style="8" customWidth="1"/>
@@ -1939,7 +1943,7 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1"/>
     <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
@@ -6526,7 +6530,7 @@
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.83203125" bestFit="1" customWidth="1"/>
@@ -6592,9 +6596,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6801,27 +6808,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6846,9 +6841,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Liste des évolutions.xlsx
+++ b/Liste des évolutions.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u049298\Desktop\PYTHON_DJANGO\projetWebRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EB7B1945-44B3-4786-800C-E3614E94836C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F90567-E560-4FF3-A3DB-537106B6B059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evolutions" sheetId="1" r:id="rId1"/>
     <sheet name="Bug reported" sheetId="3" r:id="rId2"/>
     <sheet name="Info Lvl" sheetId="2" r:id="rId3"/>
-    <sheet name="Feuil2" sheetId="4" r:id="rId4"/>
+    <sheet name="Modifcateur info" sheetId="5" r:id="rId4"/>
+    <sheet name="Stuff info" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="138">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -254,42 +255,6 @@
     <t>Cause</t>
   </si>
   <si>
-    <t>Hybrid</t>
-  </si>
-  <si>
-    <t>Magique</t>
-  </si>
-  <si>
-    <t>Phyisique</t>
-  </si>
-  <si>
-    <t>degat darme</t>
-  </si>
-  <si>
-    <t>physique</t>
-  </si>
-  <si>
-    <t>Compétence</t>
-  </si>
-  <si>
-    <t>Physique/magique</t>
-  </si>
-  <si>
-    <t>Physique</t>
-  </si>
-  <si>
-    <t>type de compétence</t>
-  </si>
-  <si>
-    <t>soin/sort/compétence physique(exemple charge)</t>
-  </si>
-  <si>
-    <t>soin/sort</t>
-  </si>
-  <si>
-    <t>compétence physique(exemple charge)</t>
-  </si>
-  <si>
     <t>En prod</t>
   </si>
   <si>
@@ -333,13 +298,163 @@
   </si>
   <si>
     <t>On ne sait pas comment ai dû ce probleme mais il a du être resolu en même temps que le spam playRound dropItem</t>
+  </si>
+  <si>
+    <t>Valeur carac</t>
+  </si>
+  <si>
+    <t>Rareté</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Rare</t>
+  </si>
+  <si>
+    <t>Epic</t>
+  </si>
+  <si>
+    <t>Legandary</t>
+  </si>
+  <si>
+    <t>Stuff</t>
+  </si>
+  <si>
+    <t>Modificateur overall</t>
+  </si>
+  <si>
+    <t>Modificateur overall base</t>
+  </si>
+  <si>
+    <t>Level</t>
+  </si>
+  <si>
+    <t>Multiplicateur</t>
+  </si>
+  <si>
+    <t>Legendary</t>
+  </si>
+  <si>
+    <t>Modificateur total overall</t>
+  </si>
+  <si>
+    <t>Consomable</t>
+  </si>
+  <si>
+    <t>Nom d'arme</t>
+  </si>
+  <si>
+    <t>Axe</t>
+  </si>
+  <si>
+    <t>Stick</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bludgeon </t>
+  </si>
+  <si>
+    <t>Mace</t>
+  </si>
+  <si>
+    <t>Bardiche</t>
+  </si>
+  <si>
+    <t>Dagger</t>
+  </si>
+  <si>
+    <t>Arming sword</t>
+  </si>
+  <si>
+    <t>Katana</t>
+  </si>
+  <si>
+    <t>Knife</t>
+  </si>
+  <si>
+    <t>Longsword</t>
+  </si>
+  <si>
+    <t>Saber</t>
+  </si>
+  <si>
+    <t>Rapier</t>
+  </si>
+  <si>
+    <t>Shortsword</t>
+  </si>
+  <si>
+    <t>Battle axe</t>
+  </si>
+  <si>
+    <t>Bow</t>
+  </si>
+  <si>
+    <t>Crossbow</t>
+  </si>
+  <si>
+    <t>Flail</t>
+  </si>
+  <si>
+    <t>Morning star</t>
+  </si>
+  <si>
+    <t>Pernach</t>
+  </si>
+  <si>
+    <t>War hammer</t>
+  </si>
+  <si>
+    <t>Halberd</t>
+  </si>
+  <si>
+    <t>Spear</t>
+  </si>
+  <si>
+    <t>Ranseur</t>
+  </si>
+  <si>
+    <t>Longbow</t>
+  </si>
+  <si>
+    <t>Recurve bow</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>Fire</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>Frost</t>
+  </si>
+  <si>
+    <t>Earth</t>
+  </si>
+  <si>
+    <t>Wind</t>
+  </si>
+  <si>
+    <t>intelligence</t>
+  </si>
+  <si>
+    <t>hp</t>
+  </si>
+  <si>
+    <t>strength</t>
+  </si>
+  <si>
+    <t>agility</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <color theme="1"/>
@@ -371,13 +486,33 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -392,7 +527,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -440,11 +575,40 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="26">
+  <dxfs count="31">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -766,50 +930,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="B2:H29" totalsRowShown="0" headerRowDxfId="25" dataDxfId="24">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="B2:H29" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
   <autoFilter ref="B2:H29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <sortState ref="B3:H29">
     <sortCondition ref="D2:D29"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fonctionnalité" dataDxfId="23"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Desciption" dataDxfId="22"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Priorité" dataDxfId="21"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Etat" dataDxfId="20"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date début" dataDxfId="19"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Date fin" dataDxfId="18"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dev" dataDxfId="17"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fonctionnalité" dataDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Desciption" dataDxfId="27"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Priorité" dataDxfId="26"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Etat" dataDxfId="25"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date début" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Date fin" dataDxfId="23"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dev" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:G16" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:G16" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
   <autoFilter ref="B2:G16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bug" dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cause" dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Etat" dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Date report" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Date closure" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{B7D86D81-AA7C-449F-B13F-BFD0639F6955}" name="Commentary" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bug" dataDxfId="19"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cause" dataDxfId="18"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Etat" dataDxfId="17"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Date report" dataDxfId="16"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Date closure" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{B7D86D81-AA7C-449F-B13F-BFD0639F6955}" name="Commentary" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="8">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="13">
   <autoFilter ref="B2:D32" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="LVL" dataDxfId="7">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="LVL" dataDxfId="12">
       <calculatedColumnFormula>B2+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Xp avant le niveau suivant" dataDxfId="6">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Xp avant le niveau suivant" dataDxfId="11">
       <calculatedColumnFormula>$C$3+B2*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="XP depuis le début du jeu" dataDxfId="5">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="XP depuis le début du jeu" dataDxfId="10">
       <calculatedColumnFormula>C3+D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -818,13 +982,60 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="H2:J3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="lvl actuelle" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="xp actuelle" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="up ou pas ?" dataDxfId="0">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="lvl actuelle" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="xp actuelle" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="up ou pas ?" dataDxfId="5">
       <calculatedColumnFormula>IF(Tableau3[xp actuelle]&gt;=100+10*(Tableau3[lvl actuelle]-1),"Oui","Non")</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{75AF6093-40B9-4045-A836-7BE4980C4B82}" name="Tableau5" displayName="Tableau5" ref="B3:C7" totalsRowShown="0">
+  <autoFilter ref="B3:C7" xr:uid="{1BE29893-1322-4690-AA5F-63DF676006D3}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{62EF2871-AA7D-4282-8062-C89624DC7695}" name="Rareté"/>
+    <tableColumn id="2" xr3:uid="{C8BBA3B7-444F-43B1-AFA4-46B868FC8A8E}" name="Modificateur overall"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2097D268-C9D7-444D-AE39-0D44AD7C2BD5}" name="Tableau6" displayName="Tableau6" ref="B10:C14" totalsRowShown="0">
+  <autoFilter ref="B10:C14" xr:uid="{276BC1F8-D857-467C-ACA7-1D093324CFA6}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DFE081BD-5921-47E0-B435-E29AF1E656ED}" name="Rareté"/>
+    <tableColumn id="2" xr3:uid="{153A6B44-8ED0-4BA7-8A43-77462ECE10CC}" name="Modificateur overall base"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9CF327DF-5BC9-457F-AACB-51597DACBE89}" name="Tableau7" displayName="Tableau7" ref="B17:G37" totalsRowShown="0">
+  <autoFilter ref="B17:G37" xr:uid="{C892CB3D-BF9B-46E5-9300-BEA3BBCAEF09}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A891AB08-64A9-4A19-B103-7079E9CB00C2}" name="Level"/>
+    <tableColumn id="5" xr3:uid="{8E2D95A1-93C7-4BF2-9825-41B55E7894BB}" name="Multiplicateur" dataDxfId="0">
+      <calculatedColumnFormula>1+(Tableau7[[#This Row],[Level]]-1)*0.25</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{BD052409-7DF4-4016-8B8D-C52FEE20CEC8}" name="Common" dataDxfId="4">
+      <calculatedColumnFormula>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{A15D3612-F474-4B9C-8C65-2BB0FE5F4915}" name="Rare" dataDxfId="3">
+      <calculatedColumnFormula>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{3C43E1AB-E1B8-4592-B084-1B3D381FC6B2}" name="Epic" dataDxfId="2">
+      <calculatedColumnFormula>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="8" xr3:uid="{B515297F-08B2-4D2C-B3D3-43FD65399196}" name="Legendary" dataDxfId="1">
+      <calculatedColumnFormula>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1130,7 +1341,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
@@ -1200,7 +1411,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="F4" s="7">
         <v>43863</v>
@@ -1223,7 +1434,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F5" s="7">
         <v>43867</v>
@@ -1244,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F6" s="7">
         <v>43863</v>
@@ -1287,7 +1498,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="F8" s="7">
         <v>43864</v>
@@ -1327,7 +1538,7 @@
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F10" s="7">
         <v>43864</v>
@@ -1341,14 +1552,14 @@
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="4">
         <v>2</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F11" s="7">
         <v>43864</v>
@@ -1439,7 +1650,7 @@
         <v>2</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="F16" s="7">
         <v>43864</v>
@@ -1716,7 +1927,7 @@
         <v>71</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>97</v>
+        <v>85</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="33.75" x14ac:dyDescent="0.2">
@@ -1728,7 +1939,7 @@
         <v>43860</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
@@ -1739,7 +1950,7 @@
         <v>66</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E4" s="13">
         <v>43860</v>
@@ -1754,7 +1965,7 @@
         <v>61</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E5" s="13">
         <v>43860</v>
@@ -1769,7 +1980,7 @@
         <v>62</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E6" s="13">
         <v>43860</v>
@@ -1784,7 +1995,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E7" s="13">
         <v>43860</v>
@@ -1796,11 +2007,11 @@
     </row>
     <row r="8" spans="2:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>89</v>
+        <v>77</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E8" s="13">
         <v>43860</v>
@@ -1815,7 +2026,7 @@
         <v>57</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E9" s="13">
         <v>43860</v>
@@ -1827,7 +2038,7 @@
     </row>
     <row r="10" spans="2:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>90</v>
+        <v>78</v>
       </c>
       <c r="E10" s="13">
         <v>43860</v>
@@ -1839,7 +2050,7 @@
         <v>58</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E11" s="13">
         <v>43860</v>
@@ -1851,10 +2062,10 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>91</v>
+        <v>79</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E12" s="13">
         <v>43860</v>
@@ -1866,10 +2077,10 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E13" s="13">
         <v>43860</v>
@@ -1881,10 +2092,10 @@
     </row>
     <row r="14" spans="2:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E14" s="13">
         <v>43860</v>
@@ -1896,10 +2107,10 @@
     </row>
     <row r="15" spans="2:7" ht="45" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>96</v>
+        <v>84</v>
       </c>
       <c r="E15" s="13">
         <v>43860</v>
@@ -1908,7 +2119,7 @@
         <v>43866</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>98</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="22.5" x14ac:dyDescent="0.2">
@@ -1916,7 +2127,7 @@
         <v>63</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
       <c r="E16" s="13">
         <v>43860</v>
@@ -6523,85 +6734,1709 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:E5"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37B00C-9A5C-40C7-9046-353D70841F22}">
+  <dimension ref="B2:C103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B3">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <f>ROUNDDOWN(B3/4,0)+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <f t="shared" ref="C4:C67" si="0">ROUNDDOWN(B4/4,0)+1</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B7">
+        <v>4</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B8">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B9">
+        <v>6</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B11">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B12">
+        <v>9</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B13">
+        <v>10</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B14">
+        <v>11</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B16">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <v>14</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>18</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>19</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>21</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>22</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>23</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>24</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>25</v>
+      </c>
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>27</v>
+      </c>
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>28</v>
+      </c>
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>29</v>
+      </c>
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>30</v>
+      </c>
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>32</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>33</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>34</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B38">
+        <v>35</v>
+      </c>
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B39">
+        <v>36</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B40">
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B41">
+        <v>38</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B42">
+        <v>39</v>
+      </c>
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B43">
+        <v>40</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B44">
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B45">
+        <v>42</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B46">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B47">
+        <v>44</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B48">
+        <v>45</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B49">
+        <v>46</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B50">
+        <v>47</v>
+      </c>
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B51">
+        <v>48</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B52">
+        <v>49</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B53">
+        <v>50</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B54">
+        <v>51</v>
+      </c>
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B55">
+        <v>52</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B56">
+        <v>53</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B57">
+        <v>54</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B58">
+        <v>55</v>
+      </c>
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B59">
+        <v>56</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B60">
+        <v>57</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B61">
+        <v>58</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B62">
+        <v>59</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B63">
+        <v>60</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B64">
+        <v>61</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B65">
+        <v>62</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B66">
+        <v>63</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B67">
+        <v>64</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B68">
+        <v>65</v>
+      </c>
+      <c r="C68">
+        <f t="shared" ref="C68:C131" si="1">ROUNDDOWN(B68/4,0)+1</f>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B69">
+        <v>66</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B70">
+        <v>67</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B71">
+        <v>68</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B72">
+        <v>69</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B73">
+        <v>70</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B74">
+        <v>71</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B75">
+        <v>72</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B76">
+        <v>73</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B77">
+        <v>74</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B78">
+        <v>75</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B79">
+        <v>76</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B80">
+        <v>77</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B81">
+        <v>78</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B82">
+        <v>79</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B83">
+        <v>80</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B84">
+        <v>81</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B85">
+        <v>82</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B86">
+        <v>83</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B87">
+        <v>84</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B88">
+        <v>85</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B89">
+        <v>86</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B90">
+        <v>87</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="1"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B91">
+        <v>88</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B92">
+        <v>89</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B93">
+        <v>90</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B94">
+        <v>91</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="1"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B95">
+        <v>92</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B96">
+        <v>93</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B97">
+        <v>94</v>
+      </c>
+      <c r="C97">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B98">
+        <v>95</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="1"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B99">
+        <v>96</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B100">
+        <v>97</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B101">
+        <v>98</v>
+      </c>
+      <c r="C101">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B102">
+        <v>99</v>
+      </c>
+      <c r="C102">
+        <f t="shared" si="1"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B103">
+        <v>100</v>
+      </c>
+      <c r="C103">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="B2:V37"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="18.33203125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="C2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" s="21"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C3" t="s">
-        <v>77</v>
-      </c>
-      <c r="D3" t="s">
-        <v>79</v>
-      </c>
-      <c r="E3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>136</v>
+      </c>
+      <c r="I3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>74</v>
-      </c>
-      <c r="C4" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" t="s">
-        <v>74</v>
-      </c>
-      <c r="E4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+        <v>90</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="E4" s="21" t="s">
+        <v>137</v>
+      </c>
+      <c r="I4" t="s">
+        <v>109</v>
+      </c>
+      <c r="K4" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>75</v>
-      </c>
-      <c r="C5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>84</v>
+        <v>91</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>134</v>
+      </c>
+      <c r="I5" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>92</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>135</v>
+      </c>
+      <c r="I6" t="s">
+        <v>104</v>
+      </c>
+      <c r="K6" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="E7" s="21"/>
+      <c r="I7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K7" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E8" s="21"/>
+      <c r="I8" t="s">
+        <v>105</v>
+      </c>
+      <c r="K8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E9" s="21"/>
+      <c r="I9" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="21"/>
+      <c r="I10" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="E11" s="21"/>
+      <c r="I11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12">
+        <v>4</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13">
+        <v>6</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14">
+        <v>12</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="I15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="D16" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19"/>
+      <c r="I16" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C17" t="s">
+        <v>98</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="G17" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="I17" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>1</v>
+      </c>
+      <c r="D18" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>2</v>
+      </c>
+      <c r="E18" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="F18" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="G18" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>12</v>
+      </c>
+      <c r="I18" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B19">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>1.25</v>
+      </c>
+      <c r="D19" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="E19" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="F19" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="G19" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>15</v>
+      </c>
+      <c r="I19" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B20">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>1.5</v>
+      </c>
+      <c r="D20" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>3</v>
+      </c>
+      <c r="E20" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="F20" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>9</v>
+      </c>
+      <c r="G20" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>18</v>
+      </c>
+      <c r="I20" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B21">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>1.75</v>
+      </c>
+      <c r="D21" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="E21" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>7</v>
+      </c>
+      <c r="F21" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>11</v>
+      </c>
+      <c r="G21" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>21</v>
+      </c>
+      <c r="I21" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B22">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>2</v>
+      </c>
+      <c r="D22" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>4</v>
+      </c>
+      <c r="E22" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="F22" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>12</v>
+      </c>
+      <c r="G22" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>24</v>
+      </c>
+      <c r="I22" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B23">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>2.25</v>
+      </c>
+      <c r="D23" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="E23" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>9</v>
+      </c>
+      <c r="F23" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>14</v>
+      </c>
+      <c r="G23" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>27</v>
+      </c>
+      <c r="I23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B24">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>2.5</v>
+      </c>
+      <c r="D24" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>5</v>
+      </c>
+      <c r="E24" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>10</v>
+      </c>
+      <c r="F24" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>15</v>
+      </c>
+      <c r="G24" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>30</v>
+      </c>
+      <c r="I24" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B25">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>2.75</v>
+      </c>
+      <c r="D25" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="E25" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>11</v>
+      </c>
+      <c r="F25" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>17</v>
+      </c>
+      <c r="G25" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>33</v>
+      </c>
+      <c r="I25" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B26">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>3</v>
+      </c>
+      <c r="D26" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>6</v>
+      </c>
+      <c r="E26" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>12</v>
+      </c>
+      <c r="F26" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>18</v>
+      </c>
+      <c r="G26" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>36</v>
+      </c>
+      <c r="I26" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B27">
+        <v>10</v>
+      </c>
+      <c r="C27">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>3.25</v>
+      </c>
+      <c r="D27" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>7</v>
+      </c>
+      <c r="E27" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>13</v>
+      </c>
+      <c r="F27" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>20</v>
+      </c>
+      <c r="G27" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>39</v>
+      </c>
+      <c r="I27" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B28">
+        <v>11</v>
+      </c>
+      <c r="C28">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>3.5</v>
+      </c>
+      <c r="D28" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>7</v>
+      </c>
+      <c r="E28" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>14</v>
+      </c>
+      <c r="F28" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>21</v>
+      </c>
+      <c r="G28" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>42</v>
+      </c>
+      <c r="I28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B29">
+        <v>12</v>
+      </c>
+      <c r="C29">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>3.75</v>
+      </c>
+      <c r="D29" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="E29" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>15</v>
+      </c>
+      <c r="F29" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>23</v>
+      </c>
+      <c r="G29" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B30">
+        <v>13</v>
+      </c>
+      <c r="C30">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>4</v>
+      </c>
+      <c r="D30" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>8</v>
+      </c>
+      <c r="E30" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>16</v>
+      </c>
+      <c r="F30" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>24</v>
+      </c>
+      <c r="G30" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B31">
+        <v>14</v>
+      </c>
+      <c r="C31">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>4.25</v>
+      </c>
+      <c r="D31" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>9</v>
+      </c>
+      <c r="E31" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>17</v>
+      </c>
+      <c r="F31" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>26</v>
+      </c>
+      <c r="G31" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="B32">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>4.5</v>
+      </c>
+      <c r="D32" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>9</v>
+      </c>
+      <c r="E32" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>18</v>
+      </c>
+      <c r="F32" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>27</v>
+      </c>
+      <c r="G32" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B33">
+        <v>16</v>
+      </c>
+      <c r="C33">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>4.75</v>
+      </c>
+      <c r="D33" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>10</v>
+      </c>
+      <c r="E33" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>19</v>
+      </c>
+      <c r="F33" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>29</v>
+      </c>
+      <c r="G33" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B34">
+        <v>17</v>
+      </c>
+      <c r="C34">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>5</v>
+      </c>
+      <c r="D34" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>10</v>
+      </c>
+      <c r="E34" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>20</v>
+      </c>
+      <c r="F34" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>30</v>
+      </c>
+      <c r="G34" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35">
+        <v>18</v>
+      </c>
+      <c r="C35">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>5.25</v>
+      </c>
+      <c r="D35" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>11</v>
+      </c>
+      <c r="E35" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>21</v>
+      </c>
+      <c r="F35" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>32</v>
+      </c>
+      <c r="G35" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36">
+        <v>19</v>
+      </c>
+      <c r="C36">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>5.5</v>
+      </c>
+      <c r="D36" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>11</v>
+      </c>
+      <c r="E36" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>22</v>
+      </c>
+      <c r="F36" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>33</v>
+      </c>
+      <c r="G36" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37">
+        <v>20</v>
+      </c>
+      <c r="C37">
+        <f>1+(Tableau7[[#This Row],[Level]]-1)*0.25</f>
+        <v>5.75</v>
+      </c>
+      <c r="D37" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</f>
+        <v>12</v>
+      </c>
+      <c r="E37" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</f>
+        <v>23</v>
+      </c>
+      <c r="F37" s="2">
+        <f>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</f>
+        <v>35</v>
+      </c>
+      <c r="G37" s="2">
+        <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
+        <v>69</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="D16:G16"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6808,15 +8643,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6841,18 +8688,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Liste des évolutions.xlsx
+++ b/Liste des évolutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y0652097\Desktop\CESIproject\PythonProject\projetWebRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB3D72F0-9722-446D-A4D3-E1A2C3BDF91A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{403A4C3F-768B-48A1-8030-D83A369EDB97}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evolutions" sheetId="1" r:id="rId1"/>
@@ -446,6 +446,34 @@
   </cellStyles>
   <dxfs count="26">
     <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <strike val="0"/>
         <outline val="0"/>
@@ -481,34 +509,6 @@
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -792,24 +792,24 @@
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cause" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Etat" dataDxfId="12"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Date report" dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Date closure" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{B7D86D81-AA7C-449F-B13F-BFD0639F6955}" name="Commentary" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Date closure" dataDxfId="10"/>
+    <tableColumn id="6" xr3:uid="{B7D86D81-AA7C-449F-B13F-BFD0639F6955}" name="Commentary" dataDxfId="9"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="10">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="8">
   <autoFilter ref="B2:D32" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="LVL" dataDxfId="9">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="LVL" dataDxfId="7">
       <calculatedColumnFormula>B2+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Xp avant le niveau suivant" dataDxfId="8">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Xp avant le niveau suivant" dataDxfId="6">
       <calculatedColumnFormula>$C$3+B2*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="XP depuis le début du jeu" dataDxfId="7">
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="XP depuis le début du jeu" dataDxfId="5">
       <calculatedColumnFormula>C3+D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -818,12 +818,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="H2:J3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="lvl actuelle" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="xp actuelle" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="up ou pas ?" dataDxfId="2">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="lvl actuelle" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="xp actuelle" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="up ou pas ?" dataDxfId="0">
       <calculatedColumnFormula>IF(Tableau3[xp actuelle]&gt;=100+10*(Tableau3[lvl actuelle]-1),"Oui","Non")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1130,8 +1130,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="O12" sqref="O12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P7" sqref="P7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
@@ -1181,10 +1181,14 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+        <v>87</v>
+      </c>
+      <c r="F3" s="7">
+        <v>43865</v>
+      </c>
+      <c r="G3" s="7">
+        <v>43868</v>
+      </c>
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1283,7 +1287,7 @@
         <v>1</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F8" s="7">
         <v>43864</v>
@@ -1306,10 +1310,14 @@
         <v>1</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="F9" s="7">
+        <v>43871</v>
+      </c>
+      <c r="G9" s="7">
+        <v>43871</v>
+      </c>
       <c r="H9" s="4" t="s">
         <v>10</v>
       </c>
@@ -1679,7 +1687,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="R10" sqref="R10"/>
     </sheetView>
   </sheetViews>
@@ -6592,9 +6600,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -6801,27 +6812,15 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -6846,9 +6845,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/Liste des évolutions.xlsx
+++ b/Liste des évolutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u049298\Desktop\PYTHON_DJANGO\projetWebRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F90567-E560-4FF3-A3DB-537106B6B059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B49D30-2CF4-4D57-B156-872DF15651AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="142">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -448,12 +448,27 @@
   </si>
   <si>
     <t>agility</t>
+  </si>
+  <si>
+    <t>OneHanded</t>
+  </si>
+  <si>
+    <t>Two handed</t>
+  </si>
+  <si>
+    <t>Two Weapon</t>
+  </si>
+  <si>
+    <t>Sword</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="171" formatCode="0\D"/>
+  </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -515,7 +530,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -523,11 +538,39 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -578,12 +621,34 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,6 +657,7 @@
   <dxfs count="31">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -607,7 +673,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1022,19 +1087,19 @@
   <autoFilter ref="B17:G37" xr:uid="{C892CB3D-BF9B-46E5-9300-BEA3BBCAEF09}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A891AB08-64A9-4A19-B103-7079E9CB00C2}" name="Level"/>
-    <tableColumn id="5" xr3:uid="{8E2D95A1-93C7-4BF2-9825-41B55E7894BB}" name="Multiplicateur" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{8E2D95A1-93C7-4BF2-9825-41B55E7894BB}" name="Multiplicateur" dataDxfId="4">
       <calculatedColumnFormula>1+(Tableau7[[#This Row],[Level]]-1)*0.25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD052409-7DF4-4016-8B8D-C52FEE20CEC8}" name="Common" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{BD052409-7DF4-4016-8B8D-C52FEE20CEC8}" name="Common" dataDxfId="3">
       <calculatedColumnFormula>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A15D3612-F474-4B9C-8C65-2BB0FE5F4915}" name="Rare" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{A15D3612-F474-4B9C-8C65-2BB0FE5F4915}" name="Rare" dataDxfId="2">
       <calculatedColumnFormula>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3C43E1AB-E1B8-4592-B084-1B3D381FC6B2}" name="Epic" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{3C43E1AB-E1B8-4592-B084-1B3D381FC6B2}" name="Epic" dataDxfId="1">
       <calculatedColumnFormula>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B515297F-08B2-4D2C-B3D3-43FD65399196}" name="Legendary" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{B515297F-08B2-4D2C-B3D3-43FD65399196}" name="Legendary" dataDxfId="0">
       <calculatedColumnFormula>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -7338,7 +7403,7 @@
         <v>65</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C131" si="1">ROUNDDOWN(B68/4,0)+1</f>
+        <f t="shared" ref="C68:C103" si="1">ROUNDDOWN(B68/4,0)+1</f>
         <v>17</v>
       </c>
     </row>
@@ -7664,10 +7729,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:V37"/>
+  <dimension ref="B2:BK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="AD19" sqref="AD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7675,195 +7740,1575 @@
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="13.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="12" width="3.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="21" width="3.1640625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="4.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="29" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="34" max="40" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="43" max="43" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.5" bestFit="1" customWidth="1"/>
+    <col min="63" max="63" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:63" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>101</v>
       </c>
-      <c r="E2" s="21"/>
-    </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E2" s="20"/>
+      <c r="I2" s="30">
+        <v>1</v>
+      </c>
+      <c r="J2" s="30">
+        <v>2</v>
+      </c>
+      <c r="K2" s="30">
+        <v>3</v>
+      </c>
+      <c r="L2" s="30">
+        <v>4</v>
+      </c>
+      <c r="M2" s="24"/>
+      <c r="P2" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q2" s="26">
+        <v>6</v>
+      </c>
+      <c r="R2" s="26">
+        <v>8</v>
+      </c>
+      <c r="S2" s="26">
+        <v>10</v>
+      </c>
+      <c r="T2" s="26">
+        <v>12</v>
+      </c>
+      <c r="U2" s="26">
+        <v>20</v>
+      </c>
+      <c r="V2" s="26">
+        <v>100</v>
+      </c>
+      <c r="W2" s="24"/>
+      <c r="Z2" s="26">
+        <v>1</v>
+      </c>
+      <c r="AA2" s="26">
+        <v>2</v>
+      </c>
+      <c r="AB2" s="26">
+        <v>3</v>
+      </c>
+      <c r="AC2" s="26">
+        <v>4</v>
+      </c>
+      <c r="AH2" s="26">
+        <v>4</v>
+      </c>
+      <c r="AI2" s="26">
+        <v>6</v>
+      </c>
+      <c r="AJ2" s="26">
+        <v>8</v>
+      </c>
+      <c r="AK2" s="26">
+        <v>10</v>
+      </c>
+      <c r="AL2" s="26">
+        <v>12</v>
+      </c>
+      <c r="AM2" s="26">
+        <v>20</v>
+      </c>
+      <c r="AN2" s="26">
+        <v>100</v>
+      </c>
+      <c r="AO2" s="24"/>
+    </row>
+    <row r="3" spans="2:63" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>89</v>
       </c>
       <c r="C3" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="22" t="s">
+      <c r="E3" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="26">
+        <v>80</v>
+      </c>
+      <c r="J3" s="26">
+        <v>19</v>
+      </c>
+      <c r="K3" s="26">
+        <v>1</v>
+      </c>
+      <c r="L3" s="26">
+        <v>0</v>
+      </c>
+      <c r="M3" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="N3">
+        <f>($I$2*I3+$J$2*J3+$K$2*K3+$L$2*L3)/SUM(I3:L3)</f>
+        <v>1.21</v>
+      </c>
+      <c r="P3" s="26">
+        <v>60</v>
+      </c>
+      <c r="Q3" s="26">
+        <v>25</v>
+      </c>
+      <c r="R3" s="26">
+        <v>10</v>
+      </c>
+      <c r="S3" s="26">
+        <v>5</v>
+      </c>
+      <c r="T3" s="26">
+        <v>0</v>
+      </c>
+      <c r="U3" s="26">
+        <v>0</v>
+      </c>
+      <c r="V3" s="26">
+        <v>0</v>
+      </c>
+      <c r="W3" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="X3">
+        <f>(P3*$P$2+Q3*$Q$2+R3*$R$2+S3*$S$2+T3*$T$2+U3*$U$2+V3*$V$2)/SUM(P3:V3)</f>
+        <v>5.2</v>
+      </c>
+      <c r="Z3" s="29">
+        <f>I9/200+I3/200</f>
+        <v>0.85000000000000009</v>
+      </c>
+      <c r="AA3" s="29">
+        <f t="shared" ref="AA3:AC3" si="0">J9/200+J3/200</f>
+        <v>0.14500000000000002</v>
+      </c>
+      <c r="AB3" s="29">
+        <f t="shared" si="0"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AC3" s="29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD3" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE3" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF3">
+        <f>($Z$2*Z3+$AA$2*AA3+$AB$2*AB3+$AC$2*AC3)/SUM(Z3:AC3)</f>
+        <v>1.155</v>
+      </c>
+      <c r="AH3" s="29">
+        <f>P3/200+P11/200</f>
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="AI3" s="29">
+        <f>Q3/200+Q11/200</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AJ3" s="29">
+        <f>R3/200+R11/200</f>
+        <v>0.1</v>
+      </c>
+      <c r="AK3" s="29">
+        <f>S3/200+S11/200</f>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="AL3" s="29">
+        <f>T3/200+T11/200</f>
+        <v>0</v>
+      </c>
+      <c r="AM3" s="29">
+        <f>U3/200+U11/200</f>
+        <v>0</v>
+      </c>
+      <c r="AN3" s="29">
+        <f>V3/200+V11/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO3" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP3" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ3">
+        <f>($AH$2*AH3+$AI$2*AI3+$AJ$2*AJ3+$AK$2*AK3+$AL$2*AL3+$AM$2*AM3+$AN$2*AN3)/SUM(AH3:AN3)</f>
+        <v>5.5299999999999994</v>
+      </c>
+      <c r="BI3" t="s">
         <v>102</v>
       </c>
-      <c r="K3" t="s">
+      <c r="BK3" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:63" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
         <v>90</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" s="21" t="s">
+      <c r="E4" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I4" s="26">
+        <v>70</v>
+      </c>
+      <c r="J4" s="26">
+        <v>28</v>
+      </c>
+      <c r="K4" s="26">
+        <v>2</v>
+      </c>
+      <c r="L4" s="26">
+        <v>0</v>
+      </c>
+      <c r="M4" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N6" si="1">($I$2*I4+$J$2*J4+$K$2*K4+$L$2*L4)/SUM(I4:L4)</f>
+        <v>1.32</v>
+      </c>
+      <c r="P4" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="26">
+        <v>20</v>
+      </c>
+      <c r="R4" s="26">
+        <v>50</v>
+      </c>
+      <c r="S4" s="26">
+        <v>20</v>
+      </c>
+      <c r="T4" s="26">
+        <v>9</v>
+      </c>
+      <c r="U4" s="26">
+        <v>1</v>
+      </c>
+      <c r="V4" s="26">
+        <v>0</v>
+      </c>
+      <c r="W4" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="X4">
+        <f t="shared" ref="X4:X8" si="2">(P4*$P$2+Q4*$Q$2+R4*$R$2+S4*$S$2+T4*$T$2+U4*$U$2+V4*$V$2)/SUM(P4:V4)</f>
+        <v>8.48</v>
+      </c>
+      <c r="Z4" s="29">
+        <f>I9/200+I4/200</f>
+        <v>0.8</v>
+      </c>
+      <c r="AA4" s="29">
+        <f t="shared" ref="AA4:AC4" si="3">J9/200+J4/200</f>
+        <v>0.19</v>
+      </c>
+      <c r="AB4" s="29">
+        <f t="shared" si="3"/>
+        <v>0.01</v>
+      </c>
+      <c r="AC4" s="29">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AD4" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE4" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF4">
+        <f t="shared" ref="AF4:AF14" si="4">($Z$2*Z4+$AA$2*AA4+$AB$2*AB4+$AC$2*AC4)/SUM(Z4:AC4)</f>
+        <v>1.2100000000000002</v>
+      </c>
+      <c r="AH4" s="29">
+        <f>P3/200+P12/200</f>
+        <v>0.3</v>
+      </c>
+      <c r="AI4" s="29">
+        <f>Q3/200+Q12/200</f>
+        <v>0.3</v>
+      </c>
+      <c r="AJ4" s="29">
+        <f>R3/200+R12/200</f>
+        <v>0.32</v>
+      </c>
+      <c r="AK4" s="29">
+        <f>S3/200+S12/200</f>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="AL4" s="29">
+        <f>T3/200+T12/200</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AM4" s="29">
+        <f>U3/200+U12/200</f>
+        <v>0</v>
+      </c>
+      <c r="AN4" s="29">
+        <f>V3/200+V12/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO4" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP4" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ4">
+        <f t="shared" ref="AQ4:AQ26" si="5">($AH$2*AH4+$AI$2*AI4+$AJ$2*AJ4+$AK$2*AK4+$AL$2*AL4+$AM$2*AM4+$AN$2*AN4)/SUM(AH4:AN4)</f>
+        <v>6.370000000000001</v>
+      </c>
+      <c r="BI4" t="s">
         <v>109</v>
       </c>
-      <c r="K4" t="s">
+      <c r="BK4" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:63" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>91</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="E5" s="21" t="s">
+      <c r="E5" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="I5" t="s">
+      <c r="I5" s="26">
+        <v>50</v>
+      </c>
+      <c r="J5" s="26">
+        <v>39</v>
+      </c>
+      <c r="K5" s="26">
+        <v>10</v>
+      </c>
+      <c r="L5" s="26">
+        <v>1</v>
+      </c>
+      <c r="M5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="1"/>
+        <v>1.62</v>
+      </c>
+      <c r="P5" s="26">
+        <v>5</v>
+      </c>
+      <c r="Q5" s="26">
+        <v>25</v>
+      </c>
+      <c r="R5" s="26">
+        <v>35</v>
+      </c>
+      <c r="S5" s="26">
+        <v>25</v>
+      </c>
+      <c r="T5" s="26">
+        <v>9</v>
+      </c>
+      <c r="U5" s="26">
+        <v>1</v>
+      </c>
+      <c r="V5" s="26">
+        <v>0</v>
+      </c>
+      <c r="W5" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="X5">
+        <f t="shared" si="2"/>
+        <v>8.2799999999999994</v>
+      </c>
+      <c r="Z5" s="29">
+        <f>I9/200+I5/200</f>
+        <v>0.7</v>
+      </c>
+      <c r="AA5" s="29">
+        <f t="shared" ref="AA5:AC5" si="6">J9/200+J5/200</f>
+        <v>0.245</v>
+      </c>
+      <c r="AB5" s="29">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="AC5" s="29">
+        <f t="shared" si="6"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AD5" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF5">
+        <f t="shared" si="4"/>
+        <v>1.3599999999999999</v>
+      </c>
+      <c r="AH5" s="29">
+        <f>P3/200+P13/200</f>
+        <v>0.3</v>
+      </c>
+      <c r="AI5" s="29">
+        <f>Q3/200+Q13/200</f>
+        <v>0.125</v>
+      </c>
+      <c r="AJ5" s="29">
+        <f>R3/200+R13/200</f>
+        <v>0.3</v>
+      </c>
+      <c r="AK5" s="29">
+        <f>S3/200+S13/200</f>
+        <v>0.19999999999999998</v>
+      </c>
+      <c r="AL5" s="29">
+        <f>T3/200+T13/200</f>
+        <v>0.05</v>
+      </c>
+      <c r="AM5" s="29">
+        <f>U3/200+U13/200</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AN5" s="29">
+        <f>V3/200+V13/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO5" s="27" t="s">
         <v>108</v>
       </c>
-      <c r="K5" t="s">
+      <c r="AP5" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ5">
+        <f t="shared" si="5"/>
+        <v>7.4499999999999993</v>
+      </c>
+      <c r="BI5" t="s">
+        <v>108</v>
+      </c>
+      <c r="BK5" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:63" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>92</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="E6" s="21" t="s">
+      <c r="E6" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="I6" t="s">
+      <c r="I6" s="26">
+        <v>0</v>
+      </c>
+      <c r="J6" s="26">
+        <v>60</v>
+      </c>
+      <c r="K6" s="26">
+        <v>30</v>
+      </c>
+      <c r="L6" s="26">
+        <v>10</v>
+      </c>
+      <c r="M6" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="N6">
+        <f t="shared" si="1"/>
+        <v>2.5</v>
+      </c>
+      <c r="P6" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="26">
+        <v>0</v>
+      </c>
+      <c r="R6" s="26">
+        <v>20</v>
+      </c>
+      <c r="S6" s="26">
+        <v>60</v>
+      </c>
+      <c r="T6" s="26">
+        <v>18</v>
+      </c>
+      <c r="U6" s="26">
+        <v>2</v>
+      </c>
+      <c r="V6" s="26">
+        <v>0</v>
+      </c>
+      <c r="W6" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="X6">
+        <f t="shared" si="2"/>
+        <v>10.16</v>
+      </c>
+      <c r="Z6" s="29">
+        <f>I9/200+I6/200</f>
+        <v>0.45</v>
+      </c>
+      <c r="AA6" s="29">
+        <f t="shared" ref="AA6:AC6" si="7">J9/200+J6/200</f>
+        <v>0.35</v>
+      </c>
+      <c r="AB6" s="29">
+        <f t="shared" si="7"/>
+        <v>0.15</v>
+      </c>
+      <c r="AC6" s="29">
+        <f t="shared" si="7"/>
+        <v>0.05</v>
+      </c>
+      <c r="AD6" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="AE6" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF6">
+        <f t="shared" si="4"/>
+        <v>1.7999999999999998</v>
+      </c>
+      <c r="AH6" s="29">
+        <f>P3/200+P14/200</f>
+        <v>0.3</v>
+      </c>
+      <c r="AI6" s="29">
+        <f>Q3/200+Q14/200</f>
+        <v>0.125</v>
+      </c>
+      <c r="AJ6" s="29">
+        <f>R3/200+R14/200</f>
+        <v>0.05</v>
+      </c>
+      <c r="AK6" s="29">
+        <f>S3/200+S14/200</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AL6" s="29">
+        <f>T3/200+T14/200</f>
+        <v>0.15</v>
+      </c>
+      <c r="AM6" s="29">
+        <f>U3/200+U14/200</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AN6" s="29">
+        <f>V3/200+V14/200</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO6" s="27" t="s">
+        <v>108</v>
+      </c>
+      <c r="AP6" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ6">
+        <f t="shared" si="5"/>
+        <v>9.2999999999999989</v>
+      </c>
+      <c r="BI6" t="s">
         <v>104</v>
       </c>
-      <c r="K6" t="s">
+      <c r="BK6" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:63" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>93</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="E7" s="21"/>
-      <c r="I7" t="s">
+      <c r="E7" s="20"/>
+      <c r="P7" s="26">
+        <v>15</v>
+      </c>
+      <c r="Q7" s="26">
+        <v>30</v>
+      </c>
+      <c r="R7" s="26">
+        <v>35</v>
+      </c>
+      <c r="S7" s="26">
+        <v>10</v>
+      </c>
+      <c r="T7" s="26">
+        <v>8</v>
+      </c>
+      <c r="U7" s="26">
+        <v>2</v>
+      </c>
+      <c r="V7" s="26">
+        <v>0</v>
+      </c>
+      <c r="W7" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="X7">
+        <f t="shared" si="2"/>
+        <v>7.56</v>
+      </c>
+      <c r="Z7" s="29">
+        <f>I10/200+I3/200</f>
+        <v>0.44</v>
+      </c>
+      <c r="AA7" s="29">
+        <f t="shared" ref="AA7:AC7" si="8">J10/200+J3/200</f>
+        <v>0.54500000000000004</v>
+      </c>
+      <c r="AB7" s="29">
+        <f t="shared" si="8"/>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AC7" s="29">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+      <c r="AD7" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE7" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF7">
+        <f t="shared" si="4"/>
+        <v>1.575</v>
+      </c>
+      <c r="AH7" s="29">
+        <f>P$4/200+P11/200</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AI7" s="29">
+        <f>Q$4/200+Q11/200</f>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="AJ7" s="29">
+        <f>R$4/200+R11/200</f>
+        <v>0.3</v>
+      </c>
+      <c r="AK7" s="29">
+        <f>S$4/200+S11/200</f>
+        <v>0.10500000000000001</v>
+      </c>
+      <c r="AL7" s="29">
+        <f>T$4/200+T11/200</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AM7" s="29">
+        <f>U$4/200+U11/200</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AN7" s="29">
+        <f>V$4/200+V11/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO7" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP7" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ7">
+        <f t="shared" si="5"/>
+        <v>7.169999999999999</v>
+      </c>
+      <c r="BI7" t="s">
         <v>106</v>
       </c>
-      <c r="K7" t="s">
+      <c r="BK7" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="E8" s="21"/>
-      <c r="I8" t="s">
+    <row r="8" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="E8" s="20"/>
+      <c r="I8" s="30">
+        <v>1</v>
+      </c>
+      <c r="J8" s="30">
+        <v>2</v>
+      </c>
+      <c r="K8" s="30">
+        <v>3</v>
+      </c>
+      <c r="L8" s="30">
+        <v>4</v>
+      </c>
+      <c r="M8" s="24"/>
+      <c r="P8" s="26">
+        <v>20</v>
+      </c>
+      <c r="Q8" s="26">
+        <v>35</v>
+      </c>
+      <c r="R8" s="26">
+        <v>25</v>
+      </c>
+      <c r="S8" s="26">
+        <v>10</v>
+      </c>
+      <c r="T8" s="26">
+        <v>7</v>
+      </c>
+      <c r="U8" s="26">
+        <v>3</v>
+      </c>
+      <c r="V8" s="26">
+        <v>0</v>
+      </c>
+      <c r="W8" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="X8">
+        <f t="shared" si="2"/>
+        <v>7.34</v>
+      </c>
+      <c r="Z8" s="29">
+        <f>I10/200+I4/200</f>
+        <v>0.38999999999999996</v>
+      </c>
+      <c r="AA8" s="29">
+        <f t="shared" ref="AA8:AC8" si="9">J10/200+J4/200</f>
+        <v>0.59000000000000008</v>
+      </c>
+      <c r="AB8" s="29">
+        <f t="shared" si="9"/>
+        <v>0.02</v>
+      </c>
+      <c r="AC8" s="29">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="AD8" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE8" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF8">
+        <f t="shared" si="4"/>
+        <v>1.6300000000000001</v>
+      </c>
+      <c r="AH8" s="29">
+        <f>P$4/200+P12/200</f>
+        <v>0</v>
+      </c>
+      <c r="AI8" s="29">
+        <f>Q$4/200+Q12/200</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AJ8" s="29">
+        <f>R$4/200+R12/200</f>
+        <v>0.52</v>
+      </c>
+      <c r="AK8" s="29">
+        <f>S$4/200+S12/200</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AL8" s="29">
+        <f>T$4/200+T12/200</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="AM8" s="29">
+        <f>U$4/200+U12/200</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AN8" s="29">
+        <f>V$4/200+V12/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO8" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP8" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ8">
+        <f t="shared" si="5"/>
+        <v>8.01</v>
+      </c>
+      <c r="BI8" t="s">
         <v>105</v>
       </c>
-      <c r="K8" t="s">
+      <c r="BK8" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:63" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>94</v>
       </c>
-      <c r="E9" s="21"/>
-      <c r="I9" t="s">
+      <c r="E9" s="20"/>
+      <c r="I9" s="26">
+        <v>90</v>
+      </c>
+      <c r="J9" s="26">
+        <v>10</v>
+      </c>
+      <c r="K9" s="26">
+        <v>0</v>
+      </c>
+      <c r="L9" s="26">
+        <v>0</v>
+      </c>
+      <c r="M9" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="N9">
+        <f>($I$2*I9+$J$2*J9+$K$2*K9+$L$2*L9)/SUM(I9:L9)</f>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="Z9" s="29">
+        <f>I10/200+I5/200</f>
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="AA9" s="29">
+        <f t="shared" ref="AA9:AC9" si="10">J10/200+J5/200</f>
+        <v>0.64500000000000002</v>
+      </c>
+      <c r="AB9" s="29">
+        <f t="shared" si="10"/>
+        <v>6.0000000000000005E-2</v>
+      </c>
+      <c r="AC9" s="29">
+        <f t="shared" si="10"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AD9" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE9" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF9">
+        <f t="shared" si="4"/>
+        <v>1.78</v>
+      </c>
+      <c r="AH9" s="29">
+        <f>P$4/200+P13/200</f>
+        <v>0</v>
+      </c>
+      <c r="AI9" s="29">
+        <f>Q$4/200+Q13/200</f>
+        <v>0.1</v>
+      </c>
+      <c r="AJ9" s="29">
+        <f>R$4/200+R13/200</f>
+        <v>0.5</v>
+      </c>
+      <c r="AK9" s="29">
+        <f>S$4/200+S13/200</f>
+        <v>0.27500000000000002</v>
+      </c>
+      <c r="AL9" s="29">
+        <f>T$4/200+T13/200</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AM9" s="29">
+        <f>U$4/200+U13/200</f>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="AN9" s="29">
+        <f>V$4/200+V13/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO9" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP9" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ9">
+        <f t="shared" si="5"/>
+        <v>9.09</v>
+      </c>
+      <c r="BI9" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:63" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>89</v>
       </c>
       <c r="C10" t="s">
         <v>96</v>
       </c>
-      <c r="E10" s="21"/>
-      <c r="I10" t="s">
+      <c r="E10" s="20"/>
+      <c r="I10" s="26">
+        <v>8</v>
+      </c>
+      <c r="J10" s="26">
+        <v>90</v>
+      </c>
+      <c r="K10" s="26">
+        <v>2</v>
+      </c>
+      <c r="L10" s="26">
+        <v>0</v>
+      </c>
+      <c r="M10" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N12" si="11">($I$2*I10+$J$2*J10+$K$2*K10+$L$2*L10)/SUM(I10:L10)</f>
+        <v>1.94</v>
+      </c>
+      <c r="P10" s="26">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>6</v>
+      </c>
+      <c r="R10" s="26">
+        <v>8</v>
+      </c>
+      <c r="S10" s="26">
+        <v>10</v>
+      </c>
+      <c r="T10" s="26">
+        <v>12</v>
+      </c>
+      <c r="U10" s="26">
+        <v>20</v>
+      </c>
+      <c r="V10" s="26">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="29">
+        <f>I10/200+I6/200</f>
+        <v>0.04</v>
+      </c>
+      <c r="AA10" s="29">
+        <f t="shared" ref="AA10:AC10" si="12">J10/200+J6/200</f>
+        <v>0.75</v>
+      </c>
+      <c r="AB10" s="29">
+        <f t="shared" si="12"/>
+        <v>0.16</v>
+      </c>
+      <c r="AC10" s="29">
+        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="AD10" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE10" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="4"/>
+        <v>2.2200000000000002</v>
+      </c>
+      <c r="AH10" s="29">
+        <f>P$4/200+P14/200</f>
+        <v>0</v>
+      </c>
+      <c r="AI10" s="29">
+        <f>Q$4/200+Q14/200</f>
+        <v>0.1</v>
+      </c>
+      <c r="AJ10" s="29">
+        <f>R$4/200+R14/200</f>
+        <v>0.25</v>
+      </c>
+      <c r="AK10" s="29">
+        <f>S$4/200+S14/200</f>
+        <v>0.35</v>
+      </c>
+      <c r="AL10" s="29">
+        <f>T$4/200+T14/200</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AM10" s="29">
+        <f>U$4/200+U14/200</f>
+        <v>0.1</v>
+      </c>
+      <c r="AN10" s="29">
+        <f>V$4/200+V14/200</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO10" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP10" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ10">
+        <f t="shared" si="5"/>
+        <v>10.94</v>
+      </c>
+      <c r="BI10" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:63" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>90</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="E11" s="21"/>
-      <c r="I11" t="s">
+      <c r="E11" s="20"/>
+      <c r="I11" s="26">
+        <v>60</v>
+      </c>
+      <c r="J11" s="26">
+        <v>35</v>
+      </c>
+      <c r="K11" s="26">
+        <v>5</v>
+      </c>
+      <c r="L11" s="26">
+        <v>0</v>
+      </c>
+      <c r="M11" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="11"/>
+        <v>1.45</v>
+      </c>
+      <c r="P11" s="26">
+        <v>19</v>
+      </c>
+      <c r="Q11" s="26">
+        <v>70</v>
+      </c>
+      <c r="R11" s="26">
+        <v>10</v>
+      </c>
+      <c r="S11" s="26">
+        <v>1</v>
+      </c>
+      <c r="T11" s="26">
+        <v>0</v>
+      </c>
+      <c r="U11" s="26">
+        <v>0</v>
+      </c>
+      <c r="V11" s="26">
+        <v>0</v>
+      </c>
+      <c r="W11" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="X11">
+        <f>(P11*$P$2+Q11*$Q$2+R11*$R$2+S11*$S$2+T11*$T$2+U11*$U$2+V11*$V$2)/SUM(P11:V11)</f>
+        <v>5.86</v>
+      </c>
+      <c r="Z11" s="29">
+        <f>I11/200+I3/200</f>
+        <v>0.7</v>
+      </c>
+      <c r="AA11" s="29">
+        <f t="shared" ref="AA11:AC11" si="13">J11/200+J3/200</f>
+        <v>0.27</v>
+      </c>
+      <c r="AB11" s="29">
+        <f t="shared" si="13"/>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="AC11" s="29">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE11" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="4"/>
+        <v>1.33</v>
+      </c>
+      <c r="AH11" s="29">
+        <f>P$5/200+P11/200</f>
+        <v>0.12</v>
+      </c>
+      <c r="AI11" s="29">
+        <f>Q$5/200+Q11/200</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AJ11" s="29">
+        <f>R$5/200+R11/200</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="AK11" s="29">
+        <f>S$5/200+S11/200</f>
+        <v>0.13</v>
+      </c>
+      <c r="AL11" s="29">
+        <f>T$5/200+T11/200</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AM11" s="29">
+        <f>U$5/200+U11/200</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AN11" s="29">
+        <f>V$5/200+V11/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP11" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ11">
+        <f t="shared" si="5"/>
+        <v>7.0699999999999985</v>
+      </c>
+      <c r="BI11" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:63" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>91</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="25"/>
+      <c r="P12" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="26">
+        <v>35</v>
+      </c>
+      <c r="R12" s="26">
+        <v>54</v>
+      </c>
+      <c r="S12" s="26">
+        <v>10</v>
+      </c>
+      <c r="T12" s="26">
+        <v>1</v>
+      </c>
+      <c r="U12" s="26">
+        <v>0</v>
+      </c>
+      <c r="V12" s="26">
+        <v>0</v>
+      </c>
+      <c r="W12" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="X12">
+        <f t="shared" ref="X12:X14" si="14">(P12*$P$2+Q12*$Q$2+R12*$R$2+S12*$S$2+T12*$T$2+U12*$U$2+V12*$V$2)/SUM(P12:V12)</f>
+        <v>7.54</v>
+      </c>
+      <c r="Z12" s="29">
+        <f>I11/200+I4/200</f>
+        <v>0.64999999999999991</v>
+      </c>
+      <c r="AA12" s="29">
+        <f t="shared" ref="AA12:AC12" si="15">J11/200+J4/200</f>
+        <v>0.315</v>
+      </c>
+      <c r="AB12" s="29">
+        <f t="shared" si="15"/>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AC12" s="29">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="AD12" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE12" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AF12">
+        <f t="shared" si="4"/>
+        <v>1.385</v>
+      </c>
+      <c r="AH12" s="29">
+        <f>P$5/200+P12/200</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AI12" s="29">
+        <f>Q$5/200+Q12/200</f>
+        <v>0.3</v>
+      </c>
+      <c r="AJ12" s="29">
+        <f>R$5/200+R12/200</f>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="AK12" s="29">
+        <f>S$5/200+S12/200</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AL12" s="29">
+        <f>T$5/200+T12/200</f>
+        <v>4.9999999999999996E-2</v>
+      </c>
+      <c r="AM12" s="29">
+        <f>U$5/200+U12/200</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AN12" s="29">
+        <f>V$5/200+V12/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO12" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP12" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ12">
+        <f t="shared" si="5"/>
+        <v>7.9099999999999993</v>
+      </c>
+      <c r="BI12" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:63" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>92</v>
       </c>
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="I13" t="s">
+      <c r="P13" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="26">
+        <v>0</v>
+      </c>
+      <c r="R13" s="26">
+        <v>50</v>
+      </c>
+      <c r="S13" s="26">
+        <v>35</v>
+      </c>
+      <c r="T13" s="26">
+        <v>10</v>
+      </c>
+      <c r="U13" s="26">
+        <v>5</v>
+      </c>
+      <c r="V13" s="26">
+        <v>0</v>
+      </c>
+      <c r="W13" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="X13">
+        <f t="shared" si="14"/>
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="Z13" s="29">
+        <f>I11/200+I5/200</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AA13" s="29">
+        <f t="shared" ref="AA13:AC13" si="16">J11/200+J5/200</f>
+        <v>0.37</v>
+      </c>
+      <c r="AB13" s="29">
+        <f t="shared" si="16"/>
+        <v>7.5000000000000011E-2</v>
+      </c>
+      <c r="AC13" s="29">
+        <f t="shared" si="16"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AD13" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE13" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AF13">
+        <f t="shared" si="4"/>
+        <v>1.5350000000000001</v>
+      </c>
+      <c r="AH13" s="29">
+        <f>P$5/200+P13/200</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AI13" s="29">
+        <f>Q$5/200+Q13/200</f>
+        <v>0.125</v>
+      </c>
+      <c r="AJ13" s="29">
+        <f>R$5/200+R13/200</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AK13" s="29">
+        <f>S$5/200+S13/200</f>
+        <v>0.3</v>
+      </c>
+      <c r="AL13" s="29">
+        <f>T$5/200+T13/200</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AM13" s="29">
+        <f>U$5/200+U13/200</f>
+        <v>3.0000000000000002E-2</v>
+      </c>
+      <c r="AN13" s="29">
+        <f>V$5/200+V13/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO13" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP13" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ13">
+        <f t="shared" si="5"/>
+        <v>8.99</v>
+      </c>
+      <c r="BI13" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:63" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>99</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
-      <c r="I14" t="s">
+      <c r="P14" s="26">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="26">
+        <v>0</v>
+      </c>
+      <c r="R14" s="26">
+        <v>0</v>
+      </c>
+      <c r="S14" s="26">
+        <v>50</v>
+      </c>
+      <c r="T14" s="26">
+        <v>30</v>
+      </c>
+      <c r="U14" s="26">
+        <v>19</v>
+      </c>
+      <c r="V14" s="26">
+        <v>1</v>
+      </c>
+      <c r="W14" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="X14">
+        <f t="shared" si="14"/>
+        <v>13.4</v>
+      </c>
+      <c r="Z14" s="29">
+        <f>I11/200+I6/200</f>
+        <v>0.3</v>
+      </c>
+      <c r="AA14" s="29">
+        <f t="shared" ref="AA14:AC14" si="17">J11/200+J6/200</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AB14" s="29">
+        <f t="shared" si="17"/>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AC14" s="29">
+        <f t="shared" si="17"/>
+        <v>0.05</v>
+      </c>
+      <c r="AD14" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE14" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF14">
+        <f t="shared" si="4"/>
+        <v>1.9749999999999999</v>
+      </c>
+      <c r="AH14" s="29">
+        <f>P$5/200+P14/200</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="AI14" s="29">
+        <f>Q$5/200+Q14/200</f>
+        <v>0.125</v>
+      </c>
+      <c r="AJ14" s="29">
+        <f>R$5/200+R14/200</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AK14" s="29">
+        <f>S$5/200+S14/200</f>
+        <v>0.375</v>
+      </c>
+      <c r="AL14" s="29">
+        <f>T$5/200+T14/200</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AM14" s="29">
+        <f>U$5/200+U14/200</f>
+        <v>0.1</v>
+      </c>
+      <c r="AN14" s="29">
+        <f>V$5/200+V14/200</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO14" s="27" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP14" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ14">
+        <f t="shared" si="5"/>
+        <v>10.84</v>
+      </c>
+      <c r="BI14" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I15" t="s">
+    <row r="15" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="AH15" s="29">
+        <f>P$6/200+P11/200</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AI15" s="29">
+        <f>Q$6/200+Q11/200</f>
+        <v>0.35</v>
+      </c>
+      <c r="AJ15" s="29">
+        <f>R$6/200+R11/200</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="AK15" s="29">
+        <f>S$6/200+S11/200</f>
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="AL15" s="29">
+        <f>T$6/200+T11/200</f>
+        <v>0.09</v>
+      </c>
+      <c r="AM15" s="29">
+        <f>U$6/200+U11/200</f>
+        <v>0.01</v>
+      </c>
+      <c r="AN15" s="29">
+        <f>V$6/200+V11/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO15" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP15" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ15">
+        <f t="shared" si="5"/>
+        <v>8.0100000000000016</v>
+      </c>
+      <c r="BI15" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="20" t="s">
+    <row r="16" spans="2:63" x14ac:dyDescent="0.2">
+      <c r="D16" s="22" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="19"/>
-      <c r="I16" t="s">
+      <c r="AH16" s="29">
+        <f>P$6/200+P12/200</f>
+        <v>0</v>
+      </c>
+      <c r="AI16" s="29">
+        <f>Q$6/200+Q12/200</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AJ16" s="29">
+        <f>R$6/200+R12/200</f>
+        <v>0.37</v>
+      </c>
+      <c r="AK16" s="29">
+        <f>S$6/200+S12/200</f>
+        <v>0.35</v>
+      </c>
+      <c r="AL16" s="29">
+        <f>T$6/200+T12/200</f>
+        <v>9.5000000000000001E-2</v>
+      </c>
+      <c r="AM16" s="29">
+        <f>U$6/200+U12/200</f>
+        <v>0.01</v>
+      </c>
+      <c r="AN16" s="29">
+        <f>V$6/200+V12/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO16" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP16" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ16">
+        <f t="shared" si="5"/>
+        <v>8.8500000000000014</v>
+      </c>
+      <c r="BI16" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
         <v>97</v>
       </c>
@@ -7882,11 +9327,50 @@
       <c r="G17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="I17" t="s">
+      <c r="O17" s="25"/>
+      <c r="AH17" s="29">
+        <f>P$6/200+P13/200</f>
+        <v>0</v>
+      </c>
+      <c r="AI17" s="29">
+        <f>Q$6/200+Q13/200</f>
+        <v>0</v>
+      </c>
+      <c r="AJ17" s="29">
+        <f>R$6/200+R13/200</f>
+        <v>0.35</v>
+      </c>
+      <c r="AK17" s="29">
+        <f>S$6/200+S13/200</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AL17" s="29">
+        <f>T$6/200+T13/200</f>
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="AM17" s="29">
+        <f>U$6/200+U13/200</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AN17" s="29">
+        <f>V$6/200+V13/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO17" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP17" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ17">
+        <f t="shared" si="5"/>
+        <v>9.93</v>
+      </c>
+      <c r="BI17" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1</v>
       </c>
@@ -7910,11 +9394,50 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>12</v>
       </c>
-      <c r="I18" t="s">
+      <c r="O18" s="25"/>
+      <c r="AH18" s="29">
+        <f>P$6/200+P14/200</f>
+        <v>0</v>
+      </c>
+      <c r="AI18" s="29">
+        <f>Q$6/200+Q14/200</f>
+        <v>0</v>
+      </c>
+      <c r="AJ18" s="29">
+        <f>R$6/200+R14/200</f>
+        <v>0.1</v>
+      </c>
+      <c r="AK18" s="29">
+        <f>S$6/200+S14/200</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AL18" s="29">
+        <f>T$6/200+T14/200</f>
+        <v>0.24</v>
+      </c>
+      <c r="AM18" s="29">
+        <f>U$6/200+U14/200</f>
+        <v>0.105</v>
+      </c>
+      <c r="AN18" s="29">
+        <f>V$6/200+V14/200</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO18" s="27" t="s">
+        <v>124</v>
+      </c>
+      <c r="AP18" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ18">
+        <f t="shared" si="5"/>
+        <v>11.78</v>
+      </c>
+      <c r="BI18" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>2</v>
       </c>
@@ -7938,11 +9461,50 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>15</v>
       </c>
-      <c r="I19" t="s">
+      <c r="O19" s="25"/>
+      <c r="AH19" s="29">
+        <f>P$7/200+P11/200</f>
+        <v>0.16999999999999998</v>
+      </c>
+      <c r="AI19" s="29">
+        <f>Q$7/200+Q11/200</f>
+        <v>0.5</v>
+      </c>
+      <c r="AJ19" s="29">
+        <f>R$7/200+R11/200</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="AK19" s="29">
+        <f>S$7/200+S11/200</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="AL19" s="29">
+        <f>T$7/200+T11/200</f>
+        <v>0.04</v>
+      </c>
+      <c r="AM19" s="29">
+        <f>U$7/200+U11/200</f>
+        <v>0.01</v>
+      </c>
+      <c r="AN19" s="29">
+        <f>V$7/200+V11/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO19" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP19" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ19">
+        <f t="shared" si="5"/>
+        <v>6.71</v>
+      </c>
+      <c r="BI19" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>3</v>
       </c>
@@ -7966,11 +9528,50 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>18</v>
       </c>
-      <c r="I20" t="s">
+      <c r="O20" s="25"/>
+      <c r="AH20" s="29">
+        <f>P$7/200+P12/200</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AI20" s="29">
+        <f>Q$7/200+Q12/200</f>
+        <v>0.32499999999999996</v>
+      </c>
+      <c r="AJ20" s="29">
+        <f>R$7/200+R12/200</f>
+        <v>0.44500000000000001</v>
+      </c>
+      <c r="AK20" s="29">
+        <f>S$7/200+S12/200</f>
+        <v>0.1</v>
+      </c>
+      <c r="AL20" s="29">
+        <f>T$7/200+T12/200</f>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AM20" s="29">
+        <f>U$7/200+U12/200</f>
+        <v>0.01</v>
+      </c>
+      <c r="AN20" s="29">
+        <f>V$7/200+V12/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO20" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP20" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ20">
+        <f t="shared" si="5"/>
+        <v>7.55</v>
+      </c>
+      <c r="BI20" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>4</v>
       </c>
@@ -7994,11 +9595,49 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>21</v>
       </c>
-      <c r="I21" t="s">
+      <c r="AH21" s="29">
+        <f>P$7/200+P13/200</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AI21" s="29">
+        <f>Q$7/200+Q13/200</f>
+        <v>0.15</v>
+      </c>
+      <c r="AJ21" s="29">
+        <f>R$7/200+R13/200</f>
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="AK21" s="29">
+        <f>S$7/200+S13/200</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="AL21" s="29">
+        <f>T$7/200+T13/200</f>
+        <v>0.09</v>
+      </c>
+      <c r="AM21" s="29">
+        <f>U$7/200+U13/200</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AN21" s="29">
+        <f>V$7/200+V13/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO21" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP21" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ21">
+        <f t="shared" si="5"/>
+        <v>8.6300000000000008</v>
+      </c>
+      <c r="BI21" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>5</v>
       </c>
@@ -8022,11 +9661,49 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>24</v>
       </c>
-      <c r="I22" t="s">
+      <c r="AH22" s="29">
+        <f>P$7/200+P14/200</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AI22" s="29">
+        <f>Q$7/200+Q14/200</f>
+        <v>0.15</v>
+      </c>
+      <c r="AJ22" s="29">
+        <f>R$7/200+R14/200</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AK22" s="29">
+        <f>S$7/200+S14/200</f>
+        <v>0.3</v>
+      </c>
+      <c r="AL22" s="29">
+        <f>T$7/200+T14/200</f>
+        <v>0.19</v>
+      </c>
+      <c r="AM22" s="29">
+        <f>U$7/200+U14/200</f>
+        <v>0.105</v>
+      </c>
+      <c r="AN22" s="29">
+        <f>V$7/200+V14/200</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO22" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="AP22" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ22">
+        <f t="shared" si="5"/>
+        <v>10.480000000000002</v>
+      </c>
+      <c r="BI22" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>6</v>
       </c>
@@ -8050,11 +9727,49 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>27</v>
       </c>
-      <c r="I23" t="s">
+      <c r="AH23" s="29">
+        <f>P$8/200+P11/200</f>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AI23" s="29">
+        <f>Q$8/200+Q11/200</f>
+        <v>0.52499999999999991</v>
+      </c>
+      <c r="AJ23" s="29">
+        <f>R$8/200+R11/200</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AK23" s="29">
+        <f>S$8/200+S11/200</f>
+        <v>5.5E-2</v>
+      </c>
+      <c r="AL23" s="29">
+        <f>T$8/200+T11/200</f>
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="AM23" s="29">
+        <f>U$8/200+U11/200</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AN23" s="29">
+        <f>V$8/200+V11/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO23" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP23" s="27" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ23">
+        <f t="shared" si="5"/>
+        <v>6.6</v>
+      </c>
+      <c r="BI23" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>7</v>
       </c>
@@ -8078,11 +9793,49 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>30</v>
       </c>
-      <c r="I24" t="s">
+      <c r="AH24" s="29">
+        <f>P$8/200+P12/200</f>
+        <v>0.1</v>
+      </c>
+      <c r="AI24" s="29">
+        <f>Q$8/200+Q12/200</f>
+        <v>0.35</v>
+      </c>
+      <c r="AJ24" s="29">
+        <f>R$8/200+R12/200</f>
+        <v>0.39500000000000002</v>
+      </c>
+      <c r="AK24" s="29">
+        <f>S$8/200+S12/200</f>
+        <v>0.1</v>
+      </c>
+      <c r="AL24" s="29">
+        <f>T$8/200+T12/200</f>
+        <v>0.04</v>
+      </c>
+      <c r="AM24" s="29">
+        <f>U$8/200+U12/200</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="AN24" s="29">
+        <f>V$8/200+V12/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO24" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP24" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="AQ24">
+        <f t="shared" si="5"/>
+        <v>7.44</v>
+      </c>
+      <c r="BI24" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>8</v>
       </c>
@@ -8106,11 +9859,49 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>33</v>
       </c>
-      <c r="I25" t="s">
+      <c r="AH25" s="29">
+        <f>P$8/200+P13/200</f>
+        <v>0.1</v>
+      </c>
+      <c r="AI25" s="29">
+        <f>Q$8/200+Q13/200</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AJ25" s="29">
+        <f>R$8/200+R13/200</f>
+        <v>0.375</v>
+      </c>
+      <c r="AK25" s="29">
+        <f>S$8/200+S13/200</f>
+        <v>0.22499999999999998</v>
+      </c>
+      <c r="AL25" s="29">
+        <f>T$8/200+T13/200</f>
+        <v>8.5000000000000006E-2</v>
+      </c>
+      <c r="AM25" s="29">
+        <f>U$8/200+U13/200</f>
+        <v>0.04</v>
+      </c>
+      <c r="AN25" s="29">
+        <f>V$8/200+V13/200</f>
+        <v>0</v>
+      </c>
+      <c r="AO25" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP25" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="AQ25">
+        <f t="shared" si="5"/>
+        <v>8.52</v>
+      </c>
+      <c r="BI25" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>9</v>
       </c>
@@ -8134,11 +9925,49 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>36</v>
       </c>
-      <c r="I26" t="s">
+      <c r="AH26" s="29">
+        <f>P$8/200+P14/200</f>
+        <v>0.1</v>
+      </c>
+      <c r="AI26" s="29">
+        <f>Q$8/200+Q14/200</f>
+        <v>0.17499999999999999</v>
+      </c>
+      <c r="AJ26" s="29">
+        <f>R$8/200+R14/200</f>
+        <v>0.125</v>
+      </c>
+      <c r="AK26" s="29">
+        <f>S$8/200+S14/200</f>
+        <v>0.3</v>
+      </c>
+      <c r="AL26" s="29">
+        <f>T$8/200+T14/200</f>
+        <v>0.185</v>
+      </c>
+      <c r="AM26" s="29">
+        <f>U$8/200+U14/200</f>
+        <v>0.11</v>
+      </c>
+      <c r="AN26" s="29">
+        <f>V$8/200+V14/200</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO26" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP26" s="27" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ26">
+        <f t="shared" si="5"/>
+        <v>10.37</v>
+      </c>
+      <c r="BI26" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>10</v>
       </c>
@@ -8162,11 +9991,11 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>39</v>
       </c>
-      <c r="I27" t="s">
+      <c r="BI27" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>11</v>
       </c>
@@ -8190,11 +10019,11 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>42</v>
       </c>
-      <c r="I28" t="s">
+      <c r="BI28" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>12</v>
       </c>
@@ -8219,7 +10048,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>13</v>
       </c>
@@ -8244,7 +10073,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>14</v>
       </c>
@@ -8269,7 +10098,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:61" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>15</v>
       </c>
@@ -8440,6 +10269,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D561B29C098A574288915AA7FDCE85A0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="250102bec12d8b142e58c1d00b1ffd8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ee89e3b8-fbf6-4f90-a67d-b465f66f191f" xmlns:ns4="ab1f00cb-b678-48f7-aded-930f239c9527" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="440e872eed80589242d868d6c2b803d1" ns3:_="" ns4:_="">
     <xsd:import namespace="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
@@ -8642,15 +10480,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
   <ds:schemaRefs>
@@ -8669,6 +10498,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5DF0EC-50CC-41C3-B7FF-8028A891B995}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8685,12 +10522,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Liste des évolutions.xlsx
+++ b/Liste des évolutions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u049298\Desktop\PYTHON_DJANGO\projetWebRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{74B49D30-2CF4-4D57-B156-872DF15651AF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB997E6-82B1-4AE3-9DAC-104ED479E9BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -467,7 +467,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0\D"/>
+    <numFmt numFmtId="164" formatCode="0\D"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -625,9 +625,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -647,7 +644,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -7731,8 +7731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B2:BK37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="AD19" sqref="AD19"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="AD18" sqref="AD18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -7750,11 +7750,12 @@
     <col min="22" max="22" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="6.1640625" bestFit="1" customWidth="1"/>
-    <col min="26" max="29" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="27" max="29" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="13" bestFit="1" customWidth="1"/>
     <col min="31" max="31" width="10.33203125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="9.5" bestFit="1" customWidth="1"/>
-    <col min="34" max="40" width="5.1640625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="6.1640625" bestFit="1" customWidth="1"/>
+    <col min="34" max="40" width="6.1640625" bestFit="1" customWidth="1"/>
     <col min="41" max="41" width="7.5" bestFit="1" customWidth="1"/>
     <col min="42" max="42" width="10.33203125" bestFit="1" customWidth="1"/>
     <col min="43" max="43" width="6.1640625" bestFit="1" customWidth="1"/>
@@ -7767,75 +7768,75 @@
         <v>101</v>
       </c>
       <c r="E2" s="20"/>
-      <c r="I2" s="30">
+      <c r="I2" s="29">
         <v>1</v>
       </c>
-      <c r="J2" s="30">
+      <c r="J2" s="29">
         <v>2</v>
       </c>
-      <c r="K2" s="30">
+      <c r="K2" s="29">
         <v>3</v>
       </c>
-      <c r="L2" s="30">
+      <c r="L2" s="29">
         <v>4</v>
       </c>
-      <c r="M2" s="24"/>
-      <c r="P2" s="26">
+      <c r="M2" s="23"/>
+      <c r="P2" s="25">
         <v>4</v>
       </c>
-      <c r="Q2" s="26">
+      <c r="Q2" s="25">
         <v>6</v>
       </c>
-      <c r="R2" s="26">
+      <c r="R2" s="25">
         <v>8</v>
       </c>
-      <c r="S2" s="26">
+      <c r="S2" s="25">
         <v>10</v>
       </c>
-      <c r="T2" s="26">
+      <c r="T2" s="25">
         <v>12</v>
       </c>
-      <c r="U2" s="26">
+      <c r="U2" s="25">
         <v>20</v>
       </c>
-      <c r="V2" s="26">
+      <c r="V2" s="25">
         <v>100</v>
       </c>
-      <c r="W2" s="24"/>
-      <c r="Z2" s="26">
+      <c r="W2" s="23"/>
+      <c r="Z2" s="25">
         <v>1</v>
       </c>
-      <c r="AA2" s="26">
+      <c r="AA2" s="25">
         <v>2</v>
       </c>
-      <c r="AB2" s="26">
+      <c r="AB2" s="25">
         <v>3</v>
       </c>
-      <c r="AC2" s="26">
+      <c r="AC2" s="25">
         <v>4</v>
       </c>
-      <c r="AH2" s="26">
+      <c r="AH2" s="25">
         <v>4</v>
       </c>
-      <c r="AI2" s="26">
+      <c r="AI2" s="25">
         <v>6</v>
       </c>
-      <c r="AJ2" s="26">
+      <c r="AJ2" s="25">
         <v>8</v>
       </c>
-      <c r="AK2" s="26">
+      <c r="AK2" s="25">
         <v>10</v>
       </c>
-      <c r="AL2" s="26">
+      <c r="AL2" s="25">
         <v>12</v>
       </c>
-      <c r="AM2" s="26">
+      <c r="AM2" s="25">
         <v>20</v>
       </c>
-      <c r="AN2" s="26">
+      <c r="AN2" s="25">
         <v>100</v>
       </c>
-      <c r="AO2" s="24"/>
+      <c r="AO2" s="23"/>
     </row>
     <row r="3" spans="2:63" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
@@ -7847,111 +7848,111 @@
       <c r="E3" s="21" t="s">
         <v>136</v>
       </c>
-      <c r="I3" s="26">
+      <c r="I3" s="25">
         <v>80</v>
       </c>
-      <c r="J3" s="26">
+      <c r="J3" s="25">
         <v>19</v>
       </c>
-      <c r="K3" s="26">
+      <c r="K3" s="25">
         <v>1</v>
       </c>
-      <c r="L3" s="26">
+      <c r="L3" s="25">
         <v>0</v>
       </c>
-      <c r="M3" s="27" t="s">
+      <c r="M3" s="26" t="s">
         <v>90</v>
       </c>
       <c r="N3">
         <f>($I$2*I3+$J$2*J3+$K$2*K3+$L$2*L3)/SUM(I3:L3)</f>
         <v>1.21</v>
       </c>
-      <c r="P3" s="26">
+      <c r="P3" s="25">
         <v>60</v>
       </c>
-      <c r="Q3" s="26">
+      <c r="Q3" s="25">
         <v>25</v>
       </c>
-      <c r="R3" s="26">
+      <c r="R3" s="25">
         <v>10</v>
       </c>
-      <c r="S3" s="26">
+      <c r="S3" s="25">
         <v>5</v>
       </c>
-      <c r="T3" s="26">
+      <c r="T3" s="25">
         <v>0</v>
       </c>
-      <c r="U3" s="26">
+      <c r="U3" s="25">
         <v>0</v>
       </c>
-      <c r="V3" s="26">
+      <c r="V3" s="25">
         <v>0</v>
       </c>
-      <c r="W3" s="27" t="s">
+      <c r="W3" s="26" t="s">
         <v>108</v>
       </c>
       <c r="X3">
         <f>(P3*$P$2+Q3*$Q$2+R3*$R$2+S3*$S$2+T3*$T$2+U3*$U$2+V3*$V$2)/SUM(P3:V3)</f>
         <v>5.2</v>
       </c>
-      <c r="Z3" s="29">
-        <f>I9/200+I3/200</f>
-        <v>0.85000000000000009</v>
-      </c>
-      <c r="AA3" s="29">
-        <f t="shared" ref="AA3:AC3" si="0">J9/200+J3/200</f>
-        <v>0.14500000000000002</v>
-      </c>
-      <c r="AB3" s="29">
+      <c r="Z3" s="28">
+        <f>(I$9+I3)/200</f>
+        <v>0.85</v>
+      </c>
+      <c r="AA3" s="28">
+        <f t="shared" ref="AA3:AC6" si="0">(J$9+J3)/200</f>
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="AB3" s="28">
         <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AC3" s="29">
+      <c r="AC3" s="28">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD3" s="27" t="s">
+      <c r="AD3" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="AE3" s="27" t="s">
+      <c r="AE3" s="26" t="s">
         <v>90</v>
       </c>
       <c r="AF3">
         <f>($Z$2*Z3+$AA$2*AA3+$AB$2*AB3+$AC$2*AC3)/SUM(Z3:AC3)</f>
-        <v>1.155</v>
-      </c>
-      <c r="AH3" s="29">
-        <f>P3/200+P11/200</f>
+        <v>1.1549999999999998</v>
+      </c>
+      <c r="AH3" s="28">
+        <f>(P$3+P11)/200</f>
         <v>0.39500000000000002</v>
       </c>
-      <c r="AI3" s="29">
-        <f>Q3/200+Q11/200</f>
+      <c r="AI3" s="28">
+        <f>(Q3+Q$11)/200</f>
         <v>0.47499999999999998</v>
       </c>
-      <c r="AJ3" s="29">
-        <f>R3/200+R11/200</f>
+      <c r="AJ3" s="28">
+        <f t="shared" ref="AI3:AN3" si="1">(R3+R$11)/200</f>
         <v>0.1</v>
       </c>
-      <c r="AK3" s="29">
-        <f>S3/200+S11/200</f>
-        <v>3.0000000000000002E-2</v>
-      </c>
-      <c r="AL3" s="29">
-        <f>T3/200+T11/200</f>
+      <c r="AK3" s="28">
+        <f t="shared" si="1"/>
+        <v>0.03</v>
+      </c>
+      <c r="AL3" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AM3" s="29">
-        <f>U3/200+U11/200</f>
+      <c r="AM3" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AN3" s="29">
-        <f>V3/200+V11/200</f>
+      <c r="AN3" s="28">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="AO3" s="27" t="s">
+      <c r="AO3" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AP3" s="27" t="s">
+      <c r="AP3" s="26" t="s">
         <v>90</v>
       </c>
       <c r="AQ3">
@@ -7975,115 +7976,115 @@
       <c r="E4" s="20" t="s">
         <v>137</v>
       </c>
-      <c r="I4" s="26">
+      <c r="I4" s="25">
         <v>70</v>
       </c>
-      <c r="J4" s="26">
+      <c r="J4" s="25">
         <v>28</v>
       </c>
-      <c r="K4" s="26">
+      <c r="K4" s="25">
         <v>2</v>
       </c>
-      <c r="L4" s="26">
+      <c r="L4" s="25">
         <v>0</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="26" t="s">
         <v>91</v>
       </c>
       <c r="N4">
-        <f t="shared" ref="N4:N6" si="1">($I$2*I4+$J$2*J4+$K$2*K4+$L$2*L4)/SUM(I4:L4)</f>
+        <f t="shared" ref="N4:N6" si="2">($I$2*I4+$J$2*J4+$K$2*K4+$L$2*L4)/SUM(I4:L4)</f>
         <v>1.32</v>
       </c>
-      <c r="P4" s="26">
+      <c r="P4" s="25">
         <v>0</v>
       </c>
-      <c r="Q4" s="26">
+      <c r="Q4" s="25">
         <v>20</v>
       </c>
-      <c r="R4" s="26">
+      <c r="R4" s="25">
         <v>50</v>
       </c>
-      <c r="S4" s="26">
+      <c r="S4" s="25">
         <v>20</v>
       </c>
-      <c r="T4" s="26">
+      <c r="T4" s="25">
         <v>9</v>
       </c>
-      <c r="U4" s="26">
+      <c r="U4" s="25">
         <v>1</v>
       </c>
-      <c r="V4" s="26">
+      <c r="V4" s="25">
         <v>0</v>
       </c>
-      <c r="W4" s="27" t="s">
+      <c r="W4" s="26" t="s">
         <v>141</v>
       </c>
       <c r="X4">
-        <f t="shared" ref="X4:X8" si="2">(P4*$P$2+Q4*$Q$2+R4*$R$2+S4*$S$2+T4*$T$2+U4*$U$2+V4*$V$2)/SUM(P4:V4)</f>
+        <f t="shared" ref="X4:X8" si="3">(P4*$P$2+Q4*$Q$2+R4*$R$2+S4*$S$2+T4*$T$2+U4*$U$2+V4*$V$2)/SUM(P4:V4)</f>
         <v>8.48</v>
       </c>
-      <c r="Z4" s="29">
-        <f>I9/200+I4/200</f>
+      <c r="Z4" s="28">
+        <f t="shared" ref="Z4:Z6" si="4">(I$9+I4)/200</f>
         <v>0.8</v>
       </c>
-      <c r="AA4" s="29">
-        <f t="shared" ref="AA4:AC4" si="3">J9/200+J4/200</f>
+      <c r="AA4" s="28">
+        <f t="shared" si="0"/>
         <v>0.19</v>
       </c>
-      <c r="AB4" s="29">
-        <f t="shared" si="3"/>
+      <c r="AB4" s="28">
+        <f t="shared" si="0"/>
         <v>0.01</v>
       </c>
-      <c r="AC4" s="29">
-        <f t="shared" si="3"/>
+      <c r="AC4" s="28">
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="AD4" s="27" t="s">
+      <c r="AD4" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="AE4" s="27" t="s">
+      <c r="AE4" s="26" t="s">
         <v>91</v>
       </c>
       <c r="AF4">
-        <f t="shared" ref="AF4:AF14" si="4">($Z$2*Z4+$AA$2*AA4+$AB$2*AB4+$AC$2*AC4)/SUM(Z4:AC4)</f>
+        <f t="shared" ref="AF4:AF14" si="5">($Z$2*Z4+$AA$2*AA4+$AB$2*AB4+$AC$2*AC4)/SUM(Z4:AC4)</f>
         <v>1.2100000000000002</v>
       </c>
-      <c r="AH4" s="29">
-        <f>P3/200+P12/200</f>
+      <c r="AH4" s="28">
+        <f t="shared" ref="AH4:AH6" si="6">(P$3+P12)/200</f>
         <v>0.3</v>
       </c>
-      <c r="AI4" s="29">
-        <f>Q3/200+Q12/200</f>
+      <c r="AI4" s="28">
+        <f t="shared" ref="AI4:AI5" si="7">(Q$3+Q12)/200</f>
         <v>0.3</v>
       </c>
-      <c r="AJ4" s="29">
-        <f>R3/200+R12/200</f>
+      <c r="AJ4" s="28">
+        <f t="shared" ref="AJ4:AJ5" si="8">(R$3+R12)/200</f>
         <v>0.32</v>
       </c>
-      <c r="AK4" s="29">
-        <f>S3/200+S12/200</f>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="AL4" s="29">
-        <f>T3/200+T12/200</f>
+      <c r="AK4" s="28">
+        <f t="shared" ref="AK4:AK5" si="9">(S$3+S12)/200</f>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AL4" s="28">
+        <f t="shared" ref="AL4:AL5" si="10">(T$3+T12)/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AM4" s="29">
-        <f>U3/200+U12/200</f>
+      <c r="AM4" s="28">
+        <f t="shared" ref="AM4:AM5" si="11">(U$3+U12)/200</f>
         <v>0</v>
       </c>
-      <c r="AN4" s="29">
-        <f>V3/200+V12/200</f>
+      <c r="AN4" s="28">
+        <f t="shared" ref="AN4:AN5" si="12">(V$3+V12)/200</f>
         <v>0</v>
       </c>
-      <c r="AO4" s="27" t="s">
+      <c r="AO4" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AP4" s="27" t="s">
+      <c r="AP4" s="26" t="s">
         <v>91</v>
       </c>
       <c r="AQ4">
-        <f t="shared" ref="AQ4:AQ26" si="5">($AH$2*AH4+$AI$2*AI4+$AJ$2*AJ4+$AK$2*AK4+$AL$2*AL4+$AM$2*AM4+$AN$2*AN4)/SUM(AH4:AN4)</f>
+        <f t="shared" ref="AQ4:AQ26" si="13">($AH$2*AH4+$AI$2*AI4+$AJ$2*AJ4+$AK$2*AK4+$AL$2*AL4+$AM$2*AM4+$AN$2*AN4)/SUM(AH4:AN4)</f>
         <v>6.370000000000001</v>
       </c>
       <c r="BI4" t="s">
@@ -8103,115 +8104,115 @@
       <c r="E5" s="20" t="s">
         <v>134</v>
       </c>
-      <c r="I5" s="26">
+      <c r="I5" s="25">
         <v>50</v>
       </c>
-      <c r="J5" s="26">
+      <c r="J5" s="25">
         <v>39</v>
       </c>
-      <c r="K5" s="26">
+      <c r="K5" s="25">
         <v>10</v>
       </c>
-      <c r="L5" s="26">
+      <c r="L5" s="25">
         <v>1</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="26" t="s">
         <v>92</v>
       </c>
       <c r="N5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.62</v>
       </c>
-      <c r="P5" s="26">
+      <c r="P5" s="25">
         <v>5</v>
       </c>
-      <c r="Q5" s="26">
+      <c r="Q5" s="25">
         <v>25</v>
       </c>
-      <c r="R5" s="26">
+      <c r="R5" s="25">
         <v>35</v>
       </c>
-      <c r="S5" s="26">
+      <c r="S5" s="25">
         <v>25</v>
       </c>
-      <c r="T5" s="26">
+      <c r="T5" s="25">
         <v>9</v>
       </c>
-      <c r="U5" s="26">
+      <c r="U5" s="25">
         <v>1</v>
       </c>
-      <c r="V5" s="26">
+      <c r="V5" s="25">
         <v>0</v>
       </c>
-      <c r="W5" s="27" t="s">
+      <c r="W5" s="26" t="s">
         <v>103</v>
       </c>
       <c r="X5">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>8.2799999999999994</v>
       </c>
-      <c r="Z5" s="29">
-        <f>I9/200+I5/200</f>
+      <c r="Z5" s="28">
+        <f t="shared" si="4"/>
         <v>0.7</v>
       </c>
-      <c r="AA5" s="29">
-        <f t="shared" ref="AA5:AC5" si="6">J9/200+J5/200</f>
+      <c r="AA5" s="28">
+        <f t="shared" si="0"/>
         <v>0.245</v>
       </c>
-      <c r="AB5" s="29">
-        <f t="shared" si="6"/>
+      <c r="AB5" s="28">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AC5" s="29">
-        <f t="shared" si="6"/>
+      <c r="AC5" s="28">
+        <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AD5" s="27" t="s">
+      <c r="AD5" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="AE5" s="27" t="s">
+      <c r="AE5" s="26" t="s">
         <v>92</v>
       </c>
       <c r="AF5">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.3599999999999999</v>
       </c>
-      <c r="AH5" s="29">
-        <f>P3/200+P13/200</f>
+      <c r="AH5" s="28">
+        <f>(P$3+P13)/200</f>
         <v>0.3</v>
       </c>
-      <c r="AI5" s="29">
-        <f>Q3/200+Q13/200</f>
+      <c r="AI5" s="28">
+        <f>(Q$3+Q13)/200</f>
         <v>0.125</v>
       </c>
-      <c r="AJ5" s="29">
-        <f>R3/200+R13/200</f>
+      <c r="AJ5" s="28">
+        <f t="shared" si="8"/>
         <v>0.3</v>
       </c>
-      <c r="AK5" s="29">
-        <f>S3/200+S13/200</f>
-        <v>0.19999999999999998</v>
-      </c>
-      <c r="AL5" s="29">
-        <f>T3/200+T13/200</f>
+      <c r="AK5" s="28">
+        <f t="shared" si="9"/>
+        <v>0.2</v>
+      </c>
+      <c r="AL5" s="28">
+        <f t="shared" si="10"/>
         <v>0.05</v>
       </c>
-      <c r="AM5" s="29">
-        <f>U3/200+U13/200</f>
+      <c r="AM5" s="28">
+        <f t="shared" si="11"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AN5" s="29">
-        <f>V3/200+V13/200</f>
+      <c r="AN5" s="28">
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AO5" s="27" t="s">
+      <c r="AO5" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AP5" s="27" t="s">
+      <c r="AP5" s="26" t="s">
         <v>92</v>
       </c>
       <c r="AQ5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>7.4499999999999993</v>
       </c>
       <c r="BI5" t="s">
@@ -8231,115 +8232,115 @@
       <c r="E6" s="20" t="s">
         <v>135</v>
       </c>
-      <c r="I6" s="26">
+      <c r="I6" s="25">
         <v>0</v>
       </c>
-      <c r="J6" s="26">
+      <c r="J6" s="25">
         <v>60</v>
       </c>
-      <c r="K6" s="26">
+      <c r="K6" s="25">
         <v>30</v>
       </c>
-      <c r="L6" s="26">
+      <c r="L6" s="25">
         <v>10</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="26" t="s">
         <v>99</v>
       </c>
       <c r="N6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5</v>
       </c>
-      <c r="P6" s="26">
+      <c r="P6" s="25">
         <v>0</v>
       </c>
-      <c r="Q6" s="26">
+      <c r="Q6" s="25">
         <v>0</v>
       </c>
-      <c r="R6" s="26">
+      <c r="R6" s="25">
         <v>20</v>
       </c>
-      <c r="S6" s="26">
+      <c r="S6" s="25">
         <v>60</v>
       </c>
-      <c r="T6" s="26">
+      <c r="T6" s="25">
         <v>18</v>
       </c>
-      <c r="U6" s="26">
+      <c r="U6" s="25">
         <v>2</v>
       </c>
-      <c r="V6" s="26">
+      <c r="V6" s="25">
         <v>0</v>
       </c>
-      <c r="W6" s="27" t="s">
+      <c r="W6" s="26" t="s">
         <v>124</v>
       </c>
       <c r="X6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>10.16</v>
       </c>
-      <c r="Z6" s="29">
-        <f>I9/200+I6/200</f>
+      <c r="Z6" s="28">
+        <f t="shared" si="4"/>
         <v>0.45</v>
       </c>
-      <c r="AA6" s="29">
-        <f t="shared" ref="AA6:AC6" si="7">J9/200+J6/200</f>
+      <c r="AA6" s="28">
+        <f t="shared" si="0"/>
         <v>0.35</v>
       </c>
-      <c r="AB6" s="29">
-        <f t="shared" si="7"/>
+      <c r="AB6" s="28">
+        <f t="shared" si="0"/>
         <v>0.15</v>
       </c>
-      <c r="AC6" s="29">
-        <f t="shared" si="7"/>
+      <c r="AC6" s="28">
+        <f t="shared" si="0"/>
         <v>0.05</v>
       </c>
-      <c r="AD6" s="27" t="s">
+      <c r="AD6" s="26" t="s">
         <v>138</v>
       </c>
-      <c r="AE6" s="27" t="s">
+      <c r="AE6" s="26" t="s">
         <v>99</v>
       </c>
       <c r="AF6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.7999999999999998</v>
       </c>
-      <c r="AH6" s="29">
-        <f>P3/200+P14/200</f>
+      <c r="AH6" s="28">
+        <f>(P$3+P14)/200</f>
         <v>0.3</v>
       </c>
-      <c r="AI6" s="29">
-        <f>Q3/200+Q14/200</f>
+      <c r="AI6" s="28">
+        <f>(Q$3+Q14)/200</f>
         <v>0.125</v>
       </c>
-      <c r="AJ6" s="29">
-        <f>R3/200+R14/200</f>
+      <c r="AJ6" s="28">
+        <f>(R$3+R14)/200</f>
         <v>0.05</v>
       </c>
-      <c r="AK6" s="29">
-        <f>S3/200+S14/200</f>
+      <c r="AK6" s="28">
+        <f>(S$3+S14)/200</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="AL6" s="29">
-        <f>T3/200+T14/200</f>
+      <c r="AL6" s="28">
+        <f>(T$3+T14)/200</f>
         <v>0.15</v>
       </c>
-      <c r="AM6" s="29">
-        <f>U3/200+U14/200</f>
+      <c r="AM6" s="28">
+        <f>(U$3+U14)/200</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="AN6" s="29">
-        <f>V3/200+V14/200</f>
+      <c r="AN6" s="28">
+        <f>(V$3+V14)/200</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AO6" s="27" t="s">
+      <c r="AO6" s="26" t="s">
         <v>108</v>
       </c>
-      <c r="AP6" s="27" t="s">
+      <c r="AP6" s="26" t="s">
         <v>99</v>
       </c>
       <c r="AQ6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>9.2999999999999989</v>
       </c>
       <c r="BI6" t="s">
@@ -8357,97 +8358,97 @@
         <v>6</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="P7" s="26">
+      <c r="P7" s="25">
         <v>15</v>
       </c>
-      <c r="Q7" s="26">
+      <c r="Q7" s="25">
         <v>30</v>
       </c>
-      <c r="R7" s="26">
+      <c r="R7" s="25">
         <v>35</v>
       </c>
-      <c r="S7" s="26">
+      <c r="S7" s="25">
         <v>10</v>
       </c>
-      <c r="T7" s="26">
+      <c r="T7" s="25">
         <v>8</v>
       </c>
-      <c r="U7" s="26">
+      <c r="U7" s="25">
         <v>2</v>
       </c>
-      <c r="V7" s="26">
+      <c r="V7" s="25">
         <v>0</v>
       </c>
-      <c r="W7" s="28" t="s">
+      <c r="W7" s="27" t="s">
         <v>117</v>
       </c>
       <c r="X7">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.56</v>
       </c>
-      <c r="Z7" s="29">
-        <f>I10/200+I3/200</f>
-        <v>0.44</v>
-      </c>
-      <c r="AA7" s="29">
-        <f t="shared" ref="AA7:AC7" si="8">J10/200+J3/200</f>
-        <v>0.54500000000000004</v>
-      </c>
-      <c r="AB7" s="29">
-        <f t="shared" si="8"/>
+      <c r="Z7" s="28">
+        <f>(I$10+I3)/200</f>
+        <v>0.5</v>
+      </c>
+      <c r="AA7" s="28">
+        <f t="shared" ref="AA7:AC10" si="14">(J$10+J3)/200</f>
+        <v>0.48499999999999999</v>
+      </c>
+      <c r="AB7" s="28">
+        <f t="shared" si="14"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AC7" s="29">
-        <f t="shared" si="8"/>
+      <c r="AC7" s="28">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD7" s="27" t="s">
+      <c r="AD7" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="AE7" s="27" t="s">
+      <c r="AE7" s="26" t="s">
         <v>90</v>
       </c>
       <c r="AF7">
-        <f t="shared" si="4"/>
-        <v>1.575</v>
-      </c>
-      <c r="AH7" s="29">
-        <f>P$4/200+P11/200</f>
+        <f t="shared" si="5"/>
+        <v>1.5149999999999999</v>
+      </c>
+      <c r="AH7" s="28">
+        <f>(P$4+P11)/200</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="AI7" s="29">
-        <f>Q$4/200+Q11/200</f>
-        <v>0.44999999999999996</v>
-      </c>
-      <c r="AJ7" s="29">
-        <f>R$4/200+R11/200</f>
+      <c r="AI7" s="28">
+        <f t="shared" ref="AI7:AN7" si="15">(Q$4+Q11)/200</f>
+        <v>0.45</v>
+      </c>
+      <c r="AJ7" s="28">
+        <f t="shared" si="15"/>
         <v>0.3</v>
       </c>
-      <c r="AK7" s="29">
-        <f>S$4/200+S11/200</f>
-        <v>0.10500000000000001</v>
-      </c>
-      <c r="AL7" s="29">
-        <f>T$4/200+T11/200</f>
+      <c r="AK7" s="28">
+        <f t="shared" si="15"/>
+        <v>0.105</v>
+      </c>
+      <c r="AL7" s="28">
+        <f t="shared" si="15"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AM7" s="29">
-        <f>U$4/200+U11/200</f>
+      <c r="AM7" s="28">
+        <f t="shared" si="15"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AN7" s="29">
-        <f>V$4/200+V11/200</f>
+      <c r="AN7" s="28">
+        <f t="shared" si="15"/>
         <v>0</v>
       </c>
-      <c r="AO7" s="27" t="s">
+      <c r="AO7" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="AP7" s="27" t="s">
+      <c r="AP7" s="26" t="s">
         <v>90</v>
       </c>
       <c r="AQ7">
-        <f t="shared" si="5"/>
-        <v>7.169999999999999</v>
+        <f t="shared" si="13"/>
+        <v>7.17</v>
       </c>
       <c r="BI7" t="s">
         <v>106</v>
@@ -8458,109 +8459,109 @@
     </row>
     <row r="8" spans="2:63" x14ac:dyDescent="0.2">
       <c r="E8" s="20"/>
-      <c r="I8" s="30">
+      <c r="I8" s="29">
         <v>1</v>
       </c>
-      <c r="J8" s="30">
+      <c r="J8" s="29">
         <v>2</v>
       </c>
-      <c r="K8" s="30">
+      <c r="K8" s="29">
         <v>3</v>
       </c>
-      <c r="L8" s="30">
+      <c r="L8" s="29">
         <v>4</v>
       </c>
-      <c r="M8" s="24"/>
-      <c r="P8" s="26">
+      <c r="M8" s="23"/>
+      <c r="P8" s="25">
         <v>20</v>
       </c>
-      <c r="Q8" s="26">
+      <c r="Q8" s="25">
         <v>35</v>
       </c>
-      <c r="R8" s="26">
+      <c r="R8" s="25">
         <v>25</v>
       </c>
-      <c r="S8" s="26">
+      <c r="S8" s="25">
         <v>10</v>
       </c>
-      <c r="T8" s="26">
+      <c r="T8" s="25">
         <v>7</v>
       </c>
-      <c r="U8" s="26">
+      <c r="U8" s="25">
         <v>3</v>
       </c>
-      <c r="V8" s="26">
+      <c r="V8" s="25">
         <v>0</v>
       </c>
-      <c r="W8" s="28" t="s">
+      <c r="W8" s="27" t="s">
         <v>106</v>
       </c>
       <c r="X8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>7.34</v>
       </c>
-      <c r="Z8" s="29">
-        <f>I10/200+I4/200</f>
-        <v>0.38999999999999996</v>
-      </c>
-      <c r="AA8" s="29">
-        <f t="shared" ref="AA8:AC8" si="9">J10/200+J4/200</f>
-        <v>0.59000000000000008</v>
-      </c>
-      <c r="AB8" s="29">
-        <f t="shared" si="9"/>
+      <c r="Z8" s="28">
+        <f t="shared" ref="Z8:Z10" si="16">(I$10+I4)/200</f>
+        <v>0.45</v>
+      </c>
+      <c r="AA8" s="28">
+        <f t="shared" si="14"/>
+        <v>0.53</v>
+      </c>
+      <c r="AB8" s="28">
+        <f t="shared" si="14"/>
         <v>0.02</v>
       </c>
-      <c r="AC8" s="29">
-        <f t="shared" si="9"/>
+      <c r="AC8" s="28">
+        <f t="shared" si="14"/>
         <v>0</v>
       </c>
-      <c r="AD8" s="27" t="s">
+      <c r="AD8" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="AE8" s="27" t="s">
+      <c r="AE8" s="26" t="s">
         <v>91</v>
       </c>
       <c r="AF8">
-        <f t="shared" si="4"/>
-        <v>1.6300000000000001</v>
-      </c>
-      <c r="AH8" s="29">
-        <f>P$4/200+P12/200</f>
+        <f t="shared" si="5"/>
+        <v>1.57</v>
+      </c>
+      <c r="AH8" s="28">
+        <f>(P$4+P12)/200</f>
         <v>0</v>
       </c>
-      <c r="AI8" s="29">
-        <f>Q$4/200+Q12/200</f>
+      <c r="AI8" s="28">
+        <f t="shared" ref="AI8:AN10" si="17">(Q$4+Q12)/200</f>
         <v>0.27500000000000002</v>
       </c>
-      <c r="AJ8" s="29">
-        <f>R$4/200+R12/200</f>
+      <c r="AJ8" s="28">
+        <f t="shared" si="17"/>
         <v>0.52</v>
       </c>
-      <c r="AK8" s="29">
-        <f>S$4/200+S12/200</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="AL8" s="29">
-        <f>T$4/200+T12/200</f>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="AM8" s="29">
-        <f>U$4/200+U12/200</f>
+      <c r="AK8" s="28">
+        <f t="shared" si="17"/>
+        <v>0.15</v>
+      </c>
+      <c r="AL8" s="28">
+        <f t="shared" si="17"/>
+        <v>0.05</v>
+      </c>
+      <c r="AM8" s="28">
+        <f t="shared" si="17"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AN8" s="29">
-        <f>V$4/200+V12/200</f>
+      <c r="AN8" s="28">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO8" s="27" t="s">
+      <c r="AO8" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="AP8" s="27" t="s">
+      <c r="AP8" s="26" t="s">
         <v>91</v>
       </c>
       <c r="AQ8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>8.01</v>
       </c>
       <c r="BI8" t="s">
@@ -8575,87 +8576,87 @@
         <v>94</v>
       </c>
       <c r="E9" s="20"/>
-      <c r="I9" s="26">
+      <c r="I9" s="25">
         <v>90</v>
       </c>
-      <c r="J9" s="26">
+      <c r="J9" s="25">
         <v>10</v>
       </c>
-      <c r="K9" s="26">
+      <c r="K9" s="25">
         <v>0</v>
       </c>
-      <c r="L9" s="26">
+      <c r="L9" s="25">
         <v>0</v>
       </c>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="26" t="s">
         <v>138</v>
       </c>
       <c r="N9">
         <f>($I$2*I9+$J$2*J9+$K$2*K9+$L$2*L9)/SUM(I9:L9)</f>
         <v>1.1000000000000001</v>
       </c>
-      <c r="Z9" s="29">
-        <f>I10/200+I5/200</f>
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="AA9" s="29">
-        <f t="shared" ref="AA9:AC9" si="10">J10/200+J5/200</f>
-        <v>0.64500000000000002</v>
-      </c>
-      <c r="AB9" s="29">
-        <f t="shared" si="10"/>
-        <v>6.0000000000000005E-2</v>
-      </c>
-      <c r="AC9" s="29">
-        <f t="shared" si="10"/>
+      <c r="Z9" s="28">
+        <f t="shared" si="16"/>
+        <v>0.35</v>
+      </c>
+      <c r="AA9" s="28">
+        <f t="shared" si="14"/>
+        <v>0.58499999999999996</v>
+      </c>
+      <c r="AB9" s="28">
+        <f t="shared" si="14"/>
+        <v>0.06</v>
+      </c>
+      <c r="AC9" s="28">
+        <f t="shared" si="14"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AD9" s="27" t="s">
+      <c r="AD9" s="26" t="s">
         <v>139</v>
       </c>
-      <c r="AE9" s="27" t="s">
+      <c r="AE9" s="26" t="s">
         <v>92</v>
       </c>
       <c r="AF9">
-        <f t="shared" si="4"/>
-        <v>1.78</v>
-      </c>
-      <c r="AH9" s="29">
-        <f>P$4/200+P13/200</f>
+        <f t="shared" si="5"/>
+        <v>1.7200000000000002</v>
+      </c>
+      <c r="AH9" s="28">
+        <f t="shared" ref="AH8:AH10" si="18">(P$4+P13)/200</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="29">
-        <f>Q$4/200+Q13/200</f>
+      <c r="AI9" s="28">
+        <f t="shared" si="17"/>
         <v>0.1</v>
       </c>
-      <c r="AJ9" s="29">
-        <f>R$4/200+R13/200</f>
+      <c r="AJ9" s="28">
+        <f t="shared" si="17"/>
         <v>0.5</v>
       </c>
-      <c r="AK9" s="29">
-        <f>S$4/200+S13/200</f>
+      <c r="AK9" s="28">
+        <f t="shared" si="17"/>
         <v>0.27500000000000002</v>
       </c>
-      <c r="AL9" s="29">
-        <f>T$4/200+T13/200</f>
+      <c r="AL9" s="28">
+        <f t="shared" si="17"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="AM9" s="29">
-        <f>U$4/200+U13/200</f>
-        <v>3.0000000000000002E-2</v>
-      </c>
-      <c r="AN9" s="29">
-        <f>V$4/200+V13/200</f>
+      <c r="AM9" s="28">
+        <f t="shared" si="17"/>
+        <v>0.03</v>
+      </c>
+      <c r="AN9" s="28">
+        <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="AO9" s="27" t="s">
+      <c r="AO9" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="AP9" s="27" t="s">
+      <c r="AP9" s="26" t="s">
         <v>92</v>
       </c>
       <c r="AQ9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>9.09</v>
       </c>
       <c r="BI9" t="s">
@@ -8670,108 +8671,108 @@
         <v>96</v>
       </c>
       <c r="E10" s="20"/>
-      <c r="I10" s="26">
+      <c r="I10" s="25">
+        <v>20</v>
+      </c>
+      <c r="J10" s="25">
+        <v>78</v>
+      </c>
+      <c r="K10" s="25">
+        <v>2</v>
+      </c>
+      <c r="L10" s="25">
+        <v>0</v>
+      </c>
+      <c r="M10" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N11" si="19">($I$2*I10+$J$2*J10+$K$2*K10+$L$2*L10)/SUM(I10:L10)</f>
+        <v>1.82</v>
+      </c>
+      <c r="P10" s="25">
+        <v>4</v>
+      </c>
+      <c r="Q10" s="25">
+        <v>6</v>
+      </c>
+      <c r="R10" s="25">
         <v>8</v>
       </c>
-      <c r="J10" s="26">
-        <v>90</v>
-      </c>
-      <c r="K10" s="26">
-        <v>2</v>
-      </c>
-      <c r="L10" s="26">
+      <c r="S10" s="25">
+        <v>10</v>
+      </c>
+      <c r="T10" s="25">
+        <v>12</v>
+      </c>
+      <c r="U10" s="25">
+        <v>20</v>
+      </c>
+      <c r="V10" s="25">
+        <v>100</v>
+      </c>
+      <c r="Z10" s="28">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="AA10" s="28">
+        <f>(J$10+J6)/200 +Z10</f>
+        <v>0.78999999999999992</v>
+      </c>
+      <c r="AB10" s="28">
+        <f t="shared" ref="AB10:AC10" si="20">(K$10+K6)/200 +AA10</f>
+        <v>0.95</v>
+      </c>
+      <c r="AC10" s="28">
+        <f t="shared" si="20"/>
+        <v>1</v>
+      </c>
+      <c r="AD10" s="26" t="s">
+        <v>139</v>
+      </c>
+      <c r="AE10" s="26" t="s">
+        <v>99</v>
+      </c>
+      <c r="AF10">
+        <f t="shared" si="5"/>
+        <v>3.0035211267605635</v>
+      </c>
+      <c r="AH10" s="28">
+        <f t="shared" si="18"/>
         <v>0</v>
       </c>
-      <c r="M10" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="N10">
-        <f t="shared" ref="N10:N12" si="11">($I$2*I10+$J$2*J10+$K$2*K10+$L$2*L10)/SUM(I10:L10)</f>
-        <v>1.94</v>
-      </c>
-      <c r="P10" s="26">
-        <v>4</v>
-      </c>
-      <c r="Q10" s="26">
-        <v>6</v>
-      </c>
-      <c r="R10" s="26">
-        <v>8</v>
-      </c>
-      <c r="S10" s="26">
-        <v>10</v>
-      </c>
-      <c r="T10" s="26">
-        <v>12</v>
-      </c>
-      <c r="U10" s="26">
-        <v>20</v>
-      </c>
-      <c r="V10" s="26">
-        <v>100</v>
-      </c>
-      <c r="Z10" s="29">
-        <f>I10/200+I6/200</f>
-        <v>0.04</v>
-      </c>
-      <c r="AA10" s="29">
-        <f t="shared" ref="AA10:AC10" si="12">J10/200+J6/200</f>
-        <v>0.75</v>
-      </c>
-      <c r="AB10" s="29">
-        <f t="shared" si="12"/>
-        <v>0.16</v>
-      </c>
-      <c r="AC10" s="29">
-        <f t="shared" si="12"/>
-        <v>0.05</v>
-      </c>
-      <c r="AD10" s="27" t="s">
-        <v>139</v>
-      </c>
-      <c r="AE10" s="27" t="s">
+      <c r="AI10" s="28">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+      <c r="AJ10" s="28">
+        <f t="shared" si="17"/>
+        <v>0.25</v>
+      </c>
+      <c r="AK10" s="28">
+        <f t="shared" si="17"/>
+        <v>0.35</v>
+      </c>
+      <c r="AL10" s="28">
+        <f t="shared" si="17"/>
+        <v>0.19500000000000001</v>
+      </c>
+      <c r="AM10" s="28">
+        <f t="shared" si="17"/>
+        <v>0.1</v>
+      </c>
+      <c r="AN10" s="28">
+        <f t="shared" si="17"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AO10" s="26" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP10" s="26" t="s">
         <v>99</v>
       </c>
-      <c r="AF10">
-        <f t="shared" si="4"/>
-        <v>2.2200000000000002</v>
-      </c>
-      <c r="AH10" s="29">
-        <f>P$4/200+P14/200</f>
-        <v>0</v>
-      </c>
-      <c r="AI10" s="29">
-        <f>Q$4/200+Q14/200</f>
-        <v>0.1</v>
-      </c>
-      <c r="AJ10" s="29">
-        <f>R$4/200+R14/200</f>
-        <v>0.25</v>
-      </c>
-      <c r="AK10" s="29">
-        <f>S$4/200+S14/200</f>
-        <v>0.35</v>
-      </c>
-      <c r="AL10" s="29">
-        <f>T$4/200+T14/200</f>
-        <v>0.19500000000000001</v>
-      </c>
-      <c r="AM10" s="29">
-        <f>U$4/200+U14/200</f>
-        <v>0.1</v>
-      </c>
-      <c r="AN10" s="29">
-        <f>V$4/200+V14/200</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AO10" s="27" t="s">
-        <v>141</v>
-      </c>
-      <c r="AP10" s="27" t="s">
-        <v>99</v>
-      </c>
       <c r="AQ10">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>10.94</v>
       </c>
       <c r="BI10" t="s">
@@ -8786,116 +8787,116 @@
         <v>2</v>
       </c>
       <c r="E11" s="20"/>
-      <c r="I11" s="26">
+      <c r="I11" s="25">
         <v>60</v>
       </c>
-      <c r="J11" s="26">
+      <c r="J11" s="25">
         <v>35</v>
       </c>
-      <c r="K11" s="26">
+      <c r="K11" s="25">
         <v>5</v>
       </c>
-      <c r="L11" s="26">
+      <c r="L11" s="25">
         <v>0</v>
       </c>
-      <c r="M11" s="27" t="s">
+      <c r="M11" s="26" t="s">
         <v>140</v>
       </c>
       <c r="N11">
-        <f t="shared" si="11"/>
+        <f t="shared" si="19"/>
         <v>1.45</v>
       </c>
-      <c r="P11" s="26">
+      <c r="P11" s="25">
         <v>19</v>
       </c>
-      <c r="Q11" s="26">
+      <c r="Q11" s="25">
         <v>70</v>
       </c>
-      <c r="R11" s="26">
+      <c r="R11" s="25">
         <v>10</v>
       </c>
-      <c r="S11" s="26">
+      <c r="S11" s="25">
         <v>1</v>
       </c>
-      <c r="T11" s="26">
+      <c r="T11" s="25">
         <v>0</v>
       </c>
-      <c r="U11" s="26">
+      <c r="U11" s="25">
         <v>0</v>
       </c>
-      <c r="V11" s="26">
+      <c r="V11" s="25">
         <v>0</v>
       </c>
-      <c r="W11" s="27" t="s">
+      <c r="W11" s="26" t="s">
         <v>90</v>
       </c>
       <c r="X11">
         <f>(P11*$P$2+Q11*$Q$2+R11*$R$2+S11*$S$2+T11*$T$2+U11*$U$2+V11*$V$2)/SUM(P11:V11)</f>
         <v>5.86</v>
       </c>
-      <c r="Z11" s="29">
-        <f>I11/200+I3/200</f>
+      <c r="Z11" s="28">
+        <f>(I$11+I3)/200</f>
         <v>0.7</v>
       </c>
-      <c r="AA11" s="29">
-        <f t="shared" ref="AA11:AC11" si="13">J11/200+J3/200</f>
+      <c r="AA11" s="28">
+        <f t="shared" ref="AA11:AC14" si="21">(J$11+J3)/200</f>
         <v>0.27</v>
       </c>
-      <c r="AB11" s="29">
+      <c r="AB11" s="28">
+        <f t="shared" si="21"/>
+        <v>0.03</v>
+      </c>
+      <c r="AC11" s="28">
+        <f t="shared" si="21"/>
+        <v>0</v>
+      </c>
+      <c r="AD11" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="AE11" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AF11">
+        <f t="shared" si="5"/>
+        <v>1.33</v>
+      </c>
+      <c r="AH11" s="28">
+        <f>(P$5+P11)/200</f>
+        <v>0.12</v>
+      </c>
+      <c r="AI11" s="28">
+        <f t="shared" ref="AI11:AN14" si="22">(Q$5+Q11)/200</f>
+        <v>0.47499999999999998</v>
+      </c>
+      <c r="AJ11" s="28">
+        <f t="shared" si="22"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AK11" s="28">
+        <f t="shared" si="22"/>
+        <v>0.13</v>
+      </c>
+      <c r="AL11" s="28">
+        <f t="shared" si="22"/>
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="AM11" s="28">
+        <f t="shared" si="22"/>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AN11" s="28">
+        <f t="shared" si="22"/>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="26" t="s">
+        <v>103</v>
+      </c>
+      <c r="AP11" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="AQ11">
         <f t="shared" si="13"/>
-        <v>3.0000000000000002E-2</v>
-      </c>
-      <c r="AC11" s="29">
-        <f t="shared" si="13"/>
-        <v>0</v>
-      </c>
-      <c r="AD11" s="27" t="s">
-        <v>140</v>
-      </c>
-      <c r="AE11" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="AF11">
-        <f t="shared" si="4"/>
-        <v>1.33</v>
-      </c>
-      <c r="AH11" s="29">
-        <f>P$5/200+P11/200</f>
-        <v>0.12</v>
-      </c>
-      <c r="AI11" s="29">
-        <f>Q$5/200+Q11/200</f>
-        <v>0.47499999999999998</v>
-      </c>
-      <c r="AJ11" s="29">
-        <f>R$5/200+R11/200</f>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="AK11" s="29">
-        <f>S$5/200+S11/200</f>
-        <v>0.13</v>
-      </c>
-      <c r="AL11" s="29">
-        <f>T$5/200+T11/200</f>
-        <v>4.4999999999999998E-2</v>
-      </c>
-      <c r="AM11" s="29">
-        <f>U$5/200+U11/200</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="AN11" s="29">
-        <f>V$5/200+V11/200</f>
-        <v>0</v>
-      </c>
-      <c r="AO11" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="AP11" s="27" t="s">
-        <v>90</v>
-      </c>
-      <c r="AQ11">
-        <f t="shared" si="5"/>
-        <v>7.0699999999999985</v>
+        <v>7.0699999999999994</v>
       </c>
       <c r="BI11" t="s">
         <v>111</v>
@@ -8908,102 +8909,102 @@
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="25"/>
-      <c r="P12" s="26">
+      <c r="I12" s="22"/>
+      <c r="J12" s="22"/>
+      <c r="K12" s="22"/>
+      <c r="L12" s="22"/>
+      <c r="M12" s="24"/>
+      <c r="P12" s="25">
         <v>0</v>
       </c>
-      <c r="Q12" s="26">
+      <c r="Q12" s="25">
         <v>35</v>
       </c>
-      <c r="R12" s="26">
+      <c r="R12" s="25">
         <v>54</v>
       </c>
-      <c r="S12" s="26">
+      <c r="S12" s="25">
         <v>10</v>
       </c>
-      <c r="T12" s="26">
+      <c r="T12" s="25">
         <v>1</v>
       </c>
-      <c r="U12" s="26">
+      <c r="U12" s="25">
         <v>0</v>
       </c>
-      <c r="V12" s="26">
+      <c r="V12" s="25">
         <v>0</v>
       </c>
-      <c r="W12" s="27" t="s">
+      <c r="W12" s="26" t="s">
         <v>91</v>
       </c>
       <c r="X12">
-        <f t="shared" ref="X12:X14" si="14">(P12*$P$2+Q12*$Q$2+R12*$R$2+S12*$S$2+T12*$T$2+U12*$U$2+V12*$V$2)/SUM(P12:V12)</f>
+        <f t="shared" ref="X12:X14" si="23">(P12*$P$2+Q12*$Q$2+R12*$R$2+S12*$S$2+T12*$T$2+U12*$U$2+V12*$V$2)/SUM(P12:V12)</f>
         <v>7.54</v>
       </c>
-      <c r="Z12" s="29">
-        <f>I11/200+I4/200</f>
-        <v>0.64999999999999991</v>
-      </c>
-      <c r="AA12" s="29">
-        <f t="shared" ref="AA12:AC12" si="15">J11/200+J4/200</f>
+      <c r="Z12" s="28">
+        <f t="shared" ref="Z12:Z14" si="24">(I$11+I4)/200</f>
+        <v>0.65</v>
+      </c>
+      <c r="AA12" s="28">
+        <f t="shared" si="21"/>
         <v>0.315</v>
       </c>
-      <c r="AB12" s="29">
-        <f t="shared" si="15"/>
+      <c r="AB12" s="28">
+        <f t="shared" si="21"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AC12" s="29">
-        <f t="shared" si="15"/>
+      <c r="AC12" s="28">
+        <f t="shared" si="21"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="27" t="s">
+      <c r="AD12" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="AE12" s="27" t="s">
+      <c r="AE12" s="26" t="s">
         <v>91</v>
       </c>
       <c r="AF12">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.385</v>
       </c>
-      <c r="AH12" s="29">
-        <f>P$5/200+P12/200</f>
+      <c r="AH12" s="28">
+        <f t="shared" ref="AH12:AH14" si="25">(P$5+P12)/200</f>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI12" s="29">
-        <f>Q$5/200+Q12/200</f>
+      <c r="AI12" s="28">
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="AJ12" s="29">
-        <f>R$5/200+R12/200</f>
+      <c r="AJ12" s="28">
+        <f t="shared" si="22"/>
         <v>0.44500000000000001</v>
       </c>
-      <c r="AK12" s="29">
-        <f>S$5/200+S12/200</f>
+      <c r="AK12" s="28">
+        <f t="shared" si="22"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="AL12" s="29">
-        <f>T$5/200+T12/200</f>
-        <v>4.9999999999999996E-2</v>
-      </c>
-      <c r="AM12" s="29">
-        <f>U$5/200+U12/200</f>
+      <c r="AL12" s="28">
+        <f t="shared" si="22"/>
+        <v>0.05</v>
+      </c>
+      <c r="AM12" s="28">
+        <f t="shared" si="22"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AN12" s="29">
-        <f>V$5/200+V12/200</f>
+      <c r="AN12" s="28">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AO12" s="27" t="s">
+      <c r="AO12" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="AP12" s="27" t="s">
+      <c r="AP12" s="26" t="s">
         <v>91</v>
       </c>
       <c r="AQ12">
-        <f t="shared" si="5"/>
-        <v>7.9099999999999993</v>
+        <f t="shared" si="13"/>
+        <v>7.91</v>
       </c>
       <c r="BI12" t="s">
         <v>112</v>
@@ -9016,96 +9017,96 @@
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="P13" s="26">
+      <c r="P13" s="25">
         <v>0</v>
       </c>
-      <c r="Q13" s="26">
+      <c r="Q13" s="25">
         <v>0</v>
       </c>
-      <c r="R13" s="26">
+      <c r="R13" s="25">
         <v>50</v>
       </c>
-      <c r="S13" s="26">
+      <c r="S13" s="25">
         <v>35</v>
       </c>
-      <c r="T13" s="26">
+      <c r="T13" s="25">
         <v>10</v>
       </c>
-      <c r="U13" s="26">
+      <c r="U13" s="25">
         <v>5</v>
       </c>
-      <c r="V13" s="26">
+      <c r="V13" s="25">
         <v>0</v>
       </c>
-      <c r="W13" s="27" t="s">
+      <c r="W13" s="26" t="s">
         <v>92</v>
       </c>
       <c r="X13">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>9.6999999999999993</v>
       </c>
-      <c r="Z13" s="29">
-        <f>I11/200+I5/200</f>
+      <c r="Z13" s="28">
+        <f t="shared" si="24"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="AA13" s="29">
-        <f t="shared" ref="AA13:AC13" si="16">J11/200+J5/200</f>
+      <c r="AA13" s="28">
+        <f t="shared" si="21"/>
         <v>0.37</v>
       </c>
-      <c r="AB13" s="29">
-        <f t="shared" si="16"/>
-        <v>7.5000000000000011E-2</v>
-      </c>
-      <c r="AC13" s="29">
-        <f t="shared" si="16"/>
+      <c r="AB13" s="28">
+        <f t="shared" si="21"/>
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="AC13" s="28">
+        <f t="shared" si="21"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AD13" s="27" t="s">
+      <c r="AD13" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="AE13" s="27" t="s">
+      <c r="AE13" s="26" t="s">
         <v>92</v>
       </c>
       <c r="AF13">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.5350000000000001</v>
       </c>
-      <c r="AH13" s="29">
-        <f>P$5/200+P13/200</f>
+      <c r="AH13" s="28">
+        <f t="shared" si="25"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI13" s="29">
-        <f>Q$5/200+Q13/200</f>
+      <c r="AI13" s="28">
+        <f t="shared" si="22"/>
         <v>0.125</v>
       </c>
-      <c r="AJ13" s="29">
-        <f>R$5/200+R13/200</f>
+      <c r="AJ13" s="28">
+        <f t="shared" si="22"/>
         <v>0.42499999999999999</v>
       </c>
-      <c r="AK13" s="29">
-        <f>S$5/200+S13/200</f>
+      <c r="AK13" s="28">
+        <f t="shared" si="22"/>
         <v>0.3</v>
       </c>
-      <c r="AL13" s="29">
-        <f>T$5/200+T13/200</f>
+      <c r="AL13" s="28">
+        <f t="shared" si="22"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="AM13" s="29">
-        <f>U$5/200+U13/200</f>
-        <v>3.0000000000000002E-2</v>
-      </c>
-      <c r="AN13" s="29">
-        <f>V$5/200+V13/200</f>
+      <c r="AM13" s="28">
+        <f t="shared" si="22"/>
+        <v>0.03</v>
+      </c>
+      <c r="AN13" s="28">
+        <f t="shared" si="22"/>
         <v>0</v>
       </c>
-      <c r="AO13" s="27" t="s">
+      <c r="AO13" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="AP13" s="27" t="s">
+      <c r="AP13" s="26" t="s">
         <v>92</v>
       </c>
       <c r="AQ13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>8.99</v>
       </c>
       <c r="BI13" t="s">
@@ -9119,96 +9120,96 @@
       <c r="C14">
         <v>12</v>
       </c>
-      <c r="P14" s="26">
+      <c r="P14" s="25">
         <v>0</v>
       </c>
-      <c r="Q14" s="26">
+      <c r="Q14" s="25">
         <v>0</v>
       </c>
-      <c r="R14" s="26">
+      <c r="R14" s="25">
         <v>0</v>
       </c>
-      <c r="S14" s="26">
+      <c r="S14" s="25">
         <v>50</v>
       </c>
-      <c r="T14" s="26">
+      <c r="T14" s="25">
         <v>30</v>
       </c>
-      <c r="U14" s="26">
+      <c r="U14" s="25">
         <v>19</v>
       </c>
-      <c r="V14" s="26">
+      <c r="V14" s="25">
         <v>1</v>
       </c>
-      <c r="W14" s="27" t="s">
+      <c r="W14" s="26" t="s">
         <v>99</v>
       </c>
       <c r="X14">
-        <f t="shared" si="14"/>
+        <f t="shared" si="23"/>
         <v>13.4</v>
       </c>
-      <c r="Z14" s="29">
-        <f>I11/200+I6/200</f>
+      <c r="Z14" s="28">
+        <f t="shared" si="24"/>
         <v>0.3</v>
       </c>
-      <c r="AA14" s="29">
-        <f t="shared" ref="AA14:AC14" si="17">J11/200+J6/200</f>
+      <c r="AA14" s="28">
+        <f t="shared" si="21"/>
         <v>0.47499999999999998</v>
       </c>
-      <c r="AB14" s="29">
-        <f t="shared" si="17"/>
+      <c r="AB14" s="28">
+        <f t="shared" si="21"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="AC14" s="29">
-        <f t="shared" si="17"/>
+      <c r="AC14" s="28">
+        <f t="shared" si="21"/>
         <v>0.05</v>
       </c>
-      <c r="AD14" s="27" t="s">
+      <c r="AD14" s="26" t="s">
         <v>140</v>
       </c>
-      <c r="AE14" s="27" t="s">
+      <c r="AE14" s="26" t="s">
         <v>99</v>
       </c>
       <c r="AF14">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>1.9749999999999999</v>
       </c>
-      <c r="AH14" s="29">
-        <f>P$5/200+P14/200</f>
+      <c r="AH14" s="28">
+        <f t="shared" si="25"/>
         <v>2.5000000000000001E-2</v>
       </c>
-      <c r="AI14" s="29">
-        <f>Q$5/200+Q14/200</f>
+      <c r="AI14" s="28">
+        <f t="shared" si="22"/>
         <v>0.125</v>
       </c>
-      <c r="AJ14" s="29">
-        <f>R$5/200+R14/200</f>
+      <c r="AJ14" s="28">
+        <f t="shared" si="22"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="AK14" s="29">
-        <f>S$5/200+S14/200</f>
+      <c r="AK14" s="28">
+        <f t="shared" si="22"/>
         <v>0.375</v>
       </c>
-      <c r="AL14" s="29">
-        <f>T$5/200+T14/200</f>
+      <c r="AL14" s="28">
+        <f t="shared" si="22"/>
         <v>0.19500000000000001</v>
       </c>
-      <c r="AM14" s="29">
-        <f>U$5/200+U14/200</f>
+      <c r="AM14" s="28">
+        <f t="shared" si="22"/>
         <v>0.1</v>
       </c>
-      <c r="AN14" s="29">
-        <f>V$5/200+V14/200</f>
+      <c r="AN14" s="28">
+        <f t="shared" si="22"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AO14" s="27" t="s">
+      <c r="AO14" s="26" t="s">
         <v>103</v>
       </c>
-      <c r="AP14" s="27" t="s">
+      <c r="AP14" s="26" t="s">
         <v>99</v>
       </c>
       <c r="AQ14">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>10.84</v>
       </c>
       <c r="BI14" t="s">
@@ -9216,42 +9217,42 @@
       </c>
     </row>
     <row r="15" spans="2:63" x14ac:dyDescent="0.2">
-      <c r="AH15" s="29">
-        <f>P$6/200+P11/200</f>
+      <c r="AH15" s="28">
+        <f>(P$6+P11)/200</f>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="AI15" s="29">
-        <f>Q$6/200+Q11/200</f>
+      <c r="AI15" s="28">
+        <f t="shared" ref="AI15:AN18" si="26">(Q$6+Q11)/200</f>
         <v>0.35</v>
       </c>
-      <c r="AJ15" s="29">
-        <f>R$6/200+R11/200</f>
-        <v>0.15000000000000002</v>
-      </c>
-      <c r="AK15" s="29">
-        <f>S$6/200+S11/200</f>
+      <c r="AJ15" s="28">
+        <f t="shared" si="26"/>
+        <v>0.15</v>
+      </c>
+      <c r="AK15" s="28">
+        <f t="shared" si="26"/>
         <v>0.30499999999999999</v>
       </c>
-      <c r="AL15" s="29">
-        <f>T$6/200+T11/200</f>
+      <c r="AL15" s="28">
+        <f t="shared" si="26"/>
         <v>0.09</v>
       </c>
-      <c r="AM15" s="29">
-        <f>U$6/200+U11/200</f>
+      <c r="AM15" s="28">
+        <f t="shared" si="26"/>
         <v>0.01</v>
       </c>
-      <c r="AN15" s="29">
-        <f>V$6/200+V11/200</f>
+      <c r="AN15" s="28">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AO15" s="27" t="s">
+      <c r="AO15" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="AP15" s="27" t="s">
+      <c r="AP15" s="26" t="s">
         <v>90</v>
       </c>
       <c r="AQ15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>8.0100000000000016</v>
       </c>
       <c r="BI15" t="s">
@@ -9259,49 +9260,49 @@
       </c>
     </row>
     <row r="16" spans="2:63" x14ac:dyDescent="0.2">
-      <c r="D16" s="22" t="s">
+      <c r="D16" s="30" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
       <c r="H16" s="19"/>
-      <c r="AH16" s="29">
-        <f>P$6/200+P12/200</f>
+      <c r="AH16" s="28">
+        <f t="shared" ref="AH16:AH18" si="27">(P$6+P12)/200</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="29">
-        <f>Q$6/200+Q12/200</f>
+      <c r="AI16" s="28">
+        <f t="shared" si="26"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="AJ16" s="29">
-        <f>R$6/200+R12/200</f>
+      <c r="AJ16" s="28">
+        <f t="shared" si="26"/>
         <v>0.37</v>
       </c>
-      <c r="AK16" s="29">
-        <f>S$6/200+S12/200</f>
+      <c r="AK16" s="28">
+        <f t="shared" si="26"/>
         <v>0.35</v>
       </c>
-      <c r="AL16" s="29">
-        <f>T$6/200+T12/200</f>
+      <c r="AL16" s="28">
+        <f t="shared" si="26"/>
         <v>9.5000000000000001E-2</v>
       </c>
-      <c r="AM16" s="29">
-        <f>U$6/200+U12/200</f>
+      <c r="AM16" s="28">
+        <f t="shared" si="26"/>
         <v>0.01</v>
       </c>
-      <c r="AN16" s="29">
-        <f>V$6/200+V12/200</f>
+      <c r="AN16" s="28">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AO16" s="27" t="s">
+      <c r="AO16" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="AP16" s="27" t="s">
+      <c r="AP16" s="26" t="s">
         <v>91</v>
       </c>
       <c r="AQ16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>8.8500000000000014</v>
       </c>
       <c r="BI16" t="s">
@@ -9327,43 +9328,43 @@
       <c r="G17" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="O17" s="25"/>
-      <c r="AH17" s="29">
-        <f>P$6/200+P13/200</f>
+      <c r="O17" s="24"/>
+      <c r="AH17" s="28">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AI17" s="29">
-        <f>Q$6/200+Q13/200</f>
+      <c r="AI17" s="28">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AJ17" s="29">
-        <f>R$6/200+R13/200</f>
+      <c r="AJ17" s="28">
+        <f t="shared" si="26"/>
         <v>0.35</v>
       </c>
-      <c r="AK17" s="29">
-        <f>S$6/200+S13/200</f>
+      <c r="AK17" s="28">
+        <f t="shared" si="26"/>
         <v>0.47499999999999998</v>
       </c>
-      <c r="AL17" s="29">
-        <f>T$6/200+T13/200</f>
+      <c r="AL17" s="28">
+        <f t="shared" si="26"/>
         <v>0.14000000000000001</v>
       </c>
-      <c r="AM17" s="29">
-        <f>U$6/200+U13/200</f>
+      <c r="AM17" s="28">
+        <f t="shared" si="26"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AN17" s="29">
-        <f>V$6/200+V13/200</f>
+      <c r="AN17" s="28">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AO17" s="27" t="s">
+      <c r="AO17" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="AP17" s="27" t="s">
+      <c r="AP17" s="26" t="s">
         <v>92</v>
       </c>
       <c r="AQ17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>9.93</v>
       </c>
       <c r="BI17" t="s">
@@ -9394,43 +9395,43 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>12</v>
       </c>
-      <c r="O18" s="25"/>
-      <c r="AH18" s="29">
-        <f>P$6/200+P14/200</f>
+      <c r="O18" s="24"/>
+      <c r="AH18" s="28">
+        <f t="shared" si="27"/>
         <v>0</v>
       </c>
-      <c r="AI18" s="29">
-        <f>Q$6/200+Q14/200</f>
+      <c r="AI18" s="28">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="AJ18" s="29">
-        <f>R$6/200+R14/200</f>
+      <c r="AJ18" s="28">
+        <f t="shared" si="26"/>
         <v>0.1</v>
       </c>
-      <c r="AK18" s="29">
-        <f>S$6/200+S14/200</f>
+      <c r="AK18" s="28">
+        <f t="shared" si="26"/>
         <v>0.55000000000000004</v>
       </c>
-      <c r="AL18" s="29">
-        <f>T$6/200+T14/200</f>
+      <c r="AL18" s="28">
+        <f t="shared" si="26"/>
         <v>0.24</v>
       </c>
-      <c r="AM18" s="29">
-        <f>U$6/200+U14/200</f>
+      <c r="AM18" s="28">
+        <f t="shared" si="26"/>
         <v>0.105</v>
       </c>
-      <c r="AN18" s="29">
-        <f>V$6/200+V14/200</f>
+      <c r="AN18" s="28">
+        <f t="shared" si="26"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AO18" s="27" t="s">
+      <c r="AO18" s="26" t="s">
         <v>124</v>
       </c>
-      <c r="AP18" s="27" t="s">
+      <c r="AP18" s="26" t="s">
         <v>99</v>
       </c>
       <c r="AQ18">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>11.78</v>
       </c>
       <c r="BI18" t="s">
@@ -9461,43 +9462,43 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>15</v>
       </c>
-      <c r="O19" s="25"/>
-      <c r="AH19" s="29">
-        <f>P$7/200+P11/200</f>
-        <v>0.16999999999999998</v>
-      </c>
-      <c r="AI19" s="29">
-        <f>Q$7/200+Q11/200</f>
+      <c r="O19" s="24"/>
+      <c r="AH19" s="28">
+        <f>(P$7+P11)/200</f>
+        <v>0.17</v>
+      </c>
+      <c r="AI19" s="28">
+        <f t="shared" ref="AI19:AN22" si="28">(Q$7+Q11)/200</f>
         <v>0.5</v>
       </c>
-      <c r="AJ19" s="29">
-        <f>R$7/200+R11/200</f>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="AK19" s="29">
-        <f>S$7/200+S11/200</f>
+      <c r="AJ19" s="28">
+        <f t="shared" si="28"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AK19" s="28">
+        <f t="shared" si="28"/>
         <v>5.5E-2</v>
       </c>
-      <c r="AL19" s="29">
-        <f>T$7/200+T11/200</f>
+      <c r="AL19" s="28">
+        <f t="shared" si="28"/>
         <v>0.04</v>
       </c>
-      <c r="AM19" s="29">
-        <f>U$7/200+U11/200</f>
+      <c r="AM19" s="28">
+        <f t="shared" si="28"/>
         <v>0.01</v>
       </c>
-      <c r="AN19" s="29">
-        <f>V$7/200+V11/200</f>
+      <c r="AN19" s="28">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AO19" s="28" t="s">
+      <c r="AO19" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="AP19" s="27" t="s">
+      <c r="AP19" s="26" t="s">
         <v>90</v>
       </c>
       <c r="AQ19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>6.71</v>
       </c>
       <c r="BI19" t="s">
@@ -9528,44 +9529,44 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>18</v>
       </c>
-      <c r="O20" s="25"/>
-      <c r="AH20" s="29">
-        <f>P$7/200+P12/200</f>
+      <c r="O20" s="24"/>
+      <c r="AH20" s="28">
+        <f t="shared" ref="AH20:AH22" si="29">(P$7+P12)/200</f>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AI20" s="29">
-        <f>Q$7/200+Q12/200</f>
-        <v>0.32499999999999996</v>
-      </c>
-      <c r="AJ20" s="29">
-        <f>R$7/200+R12/200</f>
+      <c r="AI20" s="28">
+        <f t="shared" si="28"/>
+        <v>0.32500000000000001</v>
+      </c>
+      <c r="AJ20" s="28">
+        <f t="shared" si="28"/>
         <v>0.44500000000000001</v>
       </c>
-      <c r="AK20" s="29">
-        <f>S$7/200+S12/200</f>
+      <c r="AK20" s="28">
+        <f t="shared" si="28"/>
         <v>0.1</v>
       </c>
-      <c r="AL20" s="29">
-        <f>T$7/200+T12/200</f>
+      <c r="AL20" s="28">
+        <f t="shared" si="28"/>
         <v>4.4999999999999998E-2</v>
       </c>
-      <c r="AM20" s="29">
-        <f>U$7/200+U12/200</f>
+      <c r="AM20" s="28">
+        <f t="shared" si="28"/>
         <v>0.01</v>
       </c>
-      <c r="AN20" s="29">
-        <f>V$7/200+V12/200</f>
+      <c r="AN20" s="28">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AO20" s="28" t="s">
+      <c r="AO20" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="AP20" s="27" t="s">
+      <c r="AP20" s="26" t="s">
         <v>91</v>
       </c>
       <c r="AQ20">
-        <f t="shared" si="5"/>
-        <v>7.55</v>
+        <f t="shared" si="13"/>
+        <v>7.5500000000000007</v>
       </c>
       <c r="BI20" t="s">
         <v>116</v>
@@ -9595,42 +9596,42 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>21</v>
       </c>
-      <c r="AH21" s="29">
-        <f>P$7/200+P13/200</f>
+      <c r="AH21" s="28">
+        <f t="shared" si="29"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AI21" s="29">
-        <f>Q$7/200+Q13/200</f>
+      <c r="AI21" s="28">
+        <f t="shared" si="28"/>
         <v>0.15</v>
       </c>
-      <c r="AJ21" s="29">
-        <f>R$7/200+R13/200</f>
+      <c r="AJ21" s="28">
+        <f t="shared" si="28"/>
         <v>0.42499999999999999</v>
       </c>
-      <c r="AK21" s="29">
-        <f>S$7/200+S13/200</f>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="AL21" s="29">
-        <f>T$7/200+T13/200</f>
+      <c r="AK21" s="28">
+        <f t="shared" si="28"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AL21" s="28">
+        <f t="shared" si="28"/>
         <v>0.09</v>
       </c>
-      <c r="AM21" s="29">
-        <f>U$7/200+U13/200</f>
+      <c r="AM21" s="28">
+        <f t="shared" si="28"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AN21" s="29">
-        <f>V$7/200+V13/200</f>
+      <c r="AN21" s="28">
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
-      <c r="AO21" s="28" t="s">
+      <c r="AO21" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="AP21" s="27" t="s">
+      <c r="AP21" s="26" t="s">
         <v>92</v>
       </c>
       <c r="AQ21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>8.6300000000000008</v>
       </c>
       <c r="BI21" t="s">
@@ -9661,42 +9662,42 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>24</v>
       </c>
-      <c r="AH22" s="29">
-        <f>P$7/200+P14/200</f>
+      <c r="AH22" s="28">
+        <f t="shared" si="29"/>
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="AI22" s="29">
-        <f>Q$7/200+Q14/200</f>
+      <c r="AI22" s="28">
+        <f t="shared" si="28"/>
         <v>0.15</v>
       </c>
-      <c r="AJ22" s="29">
-        <f>R$7/200+R14/200</f>
+      <c r="AJ22" s="28">
+        <f t="shared" si="28"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="AK22" s="29">
-        <f>S$7/200+S14/200</f>
+      <c r="AK22" s="28">
+        <f t="shared" si="28"/>
         <v>0.3</v>
       </c>
-      <c r="AL22" s="29">
-        <f>T$7/200+T14/200</f>
+      <c r="AL22" s="28">
+        <f t="shared" si="28"/>
         <v>0.19</v>
       </c>
-      <c r="AM22" s="29">
-        <f>U$7/200+U14/200</f>
+      <c r="AM22" s="28">
+        <f t="shared" si="28"/>
         <v>0.105</v>
       </c>
-      <c r="AN22" s="29">
-        <f>V$7/200+V14/200</f>
+      <c r="AN22" s="28">
+        <f t="shared" si="28"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AO22" s="28" t="s">
+      <c r="AO22" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="AP22" s="27" t="s">
+      <c r="AP22" s="26" t="s">
         <v>99</v>
       </c>
       <c r="AQ22">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>10.480000000000002</v>
       </c>
       <c r="BI22" t="s">
@@ -9727,42 +9728,42 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>27</v>
       </c>
-      <c r="AH23" s="29">
-        <f>P$8/200+P11/200</f>
+      <c r="AH23" s="28">
+        <f>(P$8+P11)/200</f>
         <v>0.19500000000000001</v>
       </c>
-      <c r="AI23" s="29">
-        <f>Q$8/200+Q11/200</f>
-        <v>0.52499999999999991</v>
-      </c>
-      <c r="AJ23" s="29">
-        <f>R$8/200+R11/200</f>
+      <c r="AI23" s="28">
+        <f t="shared" ref="AI23:AN26" si="30">(Q$8+Q11)/200</f>
+        <v>0.52500000000000002</v>
+      </c>
+      <c r="AJ23" s="28">
+        <f t="shared" si="30"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="AK23" s="29">
-        <f>S$8/200+S11/200</f>
+      <c r="AK23" s="28">
+        <f t="shared" si="30"/>
         <v>5.5E-2</v>
       </c>
-      <c r="AL23" s="29">
-        <f>T$8/200+T11/200</f>
+      <c r="AL23" s="28">
+        <f t="shared" si="30"/>
         <v>3.5000000000000003E-2</v>
       </c>
-      <c r="AM23" s="29">
-        <f>U$8/200+U11/200</f>
+      <c r="AM23" s="28">
+        <f t="shared" si="30"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN23" s="29">
-        <f>V$8/200+V11/200</f>
+      <c r="AN23" s="28">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO23" s="28" t="s">
+      <c r="AO23" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="AP23" s="27" t="s">
+      <c r="AP23" s="26" t="s">
         <v>90</v>
       </c>
       <c r="AQ23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>6.6</v>
       </c>
       <c r="BI23" t="s">
@@ -9793,42 +9794,42 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>30</v>
       </c>
-      <c r="AH24" s="29">
-        <f>P$8/200+P12/200</f>
+      <c r="AH24" s="28">
+        <f t="shared" ref="AH24:AH26" si="31">(P$8+P12)/200</f>
         <v>0.1</v>
       </c>
-      <c r="AI24" s="29">
-        <f>Q$8/200+Q12/200</f>
+      <c r="AI24" s="28">
+        <f t="shared" si="30"/>
         <v>0.35</v>
       </c>
-      <c r="AJ24" s="29">
-        <f>R$8/200+R12/200</f>
+      <c r="AJ24" s="28">
+        <f t="shared" si="30"/>
         <v>0.39500000000000002</v>
       </c>
-      <c r="AK24" s="29">
-        <f>S$8/200+S12/200</f>
+      <c r="AK24" s="28">
+        <f t="shared" si="30"/>
         <v>0.1</v>
       </c>
-      <c r="AL24" s="29">
-        <f>T$8/200+T12/200</f>
+      <c r="AL24" s="28">
+        <f t="shared" si="30"/>
         <v>0.04</v>
       </c>
-      <c r="AM24" s="29">
-        <f>U$8/200+U12/200</f>
+      <c r="AM24" s="28">
+        <f t="shared" si="30"/>
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="AN24" s="29">
-        <f>V$8/200+V12/200</f>
+      <c r="AN24" s="28">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO24" s="28" t="s">
+      <c r="AO24" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="AP24" s="27" t="s">
+      <c r="AP24" s="26" t="s">
         <v>91</v>
       </c>
       <c r="AQ24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>7.44</v>
       </c>
       <c r="BI24" t="s">
@@ -9859,42 +9860,42 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>33</v>
       </c>
-      <c r="AH25" s="29">
-        <f>P$8/200+P13/200</f>
+      <c r="AH25" s="28">
+        <f t="shared" si="31"/>
         <v>0.1</v>
       </c>
-      <c r="AI25" s="29">
-        <f>Q$8/200+Q13/200</f>
+      <c r="AI25" s="28">
+        <f t="shared" si="30"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="AJ25" s="29">
-        <f>R$8/200+R13/200</f>
+      <c r="AJ25" s="28">
+        <f t="shared" si="30"/>
         <v>0.375</v>
       </c>
-      <c r="AK25" s="29">
-        <f>S$8/200+S13/200</f>
-        <v>0.22499999999999998</v>
-      </c>
-      <c r="AL25" s="29">
-        <f>T$8/200+T13/200</f>
+      <c r="AK25" s="28">
+        <f t="shared" si="30"/>
+        <v>0.22500000000000001</v>
+      </c>
+      <c r="AL25" s="28">
+        <f t="shared" si="30"/>
         <v>8.5000000000000006E-2</v>
       </c>
-      <c r="AM25" s="29">
-        <f>U$8/200+U13/200</f>
+      <c r="AM25" s="28">
+        <f t="shared" si="30"/>
         <v>0.04</v>
       </c>
-      <c r="AN25" s="29">
-        <f>V$8/200+V13/200</f>
+      <c r="AN25" s="28">
+        <f t="shared" si="30"/>
         <v>0</v>
       </c>
-      <c r="AO25" s="28" t="s">
+      <c r="AO25" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="AP25" s="27" t="s">
+      <c r="AP25" s="26" t="s">
         <v>92</v>
       </c>
       <c r="AQ25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>8.52</v>
       </c>
       <c r="BI25" t="s">
@@ -9925,42 +9926,42 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>36</v>
       </c>
-      <c r="AH26" s="29">
-        <f>P$8/200+P14/200</f>
+      <c r="AH26" s="28">
+        <f t="shared" si="31"/>
         <v>0.1</v>
       </c>
-      <c r="AI26" s="29">
-        <f>Q$8/200+Q14/200</f>
+      <c r="AI26" s="28">
+        <f t="shared" si="30"/>
         <v>0.17499999999999999</v>
       </c>
-      <c r="AJ26" s="29">
-        <f>R$8/200+R14/200</f>
+      <c r="AJ26" s="28">
+        <f t="shared" si="30"/>
         <v>0.125</v>
       </c>
-      <c r="AK26" s="29">
-        <f>S$8/200+S14/200</f>
+      <c r="AK26" s="28">
+        <f t="shared" si="30"/>
         <v>0.3</v>
       </c>
-      <c r="AL26" s="29">
-        <f>T$8/200+T14/200</f>
+      <c r="AL26" s="28">
+        <f t="shared" si="30"/>
         <v>0.185</v>
       </c>
-      <c r="AM26" s="29">
-        <f>U$8/200+U14/200</f>
+      <c r="AM26" s="28">
+        <f t="shared" si="30"/>
         <v>0.11</v>
       </c>
-      <c r="AN26" s="29">
-        <f>V$8/200+V14/200</f>
+      <c r="AN26" s="28">
+        <f t="shared" si="30"/>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AO26" s="28" t="s">
+      <c r="AO26" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="AP26" s="27" t="s">
+      <c r="AP26" s="26" t="s">
         <v>99</v>
       </c>
       <c r="AQ26">
-        <f t="shared" si="5"/>
+        <f t="shared" si="13"/>
         <v>10.37</v>
       </c>
       <c r="BI26" t="s">
@@ -10269,15 +10270,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D561B29C098A574288915AA7FDCE85A0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="250102bec12d8b142e58c1d00b1ffd8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ee89e3b8-fbf6-4f90-a67d-b465f66f191f" xmlns:ns4="ab1f00cb-b678-48f7-aded-930f239c9527" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="440e872eed80589242d868d6c2b803d1" ns3:_="" ns4:_="">
     <xsd:import namespace="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
@@ -10480,6 +10472,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
   <ds:schemaRefs>
@@ -10498,14 +10499,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5DF0EC-50CC-41C3-B7FF-8028A891B995}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -10522,4 +10515,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Liste des évolutions.xlsx
+++ b/Liste des évolutions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\u049298\Desktop\PYTHON_DJANGO\projetWebRPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y0652097\Desktop\CESIproject\PythonProject\projetWebRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88F90567-E560-4FF3-A3DB-537106B6B059}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B983C-95FA-4C77-9DAF-88C6F9487655}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Evolutions" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="131">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -201,9 +201,6 @@
     <t>Drop d'un objet != celui équiper (1fois)</t>
   </si>
   <si>
-    <t>Génération des enemie fait par rapport au brut du caractère</t>
-  </si>
-  <si>
     <t>Amélioration: Réussite critique touche quand même</t>
   </si>
   <si>
@@ -213,12 +210,6 @@
     <t>Regler max point de vie</t>
   </si>
   <si>
-    <t>Ecrire dans la modal dans quel slot ira l'item</t>
-  </si>
-  <si>
-    <t>Attendre la réponse json avant de remettre le bouton play round (faire comme next stage le suprimmer et a la fin le remttre)</t>
-  </si>
-  <si>
     <t>On peut next stage sans avoir tuer le mec en enlevant le hidden donc faudra bloquer ça</t>
   </si>
   <si>
@@ -228,21 +219,12 @@
     <t>Descendre le taux de drop des legendaires a 1/100</t>
   </si>
   <si>
-    <t>quand on boit une potion ne pas dépaser son PV MAX</t>
-  </si>
-  <si>
     <t xml:space="preserve">Modal item qui ne se vide pas </t>
   </si>
   <si>
     <t>A cause du spam "Entrée"</t>
   </si>
   <si>
-    <t>Régler la génération des ennemies</t>
-  </si>
-  <si>
-    <t>Surement un objet.pv -= quelquechose de negatif qui arrive a un moment</t>
-  </si>
-  <si>
     <t>Bug</t>
   </si>
   <si>
@@ -256,9 +238,6 @@
   </si>
   <si>
     <t>En prod</t>
-  </si>
-  <si>
-    <t>Ecrire les les noms des slots dans l'inventaire</t>
   </si>
   <si>
     <t>DevMerge</t>
@@ -578,12 +557,12 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -592,6 +571,7 @@
   <dxfs count="31">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -607,7 +587,6 @@
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -930,10 +909,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="B2:H29" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="B2:H29" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="B3:H29">
-    <sortCondition ref="D2:D29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="B2:H21" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="B2:H21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <sortState ref="B3:H21">
+    <sortCondition ref="D2:D21"/>
   </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fonctionnalité" dataDxfId="28"/>
@@ -1022,19 +1001,19 @@
   <autoFilter ref="B17:G37" xr:uid="{C892CB3D-BF9B-46E5-9300-BEA3BBCAEF09}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{A891AB08-64A9-4A19-B103-7079E9CB00C2}" name="Level"/>
-    <tableColumn id="5" xr3:uid="{8E2D95A1-93C7-4BF2-9825-41B55E7894BB}" name="Multiplicateur" dataDxfId="0">
+    <tableColumn id="5" xr3:uid="{8E2D95A1-93C7-4BF2-9825-41B55E7894BB}" name="Multiplicateur" dataDxfId="4">
       <calculatedColumnFormula>1+(Tableau7[[#This Row],[Level]]-1)*0.25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD052409-7DF4-4016-8B8D-C52FEE20CEC8}" name="Common" dataDxfId="4">
+    <tableColumn id="4" xr3:uid="{BD052409-7DF4-4016-8B8D-C52FEE20CEC8}" name="Common" dataDxfId="3">
       <calculatedColumnFormula>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A15D3612-F474-4B9C-8C65-2BB0FE5F4915}" name="Rare" dataDxfId="3">
+    <tableColumn id="6" xr3:uid="{A15D3612-F474-4B9C-8C65-2BB0FE5F4915}" name="Rare" dataDxfId="2">
       <calculatedColumnFormula>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3C43E1AB-E1B8-4592-B084-1B3D381FC6B2}" name="Epic" dataDxfId="2">
+    <tableColumn id="7" xr3:uid="{3C43E1AB-E1B8-4592-B084-1B3D381FC6B2}" name="Epic" dataDxfId="1">
       <calculatedColumnFormula>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B515297F-08B2-4D2C-B3D3-43FD65399196}" name="Legendary" dataDxfId="1">
+    <tableColumn id="8" xr3:uid="{B515297F-08B2-4D2C-B3D3-43FD65399196}" name="Legendary" dataDxfId="0">
       <calculatedColumnFormula>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1043,7 +1022,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1339,13 +1318,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M29"/>
+  <dimension ref="B2:M21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="10"/>
     <col min="2" max="2" width="47.83203125" style="10" bestFit="1" customWidth="1"/>
@@ -1392,10 +1371,14 @@
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="F3" s="7">
+        <v>43864</v>
+      </c>
+      <c r="G3" s="7">
+        <v>43872</v>
+      </c>
       <c r="H3" s="4" t="s">
         <v>10</v>
       </c>
@@ -1411,7 +1394,7 @@
         <v>1</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="F4" s="7">
         <v>43863</v>
@@ -1434,7 +1417,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="F5" s="7">
         <v>43867</v>
@@ -1446,176 +1429,168 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C6" s="3"/>
+        <v>11</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>12</v>
+      </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="F6" s="7">
-        <v>43863</v>
+        <v>43873</v>
       </c>
       <c r="G6" s="7">
-        <v>43863</v>
+        <v>43873</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
+        <v>68</v>
+      </c>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
       <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="67.5" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>68</v>
+        <v>23</v>
       </c>
       <c r="D8" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F8" s="7">
-        <v>43864</v>
-      </c>
-      <c r="G8" s="7">
-        <v>43864</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
       <c r="H8" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="D9" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="3"/>
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
       <c r="D10" s="4">
         <v>2</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="7">
-        <v>43864</v>
-      </c>
-      <c r="G10" s="7">
-        <v>43864</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
       <c r="H10" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B11" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C11" s="3"/>
+        <v>24</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>25</v>
+      </c>
       <c r="D11" s="4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F11" s="7">
-        <v>43864</v>
-      </c>
-      <c r="G11" s="7">
-        <v>43864</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
       <c r="H11" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="D12" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>67</v>
+        <v>26</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>55</v>
+        <v>27</v>
       </c>
       <c r="D13" s="4">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F13" s="4"/>
       <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H13" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="D14" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>9</v>
@@ -1624,15 +1599,15 @@
       <c r="G14" s="4"/>
       <c r="H14" s="4"/>
     </row>
-    <row r="15" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="D15" s="4">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>9</v>
@@ -1643,72 +1618,64 @@
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C16" s="3"/>
+        <v>34</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="D16" s="4">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="F16" s="7">
-        <v>43864</v>
-      </c>
-      <c r="G16" s="7">
-        <v>43864</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
       <c r="D17" s="4">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="45" x14ac:dyDescent="0.2">
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>40</v>
       </c>
       <c r="D18" s="4">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="E18" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
-      <c r="H18" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>28</v>
+        <v>43</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>29</v>
+        <v>44</v>
       </c>
       <c r="D19" s="4">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>9</v>
@@ -1717,169 +1684,35 @@
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
     </row>
-    <row r="20" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>27</v>
+        <v>42</v>
       </c>
       <c r="D20" s="4">
-        <v>4</v>
+        <v>1000</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F20" s="4"/>
       <c r="G20" s="4"/>
-      <c r="H20" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="4">
-        <v>5</v>
-      </c>
+        <v>55</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="4"/>
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
-    </row>
-    <row r="22" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="D22" s="4">
-        <v>5</v>
-      </c>
-      <c r="E22" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B23" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="D23" s="4">
-        <v>6</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B24" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="D24" s="4">
-        <v>7</v>
-      </c>
-      <c r="E24" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-    </row>
-    <row r="25" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B25" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="D25" s="4">
-        <v>7</v>
-      </c>
-      <c r="E25" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
-      <c r="H25" s="4"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B26" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="D26" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E26" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
-      <c r="H26" s="4"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B27" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="D27" s="4">
-        <v>1000</v>
-      </c>
-      <c r="E27" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
-      <c r="H27" s="4"/>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B28" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="4"/>
-      <c r="E28" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F28" s="4"/>
-      <c r="G28" s="4"/>
-      <c r="H28" s="4"/>
-    </row>
-    <row r="29" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
-      <c r="B29" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1898,7 +1731,7 @@
       <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="8"/>
     <col min="2" max="2" width="35.33203125" style="8" customWidth="1"/>
@@ -1912,22 +1745,22 @@
   <sheetData>
     <row r="2" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B2" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="D2" s="8" t="s">
         <v>3</v>
       </c>
       <c r="E2" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="33.75" x14ac:dyDescent="0.2">
@@ -1939,18 +1772,18 @@
         <v>43860</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B4" s="6" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E4" s="13">
         <v>43860</v>
@@ -1962,10 +1795,10 @@
     </row>
     <row r="5" spans="2:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B5" s="6" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E5" s="13">
         <v>43860</v>
@@ -1977,10 +1810,10 @@
     </row>
     <row r="6" spans="2:7" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B6" s="6" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E6" s="13">
         <v>43860</v>
@@ -1995,7 +1828,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E7" s="13">
         <v>43860</v>
@@ -2007,11 +1840,11 @@
     </row>
     <row r="8" spans="2:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E8" s="13">
         <v>43860</v>
@@ -2023,10 +1856,10 @@
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B9" s="9" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E9" s="13">
         <v>43860</v>
@@ -2038,7 +1871,7 @@
     </row>
     <row r="10" spans="2:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="E10" s="13">
         <v>43860</v>
@@ -2047,10 +1880,10 @@
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B11" s="9" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E11" s="13">
         <v>43860</v>
@@ -2062,10 +1895,10 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E12" s="13">
         <v>43860</v>
@@ -2077,10 +1910,10 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E13" s="13">
         <v>43860</v>
@@ -2092,10 +1925,10 @@
     </row>
     <row r="14" spans="2:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
-        <v>81</v>
+        <v>74</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E14" s="13">
         <v>43860</v>
@@ -2107,10 +1940,10 @@
     </row>
     <row r="15" spans="2:7" ht="45" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="E15" s="13">
         <v>43860</v>
@@ -2119,15 +1952,15 @@
         <v>43866</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B16" s="9" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="E16" s="13">
         <v>43860</v>
@@ -2154,7 +1987,7 @@
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1"/>
     <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
@@ -6741,11 +6574,11 @@
       <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
@@ -7338,7 +7171,7 @@
         <v>65</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C131" si="1">ROUNDDOWN(B68/4,0)+1</f>
+        <f t="shared" ref="C68:C103" si="1">ROUNDDOWN(B68/4,0)+1</f>
         <v>17</v>
       </c>
     </row>
@@ -7664,13 +7497,13 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:V37"/>
+  <dimension ref="B2:K37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView topLeftCell="A11" workbookViewId="0">
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
@@ -7684,206 +7517,206 @@
   <sheetData>
     <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>101</v>
-      </c>
-      <c r="E2" s="21"/>
+        <v>94</v>
+      </c>
+      <c r="E2" s="20"/>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="C3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E3" s="21" t="s">
+        <v>129</v>
+      </c>
+      <c r="I3" t="s">
         <v>95</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>136</v>
-      </c>
-      <c r="I3" t="s">
-        <v>102</v>
-      </c>
       <c r="K3" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" s="21" t="s">
-        <v>137</v>
+      <c r="E4" s="20" t="s">
+        <v>130</v>
       </c>
       <c r="I4" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="K4" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="E5" s="21" t="s">
-        <v>134</v>
+      <c r="E5" s="20" t="s">
+        <v>127</v>
       </c>
       <c r="I5" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="K5" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="E6" s="21" t="s">
-        <v>135</v>
+      <c r="E6" s="20" t="s">
+        <v>128</v>
       </c>
       <c r="I6" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
       <c r="K6" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="E7" s="21"/>
+      <c r="E7" s="20"/>
       <c r="I7" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="K7" t="s">
-        <v>132</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="E8" s="21"/>
+      <c r="E8" s="20"/>
       <c r="I8" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="K8" t="s">
-        <v>133</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="21"/>
+        <v>87</v>
+      </c>
+      <c r="E9" s="20"/>
       <c r="I9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" t="s">
         <v>89</v>
       </c>
-      <c r="C10" t="s">
-        <v>96</v>
-      </c>
-      <c r="E10" s="21"/>
+      <c r="E10" s="20"/>
       <c r="I10" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
-      <c r="E11" s="21"/>
+      <c r="E11" s="20"/>
       <c r="I11" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C13">
         <v>6</v>
       </c>
       <c r="I13" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="I14" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="I15" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="D16" s="20" t="s">
-        <v>100</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
+      <c r="D16" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="E16" s="22"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
       <c r="H16" s="19"/>
       <c r="I16" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="F17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="G17" s="2" t="s">
-        <v>99</v>
-      </c>
       <c r="I17" t="s">
-        <v>113</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:9" x14ac:dyDescent="0.2">
@@ -7911,7 +7744,7 @@
         <v>12</v>
       </c>
       <c r="I18" t="s">
-        <v>114</v>
+        <v>107</v>
       </c>
     </row>
     <row r="19" spans="2:9" x14ac:dyDescent="0.2">
@@ -7939,7 +7772,7 @@
         <v>15</v>
       </c>
       <c r="I19" t="s">
-        <v>115</v>
+        <v>108</v>
       </c>
     </row>
     <row r="20" spans="2:9" x14ac:dyDescent="0.2">
@@ -7967,7 +7800,7 @@
         <v>18</v>
       </c>
       <c r="I20" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.2">
@@ -7995,7 +7828,7 @@
         <v>21</v>
       </c>
       <c r="I21" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.2">
@@ -8023,7 +7856,7 @@
         <v>24</v>
       </c>
       <c r="I22" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.2">
@@ -8051,7 +7884,7 @@
         <v>27</v>
       </c>
       <c r="I23" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.2">
@@ -8079,7 +7912,7 @@
         <v>30</v>
       </c>
       <c r="I24" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.2">
@@ -8107,7 +7940,7 @@
         <v>33</v>
       </c>
       <c r="I25" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.2">
@@ -8135,7 +7968,7 @@
         <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
     </row>
     <row r="27" spans="2:9" x14ac:dyDescent="0.2">
@@ -8163,7 +7996,7 @@
         <v>39</v>
       </c>
       <c r="I27" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
     </row>
     <row r="28" spans="2:9" x14ac:dyDescent="0.2">
@@ -8191,7 +8024,7 @@
         <v>42</v>
       </c>
       <c r="I28" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="2:9" x14ac:dyDescent="0.2">
@@ -8440,6 +8273,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D561B29C098A574288915AA7FDCE85A0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="250102bec12d8b142e58c1d00b1ffd8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ee89e3b8-fbf6-4f90-a67d-b465f66f191f" xmlns:ns4="ab1f00cb-b678-48f7-aded-930f239c9527" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="440e872eed80589242d868d6c2b803d1" ns3:_="" ns4:_="">
     <xsd:import namespace="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
@@ -8642,15 +8484,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
   <ds:schemaRefs>
@@ -8669,6 +8502,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5DF0EC-50CC-41C3-B7FF-8028A891B995}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8685,12 +8526,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Liste des évolutions.xlsx
+++ b/Liste des évolutions.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Y0652097\Desktop\CESIproject\PythonProject\projetWebRPG\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\richard\Desktop\CESI\PYTHON\projetWebRPG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{706B983C-95FA-4C77-9DAF-88C6F9487655}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="8385" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Evolutions" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <sheet name="Modifcateur info" sheetId="5" r:id="rId4"/>
     <sheet name="Stuff info" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="96">
   <si>
     <t>Fonctionnalité</t>
   </si>
@@ -240,12 +239,6 @@
     <t>En prod</t>
   </si>
   <si>
-    <t>DevMerge</t>
-  </si>
-  <si>
-    <t>NassimDev</t>
-  </si>
-  <si>
     <t>Génération des enemies fait par rapport au carac brut du personnage</t>
   </si>
   <si>
@@ -321,118 +314,19 @@
     <t>Consomable</t>
   </si>
   <si>
-    <t>Nom d'arme</t>
+    <t>Ajout du système de modificateur</t>
   </si>
   <si>
-    <t>Axe</t>
+    <t>En cours</t>
   </si>
   <si>
-    <t>Stick</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Bludgeon </t>
-  </si>
-  <si>
-    <t>Mace</t>
-  </si>
-  <si>
-    <t>Bardiche</t>
-  </si>
-  <si>
-    <t>Dagger</t>
-  </si>
-  <si>
-    <t>Arming sword</t>
-  </si>
-  <si>
-    <t>Katana</t>
-  </si>
-  <si>
-    <t>Knife</t>
-  </si>
-  <si>
-    <t>Longsword</t>
-  </si>
-  <si>
-    <t>Saber</t>
-  </si>
-  <si>
-    <t>Rapier</t>
-  </si>
-  <si>
-    <t>Shortsword</t>
-  </si>
-  <si>
-    <t>Battle axe</t>
-  </si>
-  <si>
-    <t>Bow</t>
-  </si>
-  <si>
-    <t>Crossbow</t>
-  </si>
-  <si>
-    <t>Flail</t>
-  </si>
-  <si>
-    <t>Morning star</t>
-  </si>
-  <si>
-    <t>Pernach</t>
-  </si>
-  <si>
-    <t>War hammer</t>
-  </si>
-  <si>
-    <t>Halberd</t>
-  </si>
-  <si>
-    <t>Spear</t>
-  </si>
-  <si>
-    <t>Ranseur</t>
-  </si>
-  <si>
-    <t>Longbow</t>
-  </si>
-  <si>
-    <t>Recurve bow</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Fire</t>
-  </si>
-  <si>
-    <t>Water</t>
-  </si>
-  <si>
-    <t>Frost</t>
-  </si>
-  <si>
-    <t>Earth</t>
-  </si>
-  <si>
-    <t>Wind</t>
-  </si>
-  <si>
-    <t>intelligence</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>strength</t>
-  </si>
-  <si>
-    <t>agility</t>
+    <t>Tous les 6 pts de carac +1 de modificateur</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
@@ -506,7 +400,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -562,6 +456,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -771,7 +674,6 @@
         <sz val="8"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -786,7 +688,6 @@
         <sz val="8"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -801,7 +702,6 @@
         <sz val="8"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -816,7 +716,6 @@
         <sz val="8"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -831,7 +730,6 @@
         <sz val="8"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -846,7 +744,6 @@
         <sz val="8"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -861,7 +758,6 @@
         <sz val="8"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -876,7 +772,6 @@
         <sz val="8"/>
         <color auto="1"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -890,7 +785,6 @@
         <vertAlign val="baseline"/>
         <sz val="8"/>
         <name val="Calibri"/>
-        <family val="2"/>
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -909,50 +803,50 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tableau1" displayName="Tableau1" ref="B2:H21" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="B2:H21" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <sortState ref="B3:H21">
-    <sortCondition ref="D2:D21"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tableau1" displayName="Tableau1" ref="B2:H22" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="B2:H22"/>
+  <sortState ref="B3:H22">
+    <sortCondition ref="F2:F22"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Fonctionnalité" dataDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Desciption" dataDxfId="27"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Priorité" dataDxfId="26"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Etat" dataDxfId="25"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Date début" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Date fin" dataDxfId="23"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Dev" dataDxfId="22"/>
+    <tableColumn id="1" name="Fonctionnalité" dataDxfId="28"/>
+    <tableColumn id="2" name="Desciption" dataDxfId="27"/>
+    <tableColumn id="5" name="Priorité" dataDxfId="26"/>
+    <tableColumn id="3" name="Etat" dataDxfId="25"/>
+    <tableColumn id="6" name="Date début" dataDxfId="24"/>
+    <tableColumn id="7" name="Date fin" dataDxfId="23"/>
+    <tableColumn id="9" name="Dev" dataDxfId="22"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tableau4" displayName="Tableau4" ref="B2:G16" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
-  <autoFilter ref="B2:G16" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Tableau4" displayName="Tableau4" ref="B2:G16" totalsRowShown="0" headerRowDxfId="21" dataDxfId="20">
+  <autoFilter ref="B2:G16"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Bug" dataDxfId="19"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Cause" dataDxfId="18"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Etat" dataDxfId="17"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Date report" dataDxfId="16"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Date closure" dataDxfId="15"/>
-    <tableColumn id="6" xr3:uid="{B7D86D81-AA7C-449F-B13F-BFD0639F6955}" name="Commentary" dataDxfId="14"/>
+    <tableColumn id="1" name="Bug" dataDxfId="19"/>
+    <tableColumn id="2" name="Cause" dataDxfId="18"/>
+    <tableColumn id="3" name="Etat" dataDxfId="17"/>
+    <tableColumn id="4" name="Date report" dataDxfId="16"/>
+    <tableColumn id="5" name="Date closure" dataDxfId="15"/>
+    <tableColumn id="6" name="Commentary" dataDxfId="14"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="13">
-  <autoFilter ref="B2:D32" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tableau2" displayName="Tableau2" ref="B2:D32" totalsRowShown="0" headerRowDxfId="13">
+  <autoFilter ref="B2:D32"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="LVL" dataDxfId="12">
+    <tableColumn id="1" name="LVL" dataDxfId="12">
       <calculatedColumnFormula>B2+1</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Xp avant le niveau suivant" dataDxfId="11">
+    <tableColumn id="2" name="Xp avant le niveau suivant" dataDxfId="11">
       <calculatedColumnFormula>$C$3+B2*10</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="XP depuis le début du jeu" dataDxfId="10">
+    <tableColumn id="3" name="XP depuis le début du jeu" dataDxfId="10">
       <calculatedColumnFormula>C3+D2</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -961,12 +855,12 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="H2:J3" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Tableau3" displayName="Tableau3" ref="H2:J3" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="H2:J3"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="lvl actuelle" dataDxfId="7"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="xp actuelle" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="up ou pas ?" dataDxfId="5">
+    <tableColumn id="1" name="lvl actuelle" dataDxfId="7"/>
+    <tableColumn id="2" name="xp actuelle" dataDxfId="6"/>
+    <tableColumn id="3" name="up ou pas ?" dataDxfId="5">
       <calculatedColumnFormula>IF(Tableau3[xp actuelle]&gt;=100+10*(Tableau3[lvl actuelle]-1),"Oui","Non")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -975,45 +869,45 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{75AF6093-40B9-4045-A836-7BE4980C4B82}" name="Tableau5" displayName="Tableau5" ref="B3:C7" totalsRowShown="0">
-  <autoFilter ref="B3:C7" xr:uid="{1BE29893-1322-4690-AA5F-63DF676006D3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Tableau5" displayName="Tableau5" ref="B3:C7" totalsRowShown="0">
+  <autoFilter ref="B3:C7"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{62EF2871-AA7D-4282-8062-C89624DC7695}" name="Rareté"/>
-    <tableColumn id="2" xr3:uid="{C8BBA3B7-444F-43B1-AFA4-46B868FC8A8E}" name="Modificateur overall"/>
+    <tableColumn id="1" name="Rareté"/>
+    <tableColumn id="2" name="Modificateur overall"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{2097D268-C9D7-444D-AE39-0D44AD7C2BD5}" name="Tableau6" displayName="Tableau6" ref="B10:C14" totalsRowShown="0">
-  <autoFilter ref="B10:C14" xr:uid="{276BC1F8-D857-467C-ACA7-1D093324CFA6}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Tableau6" displayName="Tableau6" ref="B10:C14" totalsRowShown="0">
+  <autoFilter ref="B10:C14"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{DFE081BD-5921-47E0-B435-E29AF1E656ED}" name="Rareté"/>
-    <tableColumn id="2" xr3:uid="{153A6B44-8ED0-4BA7-8A43-77462ECE10CC}" name="Modificateur overall base"/>
+    <tableColumn id="1" name="Rareté"/>
+    <tableColumn id="2" name="Modificateur overall base"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{9CF327DF-5BC9-457F-AACB-51597DACBE89}" name="Tableau7" displayName="Tableau7" ref="B17:G37" totalsRowShown="0">
-  <autoFilter ref="B17:G37" xr:uid="{C892CB3D-BF9B-46E5-9300-BEA3BBCAEF09}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Tableau7" displayName="Tableau7" ref="B17:G37" totalsRowShown="0">
+  <autoFilter ref="B17:G37"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A891AB08-64A9-4A19-B103-7079E9CB00C2}" name="Level"/>
-    <tableColumn id="5" xr3:uid="{8E2D95A1-93C7-4BF2-9825-41B55E7894BB}" name="Multiplicateur" dataDxfId="4">
+    <tableColumn id="1" name="Level"/>
+    <tableColumn id="5" name="Multiplicateur" dataDxfId="4">
       <calculatedColumnFormula>1+(Tableau7[[#This Row],[Level]]-1)*0.25</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{BD052409-7DF4-4016-8B8D-C52FEE20CEC8}" name="Common" dataDxfId="3">
+    <tableColumn id="4" name="Common" dataDxfId="3">
       <calculatedColumnFormula>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Common",Tableau6[#All],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{A15D3612-F474-4B9C-8C65-2BB0FE5F4915}" name="Rare" dataDxfId="2">
+    <tableColumn id="6" name="Rare" dataDxfId="2">
       <calculatedColumnFormula>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Rare",Tableau6[#All],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="7" xr3:uid="{3C43E1AB-E1B8-4592-B084-1B3D381FC6B2}" name="Epic" dataDxfId="1">
+    <tableColumn id="7" name="Epic" dataDxfId="1">
       <calculatedColumnFormula>ROUNDUP(Tableau7[Multiplicateur]*VLOOKUP("Epic",Tableau6[#All],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{B515297F-08B2-4D2C-B3D3-43FD65399196}" name="Legendary" dataDxfId="0">
+    <tableColumn id="8" name="Legendary" dataDxfId="0">
       <calculatedColumnFormula>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -1317,14 +1211,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:M21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:M22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="10"/>
     <col min="2" max="2" width="47.83203125" style="10" bestFit="1" customWidth="1"/>
@@ -1360,35 +1254,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:13" ht="78.75" x14ac:dyDescent="0.2">
       <c r="B3" s="3" t="s">
-        <v>45</v>
+        <v>16</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>46</v>
+        <v>17</v>
       </c>
       <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F3" s="7">
-        <v>43864</v>
+        <v>43863</v>
       </c>
       <c r="G3" s="7">
-        <v>43872</v>
+        <v>43863</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="2:13" ht="78.75" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B4" s="3" t="s">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>17</v>
+        <v>46</v>
       </c>
       <c r="D4" s="4">
         <v>1</v>
@@ -1397,13 +1291,13 @@
         <v>67</v>
       </c>
       <c r="F4" s="7">
-        <v>43863</v>
+        <v>43864</v>
       </c>
       <c r="G4" s="7">
-        <v>43863</v>
+        <v>43872</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
@@ -1417,7 +1311,7 @@
         <v>1</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F5" s="7">
         <v>43867</v>
@@ -1431,22 +1325,22 @@
     </row>
     <row r="6" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F6" s="7">
         <v>43873</v>
       </c>
       <c r="G6" s="7">
-        <v>43873</v>
+        <v>43875</v>
       </c>
       <c r="H6" s="4" t="s">
         <v>10</v>
@@ -1454,25 +1348,29 @@
     </row>
     <row r="7" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
+        <v>67</v>
+      </c>
+      <c r="F7" s="7">
+        <v>43873</v>
+      </c>
+      <c r="G7" s="7">
+        <v>43873</v>
+      </c>
       <c r="H7" s="4" t="s">
         <v>10</v>
       </c>
       <c r="M7" s="12"/>
     </row>
-    <row r="8" spans="2:13" ht="67.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
@@ -1483,95 +1381,107 @@
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+        <v>67</v>
+      </c>
+      <c r="F8" s="7">
+        <v>43873</v>
+      </c>
+      <c r="G8" s="7">
+        <v>43875</v>
+      </c>
       <c r="H8" s="4" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:13" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D9" s="4">
+        <v>7</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="F9" s="7">
+        <v>43875</v>
+      </c>
+      <c r="G9" s="7">
+        <v>43878</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="B10" s="23" t="s">
+        <v>93</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>95</v>
+      </c>
+      <c r="D10" s="24">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" s="25">
+        <v>43879</v>
+      </c>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="2:13" ht="56.25" x14ac:dyDescent="0.2">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D11" s="4">
         <v>2</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="B10" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D10" s="4">
-        <v>2</v>
-      </c>
-      <c r="E10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="2:13" ht="45" x14ac:dyDescent="0.2">
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4">
-        <v>3</v>
       </c>
       <c r="E11" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
-      <c r="H11" s="4" t="s">
-        <v>15</v>
-      </c>
+      <c r="H11" s="4"/>
     </row>
     <row r="12" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B12" s="3" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="D12" s="4">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="E12" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="H12" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="13" spans="2:13" ht="45" x14ac:dyDescent="0.2">
       <c r="B13" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D13" s="4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E13" s="4" t="s">
         <v>9</v>
@@ -1582,15 +1492,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B14" s="3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="D14" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E14" s="4" t="s">
         <v>9</v>
@@ -1601,81 +1511,85 @@
     </row>
     <row r="15" spans="2:13" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B15" s="3" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E15" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F15" s="4"/>
       <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.2">
+      <c r="H15" s="4" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:13" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B16" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D16" s="4">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:8" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B17" s="3" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="D17" s="4">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="E17" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F17" s="4"/>
       <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
+      <c r="H17" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B18" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="D18" s="4">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E18" s="4" t="s">
-        <v>9</v>
+        <v>36</v>
       </c>
       <c r="F18" s="4"/>
       <c r="G18" s="4"/>
       <c r="H18" s="4"/>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:8" ht="33.75" x14ac:dyDescent="0.2">
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="D19" s="4">
-        <v>1000</v>
+        <v>7</v>
       </c>
       <c r="E19" s="4" t="s">
         <v>9</v>
@@ -1686,10 +1600,10 @@
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B20" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="D20" s="4">
         <v>1000</v>
@@ -1703,16 +1617,35 @@
     </row>
     <row r="21" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B21" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="4"/>
+        <v>41</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" s="4">
+        <v>1000</v>
+      </c>
       <c r="E21" s="4" t="s">
         <v>9</v>
       </c>
       <c r="F21" s="4"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="4">
+        <v>1000</v>
+      </c>
+      <c r="E22" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1724,14 +1657,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="11.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="8"/>
     <col min="2" max="2" width="35.33203125" style="8" customWidth="1"/>
@@ -1760,7 +1693,7 @@
         <v>65</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="2:7" ht="33.75" x14ac:dyDescent="0.2">
@@ -1772,7 +1705,7 @@
         <v>43860</v>
       </c>
       <c r="G3" s="18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.2">
@@ -1783,7 +1716,7 @@
         <v>62</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E4" s="13">
         <v>43860</v>
@@ -1798,7 +1731,7 @@
         <v>58</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E5" s="13">
         <v>43860</v>
@@ -1813,7 +1746,7 @@
         <v>59</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E6" s="13">
         <v>43860</v>
@@ -1828,7 +1761,7 @@
         <v>53</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E7" s="13">
         <v>43860</v>
@@ -1840,11 +1773,11 @@
     </row>
     <row r="8" spans="2:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B8" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E8" s="13">
         <v>43860</v>
@@ -1859,7 +1792,7 @@
         <v>56</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E9" s="13">
         <v>43860</v>
@@ -1871,10 +1804,16 @@
     </row>
     <row r="10" spans="2:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B10" s="9" t="s">
-        <v>71</v>
+        <v>69</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>74</v>
       </c>
       <c r="E10" s="13">
         <v>43860</v>
+      </c>
+      <c r="F10" s="13">
+        <v>43865</v>
       </c>
       <c r="G10" s="17"/>
     </row>
@@ -1883,7 +1822,7 @@
         <v>57</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="13">
         <v>43860</v>
@@ -1895,10 +1834,10 @@
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B12" s="9" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E12" s="13">
         <v>43860</v>
@@ -1910,10 +1849,10 @@
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" s="13">
         <v>43860</v>
@@ -1925,10 +1864,10 @@
     </row>
     <row r="14" spans="2:7" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="8" t="s">
         <v>74</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="E14" s="13">
         <v>43860</v>
@@ -1940,10 +1879,10 @@
     </row>
     <row r="15" spans="2:7" ht="45" x14ac:dyDescent="0.2">
       <c r="B15" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="8" t="s">
         <v>75</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>77</v>
       </c>
       <c r="E15" s="13">
         <v>43860</v>
@@ -1952,7 +1891,7 @@
         <v>43866</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="16" spans="2:7" ht="22.5" x14ac:dyDescent="0.2">
@@ -1960,7 +1899,7 @@
         <v>60</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E16" s="13">
         <v>43860</v>
@@ -1980,14 +1919,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:J1401"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.6640625" style="1"/>
     <col min="2" max="2" width="6.5" style="1" bestFit="1" customWidth="1"/>
@@ -6567,18 +6506,18 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E37B00C-9A5C-40C7-9046-353D70841F22}">
-  <dimension ref="B2:C103"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C403"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView topLeftCell="A131" workbookViewId="0">
+      <selection activeCell="F118" sqref="F118"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="12" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="2:3" x14ac:dyDescent="0.2">
@@ -6586,8 +6525,8 @@
         <v>0</v>
       </c>
       <c r="C3">
-        <f>ROUNDDOWN(B3/4,0)+1</f>
-        <v>1</v>
+        <f>ROUNDDOWN(B3/6,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.2">
@@ -6595,8 +6534,8 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C67" si="0">ROUNDDOWN(B4/4,0)+1</f>
-        <v>1</v>
+        <f t="shared" ref="C4:C67" si="0">ROUNDDOWN(B4/6,0)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.2">
@@ -6605,7 +6544,7 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.2">
@@ -6614,7 +6553,7 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:3" x14ac:dyDescent="0.2">
@@ -6623,7 +6562,7 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.2">
@@ -6632,7 +6571,7 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
@@ -6641,7 +6580,7 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.2">
@@ -6650,7 +6589,7 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.2">
@@ -6659,7 +6598,7 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.2">
@@ -6668,7 +6607,7 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.2">
@@ -6677,7 +6616,7 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.2">
@@ -6686,7 +6625,7 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.2">
@@ -6695,7 +6634,7 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.2">
@@ -6704,7 +6643,7 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="2:3" x14ac:dyDescent="0.2">
@@ -6713,7 +6652,7 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="2:3" x14ac:dyDescent="0.2">
@@ -6722,7 +6661,7 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="2:3" x14ac:dyDescent="0.2">
@@ -6731,7 +6670,7 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="2:3" x14ac:dyDescent="0.2">
@@ -6740,7 +6679,7 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="2:3" x14ac:dyDescent="0.2">
@@ -6749,7 +6688,7 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="2:3" x14ac:dyDescent="0.2">
@@ -6758,7 +6697,7 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="23" spans="2:3" x14ac:dyDescent="0.2">
@@ -6767,7 +6706,7 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="24" spans="2:3" x14ac:dyDescent="0.2">
@@ -6776,7 +6715,7 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25" spans="2:3" x14ac:dyDescent="0.2">
@@ -6785,7 +6724,7 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26" spans="2:3" x14ac:dyDescent="0.2">
@@ -6794,7 +6733,7 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="27" spans="2:3" x14ac:dyDescent="0.2">
@@ -6803,7 +6742,7 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="28" spans="2:3" x14ac:dyDescent="0.2">
@@ -6812,7 +6751,7 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="29" spans="2:3" x14ac:dyDescent="0.2">
@@ -6821,7 +6760,7 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="2:3" x14ac:dyDescent="0.2">
@@ -6830,7 +6769,7 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="31" spans="2:3" x14ac:dyDescent="0.2">
@@ -6839,7 +6778,7 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="32" spans="2:3" x14ac:dyDescent="0.2">
@@ -6848,7 +6787,7 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>4</v>
       </c>
     </row>
     <row r="33" spans="2:3" x14ac:dyDescent="0.2">
@@ -6857,7 +6796,7 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="34" spans="2:3" x14ac:dyDescent="0.2">
@@ -6866,7 +6805,7 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:3" x14ac:dyDescent="0.2">
@@ -6875,7 +6814,7 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:3" x14ac:dyDescent="0.2">
@@ -6884,7 +6823,7 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.2">
@@ -6893,7 +6832,7 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.2">
@@ -6902,7 +6841,7 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.2">
@@ -6911,7 +6850,7 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="40" spans="2:3" x14ac:dyDescent="0.2">
@@ -6920,7 +6859,7 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="41" spans="2:3" x14ac:dyDescent="0.2">
@@ -6929,7 +6868,7 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="42" spans="2:3" x14ac:dyDescent="0.2">
@@ -6938,7 +6877,7 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.2">
@@ -6947,7 +6886,7 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="44" spans="2:3" x14ac:dyDescent="0.2">
@@ -6956,7 +6895,7 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="45" spans="2:3" x14ac:dyDescent="0.2">
@@ -6965,7 +6904,7 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="46" spans="2:3" x14ac:dyDescent="0.2">
@@ -6974,7 +6913,7 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="47" spans="2:3" x14ac:dyDescent="0.2">
@@ -6983,7 +6922,7 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="48" spans="2:3" x14ac:dyDescent="0.2">
@@ -6992,7 +6931,7 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="2:3" x14ac:dyDescent="0.2">
@@ -7001,7 +6940,7 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="2:3" x14ac:dyDescent="0.2">
@@ -7010,7 +6949,7 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="2:3" x14ac:dyDescent="0.2">
@@ -7019,7 +6958,7 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="52" spans="2:3" x14ac:dyDescent="0.2">
@@ -7028,7 +6967,7 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="53" spans="2:3" x14ac:dyDescent="0.2">
@@ -7037,7 +6976,7 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="54" spans="2:3" x14ac:dyDescent="0.2">
@@ -7046,7 +6985,7 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="55" spans="2:3" x14ac:dyDescent="0.2">
@@ -7055,7 +6994,7 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="56" spans="2:3" x14ac:dyDescent="0.2">
@@ -7064,7 +7003,7 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>8</v>
       </c>
     </row>
     <row r="57" spans="2:3" x14ac:dyDescent="0.2">
@@ -7073,7 +7012,7 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="58" spans="2:3" x14ac:dyDescent="0.2">
@@ -7082,7 +7021,7 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>9</v>
       </c>
     </row>
     <row r="59" spans="2:3" x14ac:dyDescent="0.2">
@@ -7091,7 +7030,7 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="60" spans="2:3" x14ac:dyDescent="0.2">
@@ -7100,7 +7039,7 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="61" spans="2:3" x14ac:dyDescent="0.2">
@@ -7109,7 +7048,7 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="62" spans="2:3" x14ac:dyDescent="0.2">
@@ -7118,7 +7057,7 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>9</v>
       </c>
     </row>
     <row r="63" spans="2:3" x14ac:dyDescent="0.2">
@@ -7127,7 +7066,7 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="64" spans="2:3" x14ac:dyDescent="0.2">
@@ -7136,7 +7075,7 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="2:3" x14ac:dyDescent="0.2">
@@ -7145,7 +7084,7 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="66" spans="2:3" x14ac:dyDescent="0.2">
@@ -7154,7 +7093,7 @@
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>10</v>
       </c>
     </row>
     <row r="67" spans="2:3" x14ac:dyDescent="0.2">
@@ -7163,7 +7102,7 @@
       </c>
       <c r="C67">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>10</v>
       </c>
     </row>
     <row r="68" spans="2:3" x14ac:dyDescent="0.2">
@@ -7171,8 +7110,8 @@
         <v>65</v>
       </c>
       <c r="C68">
-        <f t="shared" ref="C68:C103" si="1">ROUNDDOWN(B68/4,0)+1</f>
-        <v>17</v>
+        <f t="shared" ref="C68:C131" si="1">ROUNDDOWN(B68/6,0)</f>
+        <v>10</v>
       </c>
     </row>
     <row r="69" spans="2:3" x14ac:dyDescent="0.2">
@@ -7181,7 +7120,7 @@
       </c>
       <c r="C69">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="70" spans="2:3" x14ac:dyDescent="0.2">
@@ -7190,7 +7129,7 @@
       </c>
       <c r="C70">
         <f t="shared" si="1"/>
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="71" spans="2:3" x14ac:dyDescent="0.2">
@@ -7199,7 +7138,7 @@
       </c>
       <c r="C71">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="72" spans="2:3" x14ac:dyDescent="0.2">
@@ -7208,7 +7147,7 @@
       </c>
       <c r="C72">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="73" spans="2:3" x14ac:dyDescent="0.2">
@@ -7217,7 +7156,7 @@
       </c>
       <c r="C73">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="74" spans="2:3" x14ac:dyDescent="0.2">
@@ -7226,7 +7165,7 @@
       </c>
       <c r="C74">
         <f t="shared" si="1"/>
-        <v>18</v>
+        <v>11</v>
       </c>
     </row>
     <row r="75" spans="2:3" x14ac:dyDescent="0.2">
@@ -7235,7 +7174,7 @@
       </c>
       <c r="C75">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="2:3" x14ac:dyDescent="0.2">
@@ -7244,7 +7183,7 @@
       </c>
       <c r="C76">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="2:3" x14ac:dyDescent="0.2">
@@ -7253,7 +7192,7 @@
       </c>
       <c r="C77">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="2:3" x14ac:dyDescent="0.2">
@@ -7262,7 +7201,7 @@
       </c>
       <c r="C78">
         <f t="shared" si="1"/>
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="2:3" x14ac:dyDescent="0.2">
@@ -7271,7 +7210,7 @@
       </c>
       <c r="C79">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="2:3" x14ac:dyDescent="0.2">
@@ -7280,7 +7219,7 @@
       </c>
       <c r="C80">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="2:3" x14ac:dyDescent="0.2">
@@ -7289,7 +7228,7 @@
       </c>
       <c r="C81">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="82" spans="2:3" x14ac:dyDescent="0.2">
@@ -7298,7 +7237,7 @@
       </c>
       <c r="C82">
         <f t="shared" si="1"/>
-        <v>20</v>
+        <v>13</v>
       </c>
     </row>
     <row r="83" spans="2:3" x14ac:dyDescent="0.2">
@@ -7307,7 +7246,7 @@
       </c>
       <c r="C83">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="84" spans="2:3" x14ac:dyDescent="0.2">
@@ -7316,7 +7255,7 @@
       </c>
       <c r="C84">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="85" spans="2:3" x14ac:dyDescent="0.2">
@@ -7325,7 +7264,7 @@
       </c>
       <c r="C85">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="86" spans="2:3" x14ac:dyDescent="0.2">
@@ -7334,7 +7273,7 @@
       </c>
       <c r="C86">
         <f t="shared" si="1"/>
-        <v>21</v>
+        <v>13</v>
       </c>
     </row>
     <row r="87" spans="2:3" x14ac:dyDescent="0.2">
@@ -7343,7 +7282,7 @@
       </c>
       <c r="C87">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="88" spans="2:3" x14ac:dyDescent="0.2">
@@ -7352,7 +7291,7 @@
       </c>
       <c r="C88">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="89" spans="2:3" x14ac:dyDescent="0.2">
@@ -7361,7 +7300,7 @@
       </c>
       <c r="C89">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="90" spans="2:3" x14ac:dyDescent="0.2">
@@ -7370,7 +7309,7 @@
       </c>
       <c r="C90">
         <f t="shared" si="1"/>
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="91" spans="2:3" x14ac:dyDescent="0.2">
@@ -7379,7 +7318,7 @@
       </c>
       <c r="C91">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="92" spans="2:3" x14ac:dyDescent="0.2">
@@ -7388,7 +7327,7 @@
       </c>
       <c r="C92">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="93" spans="2:3" x14ac:dyDescent="0.2">
@@ -7397,7 +7336,7 @@
       </c>
       <c r="C93">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="94" spans="2:3" x14ac:dyDescent="0.2">
@@ -7406,7 +7345,7 @@
       </c>
       <c r="C94">
         <f t="shared" si="1"/>
-        <v>23</v>
+        <v>15</v>
       </c>
     </row>
     <row r="95" spans="2:3" x14ac:dyDescent="0.2">
@@ -7415,7 +7354,7 @@
       </c>
       <c r="C95">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="96" spans="2:3" x14ac:dyDescent="0.2">
@@ -7424,7 +7363,7 @@
       </c>
       <c r="C96">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="97" spans="2:3" x14ac:dyDescent="0.2">
@@ -7433,7 +7372,7 @@
       </c>
       <c r="C97">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="98" spans="2:3" x14ac:dyDescent="0.2">
@@ -7442,7 +7381,7 @@
       </c>
       <c r="C98">
         <f t="shared" si="1"/>
-        <v>24</v>
+        <v>15</v>
       </c>
     </row>
     <row r="99" spans="2:3" x14ac:dyDescent="0.2">
@@ -7451,7 +7390,7 @@
       </c>
       <c r="C99">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="100" spans="2:3" x14ac:dyDescent="0.2">
@@ -7460,7 +7399,7 @@
       </c>
       <c r="C100">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="101" spans="2:3" x14ac:dyDescent="0.2">
@@ -7469,7 +7408,7 @@
       </c>
       <c r="C101">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="102" spans="2:3" x14ac:dyDescent="0.2">
@@ -7478,7 +7417,7 @@
       </c>
       <c r="C102">
         <f t="shared" si="1"/>
-        <v>25</v>
+        <v>16</v>
       </c>
     </row>
     <row r="103" spans="2:3" x14ac:dyDescent="0.2">
@@ -7487,7 +7426,2707 @@
       </c>
       <c r="C103">
         <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B104">
+        <v>101</v>
+      </c>
+      <c r="C104">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B105">
+        <v>102</v>
+      </c>
+      <c r="C105">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B106">
+        <v>103</v>
+      </c>
+      <c r="C106">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B107">
+        <v>104</v>
+      </c>
+      <c r="C107">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B108">
+        <v>105</v>
+      </c>
+      <c r="C108">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B109">
+        <v>106</v>
+      </c>
+      <c r="C109">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B110">
+        <v>107</v>
+      </c>
+      <c r="C110">
+        <f t="shared" si="1"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B111">
+        <v>108</v>
+      </c>
+      <c r="C111">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B112">
+        <v>109</v>
+      </c>
+      <c r="C112">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B113">
+        <v>110</v>
+      </c>
+      <c r="C113">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B114">
+        <v>111</v>
+      </c>
+      <c r="C114">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B115">
+        <v>112</v>
+      </c>
+      <c r="C115">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B116">
+        <v>113</v>
+      </c>
+      <c r="C116">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B117">
+        <v>114</v>
+      </c>
+      <c r="C117">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B118">
+        <v>115</v>
+      </c>
+      <c r="C118">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B119">
+        <v>116</v>
+      </c>
+      <c r="C119">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B120">
+        <v>117</v>
+      </c>
+      <c r="C120">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B121">
+        <v>118</v>
+      </c>
+      <c r="C121">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B122">
+        <v>119</v>
+      </c>
+      <c r="C122">
+        <f t="shared" si="1"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B123">
+        <v>120</v>
+      </c>
+      <c r="C123">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B124">
+        <v>121</v>
+      </c>
+      <c r="C124">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B125">
+        <v>122</v>
+      </c>
+      <c r="C125">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B126">
+        <v>123</v>
+      </c>
+      <c r="C126">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B127">
+        <v>124</v>
+      </c>
+      <c r="C127">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B128">
+        <v>125</v>
+      </c>
+      <c r="C128">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B129">
+        <v>126</v>
+      </c>
+      <c r="C129">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B130">
+        <v>127</v>
+      </c>
+      <c r="C130">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B131">
+        <v>128</v>
+      </c>
+      <c r="C131">
+        <f t="shared" si="1"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B132">
+        <v>129</v>
+      </c>
+      <c r="C132">
+        <f t="shared" ref="C132:C195" si="2">ROUNDDOWN(B132/6,0)</f>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B133">
+        <v>130</v>
+      </c>
+      <c r="C133">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B134">
+        <v>131</v>
+      </c>
+      <c r="C134">
+        <f t="shared" si="2"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B135">
+        <v>132</v>
+      </c>
+      <c r="C135">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B136">
+        <v>133</v>
+      </c>
+      <c r="C136">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B137">
+        <v>134</v>
+      </c>
+      <c r="C137">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B138">
+        <v>135</v>
+      </c>
+      <c r="C138">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B139">
+        <v>136</v>
+      </c>
+      <c r="C139">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B140">
+        <v>137</v>
+      </c>
+      <c r="C140">
+        <f t="shared" si="2"/>
+        <v>22</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B141">
+        <v>138</v>
+      </c>
+      <c r="C141">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B142">
+        <v>139</v>
+      </c>
+      <c r="C142">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B143">
+        <v>140</v>
+      </c>
+      <c r="C143">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B144">
+        <v>141</v>
+      </c>
+      <c r="C144">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B145">
+        <v>142</v>
+      </c>
+      <c r="C145">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B146">
+        <v>143</v>
+      </c>
+      <c r="C146">
+        <f t="shared" si="2"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B147">
+        <v>144</v>
+      </c>
+      <c r="C147">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B148">
+        <v>145</v>
+      </c>
+      <c r="C148">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B149">
+        <v>146</v>
+      </c>
+      <c r="C149">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B150">
+        <v>147</v>
+      </c>
+      <c r="C150">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B151">
+        <v>148</v>
+      </c>
+      <c r="C151">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B152">
+        <v>149</v>
+      </c>
+      <c r="C152">
+        <f t="shared" si="2"/>
+        <v>24</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B153">
+        <v>150</v>
+      </c>
+      <c r="C153">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B154">
+        <v>151</v>
+      </c>
+      <c r="C154">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B155">
+        <v>152</v>
+      </c>
+      <c r="C155">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B156">
+        <v>153</v>
+      </c>
+      <c r="C156">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B157">
+        <v>154</v>
+      </c>
+      <c r="C157">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B158">
+        <v>155</v>
+      </c>
+      <c r="C158">
+        <f t="shared" si="2"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B159">
+        <v>156</v>
+      </c>
+      <c r="C159">
+        <f t="shared" si="2"/>
         <v>26</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B160">
+        <v>157</v>
+      </c>
+      <c r="C160">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B161">
+        <v>158</v>
+      </c>
+      <c r="C161">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B162">
+        <v>159</v>
+      </c>
+      <c r="C162">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B163">
+        <v>160</v>
+      </c>
+      <c r="C163">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B164">
+        <v>161</v>
+      </c>
+      <c r="C164">
+        <f t="shared" si="2"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B165">
+        <v>162</v>
+      </c>
+      <c r="C165">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B166">
+        <v>163</v>
+      </c>
+      <c r="C166">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B167">
+        <v>164</v>
+      </c>
+      <c r="C167">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B168">
+        <v>165</v>
+      </c>
+      <c r="C168">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B169">
+        <v>166</v>
+      </c>
+      <c r="C169">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B170">
+        <v>167</v>
+      </c>
+      <c r="C170">
+        <f t="shared" si="2"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B171">
+        <v>168</v>
+      </c>
+      <c r="C171">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B172">
+        <v>169</v>
+      </c>
+      <c r="C172">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B173">
+        <v>170</v>
+      </c>
+      <c r="C173">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B174">
+        <v>171</v>
+      </c>
+      <c r="C174">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B175">
+        <v>172</v>
+      </c>
+      <c r="C175">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B176">
+        <v>173</v>
+      </c>
+      <c r="C176">
+        <f t="shared" si="2"/>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B177">
+        <v>174</v>
+      </c>
+      <c r="C177">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B178">
+        <v>175</v>
+      </c>
+      <c r="C178">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B179">
+        <v>176</v>
+      </c>
+      <c r="C179">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B180">
+        <v>177</v>
+      </c>
+      <c r="C180">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B181">
+        <v>178</v>
+      </c>
+      <c r="C181">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B182">
+        <v>179</v>
+      </c>
+      <c r="C182">
+        <f t="shared" si="2"/>
+        <v>29</v>
+      </c>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B183">
+        <v>180</v>
+      </c>
+      <c r="C183">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B184">
+        <v>181</v>
+      </c>
+      <c r="C184">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B185">
+        <v>182</v>
+      </c>
+      <c r="C185">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B186">
+        <v>183</v>
+      </c>
+      <c r="C186">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B187">
+        <v>184</v>
+      </c>
+      <c r="C187">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B188">
+        <v>185</v>
+      </c>
+      <c r="C188">
+        <f t="shared" si="2"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B189">
+        <v>186</v>
+      </c>
+      <c r="C189">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B190">
+        <v>187</v>
+      </c>
+      <c r="C190">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B191">
+        <v>188</v>
+      </c>
+      <c r="C191">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B192">
+        <v>189</v>
+      </c>
+      <c r="C192">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B193">
+        <v>190</v>
+      </c>
+      <c r="C193">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B194">
+        <v>191</v>
+      </c>
+      <c r="C194">
+        <f t="shared" si="2"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B195">
+        <v>192</v>
+      </c>
+      <c r="C195">
+        <f t="shared" si="2"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B196">
+        <v>193</v>
+      </c>
+      <c r="C196">
+        <f t="shared" ref="C196:C259" si="3">ROUNDDOWN(B196/6,0)</f>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B197">
+        <v>194</v>
+      </c>
+      <c r="C197">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B198">
+        <v>195</v>
+      </c>
+      <c r="C198">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B199">
+        <v>196</v>
+      </c>
+      <c r="C199">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B200">
+        <v>197</v>
+      </c>
+      <c r="C200">
+        <f t="shared" si="3"/>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B201">
+        <v>198</v>
+      </c>
+      <c r="C201">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B202">
+        <v>199</v>
+      </c>
+      <c r="C202">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B203">
+        <v>200</v>
+      </c>
+      <c r="C203">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B204">
+        <v>201</v>
+      </c>
+      <c r="C204">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B205">
+        <v>202</v>
+      </c>
+      <c r="C205">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B206">
+        <v>203</v>
+      </c>
+      <c r="C206">
+        <f t="shared" si="3"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B207">
+        <v>204</v>
+      </c>
+      <c r="C207">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B208">
+        <v>205</v>
+      </c>
+      <c r="C208">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B209">
+        <v>206</v>
+      </c>
+      <c r="C209">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B210">
+        <v>207</v>
+      </c>
+      <c r="C210">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B211">
+        <v>208</v>
+      </c>
+      <c r="C211">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B212">
+        <v>209</v>
+      </c>
+      <c r="C212">
+        <f t="shared" si="3"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B213">
+        <v>210</v>
+      </c>
+      <c r="C213">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B214">
+        <v>211</v>
+      </c>
+      <c r="C214">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B215">
+        <v>212</v>
+      </c>
+      <c r="C215">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B216">
+        <v>213</v>
+      </c>
+      <c r="C216">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B217">
+        <v>214</v>
+      </c>
+      <c r="C217">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B218">
+        <v>215</v>
+      </c>
+      <c r="C218">
+        <f t="shared" si="3"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B219">
+        <v>216</v>
+      </c>
+      <c r="C219">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B220">
+        <v>217</v>
+      </c>
+      <c r="C220">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B221">
+        <v>218</v>
+      </c>
+      <c r="C221">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B222">
+        <v>219</v>
+      </c>
+      <c r="C222">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B223">
+        <v>220</v>
+      </c>
+      <c r="C223">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B224">
+        <v>221</v>
+      </c>
+      <c r="C224">
+        <f t="shared" si="3"/>
+        <v>36</v>
+      </c>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B225">
+        <v>222</v>
+      </c>
+      <c r="C225">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B226">
+        <v>223</v>
+      </c>
+      <c r="C226">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B227">
+        <v>224</v>
+      </c>
+      <c r="C227">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B228">
+        <v>225</v>
+      </c>
+      <c r="C228">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B229">
+        <v>226</v>
+      </c>
+      <c r="C229">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B230">
+        <v>227</v>
+      </c>
+      <c r="C230">
+        <f t="shared" si="3"/>
+        <v>37</v>
+      </c>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B231">
+        <v>228</v>
+      </c>
+      <c r="C231">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B232">
+        <v>229</v>
+      </c>
+      <c r="C232">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B233">
+        <v>230</v>
+      </c>
+      <c r="C233">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B234">
+        <v>231</v>
+      </c>
+      <c r="C234">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B235">
+        <v>232</v>
+      </c>
+      <c r="C235">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B236">
+        <v>233</v>
+      </c>
+      <c r="C236">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B237">
+        <v>234</v>
+      </c>
+      <c r="C237">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B238">
+        <v>235</v>
+      </c>
+      <c r="C238">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B239">
+        <v>236</v>
+      </c>
+      <c r="C239">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B240">
+        <v>237</v>
+      </c>
+      <c r="C240">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B241">
+        <v>238</v>
+      </c>
+      <c r="C241">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B242">
+        <v>239</v>
+      </c>
+      <c r="C242">
+        <f t="shared" si="3"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B243">
+        <v>240</v>
+      </c>
+      <c r="C243">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B244">
+        <v>241</v>
+      </c>
+      <c r="C244">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B245">
+        <v>242</v>
+      </c>
+      <c r="C245">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B246">
+        <v>243</v>
+      </c>
+      <c r="C246">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B247">
+        <v>244</v>
+      </c>
+      <c r="C247">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B248">
+        <v>245</v>
+      </c>
+      <c r="C248">
+        <f t="shared" si="3"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B249">
+        <v>246</v>
+      </c>
+      <c r="C249">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B250">
+        <v>247</v>
+      </c>
+      <c r="C250">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B251">
+        <v>248</v>
+      </c>
+      <c r="C251">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B252">
+        <v>249</v>
+      </c>
+      <c r="C252">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B253">
+        <v>250</v>
+      </c>
+      <c r="C253">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B254">
+        <v>251</v>
+      </c>
+      <c r="C254">
+        <f t="shared" si="3"/>
+        <v>41</v>
+      </c>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B255">
+        <v>252</v>
+      </c>
+      <c r="C255">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B256">
+        <v>253</v>
+      </c>
+      <c r="C256">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B257">
+        <v>254</v>
+      </c>
+      <c r="C257">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B258">
+        <v>255</v>
+      </c>
+      <c r="C258">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B259">
+        <v>256</v>
+      </c>
+      <c r="C259">
+        <f t="shared" si="3"/>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B260">
+        <v>257</v>
+      </c>
+      <c r="C260">
+        <f t="shared" ref="C260:C323" si="4">ROUNDDOWN(B260/6,0)</f>
+        <v>42</v>
+      </c>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B261">
+        <v>258</v>
+      </c>
+      <c r="C261">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B262">
+        <v>259</v>
+      </c>
+      <c r="C262">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B263">
+        <v>260</v>
+      </c>
+      <c r="C263">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B264">
+        <v>261</v>
+      </c>
+      <c r="C264">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B265">
+        <v>262</v>
+      </c>
+      <c r="C265">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B266">
+        <v>263</v>
+      </c>
+      <c r="C266">
+        <f t="shared" si="4"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B267">
+        <v>264</v>
+      </c>
+      <c r="C267">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B268">
+        <v>265</v>
+      </c>
+      <c r="C268">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B269">
+        <v>266</v>
+      </c>
+      <c r="C269">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B270">
+        <v>267</v>
+      </c>
+      <c r="C270">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B271">
+        <v>268</v>
+      </c>
+      <c r="C271">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B272">
+        <v>269</v>
+      </c>
+      <c r="C272">
+        <f t="shared" si="4"/>
+        <v>44</v>
+      </c>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B273">
+        <v>270</v>
+      </c>
+      <c r="C273">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B274">
+        <v>271</v>
+      </c>
+      <c r="C274">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B275">
+        <v>272</v>
+      </c>
+      <c r="C275">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B276">
+        <v>273</v>
+      </c>
+      <c r="C276">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B277">
+        <v>274</v>
+      </c>
+      <c r="C277">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B278">
+        <v>275</v>
+      </c>
+      <c r="C278">
+        <f t="shared" si="4"/>
+        <v>45</v>
+      </c>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B279">
+        <v>276</v>
+      </c>
+      <c r="C279">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B280">
+        <v>277</v>
+      </c>
+      <c r="C280">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B281">
+        <v>278</v>
+      </c>
+      <c r="C281">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B282">
+        <v>279</v>
+      </c>
+      <c r="C282">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B283">
+        <v>280</v>
+      </c>
+      <c r="C283">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B284">
+        <v>281</v>
+      </c>
+      <c r="C284">
+        <f t="shared" si="4"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B285">
+        <v>282</v>
+      </c>
+      <c r="C285">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B286">
+        <v>283</v>
+      </c>
+      <c r="C286">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B287">
+        <v>284</v>
+      </c>
+      <c r="C287">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B288">
+        <v>285</v>
+      </c>
+      <c r="C288">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B289">
+        <v>286</v>
+      </c>
+      <c r="C289">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B290">
+        <v>287</v>
+      </c>
+      <c r="C290">
+        <f t="shared" si="4"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B291">
+        <v>288</v>
+      </c>
+      <c r="C291">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B292">
+        <v>289</v>
+      </c>
+      <c r="C292">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B293">
+        <v>290</v>
+      </c>
+      <c r="C293">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B294">
+        <v>291</v>
+      </c>
+      <c r="C294">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B295">
+        <v>292</v>
+      </c>
+      <c r="C295">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B296">
+        <v>293</v>
+      </c>
+      <c r="C296">
+        <f t="shared" si="4"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B297">
+        <v>294</v>
+      </c>
+      <c r="C297">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B298">
+        <v>295</v>
+      </c>
+      <c r="C298">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B299">
+        <v>296</v>
+      </c>
+      <c r="C299">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B300">
+        <v>297</v>
+      </c>
+      <c r="C300">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B301">
+        <v>298</v>
+      </c>
+      <c r="C301">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B302">
+        <v>299</v>
+      </c>
+      <c r="C302">
+        <f t="shared" si="4"/>
+        <v>49</v>
+      </c>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B303">
+        <v>300</v>
+      </c>
+      <c r="C303">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B304">
+        <v>301</v>
+      </c>
+      <c r="C304">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B305">
+        <v>302</v>
+      </c>
+      <c r="C305">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B306">
+        <v>303</v>
+      </c>
+      <c r="C306">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B307">
+        <v>304</v>
+      </c>
+      <c r="C307">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B308">
+        <v>305</v>
+      </c>
+      <c r="C308">
+        <f t="shared" si="4"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B309">
+        <v>306</v>
+      </c>
+      <c r="C309">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B310">
+        <v>307</v>
+      </c>
+      <c r="C310">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B311">
+        <v>308</v>
+      </c>
+      <c r="C311">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B312">
+        <v>309</v>
+      </c>
+      <c r="C312">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B313">
+        <v>310</v>
+      </c>
+      <c r="C313">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B314">
+        <v>311</v>
+      </c>
+      <c r="C314">
+        <f t="shared" si="4"/>
+        <v>51</v>
+      </c>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B315">
+        <v>312</v>
+      </c>
+      <c r="C315">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B316">
+        <v>313</v>
+      </c>
+      <c r="C316">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B317">
+        <v>314</v>
+      </c>
+      <c r="C317">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B318">
+        <v>315</v>
+      </c>
+      <c r="C318">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B319">
+        <v>316</v>
+      </c>
+      <c r="C319">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B320">
+        <v>317</v>
+      </c>
+      <c r="C320">
+        <f t="shared" si="4"/>
+        <v>52</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B321">
+        <v>318</v>
+      </c>
+      <c r="C321">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B322">
+        <v>319</v>
+      </c>
+      <c r="C322">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B323">
+        <v>320</v>
+      </c>
+      <c r="C323">
+        <f t="shared" si="4"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B324">
+        <v>321</v>
+      </c>
+      <c r="C324">
+        <f t="shared" ref="C324:C387" si="5">ROUNDDOWN(B324/6,0)</f>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B325">
+        <v>322</v>
+      </c>
+      <c r="C325">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B326">
+        <v>323</v>
+      </c>
+      <c r="C326">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B327">
+        <v>324</v>
+      </c>
+      <c r="C327">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B328">
+        <v>325</v>
+      </c>
+      <c r="C328">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B329">
+        <v>326</v>
+      </c>
+      <c r="C329">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B330">
+        <v>327</v>
+      </c>
+      <c r="C330">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B331">
+        <v>328</v>
+      </c>
+      <c r="C331">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B332">
+        <v>329</v>
+      </c>
+      <c r="C332">
+        <f t="shared" si="5"/>
+        <v>54</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B333">
+        <v>330</v>
+      </c>
+      <c r="C333">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B334">
+        <v>331</v>
+      </c>
+      <c r="C334">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B335">
+        <v>332</v>
+      </c>
+      <c r="C335">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B336">
+        <v>333</v>
+      </c>
+      <c r="C336">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B337">
+        <v>334</v>
+      </c>
+      <c r="C337">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B338">
+        <v>335</v>
+      </c>
+      <c r="C338">
+        <f t="shared" si="5"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B339">
+        <v>336</v>
+      </c>
+      <c r="C339">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B340">
+        <v>337</v>
+      </c>
+      <c r="C340">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B341">
+        <v>338</v>
+      </c>
+      <c r="C341">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B342">
+        <v>339</v>
+      </c>
+      <c r="C342">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B343">
+        <v>340</v>
+      </c>
+      <c r="C343">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B344">
+        <v>341</v>
+      </c>
+      <c r="C344">
+        <f t="shared" si="5"/>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B345">
+        <v>342</v>
+      </c>
+      <c r="C345">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B346">
+        <v>343</v>
+      </c>
+      <c r="C346">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B347">
+        <v>344</v>
+      </c>
+      <c r="C347">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B348">
+        <v>345</v>
+      </c>
+      <c r="C348">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B349">
+        <v>346</v>
+      </c>
+      <c r="C349">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B350">
+        <v>347</v>
+      </c>
+      <c r="C350">
+        <f t="shared" si="5"/>
+        <v>57</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B351">
+        <v>348</v>
+      </c>
+      <c r="C351">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B352">
+        <v>349</v>
+      </c>
+      <c r="C352">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B353">
+        <v>350</v>
+      </c>
+      <c r="C353">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B354">
+        <v>351</v>
+      </c>
+      <c r="C354">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B355">
+        <v>352</v>
+      </c>
+      <c r="C355">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B356">
+        <v>353</v>
+      </c>
+      <c r="C356">
+        <f t="shared" si="5"/>
+        <v>58</v>
+      </c>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B357">
+        <v>354</v>
+      </c>
+      <c r="C357">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B358">
+        <v>355</v>
+      </c>
+      <c r="C358">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B359">
+        <v>356</v>
+      </c>
+      <c r="C359">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B360">
+        <v>357</v>
+      </c>
+      <c r="C360">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B361">
+        <v>358</v>
+      </c>
+      <c r="C361">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B362">
+        <v>359</v>
+      </c>
+      <c r="C362">
+        <f t="shared" si="5"/>
+        <v>59</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B363">
+        <v>360</v>
+      </c>
+      <c r="C363">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B364">
+        <v>361</v>
+      </c>
+      <c r="C364">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B365">
+        <v>362</v>
+      </c>
+      <c r="C365">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B366">
+        <v>363</v>
+      </c>
+      <c r="C366">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B367">
+        <v>364</v>
+      </c>
+      <c r="C367">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B368">
+        <v>365</v>
+      </c>
+      <c r="C368">
+        <f t="shared" si="5"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B369">
+        <v>366</v>
+      </c>
+      <c r="C369">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B370">
+        <v>367</v>
+      </c>
+      <c r="C370">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B371">
+        <v>368</v>
+      </c>
+      <c r="C371">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B372">
+        <v>369</v>
+      </c>
+      <c r="C372">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B373">
+        <v>370</v>
+      </c>
+      <c r="C373">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B374">
+        <v>371</v>
+      </c>
+      <c r="C374">
+        <f t="shared" si="5"/>
+        <v>61</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B375">
+        <v>372</v>
+      </c>
+      <c r="C375">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B376">
+        <v>373</v>
+      </c>
+      <c r="C376">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B377">
+        <v>374</v>
+      </c>
+      <c r="C377">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B378">
+        <v>375</v>
+      </c>
+      <c r="C378">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B379">
+        <v>376</v>
+      </c>
+      <c r="C379">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B380">
+        <v>377</v>
+      </c>
+      <c r="C380">
+        <f t="shared" si="5"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B381">
+        <v>378</v>
+      </c>
+      <c r="C381">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B382">
+        <v>379</v>
+      </c>
+      <c r="C382">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B383">
+        <v>380</v>
+      </c>
+      <c r="C383">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B384">
+        <v>381</v>
+      </c>
+      <c r="C384">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B385">
+        <v>382</v>
+      </c>
+      <c r="C385">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B386">
+        <v>383</v>
+      </c>
+      <c r="C386">
+        <f t="shared" si="5"/>
+        <v>63</v>
+      </c>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B387">
+        <v>384</v>
+      </c>
+      <c r="C387">
+        <f t="shared" si="5"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B388">
+        <v>385</v>
+      </c>
+      <c r="C388">
+        <f t="shared" ref="C388:C403" si="6">ROUNDDOWN(B388/6,0)</f>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B389">
+        <v>386</v>
+      </c>
+      <c r="C389">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B390">
+        <v>387</v>
+      </c>
+      <c r="C390">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B391">
+        <v>388</v>
+      </c>
+      <c r="C391">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B392">
+        <v>389</v>
+      </c>
+      <c r="C392">
+        <f t="shared" si="6"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B393">
+        <v>390</v>
+      </c>
+      <c r="C393">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B394">
+        <v>391</v>
+      </c>
+      <c r="C394">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B395">
+        <v>392</v>
+      </c>
+      <c r="C395">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B396">
+        <v>393</v>
+      </c>
+      <c r="C396">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B397">
+        <v>394</v>
+      </c>
+      <c r="C397">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B398">
+        <v>395</v>
+      </c>
+      <c r="C398">
+        <f t="shared" si="6"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B399">
+        <v>396</v>
+      </c>
+      <c r="C399">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B400">
+        <v>397</v>
+      </c>
+      <c r="C400">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B401">
+        <v>398</v>
+      </c>
+      <c r="C401">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B402">
+        <v>399</v>
+      </c>
+      <c r="C402">
+        <f t="shared" si="6"/>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.2">
+      <c r="B403">
+        <v>400</v>
+      </c>
+      <c r="C403">
+        <f t="shared" si="6"/>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -7496,14 +10135,14 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="B2:K37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H37"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9:P28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="2.6640625" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25" bestFit="1" customWidth="1"/>
@@ -7515,211 +10154,138 @@
     <col min="11" max="11" width="8.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E2" s="20"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C3" t="s">
-        <v>88</v>
-      </c>
-      <c r="E3" s="21" t="s">
-        <v>129</v>
-      </c>
-      <c r="I3" t="s">
-        <v>95</v>
-      </c>
-      <c r="K3" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+        <v>86</v>
+      </c>
+      <c r="E3" s="21"/>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
-      <c r="E4" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="I4" t="s">
-        <v>102</v>
-      </c>
-      <c r="K4" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="E5" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="I5" t="s">
-        <v>101</v>
-      </c>
-      <c r="K5" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E5" s="20"/>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C6">
         <v>3</v>
       </c>
-      <c r="E6" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="I6" t="s">
-        <v>97</v>
-      </c>
-      <c r="K6" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="E7" s="20"/>
-      <c r="I7" t="s">
-        <v>99</v>
-      </c>
-      <c r="K7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E8" s="20"/>
-      <c r="I8" t="s">
-        <v>98</v>
-      </c>
-      <c r="K8" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>85</v>
+      </c>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>80</v>
+      </c>
+      <c r="C10" t="s">
         <v>87</v>
       </c>
-      <c r="E9" s="20"/>
-      <c r="I9" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B10" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" t="s">
-        <v>89</v>
-      </c>
       <c r="E10" s="20"/>
-      <c r="I10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C11">
         <v>2</v>
       </c>
       <c r="E11" s="20"/>
-      <c r="I11" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C12">
         <v>4</v>
       </c>
-      <c r="I12" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="C13">
         <v>6</v>
       </c>
-      <c r="I13" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
-      <c r="I14" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="I15" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.2">
       <c r="D16" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E16" s="22"/>
       <c r="F16" s="22"/>
       <c r="G16" s="22"/>
       <c r="H16" s="19"/>
-      <c r="I16" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
+        <v>88</v>
+      </c>
+      <c r="C17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="G17" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C17" t="s">
-        <v>91</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="I17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B18">
         <v>1</v>
       </c>
@@ -7743,11 +10309,8 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>12</v>
       </c>
-      <c r="I18" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B19">
         <v>2</v>
       </c>
@@ -7771,11 +10334,8 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>15</v>
       </c>
-      <c r="I19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B20">
         <v>3</v>
       </c>
@@ -7799,11 +10359,8 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>18</v>
       </c>
-      <c r="I20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B21">
         <v>4</v>
       </c>
@@ -7827,11 +10384,8 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>21</v>
       </c>
-      <c r="I21" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B22">
         <v>5</v>
       </c>
@@ -7855,11 +10409,8 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>24</v>
       </c>
-      <c r="I22" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B23">
         <v>6</v>
       </c>
@@ -7883,11 +10434,8 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>27</v>
       </c>
-      <c r="I23" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B24">
         <v>7</v>
       </c>
@@ -7911,11 +10459,8 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>30</v>
       </c>
-      <c r="I24" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B25">
         <v>8</v>
       </c>
@@ -7939,11 +10484,8 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>33</v>
       </c>
-      <c r="I25" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B26">
         <v>9</v>
       </c>
@@ -7967,11 +10509,8 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>36</v>
       </c>
-      <c r="I26" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B27">
         <v>10</v>
       </c>
@@ -7995,11 +10534,8 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>39</v>
       </c>
-      <c r="I27" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B28">
         <v>11</v>
       </c>
@@ -8023,11 +10559,8 @@
         <f>ROUNDUP(Tableau7[[#This Row],[Multiplicateur]]*VLOOKUP("Legendary",Tableau6[#All],2,FALSE),0)</f>
         <v>42</v>
       </c>
-      <c r="I28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B29">
         <v>12</v>
       </c>
@@ -8052,7 +10585,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B30">
         <v>13</v>
       </c>
@@ -8077,7 +10610,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B31">
         <v>14</v>
       </c>
@@ -8102,7 +10635,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:7" x14ac:dyDescent="0.2">
       <c r="B32">
         <v>15</v>
       </c>
@@ -8267,21 +10800,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D561B29C098A574288915AA7FDCE85A0" ma:contentTypeVersion="10" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="250102bec12d8b142e58c1d00b1ffd8a">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="ee89e3b8-fbf6-4f90-a67d-b465f66f191f" xmlns:ns4="ab1f00cb-b678-48f7-aded-930f239c9527" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="440e872eed80589242d868d6c2b803d1" ns3:_="" ns4:_="">
     <xsd:import namespace="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
@@ -8484,32 +11002,22 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2E5DF0EC-50CC-41C3-B7FF-8028A891B995}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8526,4 +11034,29 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{22C65796-EE89-47E5-8B82-54AF3C286703}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4F126640-AE96-4D80-A3D5-B99E5C40D2BE}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="ee89e3b8-fbf6-4f90-a67d-b465f66f191f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="ab1f00cb-b678-48f7-aded-930f239c9527"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>